--- a/docs/Excel Sheet/Drennen.xlsx
+++ b/docs/Excel Sheet/Drennen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Submerge\docs\Excel Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59812EF9-4258-43ED-86BF-8ADB0204E6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7387A2E8-2D98-4A7E-8AD5-FB47B0419727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-7752" windowWidth="17496" windowHeight="30936" activeTab="3" xr2:uid="{6E61877A-0A69-45F3-A9A4-B6B7A521CA23}"/>
+    <workbookView xWindow="30612" yWindow="-7752" windowWidth="17496" windowHeight="30936" xr2:uid="{6E61877A-0A69-45F3-A9A4-B6B7A521CA23}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW POOL" sheetId="6" r:id="rId1"/>
@@ -6089,6 +6089,27 @@
     <xf numFmtId="165" fontId="44" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6098,9 +6119,84 @@
     <xf numFmtId="0" fontId="46" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6110,15 +6206,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6128,95 +6218,146 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="3" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="3" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6224,28 +6365,73 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="3" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="3" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6260,197 +6446,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="3" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="3" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="3" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="3" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="3" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7305,7 +7305,7 @@
   </sheetPr>
   <dimension ref="A1:N191"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I185" sqref="I185"/>
     </sheetView>
   </sheetViews>
@@ -7320,39 +7320,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24" thickBot="1">
-      <c r="A1" s="522" t="s">
+      <c r="A1" s="504" t="s">
         <v>1136</v>
       </c>
-      <c r="B1" s="523"/>
-      <c r="C1" s="523"/>
-      <c r="D1" s="523"/>
-      <c r="E1" s="523"/>
-      <c r="F1" s="523"/>
-      <c r="G1" s="523"/>
-      <c r="H1" s="524"/>
+      <c r="B1" s="505"/>
+      <c r="C1" s="505"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
+      <c r="F1" s="505"/>
+      <c r="G1" s="505"/>
+      <c r="H1" s="506"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1"/>
     <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="A3" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="503" t="s">
+      <c r="B3" s="511" t="s">
         <v>1143</v>
       </c>
-      <c r="C3" s="504"/>
-      <c r="D3" s="504"/>
-      <c r="E3" s="505"/>
+      <c r="C3" s="512"/>
+      <c r="D3" s="512"/>
+      <c r="E3" s="513"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1">
       <c r="A4" s="165" t="s">
         <v>670</v>
       </c>
-      <c r="B4" s="503" t="s">
+      <c r="B4" s="511" t="s">
         <v>1144</v>
       </c>
-      <c r="C4" s="504"/>
-      <c r="D4" s="504"/>
-      <c r="E4" s="505"/>
+      <c r="C4" s="512"/>
+      <c r="D4" s="512"/>
+      <c r="E4" s="513"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
@@ -7653,12 +7653,12 @@
       <c r="B29" s="174"/>
     </row>
     <row r="30" spans="1:8" ht="18" thickBot="1">
-      <c r="A30" s="490" t="s">
+      <c r="A30" s="497" t="s">
         <v>475</v>
       </c>
-      <c r="B30" s="491"/>
-      <c r="C30" s="491"/>
-      <c r="D30" s="492"/>
+      <c r="B30" s="498"/>
+      <c r="C30" s="498"/>
+      <c r="D30" s="499"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1">
       <c r="B31" s="4" t="s">
@@ -7679,13 +7679,13 @@
       <c r="C32" s="113">
         <v>0</v>
       </c>
-      <c r="D32" s="506" t="s">
+      <c r="D32" s="514" t="s">
         <v>821</v>
       </c>
-      <c r="E32" s="507"/>
-      <c r="F32" s="507"/>
-      <c r="G32" s="507"/>
-      <c r="H32" s="508"/>
+      <c r="E32" s="515"/>
+      <c r="F32" s="515"/>
+      <c r="G32" s="515"/>
+      <c r="H32" s="516"/>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1">
       <c r="A33" s="99" t="s">
@@ -7697,11 +7697,11 @@
       <c r="C33" s="113">
         <v>0</v>
       </c>
-      <c r="D33" s="509"/>
-      <c r="E33" s="510"/>
-      <c r="F33" s="510"/>
-      <c r="G33" s="510"/>
-      <c r="H33" s="511"/>
+      <c r="D33" s="517"/>
+      <c r="E33" s="518"/>
+      <c r="F33" s="518"/>
+      <c r="G33" s="518"/>
+      <c r="H33" s="519"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1">
       <c r="A34" s="99" t="s">
@@ -7713,11 +7713,11 @@
       <c r="C34" s="113">
         <v>0</v>
       </c>
-      <c r="D34" s="509"/>
-      <c r="E34" s="510"/>
-      <c r="F34" s="510"/>
-      <c r="G34" s="510"/>
-      <c r="H34" s="511"/>
+      <c r="D34" s="517"/>
+      <c r="E34" s="518"/>
+      <c r="F34" s="518"/>
+      <c r="G34" s="518"/>
+      <c r="H34" s="519"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1">
       <c r="A35" s="99" t="s">
@@ -7729,11 +7729,11 @@
       <c r="C35" s="113">
         <v>0</v>
       </c>
-      <c r="D35" s="509"/>
-      <c r="E35" s="510"/>
-      <c r="F35" s="510"/>
-      <c r="G35" s="510"/>
-      <c r="H35" s="511"/>
+      <c r="D35" s="517"/>
+      <c r="E35" s="518"/>
+      <c r="F35" s="518"/>
+      <c r="G35" s="518"/>
+      <c r="H35" s="519"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1">
       <c r="A36" s="99" t="s">
@@ -7745,11 +7745,11 @@
       <c r="C36" s="113">
         <v>0</v>
       </c>
-      <c r="D36" s="509"/>
-      <c r="E36" s="510"/>
-      <c r="F36" s="510"/>
-      <c r="G36" s="510"/>
-      <c r="H36" s="511"/>
+      <c r="D36" s="517"/>
+      <c r="E36" s="518"/>
+      <c r="F36" s="518"/>
+      <c r="G36" s="518"/>
+      <c r="H36" s="519"/>
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1">
       <c r="A37" s="170" t="s">
@@ -7761,11 +7761,11 @@
       <c r="C37" s="113">
         <v>0</v>
       </c>
-      <c r="D37" s="512"/>
-      <c r="E37" s="513"/>
-      <c r="F37" s="513"/>
-      <c r="G37" s="513"/>
-      <c r="H37" s="514"/>
+      <c r="D37" s="520"/>
+      <c r="E37" s="521"/>
+      <c r="F37" s="521"/>
+      <c r="G37" s="521"/>
+      <c r="H37" s="522"/>
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1">
       <c r="A38" s="99" t="s">
@@ -7799,14 +7799,14 @@
       <c r="C40" s="113">
         <v>0</v>
       </c>
-      <c r="D40" s="503" t="str">
+      <c r="D40" s="511" t="str">
         <f>D32</f>
         <v>( 1=Tile / 2=Panel Ledge / 3=Stacked Stone)</v>
       </c>
-      <c r="E40" s="504"/>
-      <c r="F40" s="504"/>
-      <c r="G40" s="504"/>
-      <c r="H40" s="505"/>
+      <c r="E40" s="512"/>
+      <c r="F40" s="512"/>
+      <c r="G40" s="512"/>
+      <c r="H40" s="513"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1">
       <c r="A41" s="166" t="s">
@@ -7937,12 +7937,12 @@
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1"/>
     <row r="55" spans="1:4" ht="18" thickBot="1">
-      <c r="A55" s="490" t="s">
+      <c r="A55" s="497" t="s">
         <v>494</v>
       </c>
-      <c r="B55" s="491"/>
-      <c r="C55" s="491"/>
-      <c r="D55" s="492"/>
+      <c r="B55" s="498"/>
+      <c r="C55" s="498"/>
+      <c r="D55" s="499"/>
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1"/>
     <row r="57" spans="1:4" ht="15" thickBot="1">
@@ -8124,12 +8124,12 @@
     </row>
     <row r="74" spans="1:4" ht="15" thickBot="1"/>
     <row r="75" spans="1:4" ht="18" thickBot="1">
-      <c r="A75" s="490" t="s">
+      <c r="A75" s="497" t="s">
         <v>785</v>
       </c>
-      <c r="B75" s="491"/>
-      <c r="C75" s="491"/>
-      <c r="D75" s="492"/>
+      <c r="B75" s="498"/>
+      <c r="C75" s="498"/>
+      <c r="D75" s="499"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A76" s="163"/>
@@ -8295,14 +8295,14 @@
       <c r="C93" t="s">
         <v>592</v>
       </c>
-      <c r="E93" s="493" t="str">
+      <c r="E93" s="523" t="str">
         <f>'TILE COPING'!F32</f>
         <v>Silver, Silver Vogue, River Silver, Bianco Dolomite, Dianna Royal, Skyline, Alaska Silver, Turkish Carrea</v>
       </c>
-      <c r="F93" s="493"/>
-      <c r="G93" s="493"/>
-      <c r="H93" s="493"/>
-      <c r="I93" s="493"/>
+      <c r="F93" s="523"/>
+      <c r="G93" s="523"/>
+      <c r="H93" s="523"/>
+      <c r="I93" s="523"/>
     </row>
     <row r="94" spans="1:10" ht="15.6" customHeight="1" thickBot="1">
       <c r="A94" s="99" t="s">
@@ -8314,15 +8314,15 @@
       <c r="C94" t="s">
         <v>592</v>
       </c>
-      <c r="E94" s="493" t="str">
+      <c r="E94" s="523" t="str">
         <f>'TILE COPING'!F33</f>
         <v>Silver, Silver Vogue, River Silver, Bianco Dolomite, Dianna Royal, Skyline, Alaska Silver, Turkish Carrea</v>
       </c>
-      <c r="F94" s="493"/>
-      <c r="G94" s="493"/>
-      <c r="H94" s="493"/>
-      <c r="I94" s="493"/>
-      <c r="J94" s="493"/>
+      <c r="F94" s="523"/>
+      <c r="G94" s="523"/>
+      <c r="H94" s="523"/>
+      <c r="I94" s="523"/>
+      <c r="J94" s="523"/>
     </row>
     <row r="95" spans="1:10" ht="15" thickBot="1">
       <c r="B95" s="152"/>
@@ -8379,12 +8379,12 @@
       <c r="B101" s="152"/>
     </row>
     <row r="102" spans="1:4" ht="18" thickBot="1">
-      <c r="A102" s="490" t="s">
+      <c r="A102" s="497" t="s">
         <v>841</v>
       </c>
-      <c r="B102" s="491"/>
-      <c r="C102" s="491"/>
-      <c r="D102" s="492"/>
+      <c r="B102" s="498"/>
+      <c r="C102" s="498"/>
+      <c r="D102" s="499"/>
     </row>
     <row r="103" spans="1:4" ht="15" thickBot="1">
       <c r="B103" s="152"/>
@@ -8437,23 +8437,23 @@
       <c r="B108" s="152"/>
     </row>
     <row r="109" spans="1:4" ht="18" thickBot="1">
-      <c r="A109" s="490" t="s">
+      <c r="A109" s="497" t="s">
         <v>686</v>
       </c>
-      <c r="B109" s="491"/>
-      <c r="C109" s="491"/>
-      <c r="D109" s="492"/>
+      <c r="B109" s="498"/>
+      <c r="C109" s="498"/>
+      <c r="D109" s="499"/>
     </row>
     <row r="110" spans="1:4" ht="15" thickBot="1">
       <c r="B110" s="152"/>
     </row>
     <row r="111" spans="1:4" ht="18" thickBot="1">
-      <c r="A111" s="490" t="s">
+      <c r="A111" s="497" t="s">
         <v>689</v>
       </c>
-      <c r="B111" s="491"/>
-      <c r="C111" s="491"/>
-      <c r="D111" s="492"/>
+      <c r="B111" s="498"/>
+      <c r="C111" s="498"/>
+      <c r="D111" s="499"/>
     </row>
     <row r="112" spans="1:4" ht="15" thickBot="1">
       <c r="B112" s="152"/>
@@ -8465,11 +8465,11 @@
       <c r="B113" s="194">
         <v>1</v>
       </c>
-      <c r="C113" s="497">
+      <c r="C113" s="493">
         <f>VLOOKUP(A113,EQUIP!M15:T17,8,FALSE)</f>
         <v>570</v>
       </c>
-      <c r="D113" s="499"/>
+      <c r="D113" s="500"/>
     </row>
     <row r="114" spans="1:11" ht="15" thickBot="1">
       <c r="A114" s="212" t="s">
@@ -8479,11 +8479,11 @@
         <f>IF(C114&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C114" s="497">
+      <c r="C114" s="493">
         <f>VLOOKUP(A114,EQUIP!M14:S19,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D114" s="499"/>
+      <c r="D114" s="500"/>
     </row>
     <row r="115" spans="1:11" ht="15" thickBot="1">
       <c r="A115" s="212" t="s">
@@ -8493,11 +8493,11 @@
         <f>IF(C115&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C115" s="497">
+      <c r="C115" s="493">
         <f>VLOOKUP(A115,EQUIP!M14:S19,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D115" s="499"/>
+      <c r="D115" s="500"/>
     </row>
     <row r="116" spans="1:11" ht="15" thickBot="1">
       <c r="A116" s="117"/>
@@ -8510,11 +8510,11 @@
       <c r="B117" s="194">
         <v>1</v>
       </c>
-      <c r="C117" s="497">
+      <c r="C117" s="493">
         <f>VLOOKUP(A117,EQUIP!M23:O28,3,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="D117" s="499"/>
+      <c r="D117" s="500"/>
     </row>
     <row r="118" spans="1:11" ht="15" thickBot="1">
       <c r="A118" s="117"/>
@@ -8527,11 +8527,11 @@
       <c r="B119" s="194">
         <v>0</v>
       </c>
-      <c r="C119" s="516">
+      <c r="C119" s="492">
         <f>VLOOKUP(A119,EQUIP!M31:S33,7,FALSE)</f>
         <v>2000</v>
       </c>
-      <c r="D119" s="497"/>
+      <c r="D119" s="493"/>
     </row>
     <row r="120" spans="1:11" ht="15" thickBot="1">
       <c r="A120" s="117"/>
@@ -8546,18 +8546,18 @@
       <c r="B121" s="118">
         <v>1</v>
       </c>
-      <c r="C121" s="516">
+      <c r="C121" s="492">
         <f>VLOOKUP(A121,EQUIP!M36:S39,7,FALSE)</f>
         <v>4710</v>
       </c>
-      <c r="D121" s="497"/>
-      <c r="E121" s="494" t="str">
+      <c r="D121" s="493"/>
+      <c r="E121" s="526" t="str">
         <f>IF(A121="Jandy 260K BTU - JXI Heater", "CANNOT BE USED TO HEAT A SPA","")</f>
         <v/>
       </c>
-      <c r="F121" s="495"/>
-      <c r="G121" s="495"/>
-      <c r="H121" s="495"/>
+      <c r="F121" s="527"/>
+      <c r="G121" s="527"/>
+      <c r="H121" s="527"/>
     </row>
     <row r="122" spans="1:11" ht="16.2" thickBot="1">
       <c r="A122" s="432" t="s">
@@ -8566,21 +8566,21 @@
       <c r="B122" s="482">
         <v>0</v>
       </c>
-      <c r="C122" s="496">
+      <c r="C122" s="528">
         <f>B122*EQUIP!S39</f>
         <v>0</v>
       </c>
-      <c r="D122" s="497"/>
-      <c r="E122" s="502" t="str">
+      <c r="D122" s="493"/>
+      <c r="E122" s="532" t="str">
         <f>IF(B14&gt;0,"PROJECT HAS A SPA - SELECT YOUR HEATER","")</f>
         <v>PROJECT HAS A SPA - SELECT YOUR HEATER</v>
       </c>
-      <c r="F122" s="502"/>
-      <c r="G122" s="502"/>
-      <c r="H122" s="502"/>
-      <c r="I122" s="502"/>
-      <c r="J122" s="502"/>
-      <c r="K122" s="502"/>
+      <c r="F122" s="532"/>
+      <c r="G122" s="532"/>
+      <c r="H122" s="532"/>
+      <c r="I122" s="532"/>
+      <c r="J122" s="532"/>
+      <c r="K122" s="532"/>
     </row>
     <row r="123" spans="1:11" ht="16.2" thickBot="1">
       <c r="A123" s="117"/>
@@ -8594,11 +8594,11 @@
       <c r="B124" s="359">
         <v>2</v>
       </c>
-      <c r="C124" s="497" t="str">
+      <c r="C124" s="493" t="str">
         <f>IF(B124=2,"INCLUDED",IF(B124=1,-EQUIP!S121,((B124-2)*EQUIP!S45)))</f>
         <v>INCLUDED</v>
       </c>
-      <c r="D124" s="499"/>
+      <c r="D124" s="500"/>
     </row>
     <row r="125" spans="1:11" ht="16.2" thickBot="1">
       <c r="A125" s="212" t="s">
@@ -8608,21 +8608,21 @@
         <f>EXC!C27</f>
         <v>1</v>
       </c>
-      <c r="C125" s="500">
+      <c r="C125" s="530">
         <f>B125*EQUIP!S43</f>
         <v>755</v>
       </c>
-      <c r="D125" s="501"/>
-      <c r="E125" s="502" t="str">
+      <c r="D125" s="531"/>
+      <c r="E125" s="532" t="str">
         <f>IF(B14&gt;0,"PROJECT HAS A SPA - ADD SPA LIGHT","")</f>
         <v>PROJECT HAS A SPA - ADD SPA LIGHT</v>
       </c>
-      <c r="F125" s="502"/>
-      <c r="G125" s="502"/>
-      <c r="H125" s="502"/>
-      <c r="I125" s="502"/>
-      <c r="J125" s="502"/>
-      <c r="K125" s="502"/>
+      <c r="F125" s="532"/>
+      <c r="G125" s="532"/>
+      <c r="H125" s="532"/>
+      <c r="I125" s="532"/>
+      <c r="J125" s="532"/>
+      <c r="K125" s="532"/>
     </row>
     <row r="126" spans="1:11" ht="15" thickBot="1">
       <c r="B126" s="152"/>
@@ -8635,11 +8635,11 @@
         <f>IF(C127&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C127" s="497">
+      <c r="C127" s="493">
         <f>VLOOKUP(A127,EQUIP!M49:S57,7,FALSE)+(H127*EQUIP!S58)</f>
         <v>980</v>
       </c>
-      <c r="D127" s="499"/>
+      <c r="D127" s="500"/>
       <c r="E127" s="226">
         <f>IF(C127=1280,1,0)</f>
         <v>0</v>
@@ -8665,11 +8665,11 @@
         <f>IF(C128&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C128" s="497">
+      <c r="C128" s="493">
         <f>VLOOKUP(A128,EQUIP!M49:S57,7,FALSE)+(H128*EQUIP!S58)</f>
         <v>0</v>
       </c>
-      <c r="D128" s="499"/>
+      <c r="D128" s="500"/>
       <c r="E128" s="226">
         <f>IF(C128=1280,1,0)</f>
         <v>0</v>
@@ -8695,11 +8695,11 @@
         <f>IF(C129&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C129" s="497">
+      <c r="C129" s="493">
         <f>VLOOKUP(A129,EQUIP!M49:S57,7,FALSE)+(H129*EQUIP!S58)</f>
         <v>0</v>
       </c>
-      <c r="D129" s="499"/>
+      <c r="D129" s="500"/>
       <c r="E129" s="226">
         <f>IF(C129=1280,1,0)</f>
         <v>0</v>
@@ -8730,21 +8730,21 @@
       <c r="B131" s="118">
         <v>1</v>
       </c>
-      <c r="C131" s="515">
+      <c r="C131" s="494">
         <f>VLOOKUP(A131,EQUIP!M63:S72,7,FALSE)</f>
         <v>4033.3333333333335</v>
       </c>
-      <c r="D131" s="497"/>
-      <c r="E131" s="502" t="str">
+      <c r="D131" s="493"/>
+      <c r="E131" s="532" t="str">
         <f>IF(B14&gt;0,"PROJECT HAS A SPA - SELECT AUTOMATION","")</f>
         <v>PROJECT HAS A SPA - SELECT AUTOMATION</v>
       </c>
-      <c r="F131" s="502"/>
-      <c r="G131" s="502"/>
-      <c r="H131" s="502"/>
-      <c r="I131" s="502"/>
-      <c r="J131" s="502"/>
-      <c r="K131" s="502"/>
+      <c r="F131" s="532"/>
+      <c r="G131" s="532"/>
+      <c r="H131" s="532"/>
+      <c r="I131" s="532"/>
+      <c r="J131" s="532"/>
+      <c r="K131" s="532"/>
     </row>
     <row r="132" spans="1:11" ht="15" thickBot="1">
       <c r="B132" s="152"/>
@@ -8757,11 +8757,11 @@
         <f>IF(A133=EQUIP!M105,0,1)</f>
         <v>0</v>
       </c>
-      <c r="C133" s="516">
+      <c r="C133" s="492">
         <f>VLOOKUP(A133,EQUIP!M105:S107,7,FALSE)+(ELEC!E15)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="497"/>
+      <c r="D133" s="493"/>
     </row>
     <row r="134" spans="1:11" ht="15" thickBot="1">
       <c r="A134" s="117" t="s">
@@ -8770,21 +8770,21 @@
       <c r="B134" s="194">
         <v>0</v>
       </c>
-      <c r="C134" s="517" t="s">
+      <c r="C134" s="524" t="s">
         <v>468</v>
       </c>
-      <c r="D134" s="518"/>
+      <c r="D134" s="525"/>
     </row>
     <row r="135" spans="1:11" ht="15" thickBot="1">
       <c r="B135" s="152"/>
     </row>
     <row r="136" spans="1:11" ht="18" thickBot="1">
-      <c r="A136" s="490" t="s">
+      <c r="A136" s="497" t="s">
         <v>703</v>
       </c>
-      <c r="B136" s="491"/>
-      <c r="C136" s="491"/>
-      <c r="D136" s="492"/>
+      <c r="B136" s="498"/>
+      <c r="C136" s="498"/>
+      <c r="D136" s="499"/>
     </row>
     <row r="137" spans="1:11" ht="15" thickBot="1">
       <c r="B137" s="152"/>
@@ -8796,11 +8796,11 @@
       <c r="B138" s="194">
         <v>0</v>
       </c>
-      <c r="C138" s="499">
+      <c r="C138" s="500">
         <f>EQUIP!S128</f>
         <v>0</v>
       </c>
-      <c r="D138" s="499"/>
+      <c r="D138" s="500"/>
     </row>
     <row r="139" spans="1:11" ht="15" thickBot="1">
       <c r="A139" s="217" t="s">
@@ -8809,11 +8809,11 @@
       <c r="B139" s="194">
         <v>0</v>
       </c>
-      <c r="C139" s="499">
+      <c r="C139" s="500">
         <f>EQUIP!S129</f>
         <v>0</v>
       </c>
-      <c r="D139" s="499"/>
+      <c r="D139" s="500"/>
     </row>
     <row r="140" spans="1:11" ht="15" thickBot="1">
       <c r="A140" s="117"/>
@@ -8826,11 +8826,11 @@
       <c r="B141" s="194">
         <v>0</v>
       </c>
-      <c r="C141" s="499">
+      <c r="C141" s="500">
         <f>VLOOKUP(A141,EQUIP!M130:S130,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D141" s="499"/>
+      <c r="D141" s="500"/>
     </row>
     <row r="142" spans="1:11" ht="15" thickBot="1">
       <c r="A142" s="117"/>
@@ -8843,11 +8843,11 @@
       <c r="B143" s="194">
         <v>0</v>
       </c>
-      <c r="C143" s="515">
+      <c r="C143" s="494">
         <f>VLOOKUP(A143,EQUIP!M131:S131,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D143" s="497"/>
+      <c r="D143" s="493"/>
     </row>
     <row r="144" spans="1:11" ht="15" thickBot="1">
       <c r="A144" s="117"/>
@@ -8862,22 +8862,22 @@
       <c r="B145" s="194">
         <v>0</v>
       </c>
-      <c r="C145" s="515">
+      <c r="C145" s="494">
         <f>VLOOKUP(A145,EQUIP!M132:S132,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D145" s="497"/>
+      <c r="D145" s="493"/>
     </row>
     <row r="146" spans="1:5" ht="15" thickBot="1">
       <c r="B146" s="152"/>
     </row>
     <row r="147" spans="1:5" ht="18" thickBot="1">
-      <c r="A147" s="490" t="s">
+      <c r="A147" s="497" t="s">
         <v>713</v>
       </c>
-      <c r="B147" s="491"/>
-      <c r="C147" s="491"/>
-      <c r="D147" s="492"/>
+      <c r="B147" s="498"/>
+      <c r="C147" s="498"/>
+      <c r="D147" s="499"/>
       <c r="E147" s="153" t="s">
         <v>1068</v>
       </c>
@@ -8894,11 +8894,11 @@
         <f>IF(C149&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C149" s="497">
+      <c r="C149" s="493">
         <f>CUSTOM!G3</f>
         <v>1052.2285714285715</v>
       </c>
-      <c r="D149" s="499"/>
+      <c r="D149" s="500"/>
       <c r="E149" t="s">
         <v>783</v>
       </c>
@@ -8915,11 +8915,11 @@
         <f>IF(C151&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C151" s="497">
+      <c r="C151" s="493">
         <f>CUSTOM!G5</f>
         <v>8914.2857142857156</v>
       </c>
-      <c r="D151" s="499"/>
+      <c r="D151" s="500"/>
       <c r="E151" t="s">
         <v>783</v>
       </c>
@@ -8939,11 +8939,11 @@
         <f>IF(C153&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C153" s="497">
+      <c r="C153" s="493">
         <f>CUSTOM!G7</f>
         <v>0</v>
       </c>
-      <c r="D153" s="499"/>
+      <c r="D153" s="500"/>
       <c r="E153" t="s">
         <v>783</v>
       </c>
@@ -8963,11 +8963,11 @@
         <f>IF(C155&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C155" s="497">
+      <c r="C155" s="493">
         <f>CUSTOM!G9</f>
         <v>0</v>
       </c>
-      <c r="D155" s="499"/>
+      <c r="D155" s="500"/>
       <c r="E155" t="s">
         <v>783</v>
       </c>
@@ -8987,11 +8987,11 @@
         <f>IF(C157&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C157" s="497">
+      <c r="C157" s="493">
         <f>CUSTOM!G11</f>
         <v>0</v>
       </c>
-      <c r="D157" s="499"/>
+      <c r="D157" s="500"/>
       <c r="E157" t="s">
         <v>783</v>
       </c>
@@ -9008,11 +9008,11 @@
         <f>IF(C159&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C159" s="497">
+      <c r="C159" s="493">
         <f>CUSTOM!G13</f>
         <v>0</v>
       </c>
-      <c r="D159" s="499"/>
+      <c r="D159" s="500"/>
       <c r="E159" t="s">
         <v>783</v>
       </c>
@@ -9032,11 +9032,11 @@
         <f>IF(C161&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C161" s="497">
+      <c r="C161" s="493">
         <f>CUSTOM!G15</f>
         <v>0</v>
       </c>
-      <c r="D161" s="499"/>
+      <c r="D161" s="500"/>
       <c r="E161" t="s">
         <v>783</v>
       </c>
@@ -9056,11 +9056,11 @@
         <f>IF(C163&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C163" s="497">
+      <c r="C163" s="493">
         <f>CUSTOM!G17</f>
         <v>0</v>
       </c>
-      <c r="D163" s="499"/>
+      <c r="D163" s="500"/>
       <c r="E163" t="s">
         <v>783</v>
       </c>
@@ -9069,12 +9069,12 @@
       <c r="B164" s="152"/>
     </row>
     <row r="165" spans="1:14" ht="18" thickBot="1">
-      <c r="A165" s="490" t="s">
+      <c r="A165" s="497" t="s">
         <v>1070</v>
       </c>
-      <c r="B165" s="491"/>
-      <c r="C165" s="491"/>
-      <c r="D165" s="492"/>
+      <c r="B165" s="498"/>
+      <c r="C165" s="498"/>
+      <c r="D165" s="499"/>
     </row>
     <row r="166" spans="1:14" ht="15" customHeight="1" thickBot="1">
       <c r="A166" s="163"/>
@@ -9097,12 +9097,12 @@
       <c r="B168" s="152"/>
     </row>
     <row r="169" spans="1:14" ht="18" thickBot="1">
-      <c r="A169" s="490" t="s">
+      <c r="A169" s="497" t="s">
         <v>1057</v>
       </c>
-      <c r="B169" s="491"/>
-      <c r="C169" s="491"/>
-      <c r="D169" s="492"/>
+      <c r="B169" s="498"/>
+      <c r="C169" s="498"/>
+      <c r="D169" s="499"/>
     </row>
     <row r="170" spans="1:14" ht="18" thickBot="1">
       <c r="A170" s="163"/>
@@ -9128,12 +9128,12 @@
       <c r="B172" s="152"/>
     </row>
     <row r="173" spans="1:14" ht="18" thickBot="1">
-      <c r="A173" s="490" t="s">
+      <c r="A173" s="497" t="s">
         <v>572</v>
       </c>
-      <c r="B173" s="491"/>
-      <c r="C173" s="491"/>
-      <c r="D173" s="492"/>
+      <c r="B173" s="498"/>
+      <c r="C173" s="498"/>
+      <c r="D173" s="499"/>
     </row>
     <row r="174" spans="1:14" ht="15" thickBot="1"/>
     <row r="175" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
@@ -9143,18 +9143,18 @@
       <c r="B175" s="194">
         <v>1</v>
       </c>
-      <c r="E175" s="498" t="str">
+      <c r="E175" s="529" t="str">
         <f>VLOOKUP(A175,INT!A6:R18,18,FALSE)</f>
         <v>Bordeaux / Desert Gold / French Grey / Irish Mist / White Diamonds / HighTech Caribbean Blue / High Tech Tahoe Blue</v>
       </c>
-      <c r="F175" s="498"/>
-      <c r="G175" s="498"/>
-      <c r="H175" s="498"/>
-      <c r="I175" s="498"/>
-      <c r="J175" s="498"/>
-      <c r="K175" s="498"/>
-      <c r="L175" s="498"/>
-      <c r="M175" s="498"/>
+      <c r="F175" s="529"/>
+      <c r="G175" s="529"/>
+      <c r="H175" s="529"/>
+      <c r="I175" s="529"/>
+      <c r="J175" s="529"/>
+      <c r="K175" s="529"/>
+      <c r="L175" s="529"/>
+      <c r="M175" s="529"/>
       <c r="N175" s="437"/>
     </row>
     <row r="176" spans="1:14" ht="15" thickBot="1">
@@ -9177,23 +9177,23 @@
       <c r="B177" s="427">
         <v>2</v>
       </c>
-      <c r="C177" s="497">
+      <c r="C177" s="493">
         <f>'COST - NEW'!E299</f>
         <v>1155</v>
       </c>
-      <c r="D177" s="499"/>
-      <c r="E177" s="521" t="s">
+      <c r="D177" s="500"/>
+      <c r="E177" s="503" t="s">
         <v>914</v>
       </c>
-      <c r="F177" s="521"/>
-      <c r="G177" s="521"/>
-      <c r="H177" s="521"/>
-      <c r="I177" s="521"/>
-      <c r="J177" s="521"/>
-      <c r="K177" s="521"/>
-      <c r="L177" s="521"/>
-      <c r="M177" s="521"/>
-      <c r="N177" s="521"/>
+      <c r="F177" s="503"/>
+      <c r="G177" s="503"/>
+      <c r="H177" s="503"/>
+      <c r="I177" s="503"/>
+      <c r="J177" s="503"/>
+      <c r="K177" s="503"/>
+      <c r="L177" s="503"/>
+      <c r="M177" s="503"/>
+      <c r="N177" s="503"/>
     </row>
     <row r="178" spans="1:14" ht="15" thickBot="1">
       <c r="B178" s="152"/>
@@ -9241,52 +9241,52 @@
       <c r="N180" s="404"/>
     </row>
     <row r="181" spans="1:14" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A181" s="519" t="s">
+      <c r="A181" s="501" t="s">
         <v>637</v>
       </c>
-      <c r="B181" s="520"/>
-      <c r="C181" s="531">
+      <c r="B181" s="502"/>
+      <c r="C181" s="495">
         <f>CEILING('COST - NEW'!D344/'COST - NEW'!E344,10)+'COST - NEW'!E309</f>
         <v>152970</v>
       </c>
-      <c r="D181" s="532"/>
+      <c r="D181" s="496"/>
       <c r="E181" s="153" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="15" thickBot="1"/>
     <row r="183" spans="1:14" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A183" s="529"/>
-      <c r="B183" s="530"/>
-      <c r="C183" s="527"/>
-      <c r="D183" s="528"/>
+      <c r="A183" s="509"/>
+      <c r="B183" s="510"/>
+      <c r="C183" s="490"/>
+      <c r="D183" s="491"/>
     </row>
     <row r="184" spans="1:14" ht="15" thickBot="1"/>
     <row r="185" spans="1:14" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A185" s="529"/>
-      <c r="B185" s="530"/>
-      <c r="C185" s="527">
-        <v>0</v>
-      </c>
-      <c r="D185" s="528"/>
+      <c r="A185" s="509"/>
+      <c r="B185" s="510"/>
+      <c r="C185" s="490">
+        <v>0</v>
+      </c>
+      <c r="D185" s="491"/>
     </row>
     <row r="186" spans="1:14" ht="15" thickBot="1"/>
     <row r="187" spans="1:14" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A187" s="529"/>
-      <c r="B187" s="530"/>
-      <c r="C187" s="527">
-        <v>0</v>
-      </c>
-      <c r="D187" s="528"/>
+      <c r="A187" s="509"/>
+      <c r="B187" s="510"/>
+      <c r="C187" s="490">
+        <v>0</v>
+      </c>
+      <c r="D187" s="491"/>
     </row>
     <row r="188" spans="1:14" ht="15" thickBot="1"/>
     <row r="189" spans="1:14" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A189" s="529"/>
-      <c r="B189" s="530"/>
-      <c r="C189" s="527">
-        <v>0</v>
-      </c>
-      <c r="D189" s="528"/>
+      <c r="A189" s="509"/>
+      <c r="B189" s="510"/>
+      <c r="C189" s="490">
+        <v>0</v>
+      </c>
+      <c r="D189" s="491"/>
     </row>
     <row r="190" spans="1:14" ht="15" thickBot="1"/>
     <row r="191" spans="1:14" ht="18.600000000000001" thickBot="1">
@@ -9297,17 +9297,65 @@
         <f>'COST - NEW'!E353*10</f>
         <v>2.2174222878260448</v>
       </c>
-      <c r="C191" s="525">
+      <c r="C191" s="507">
         <f>SUM(C181:D190)</f>
         <v>152970</v>
       </c>
-      <c r="D191" s="526"/>
+      <c r="D191" s="508"/>
       <c r="E191" s="153" t="s">
         <v>1069</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="E94:J94"/>
+    <mergeCell ref="E121:H121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E175:M175"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="E122:K122"/>
+    <mergeCell ref="E125:K125"/>
+    <mergeCell ref="E131:K131"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="D32:H37"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E93:I93"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:N177"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C124:D124"/>
     <mergeCell ref="C185:D185"/>
     <mergeCell ref="C121:D121"/>
     <mergeCell ref="C131:D131"/>
@@ -9324,54 +9372,6 @@
     <mergeCell ref="C128:D128"/>
     <mergeCell ref="C129:D129"/>
     <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="E177:N177"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="D32:H37"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="E93:I93"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="E94:J94"/>
-    <mergeCell ref="E121:H121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E175:M175"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="E122:K122"/>
-    <mergeCell ref="E125:K125"/>
-    <mergeCell ref="E131:K131"/>
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
   <conditionalFormatting sqref="B121">
@@ -11380,8 +11380,8 @@
       <c r="J12" s="630" t="s">
         <v>706</v>
       </c>
-      <c r="K12" s="607"/>
-      <c r="L12" s="608"/>
+      <c r="K12" s="538"/>
+      <c r="L12" s="539"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1">
       <c r="A13" s="106"/>
@@ -13621,7 +13621,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14933,19 +14933,19 @@
       <c r="A3" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="503"/>
-      <c r="C3" s="504"/>
-      <c r="D3" s="504"/>
-      <c r="E3" s="505"/>
+      <c r="B3" s="511"/>
+      <c r="C3" s="512"/>
+      <c r="D3" s="512"/>
+      <c r="E3" s="513"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1">
       <c r="A4" s="165" t="s">
         <v>670</v>
       </c>
-      <c r="B4" s="503"/>
-      <c r="C4" s="504"/>
-      <c r="D4" s="504"/>
-      <c r="E4" s="505"/>
+      <c r="B4" s="511"/>
+      <c r="C4" s="512"/>
+      <c r="D4" s="512"/>
+      <c r="E4" s="513"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
@@ -15159,12 +15159,12 @@
       <c r="B21" s="117"/>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="490" t="s">
+      <c r="A22" s="497" t="s">
         <v>991</v>
       </c>
-      <c r="B22" s="491"/>
-      <c r="C22" s="491"/>
-      <c r="D22" s="492"/>
+      <c r="B22" s="498"/>
+      <c r="C22" s="498"/>
+      <c r="D22" s="499"/>
     </row>
     <row r="23" spans="1:5" ht="14.4" customHeight="1" thickBot="1">
       <c r="A23" s="8"/>
@@ -15202,12 +15202,12 @@
       <c r="B27" s="117"/>
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1">
-      <c r="A28" s="490" t="s">
+      <c r="A28" s="497" t="s">
         <v>785</v>
       </c>
-      <c r="B28" s="491"/>
-      <c r="C28" s="491"/>
-      <c r="D28" s="492"/>
+      <c r="B28" s="498"/>
+      <c r="C28" s="498"/>
+      <c r="D28" s="499"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="163"/>
@@ -15416,14 +15416,14 @@
       <c r="C51" t="s">
         <v>592</v>
       </c>
-      <c r="E51" s="493" t="str">
+      <c r="E51" s="523" t="str">
         <f>'TILE COPING'!F32</f>
         <v>Silver, Silver Vogue, River Silver, Bianco Dolomite, Dianna Royal, Skyline, Alaska Silver, Turkish Carrea</v>
       </c>
-      <c r="F51" s="493"/>
-      <c r="G51" s="493"/>
-      <c r="H51" s="493"/>
-      <c r="I51" s="493"/>
+      <c r="F51" s="523"/>
+      <c r="G51" s="523"/>
+      <c r="H51" s="523"/>
+      <c r="I51" s="523"/>
     </row>
     <row r="52" spans="1:11" ht="15.6" customHeight="1" thickBot="1">
       <c r="A52" s="99" t="s">
@@ -15435,16 +15435,16 @@
       <c r="C52" t="s">
         <v>592</v>
       </c>
-      <c r="E52" s="493" t="str">
+      <c r="E52" s="523" t="str">
         <f>'TILE COPING'!F33</f>
         <v>Silver, Silver Vogue, River Silver, Bianco Dolomite, Dianna Royal, Skyline, Alaska Silver, Turkish Carrea</v>
       </c>
-      <c r="F52" s="493"/>
-      <c r="G52" s="493"/>
-      <c r="H52" s="493"/>
-      <c r="I52" s="493"/>
-      <c r="J52" s="493"/>
-      <c r="K52" s="493"/>
+      <c r="F52" s="523"/>
+      <c r="G52" s="523"/>
+      <c r="H52" s="523"/>
+      <c r="I52" s="523"/>
+      <c r="J52" s="523"/>
+      <c r="K52" s="523"/>
     </row>
     <row r="53" spans="1:11" ht="15" thickBot="1">
       <c r="B53" s="152"/>
@@ -15488,12 +15488,12 @@
       <c r="B58" s="152"/>
     </row>
     <row r="59" spans="1:11" ht="18" thickBot="1">
-      <c r="A59" s="490" t="s">
+      <c r="A59" s="497" t="s">
         <v>841</v>
       </c>
-      <c r="B59" s="491"/>
-      <c r="C59" s="491"/>
-      <c r="D59" s="492"/>
+      <c r="B59" s="498"/>
+      <c r="C59" s="498"/>
+      <c r="D59" s="499"/>
     </row>
     <row r="60" spans="1:11" ht="15" thickBot="1">
       <c r="B60" s="152"/>
@@ -15546,23 +15546,23 @@
       <c r="B65" s="152"/>
     </row>
     <row r="66" spans="1:8" ht="18" thickBot="1">
-      <c r="A66" s="490" t="s">
+      <c r="A66" s="497" t="s">
         <v>686</v>
       </c>
-      <c r="B66" s="491"/>
-      <c r="C66" s="491"/>
-      <c r="D66" s="492"/>
+      <c r="B66" s="498"/>
+      <c r="C66" s="498"/>
+      <c r="D66" s="499"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1">
       <c r="B67" s="152"/>
     </row>
     <row r="68" spans="1:8" ht="18" thickBot="1">
-      <c r="A68" s="490" t="s">
+      <c r="A68" s="497" t="s">
         <v>689</v>
       </c>
-      <c r="B68" s="491"/>
-      <c r="C68" s="491"/>
-      <c r="D68" s="492"/>
+      <c r="B68" s="498"/>
+      <c r="C68" s="498"/>
+      <c r="D68" s="499"/>
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1">
       <c r="B69" s="152"/>
@@ -15575,11 +15575,11 @@
         <f>IF(A70="No Auxiliary Pump",0,1)</f>
         <v>0</v>
       </c>
-      <c r="C70" s="497">
+      <c r="C70" s="493">
         <f>(VLOOKUP(A70,EQUIP!$M$14:$S$20,6,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="D70" s="499"/>
+      <c r="D70" s="500"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1">
       <c r="A71" s="212" t="s">
@@ -15589,11 +15589,11 @@
         <f>IF(C71&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C71" s="497">
+      <c r="C71" s="493">
         <f>(VLOOKUP(A71,EQUIP!$M$14:$S$20,6,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="D71" s="499"/>
+      <c r="D71" s="500"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1">
       <c r="A72" s="212" t="s">
@@ -15603,11 +15603,11 @@
         <f>IF(C72&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C72" s="497">
+      <c r="C72" s="493">
         <f>(VLOOKUP(A72,EQUIP!$M$14:$S$20,6,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="D72" s="499"/>
+      <c r="D72" s="500"/>
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1">
       <c r="A73" s="117"/>
@@ -15621,11 +15621,11 @@
         <f>IF(A74="No Filter",0,1)</f>
         <v>0</v>
       </c>
-      <c r="C74" s="497">
+      <c r="C74" s="493">
         <f>(VLOOKUP(A74,EQUIP!M22:S28,6,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="D74" s="499"/>
+      <c r="D74" s="500"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1">
       <c r="A75" s="117"/>
@@ -15639,11 +15639,11 @@
         <f>IF(C76&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C76" s="516">
+      <c r="C76" s="492">
         <f>VLOOKUP(A76,EQUIP!M31:S33,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D76" s="497"/>
+      <c r="D76" s="493"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1">
       <c r="A77" s="117"/>
@@ -15657,18 +15657,18 @@
         <f>IF(A78="No Heater",0,1)</f>
         <v>0</v>
       </c>
-      <c r="C78" s="516">
+      <c r="C78" s="492">
         <f>VLOOKUP(A78,EQUIP!M36:S39,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="497"/>
-      <c r="E78" s="494" t="str">
+      <c r="D78" s="493"/>
+      <c r="E78" s="526" t="str">
         <f>IF(A78="Jandy 260K BTU - JXI Heater", "CANNOT BE USED TO HEAT A SPA","")</f>
         <v/>
       </c>
-      <c r="F78" s="495"/>
-      <c r="G78" s="495"/>
-      <c r="H78" s="495"/>
+      <c r="F78" s="527"/>
+      <c r="G78" s="527"/>
+      <c r="H78" s="527"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1">
       <c r="A79" s="432" t="s">
@@ -15677,11 +15677,11 @@
       <c r="B79" s="194">
         <v>0</v>
       </c>
-      <c r="C79" s="516">
+      <c r="C79" s="492">
         <f>B79*EQUIP!R39</f>
         <v>0</v>
       </c>
-      <c r="D79" s="497"/>
+      <c r="D79" s="493"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1">
       <c r="A80" s="117"/>
@@ -15694,11 +15694,11 @@
       <c r="B81" s="118">
         <v>0</v>
       </c>
-      <c r="C81" s="497" t="e">
+      <c r="C81" s="493" t="e">
         <f>(VLOOKUP(A81,EQUIP!M42:R46,6,FALSE))*B81</f>
         <v>#N/A</v>
       </c>
-      <c r="D81" s="499"/>
+      <c r="D81" s="500"/>
     </row>
     <row r="82" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="B82" s="152"/>
@@ -15711,11 +15711,11 @@
         <f>IF(C83&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C83" s="497">
+      <c r="C83" s="493">
         <f>VLOOKUP(A83,EQUIP!M49:S57,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D83" s="499"/>
+      <c r="D83" s="500"/>
       <c r="E83" s="226">
         <f>IF(C83=1280,1,0)</f>
         <v>0</v>
@@ -15741,11 +15741,11 @@
         <f>IF(C84&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C84" s="497">
+      <c r="C84" s="493">
         <f>VLOOKUP(A84,EQUIP!M49:S57,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D84" s="499"/>
+      <c r="D84" s="500"/>
       <c r="E84" s="226">
         <f>IF(C84=1280,1,0)</f>
         <v>0</v>
@@ -15771,11 +15771,11 @@
         <f>IF(C85&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C85" s="497">
+      <c r="C85" s="493">
         <f>VLOOKUP(A85,EQUIP!M49:S57,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D85" s="499"/>
+      <c r="D85" s="500"/>
       <c r="E85" s="226">
         <f>IF(C85=1280,1,0)</f>
         <v>0</v>
@@ -15807,11 +15807,11 @@
         <f>IF(C87&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C87" s="515">
+      <c r="C87" s="494">
         <f>VLOOKUP(A87,EQUIP!M63:S72,7,FALSE)*1.2</f>
         <v>0</v>
       </c>
-      <c r="D87" s="497"/>
+      <c r="D87" s="493"/>
     </row>
     <row r="88" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="B88" s="152"/>
@@ -15824,11 +15824,11 @@
         <f>IF(A89=EQUIP!M105,0,1)</f>
         <v>0</v>
       </c>
-      <c r="C89" s="516">
+      <c r="C89" s="492">
         <f>VLOOKUP(A89,EQUIP!M105:S107,7,FALSE)+(ELEC!E15)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="497"/>
+      <c r="D89" s="493"/>
     </row>
     <row r="90" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A90" s="117" t="s">
@@ -15837,21 +15837,21 @@
       <c r="B90" s="194">
         <v>0</v>
       </c>
-      <c r="C90" s="517" t="s">
+      <c r="C90" s="524" t="s">
         <v>468</v>
       </c>
-      <c r="D90" s="518"/>
+      <c r="D90" s="525"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1">
       <c r="B91" s="152"/>
     </row>
     <row r="92" spans="1:8" ht="18" thickBot="1">
-      <c r="A92" s="490" t="s">
+      <c r="A92" s="497" t="s">
         <v>713</v>
       </c>
-      <c r="B92" s="491"/>
-      <c r="C92" s="491"/>
-      <c r="D92" s="492"/>
+      <c r="B92" s="498"/>
+      <c r="C92" s="498"/>
+      <c r="D92" s="499"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1">
       <c r="B93" s="152"/>
@@ -15865,11 +15865,11 @@
         <f>IF(C94&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C94" s="497">
+      <c r="C94" s="493">
         <f>CUSTOM!G3</f>
         <v>1052.2285714285715</v>
       </c>
-      <c r="D94" s="499"/>
+      <c r="D94" s="500"/>
       <c r="E94" t="s">
         <v>783</v>
       </c>
@@ -15886,11 +15886,11 @@
         <f>IF(C96&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C96" s="497">
+      <c r="C96" s="493">
         <f>CUSTOM!G5</f>
         <v>8914.2857142857156</v>
       </c>
-      <c r="D96" s="499"/>
+      <c r="D96" s="500"/>
       <c r="E96" t="s">
         <v>783</v>
       </c>
@@ -15910,11 +15910,11 @@
         <f>IF(C98&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C98" s="497">
+      <c r="C98" s="493">
         <f>CUSTOM!G7</f>
         <v>0</v>
       </c>
-      <c r="D98" s="499"/>
+      <c r="D98" s="500"/>
       <c r="E98" t="s">
         <v>783</v>
       </c>
@@ -15934,11 +15934,11 @@
         <f>IF(C100&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C100" s="497">
+      <c r="C100" s="493">
         <f>CUSTOM!G9</f>
         <v>0</v>
       </c>
-      <c r="D100" s="499"/>
+      <c r="D100" s="500"/>
       <c r="E100" t="s">
         <v>783</v>
       </c>
@@ -15958,11 +15958,11 @@
         <f>IF(C102&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C102" s="497">
+      <c r="C102" s="493">
         <f>CUSTOM!G11</f>
         <v>0</v>
       </c>
-      <c r="D102" s="499"/>
+      <c r="D102" s="500"/>
       <c r="E102" t="s">
         <v>783</v>
       </c>
@@ -15979,11 +15979,11 @@
         <f>IF(C104&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C104" s="497">
+      <c r="C104" s="493">
         <f>CUSTOM!G13</f>
         <v>0</v>
       </c>
-      <c r="D104" s="499"/>
+      <c r="D104" s="500"/>
       <c r="E104" t="s">
         <v>783</v>
       </c>
@@ -16003,11 +16003,11 @@
         <f>IF(C106&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C106" s="497">
+      <c r="C106" s="493">
         <f>CUSTOM!G15</f>
         <v>0</v>
       </c>
-      <c r="D106" s="499"/>
+      <c r="D106" s="500"/>
       <c r="E106" t="s">
         <v>783</v>
       </c>
@@ -16027,11 +16027,11 @@
         <f>IF(C108&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C108" s="497">
+      <c r="C108" s="493">
         <f>CUSTOM!G17</f>
         <v>0</v>
       </c>
-      <c r="D108" s="499"/>
+      <c r="D108" s="500"/>
       <c r="E108" t="s">
         <v>783</v>
       </c>
@@ -16040,12 +16040,12 @@
       <c r="B109" s="152"/>
     </row>
     <row r="110" spans="1:5" ht="18" thickBot="1">
-      <c r="A110" s="490" t="s">
+      <c r="A110" s="497" t="s">
         <v>658</v>
       </c>
-      <c r="B110" s="491"/>
-      <c r="C110" s="491"/>
-      <c r="D110" s="492"/>
+      <c r="B110" s="498"/>
+      <c r="C110" s="498"/>
+      <c r="D110" s="499"/>
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" thickBot="1">
       <c r="A111" s="163"/>
@@ -16066,12 +16066,12 @@
     </row>
     <row r="113" spans="1:15" ht="15" thickBot="1"/>
     <row r="114" spans="1:15" ht="18" thickBot="1">
-      <c r="A114" s="490" t="s">
+      <c r="A114" s="497" t="s">
         <v>572</v>
       </c>
-      <c r="B114" s="491"/>
-      <c r="C114" s="491"/>
-      <c r="D114" s="492"/>
+      <c r="B114" s="498"/>
+      <c r="C114" s="498"/>
+      <c r="D114" s="499"/>
     </row>
     <row r="115" spans="1:15" ht="15" thickBot="1"/>
     <row r="116" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -16081,19 +16081,19 @@
       <c r="B116" s="194">
         <v>1</v>
       </c>
-      <c r="E116" s="498" t="str">
+      <c r="E116" s="529" t="str">
         <f>VLOOKUP(A116,INT!A6:R18,18,FALSE)</f>
         <v>Ivory / Blue / French Grey / Super Blue / Mariner Blue / Tropical Blue / Sky Blue</v>
       </c>
-      <c r="F116" s="498"/>
-      <c r="G116" s="498"/>
-      <c r="H116" s="498"/>
-      <c r="I116" s="498"/>
-      <c r="J116" s="498"/>
-      <c r="K116" s="498"/>
-      <c r="L116" s="498"/>
-      <c r="M116" s="498"/>
-      <c r="N116" s="498"/>
+      <c r="F116" s="529"/>
+      <c r="G116" s="529"/>
+      <c r="H116" s="529"/>
+      <c r="I116" s="529"/>
+      <c r="J116" s="529"/>
+      <c r="K116" s="529"/>
+      <c r="L116" s="529"/>
+      <c r="M116" s="529"/>
+      <c r="N116" s="529"/>
       <c r="O116" s="437"/>
     </row>
     <row r="117" spans="1:15" ht="15" thickBot="1">
@@ -16117,24 +16117,24 @@
       <c r="B118" s="427">
         <v>0</v>
       </c>
-      <c r="C118" s="497">
+      <c r="C118" s="493">
         <f>'COST - NEW'!E299</f>
         <v>1155</v>
       </c>
-      <c r="D118" s="499"/>
-      <c r="E118" s="521" t="s">
+      <c r="D118" s="500"/>
+      <c r="E118" s="503" t="s">
         <v>914</v>
       </c>
-      <c r="F118" s="521"/>
-      <c r="G118" s="521"/>
-      <c r="H118" s="521"/>
-      <c r="I118" s="521"/>
-      <c r="J118" s="521"/>
-      <c r="K118" s="521"/>
-      <c r="L118" s="521"/>
-      <c r="M118" s="521"/>
-      <c r="N118" s="521"/>
-      <c r="O118" s="521"/>
+      <c r="F118" s="503"/>
+      <c r="G118" s="503"/>
+      <c r="H118" s="503"/>
+      <c r="I118" s="503"/>
+      <c r="J118" s="503"/>
+      <c r="K118" s="503"/>
+      <c r="L118" s="503"/>
+      <c r="M118" s="503"/>
+      <c r="N118" s="503"/>
+      <c r="O118" s="503"/>
     </row>
     <row r="119" spans="1:15" ht="15" thickBot="1">
       <c r="B119" s="152"/>
@@ -16185,42 +16185,42 @@
       <c r="O121" s="404"/>
     </row>
     <row r="122" spans="1:15" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A122" s="519" t="s">
+      <c r="A122" s="501" t="s">
         <v>637</v>
       </c>
-      <c r="B122" s="520"/>
-      <c r="C122" s="531">
+      <c r="B122" s="502"/>
+      <c r="C122" s="495">
         <f>'COST - REMODEL'!D337</f>
         <v>48111.687484285714</v>
       </c>
-      <c r="D122" s="532"/>
+      <c r="D122" s="496"/>
     </row>
     <row r="123" spans="1:15" ht="15" thickBot="1"/>
     <row r="124" spans="1:15" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A124" s="529"/>
-      <c r="B124" s="530"/>
-      <c r="C124" s="527">
-        <v>0</v>
-      </c>
-      <c r="D124" s="528"/>
+      <c r="A124" s="509"/>
+      <c r="B124" s="510"/>
+      <c r="C124" s="490">
+        <v>0</v>
+      </c>
+      <c r="D124" s="491"/>
     </row>
     <row r="125" spans="1:15" ht="15" thickBot="1"/>
     <row r="126" spans="1:15" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A126" s="529"/>
-      <c r="B126" s="530"/>
-      <c r="C126" s="527">
-        <v>0</v>
-      </c>
-      <c r="D126" s="528"/>
+      <c r="A126" s="509"/>
+      <c r="B126" s="510"/>
+      <c r="C126" s="490">
+        <v>0</v>
+      </c>
+      <c r="D126" s="491"/>
     </row>
     <row r="127" spans="1:15" ht="15" thickBot="1"/>
     <row r="128" spans="1:15" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A128" s="529"/>
-      <c r="B128" s="530"/>
-      <c r="C128" s="527">
-        <v>0</v>
-      </c>
-      <c r="D128" s="528"/>
+      <c r="A128" s="509"/>
+      <c r="B128" s="510"/>
+      <c r="C128" s="490">
+        <v>0</v>
+      </c>
+      <c r="D128" s="491"/>
     </row>
     <row r="129" spans="1:4" ht="15" thickBot="1"/>
     <row r="130" spans="1:4" ht="18.600000000000001" thickBot="1">
@@ -16231,46 +16231,14 @@
         <f>'COST - REMODEL'!E344*10</f>
         <v>2.1750000000000007</v>
       </c>
-      <c r="C130" s="525">
+      <c r="C130" s="507">
         <f>SUM(C122:D129)</f>
         <v>48111.687484285714</v>
       </c>
-      <c r="D130" s="526"/>
+      <c r="D130" s="508"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E52:K52"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E118:O118"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="E116:N116"/>
     <mergeCell ref="C130:D130"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="C84:D84"/>
@@ -16287,6 +16255,38 @@
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E118:O118"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="E116:N116"/>
+    <mergeCell ref="E52:K52"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <conditionalFormatting sqref="B78">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
@@ -21017,6 +21017,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A308:D308"/>
+    <mergeCell ref="A316:D316"/>
+    <mergeCell ref="A323:D323"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A259:D259"/>
+    <mergeCell ref="A268:D268"/>
+    <mergeCell ref="A275:D275"/>
+    <mergeCell ref="A288:D288"/>
+    <mergeCell ref="A294:D294"/>
     <mergeCell ref="A214:D214"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A11:D11"/>
@@ -21030,15 +21039,6 @@
     <mergeCell ref="A154:D154"/>
     <mergeCell ref="A181:D181"/>
     <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A308:D308"/>
-    <mergeCell ref="A316:D316"/>
-    <mergeCell ref="A323:D323"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A259:D259"/>
-    <mergeCell ref="A268:D268"/>
-    <mergeCell ref="A275:D275"/>
-    <mergeCell ref="A288:D288"/>
-    <mergeCell ref="A294:D294"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35522,47 +35522,47 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="80"/>
-      <c r="B1" s="603">
+      <c r="B1" s="540">
         <v>2025</v>
       </c>
-      <c r="C1" s="603"/>
-      <c r="D1" s="603"/>
-      <c r="E1" s="603"/>
-      <c r="F1" s="604" t="s">
+      <c r="C1" s="540"/>
+      <c r="D1" s="540"/>
+      <c r="E1" s="540"/>
+      <c r="F1" s="546" t="s">
         <v>361</v>
       </c>
-      <c r="G1" s="604"/>
+      <c r="G1" s="546"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="80"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="603"/>
-      <c r="E2" s="603"/>
-      <c r="F2" s="586" t="s">
+      <c r="B2" s="540"/>
+      <c r="C2" s="540"/>
+      <c r="D2" s="540"/>
+      <c r="E2" s="540"/>
+      <c r="F2" s="550" t="s">
         <v>432</v>
       </c>
-      <c r="G2" s="586"/>
+      <c r="G2" s="550"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="80"/>
-      <c r="B3" s="603"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="603"/>
-      <c r="F3" s="586"/>
-      <c r="G3" s="586"/>
+      <c r="B3" s="540"/>
+      <c r="C3" s="540"/>
+      <c r="D3" s="540"/>
+      <c r="E3" s="540"/>
+      <c r="F3" s="550"/>
+      <c r="G3" s="550"/>
     </row>
     <row r="4" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A4" s="80"/>
-      <c r="B4" s="533"/>
-      <c r="C4" s="533"/>
-      <c r="D4" s="533"/>
-      <c r="E4" s="533"/>
-      <c r="F4" s="595" t="s">
+      <c r="B4" s="580"/>
+      <c r="C4" s="580"/>
+      <c r="D4" s="580"/>
+      <c r="E4" s="580"/>
+      <c r="F4" s="547" t="s">
         <v>1100</v>
       </c>
-      <c r="G4" s="595"/>
+      <c r="G4" s="547"/>
     </row>
     <row r="5" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="80"/>
@@ -35570,52 +35570,52 @@
       <c r="C5" s="355"/>
       <c r="D5" s="355"/>
       <c r="E5" s="355"/>
-      <c r="F5" s="595" t="s">
+      <c r="F5" s="547" t="s">
         <v>1101</v>
       </c>
-      <c r="G5" s="595"/>
+      <c r="G5" s="547"/>
     </row>
     <row r="6" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A6" s="80"/>
-      <c r="B6" s="534" t="s">
+      <c r="B6" s="581" t="s">
         <v>799</v>
       </c>
-      <c r="C6" s="534"/>
-      <c r="D6" s="534"/>
-      <c r="E6" s="534"/>
-      <c r="F6" s="609" t="s">
+      <c r="C6" s="581"/>
+      <c r="D6" s="581"/>
+      <c r="E6" s="581"/>
+      <c r="F6" s="548" t="s">
         <v>1102</v>
       </c>
-      <c r="G6" s="610"/>
+      <c r="G6" s="549"/>
     </row>
     <row r="7" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A7" s="559" t="s">
+      <c r="A7" s="609" t="s">
         <v>719</v>
       </c>
-      <c r="B7" s="573" t="str">
+      <c r="B7" s="599" t="str">
         <f>'NEW POOL'!B3</f>
         <v>Ashley Drennen</v>
       </c>
-      <c r="C7" s="573"/>
-      <c r="D7" s="573"/>
-      <c r="E7" s="573"/>
-      <c r="F7" s="543">
+      <c r="C7" s="599"/>
+      <c r="D7" s="599"/>
+      <c r="E7" s="599"/>
+      <c r="F7" s="605">
         <f ca="1">TODAY()</f>
-        <v>45993</v>
-      </c>
-      <c r="G7" s="544"/>
+        <v>45995</v>
+      </c>
+      <c r="G7" s="606"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A8" s="560"/>
-      <c r="B8" s="573" t="str">
+      <c r="A8" s="610"/>
+      <c r="B8" s="599" t="str">
         <f>'NEW POOL'!B4</f>
         <v>Ft mill</v>
       </c>
-      <c r="C8" s="573"/>
-      <c r="D8" s="573"/>
-      <c r="E8" s="573"/>
-      <c r="F8" s="545"/>
-      <c r="G8" s="546"/>
+      <c r="C8" s="599"/>
+      <c r="D8" s="599"/>
+      <c r="E8" s="599"/>
+      <c r="F8" s="607"/>
+      <c r="G8" s="608"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="68"/>
@@ -35641,10 +35641,10 @@
       <c r="E10" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="565" t="s">
+      <c r="F10" s="602" t="s">
         <v>365</v>
       </c>
-      <c r="G10" s="566"/>
+      <c r="G10" s="603"/>
     </row>
     <row r="11" spans="1:7" ht="22.5" customHeight="1">
       <c r="A11" s="246" t="s">
@@ -35666,8 +35666,8 @@
         <f>'NEW POOL'!B10</f>
         <v>6</v>
       </c>
-      <c r="F11" s="557"/>
-      <c r="G11" s="557"/>
+      <c r="F11" s="533"/>
+      <c r="G11" s="533"/>
     </row>
     <row r="12" spans="1:7" ht="22.5" customHeight="1">
       <c r="A12" s="246" t="s">
@@ -35688,50 +35688,50 @@
       <c r="E12" s="173">
         <v>0</v>
       </c>
-      <c r="F12" s="557" t="str">
+      <c r="F12" s="533" t="str">
         <f>IF(C12=0,"No Spa","Split Bench for Customized Therapy")</f>
         <v>Split Bench for Customized Therapy</v>
       </c>
-      <c r="G12" s="557"/>
+      <c r="G12" s="533"/>
     </row>
     <row r="13" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A13" s="540" t="str">
+      <c r="A13" s="554" t="str">
         <f>IF(I43=1,"Shell:","Notes:")</f>
         <v>Notes:</v>
       </c>
-      <c r="B13" s="540" t="str">
+      <c r="B13" s="554" t="str">
         <f>IF('NEW POOL'!A21="Fiberglass - Small","",'NEW POOL'!A21)</f>
         <v/>
       </c>
-      <c r="C13" s="541"/>
-      <c r="D13" s="541"/>
-      <c r="E13" s="541"/>
-      <c r="F13" s="541"/>
-      <c r="G13" s="542"/>
+      <c r="C13" s="555"/>
+      <c r="D13" s="555"/>
+      <c r="E13" s="555"/>
+      <c r="F13" s="555"/>
+      <c r="G13" s="556"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A14" s="550"/>
-      <c r="B14" s="540" t="str">
+      <c r="A14" s="584"/>
+      <c r="B14" s="554" t="str">
         <f>IF('NEW POOL'!A22="Fiberglass - Medium","",'NEW POOL'!A22)</f>
         <v/>
       </c>
-      <c r="C14" s="541"/>
-      <c r="D14" s="541"/>
-      <c r="E14" s="541"/>
-      <c r="F14" s="541"/>
-      <c r="G14" s="542"/>
+      <c r="C14" s="555"/>
+      <c r="D14" s="555"/>
+      <c r="E14" s="555"/>
+      <c r="F14" s="555"/>
+      <c r="G14" s="556"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="551"/>
-      <c r="B15" s="538" t="str">
+      <c r="A15" s="557"/>
+      <c r="B15" s="552" t="str">
         <f>IF('NEW POOL'!A23="Fiberglass - Large","",'NEW POOL'!A23)</f>
         <v/>
       </c>
-      <c r="C15" s="570"/>
-      <c r="D15" s="570"/>
-      <c r="E15" s="570"/>
-      <c r="F15" s="570"/>
-      <c r="G15" s="539"/>
+      <c r="C15" s="604"/>
+      <c r="D15" s="604"/>
+      <c r="E15" s="604"/>
+      <c r="F15" s="604"/>
+      <c r="G15" s="553"/>
     </row>
     <row r="16" spans="1:7" ht="17.399999999999999">
       <c r="A16" s="69"/>
@@ -35742,61 +35742,61 @@
       <c r="F16" s="69"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A17" s="552" t="s">
+      <c r="A17" s="543" t="s">
         <v>367</v>
       </c>
-      <c r="B17" s="553"/>
-      <c r="C17" s="553"/>
-      <c r="D17" s="553"/>
-      <c r="E17" s="554"/>
-      <c r="F17" s="558" t="s">
+      <c r="B17" s="544"/>
+      <c r="C17" s="544"/>
+      <c r="D17" s="544"/>
+      <c r="E17" s="545"/>
+      <c r="F17" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G17" s="558"/>
+      <c r="G17" s="551"/>
     </row>
     <row r="18" spans="1:7" ht="33" customHeight="1">
-      <c r="A18" s="547" t="s">
+      <c r="A18" s="534" t="s">
         <v>368</v>
       </c>
-      <c r="B18" s="548"/>
-      <c r="C18" s="548"/>
-      <c r="D18" s="548"/>
-      <c r="E18" s="549"/>
-      <c r="F18" s="557"/>
-      <c r="G18" s="557"/>
+      <c r="B18" s="535"/>
+      <c r="C18" s="535"/>
+      <c r="D18" s="535"/>
+      <c r="E18" s="536"/>
+      <c r="F18" s="533"/>
+      <c r="G18" s="533"/>
     </row>
     <row r="19" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A19" s="547" t="s">
+      <c r="A19" s="534" t="s">
         <v>369</v>
       </c>
-      <c r="B19" s="555"/>
-      <c r="C19" s="555"/>
-      <c r="D19" s="555"/>
-      <c r="E19" s="556"/>
-      <c r="F19" s="557" t="s">
+      <c r="B19" s="541"/>
+      <c r="C19" s="541"/>
+      <c r="D19" s="541"/>
+      <c r="E19" s="542"/>
+      <c r="F19" s="533" t="s">
         <v>370</v>
       </c>
-      <c r="G19" s="557"/>
+      <c r="G19" s="533"/>
     </row>
     <row r="20" spans="1:7" ht="15.6" customHeight="1">
       <c r="A20" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B20" s="540"/>
-      <c r="C20" s="541"/>
-      <c r="D20" s="541"/>
-      <c r="E20" s="541"/>
-      <c r="F20" s="541"/>
-      <c r="G20" s="542"/>
+      <c r="B20" s="554"/>
+      <c r="C20" s="555"/>
+      <c r="D20" s="555"/>
+      <c r="E20" s="555"/>
+      <c r="F20" s="555"/>
+      <c r="G20" s="556"/>
     </row>
     <row r="21" spans="1:7" ht="15.6" customHeight="1">
       <c r="A21" s="564"/>
-      <c r="B21" s="567"/>
-      <c r="C21" s="568"/>
-      <c r="D21" s="568"/>
-      <c r="E21" s="568"/>
-      <c r="F21" s="568"/>
-      <c r="G21" s="569"/>
+      <c r="B21" s="565"/>
+      <c r="C21" s="566"/>
+      <c r="D21" s="566"/>
+      <c r="E21" s="566"/>
+      <c r="F21" s="566"/>
+      <c r="G21" s="567"/>
     </row>
     <row r="22" spans="1:7" ht="15.6" customHeight="1">
       <c r="A22" s="68"/>
@@ -35807,140 +35807,140 @@
       <c r="F22" s="68"/>
     </row>
     <row r="23" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A23" s="552" t="s">
+      <c r="A23" s="543" t="s">
         <v>371</v>
       </c>
-      <c r="B23" s="553"/>
-      <c r="C23" s="553"/>
-      <c r="D23" s="553"/>
-      <c r="E23" s="554"/>
-      <c r="F23" s="558" t="s">
+      <c r="B23" s="544"/>
+      <c r="C23" s="544"/>
+      <c r="D23" s="544"/>
+      <c r="E23" s="545"/>
+      <c r="F23" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G23" s="558"/>
+      <c r="G23" s="551"/>
     </row>
     <row r="24" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A24" s="547" t="s">
+      <c r="A24" s="534" t="s">
         <v>372</v>
       </c>
-      <c r="B24" s="548"/>
-      <c r="C24" s="548"/>
-      <c r="D24" s="548"/>
-      <c r="E24" s="549"/>
-      <c r="F24" s="557" t="s">
+      <c r="B24" s="535"/>
+      <c r="C24" s="535"/>
+      <c r="D24" s="535"/>
+      <c r="E24" s="536"/>
+      <c r="F24" s="533" t="s">
         <v>439</v>
       </c>
-      <c r="G24" s="557"/>
+      <c r="G24" s="533"/>
     </row>
     <row r="25" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A25" s="547" t="s">
+      <c r="A25" s="534" t="s">
         <v>373</v>
       </c>
-      <c r="B25" s="548"/>
-      <c r="C25" s="548"/>
-      <c r="D25" s="548"/>
-      <c r="E25" s="549"/>
-      <c r="F25" s="557" t="s">
+      <c r="B25" s="535"/>
+      <c r="C25" s="535"/>
+      <c r="D25" s="535"/>
+      <c r="E25" s="536"/>
+      <c r="F25" s="533" t="s">
         <v>374</v>
       </c>
-      <c r="G25" s="557"/>
+      <c r="G25" s="533"/>
     </row>
     <row r="26" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A26" s="547" t="s">
+      <c r="A26" s="534" t="s">
         <v>375</v>
       </c>
-      <c r="B26" s="548"/>
-      <c r="C26" s="548"/>
-      <c r="D26" s="548"/>
-      <c r="E26" s="549"/>
-      <c r="F26" s="557"/>
-      <c r="G26" s="557"/>
+      <c r="B26" s="535"/>
+      <c r="C26" s="535"/>
+      <c r="D26" s="535"/>
+      <c r="E26" s="536"/>
+      <c r="F26" s="533"/>
+      <c r="G26" s="533"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A27" s="547" t="s">
+      <c r="A27" s="534" t="s">
         <v>376</v>
       </c>
-      <c r="B27" s="548"/>
-      <c r="C27" s="548"/>
-      <c r="D27" s="548"/>
-      <c r="E27" s="549"/>
-      <c r="F27" s="557"/>
-      <c r="G27" s="557"/>
+      <c r="B27" s="535"/>
+      <c r="C27" s="535"/>
+      <c r="D27" s="535"/>
+      <c r="E27" s="536"/>
+      <c r="F27" s="533"/>
+      <c r="G27" s="533"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A28" s="547" t="s">
+      <c r="A28" s="534" t="s">
         <v>377</v>
       </c>
-      <c r="B28" s="548"/>
-      <c r="C28" s="548"/>
-      <c r="D28" s="548"/>
-      <c r="E28" s="549"/>
-      <c r="F28" s="557"/>
-      <c r="G28" s="557"/>
+      <c r="B28" s="535"/>
+      <c r="C28" s="535"/>
+      <c r="D28" s="535"/>
+      <c r="E28" s="536"/>
+      <c r="F28" s="533"/>
+      <c r="G28" s="533"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A29" s="547" t="s">
+      <c r="A29" s="534" t="s">
         <v>378</v>
       </c>
-      <c r="B29" s="548"/>
-      <c r="C29" s="548"/>
-      <c r="D29" s="548"/>
-      <c r="E29" s="549"/>
-      <c r="F29" s="557"/>
-      <c r="G29" s="557"/>
+      <c r="B29" s="535"/>
+      <c r="C29" s="535"/>
+      <c r="D29" s="535"/>
+      <c r="E29" s="536"/>
+      <c r="F29" s="533"/>
+      <c r="G29" s="533"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A30" s="547" t="s">
+      <c r="A30" s="534" t="s">
         <v>379</v>
       </c>
-      <c r="B30" s="548"/>
-      <c r="C30" s="548"/>
-      <c r="D30" s="548"/>
-      <c r="E30" s="549"/>
-      <c r="F30" s="557"/>
-      <c r="G30" s="557"/>
+      <c r="B30" s="535"/>
+      <c r="C30" s="535"/>
+      <c r="D30" s="535"/>
+      <c r="E30" s="536"/>
+      <c r="F30" s="533"/>
+      <c r="G30" s="533"/>
     </row>
     <row r="31" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A31" s="547" t="s">
+      <c r="A31" s="534" t="s">
         <v>380</v>
       </c>
-      <c r="B31" s="548"/>
-      <c r="C31" s="548"/>
-      <c r="D31" s="548"/>
-      <c r="E31" s="549"/>
-      <c r="F31" s="557"/>
-      <c r="G31" s="557"/>
+      <c r="B31" s="535"/>
+      <c r="C31" s="535"/>
+      <c r="D31" s="535"/>
+      <c r="E31" s="536"/>
+      <c r="F31" s="533"/>
+      <c r="G31" s="533"/>
     </row>
     <row r="32" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A32" s="547" t="s">
+      <c r="A32" s="534" t="s">
         <v>381</v>
       </c>
-      <c r="B32" s="555"/>
-      <c r="C32" s="555"/>
-      <c r="D32" s="555"/>
-      <c r="E32" s="556"/>
-      <c r="F32" s="557"/>
-      <c r="G32" s="557"/>
+      <c r="B32" s="541"/>
+      <c r="C32" s="541"/>
+      <c r="D32" s="541"/>
+      <c r="E32" s="542"/>
+      <c r="F32" s="533"/>
+      <c r="G32" s="533"/>
     </row>
     <row r="33" spans="1:9" ht="15.6" customHeight="1">
       <c r="A33" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B33" s="540"/>
-      <c r="C33" s="541"/>
-      <c r="D33" s="541"/>
-      <c r="E33" s="541"/>
-      <c r="F33" s="541"/>
-      <c r="G33" s="542"/>
+      <c r="B33" s="554"/>
+      <c r="C33" s="555"/>
+      <c r="D33" s="555"/>
+      <c r="E33" s="555"/>
+      <c r="F33" s="555"/>
+      <c r="G33" s="556"/>
     </row>
     <row r="34" spans="1:9" ht="15.6" customHeight="1">
       <c r="A34" s="564"/>
-      <c r="B34" s="567"/>
-      <c r="C34" s="568"/>
-      <c r="D34" s="568"/>
-      <c r="E34" s="568"/>
-      <c r="F34" s="568"/>
-      <c r="G34" s="569"/>
+      <c r="B34" s="565"/>
+      <c r="C34" s="566"/>
+      <c r="D34" s="566"/>
+      <c r="E34" s="566"/>
+      <c r="F34" s="566"/>
+      <c r="G34" s="567"/>
     </row>
     <row r="35" spans="1:9" ht="15.6" customHeight="1">
       <c r="A35" s="68"/>
@@ -35951,1019 +35951,1019 @@
       <c r="F35" s="68"/>
     </row>
     <row r="36" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A36" s="552" t="s">
+      <c r="A36" s="543" t="s">
         <v>382</v>
       </c>
-      <c r="B36" s="553"/>
-      <c r="C36" s="553"/>
-      <c r="D36" s="553"/>
-      <c r="E36" s="554"/>
-      <c r="F36" s="558" t="s">
+      <c r="B36" s="544"/>
+      <c r="C36" s="544"/>
+      <c r="D36" s="544"/>
+      <c r="E36" s="545"/>
+      <c r="F36" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G36" s="558"/>
+      <c r="G36" s="551"/>
     </row>
     <row r="37" spans="1:9" ht="21" customHeight="1">
-      <c r="A37" s="547" t="s">
+      <c r="A37" s="534" t="s">
         <v>383</v>
       </c>
-      <c r="B37" s="548"/>
-      <c r="C37" s="548"/>
-      <c r="D37" s="548"/>
-      <c r="E37" s="549"/>
-      <c r="F37" s="557" t="s">
+      <c r="B37" s="535"/>
+      <c r="C37" s="535"/>
+      <c r="D37" s="535"/>
+      <c r="E37" s="536"/>
+      <c r="F37" s="533" t="s">
         <v>384</v>
       </c>
-      <c r="G37" s="557"/>
+      <c r="G37" s="533"/>
     </row>
     <row r="38" spans="1:9" ht="21" customHeight="1">
-      <c r="A38" s="547" t="s">
+      <c r="A38" s="534" t="s">
         <v>385</v>
       </c>
-      <c r="B38" s="548"/>
-      <c r="C38" s="548"/>
-      <c r="D38" s="548"/>
-      <c r="E38" s="549"/>
-      <c r="F38" s="557" t="s">
+      <c r="B38" s="535"/>
+      <c r="C38" s="535"/>
+      <c r="D38" s="535"/>
+      <c r="E38" s="536"/>
+      <c r="F38" s="533" t="s">
         <v>386</v>
       </c>
-      <c r="G38" s="557"/>
+      <c r="G38" s="533"/>
     </row>
     <row r="39" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A39" s="547"/>
-      <c r="B39" s="555"/>
-      <c r="C39" s="555"/>
-      <c r="D39" s="555"/>
-      <c r="E39" s="556"/>
-      <c r="F39" s="557"/>
-      <c r="G39" s="557"/>
+      <c r="A39" s="534"/>
+      <c r="B39" s="541"/>
+      <c r="C39" s="541"/>
+      <c r="D39" s="541"/>
+      <c r="E39" s="542"/>
+      <c r="F39" s="533"/>
+      <c r="G39" s="533"/>
     </row>
     <row r="40" spans="1:9" ht="15.6" customHeight="1">
       <c r="A40" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B40" s="557"/>
-      <c r="C40" s="557"/>
-      <c r="D40" s="557"/>
-      <c r="E40" s="557"/>
-      <c r="F40" s="557"/>
-      <c r="G40" s="557"/>
+      <c r="B40" s="533"/>
+      <c r="C40" s="533"/>
+      <c r="D40" s="533"/>
+      <c r="E40" s="533"/>
+      <c r="F40" s="533"/>
+      <c r="G40" s="533"/>
     </row>
     <row r="41" spans="1:9" ht="15.6" customHeight="1">
       <c r="A41" s="564"/>
-      <c r="B41" s="578"/>
-      <c r="C41" s="578"/>
-      <c r="D41" s="578"/>
-      <c r="E41" s="578"/>
-      <c r="F41" s="578"/>
-      <c r="G41" s="578"/>
+      <c r="B41" s="537"/>
+      <c r="C41" s="537"/>
+      <c r="D41" s="537"/>
+      <c r="E41" s="537"/>
+      <c r="F41" s="537"/>
+      <c r="G41" s="537"/>
     </row>
     <row r="42" spans="1:9" ht="15.6" customHeight="1"/>
     <row r="43" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A43" s="552" t="s">
+      <c r="A43" s="543" t="s">
         <v>387</v>
       </c>
-      <c r="B43" s="553"/>
-      <c r="C43" s="553"/>
-      <c r="D43" s="553"/>
-      <c r="E43" s="554"/>
-      <c r="F43" s="576" t="s">
+      <c r="B43" s="544"/>
+      <c r="C43" s="544"/>
+      <c r="D43" s="544"/>
+      <c r="E43" s="545"/>
+      <c r="F43" s="600" t="s">
         <v>365</v>
       </c>
-      <c r="G43" s="577"/>
+      <c r="G43" s="601"/>
       <c r="I43" s="286">
         <f>I76</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="52.5" customHeight="1">
-      <c r="A44" s="547" t="str">
+      <c r="A44" s="534" t="str">
         <f>IF(I43=1,"Fiberglass Shell - No Steel","4 bar bond beam with ½ inch steel; 3/8 inch rebar on 10 inch centers through pool")</f>
         <v>4 bar bond beam with ½ inch steel; 3/8 inch rebar on 10 inch centers through pool</v>
       </c>
-      <c r="B44" s="548"/>
-      <c r="C44" s="548"/>
-      <c r="D44" s="548"/>
-      <c r="E44" s="549"/>
-      <c r="F44" s="538" t="str">
+      <c r="B44" s="535"/>
+      <c r="C44" s="535"/>
+      <c r="D44" s="535"/>
+      <c r="E44" s="536"/>
+      <c r="F44" s="552" t="str">
         <f>IF(I43=1,"","Our bond beam and wall steel schedules are beyond code for protection against expansive soils")</f>
         <v>Our bond beam and wall steel schedules are beyond code for protection against expansive soils</v>
       </c>
-      <c r="G44" s="539"/>
+      <c r="G44" s="553"/>
     </row>
     <row r="45" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A45" s="547" t="str">
+      <c r="A45" s="534" t="str">
         <f>IF(I43=1,"","10 inch on center in transition slope by 20 feet length")</f>
         <v>10 inch on center in transition slope by 20 feet length</v>
       </c>
-      <c r="B45" s="548"/>
-      <c r="C45" s="548"/>
-      <c r="D45" s="548"/>
-      <c r="E45" s="549"/>
-      <c r="F45" s="538" t="str">
+      <c r="B45" s="535"/>
+      <c r="C45" s="535"/>
+      <c r="D45" s="535"/>
+      <c r="E45" s="536"/>
+      <c r="F45" s="552" t="str">
         <f>IF(I43=1,"","Strongest steel schedule in the industry!")</f>
         <v>Strongest steel schedule in the industry!</v>
       </c>
-      <c r="G45" s="539"/>
+      <c r="G45" s="553"/>
     </row>
     <row r="46" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A46" s="547" t="s">
+      <c r="A46" s="534" t="s">
         <v>1099</v>
       </c>
-      <c r="B46" s="548"/>
-      <c r="C46" s="548"/>
-      <c r="D46" s="548"/>
-      <c r="E46" s="549"/>
-      <c r="F46" s="538"/>
-      <c r="G46" s="539"/>
+      <c r="B46" s="535"/>
+      <c r="C46" s="535"/>
+      <c r="D46" s="535"/>
+      <c r="E46" s="536"/>
+      <c r="F46" s="552"/>
+      <c r="G46" s="553"/>
     </row>
     <row r="47" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A47" s="547"/>
-      <c r="B47" s="555"/>
-      <c r="C47" s="555"/>
-      <c r="D47" s="555"/>
-      <c r="E47" s="556"/>
-      <c r="F47" s="538"/>
-      <c r="G47" s="539"/>
+      <c r="A47" s="534"/>
+      <c r="B47" s="541"/>
+      <c r="C47" s="541"/>
+      <c r="D47" s="541"/>
+      <c r="E47" s="542"/>
+      <c r="F47" s="552"/>
+      <c r="G47" s="553"/>
     </row>
     <row r="48" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A48" s="540" t="s">
+      <c r="A48" s="554" t="s">
         <v>366</v>
       </c>
-      <c r="B48" s="540"/>
-      <c r="C48" s="541"/>
-      <c r="D48" s="541"/>
-      <c r="E48" s="541"/>
-      <c r="F48" s="541"/>
-      <c r="G48" s="542"/>
+      <c r="B48" s="554"/>
+      <c r="C48" s="555"/>
+      <c r="D48" s="555"/>
+      <c r="E48" s="555"/>
+      <c r="F48" s="555"/>
+      <c r="G48" s="556"/>
     </row>
     <row r="49" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A49" s="551"/>
-      <c r="B49" s="551"/>
-      <c r="C49" s="605"/>
-      <c r="D49" s="605"/>
-      <c r="E49" s="605"/>
-      <c r="F49" s="605"/>
-      <c r="G49" s="606"/>
+      <c r="A49" s="557"/>
+      <c r="B49" s="557"/>
+      <c r="C49" s="558"/>
+      <c r="D49" s="558"/>
+      <c r="E49" s="558"/>
+      <c r="F49" s="558"/>
+      <c r="G49" s="559"/>
     </row>
     <row r="50" spans="1:7" ht="15.6" customHeight="1"/>
     <row r="51" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A51" s="552" t="s">
+      <c r="A51" s="543" t="s">
         <v>388</v>
       </c>
-      <c r="B51" s="553"/>
-      <c r="C51" s="553"/>
-      <c r="D51" s="553"/>
-      <c r="E51" s="554"/>
-      <c r="F51" s="558" t="s">
+      <c r="B51" s="544"/>
+      <c r="C51" s="544"/>
+      <c r="D51" s="544"/>
+      <c r="E51" s="545"/>
+      <c r="F51" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G51" s="558"/>
+      <c r="G51" s="551"/>
     </row>
     <row r="52" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A52" s="547" t="s">
+      <c r="A52" s="534" t="s">
         <v>389</v>
       </c>
-      <c r="B52" s="548"/>
-      <c r="C52" s="548"/>
-      <c r="D52" s="548"/>
-      <c r="E52" s="549"/>
-      <c r="F52" s="557" t="s">
+      <c r="B52" s="535"/>
+      <c r="C52" s="535"/>
+      <c r="D52" s="535"/>
+      <c r="E52" s="536"/>
+      <c r="F52" s="533" t="s">
         <v>390</v>
       </c>
-      <c r="G52" s="557"/>
+      <c r="G52" s="533"/>
     </row>
     <row r="53" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A53" s="547" t="s">
+      <c r="A53" s="534" t="s">
         <v>391</v>
       </c>
-      <c r="B53" s="548"/>
-      <c r="C53" s="548"/>
-      <c r="D53" s="548"/>
-      <c r="E53" s="549"/>
-      <c r="F53" s="557" t="s">
+      <c r="B53" s="535"/>
+      <c r="C53" s="535"/>
+      <c r="D53" s="535"/>
+      <c r="E53" s="536"/>
+      <c r="F53" s="533" t="s">
         <v>392</v>
       </c>
-      <c r="G53" s="557"/>
+      <c r="G53" s="533"/>
     </row>
     <row r="54" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A54" s="547" t="s">
+      <c r="A54" s="534" t="s">
         <v>393</v>
       </c>
-      <c r="B54" s="548"/>
-      <c r="C54" s="548"/>
-      <c r="D54" s="548"/>
-      <c r="E54" s="549"/>
-      <c r="F54" s="557" t="s">
+      <c r="B54" s="535"/>
+      <c r="C54" s="535"/>
+      <c r="D54" s="535"/>
+      <c r="E54" s="536"/>
+      <c r="F54" s="533" t="s">
         <v>394</v>
       </c>
-      <c r="G54" s="557"/>
+      <c r="G54" s="533"/>
     </row>
     <row r="55" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A55" s="547" t="s">
+      <c r="A55" s="534" t="s">
         <v>395</v>
       </c>
-      <c r="B55" s="548"/>
-      <c r="C55" s="548"/>
-      <c r="D55" s="548"/>
-      <c r="E55" s="549"/>
-      <c r="F55" s="557"/>
-      <c r="G55" s="557"/>
+      <c r="B55" s="535"/>
+      <c r="C55" s="535"/>
+      <c r="D55" s="535"/>
+      <c r="E55" s="536"/>
+      <c r="F55" s="533"/>
+      <c r="G55" s="533"/>
     </row>
     <row r="56" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A56" s="547" t="s">
+      <c r="A56" s="534" t="s">
         <v>434</v>
       </c>
-      <c r="B56" s="548"/>
-      <c r="C56" s="548"/>
-      <c r="D56" s="548"/>
-      <c r="E56" s="549"/>
-      <c r="F56" s="557"/>
-      <c r="G56" s="557"/>
+      <c r="B56" s="535"/>
+      <c r="C56" s="535"/>
+      <c r="D56" s="535"/>
+      <c r="E56" s="536"/>
+      <c r="F56" s="533"/>
+      <c r="G56" s="533"/>
     </row>
     <row r="57" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A57" s="547" t="s">
+      <c r="A57" s="534" t="s">
         <v>396</v>
       </c>
-      <c r="B57" s="548"/>
-      <c r="C57" s="548"/>
-      <c r="D57" s="548"/>
-      <c r="E57" s="549"/>
-      <c r="F57" s="557"/>
-      <c r="G57" s="557"/>
+      <c r="B57" s="535"/>
+      <c r="C57" s="535"/>
+      <c r="D57" s="535"/>
+      <c r="E57" s="536"/>
+      <c r="F57" s="533"/>
+      <c r="G57" s="533"/>
     </row>
     <row r="58" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A58" s="547" t="s">
+      <c r="A58" s="534" t="s">
         <v>397</v>
       </c>
-      <c r="B58" s="548"/>
-      <c r="C58" s="548"/>
-      <c r="D58" s="548"/>
-      <c r="E58" s="549"/>
-      <c r="F58" s="557"/>
-      <c r="G58" s="557"/>
+      <c r="B58" s="535"/>
+      <c r="C58" s="535"/>
+      <c r="D58" s="535"/>
+      <c r="E58" s="536"/>
+      <c r="F58" s="533"/>
+      <c r="G58" s="533"/>
     </row>
     <row r="59" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A59" s="547"/>
-      <c r="B59" s="548"/>
-      <c r="C59" s="548"/>
-      <c r="D59" s="548"/>
-      <c r="E59" s="549"/>
-      <c r="F59" s="557"/>
-      <c r="G59" s="557"/>
+      <c r="A59" s="534"/>
+      <c r="B59" s="535"/>
+      <c r="C59" s="535"/>
+      <c r="D59" s="535"/>
+      <c r="E59" s="536"/>
+      <c r="F59" s="533"/>
+      <c r="G59" s="533"/>
     </row>
     <row r="60" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A60" s="547" t="s">
+      <c r="A60" s="534" t="s">
         <v>398</v>
       </c>
-      <c r="B60" s="548"/>
-      <c r="C60" s="548"/>
-      <c r="D60" s="548"/>
-      <c r="E60" s="549"/>
-      <c r="F60" s="557"/>
-      <c r="G60" s="557"/>
+      <c r="B60" s="535"/>
+      <c r="C60" s="535"/>
+      <c r="D60" s="535"/>
+      <c r="E60" s="536"/>
+      <c r="F60" s="533"/>
+      <c r="G60" s="533"/>
     </row>
     <row r="61" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A61" s="579" t="s">
+      <c r="A61" s="596" t="s">
         <v>399</v>
       </c>
-      <c r="B61" s="580"/>
-      <c r="C61" s="580"/>
-      <c r="D61" s="580"/>
-      <c r="E61" s="581"/>
-      <c r="F61" s="557"/>
-      <c r="G61" s="557"/>
+      <c r="B61" s="597"/>
+      <c r="C61" s="597"/>
+      <c r="D61" s="597"/>
+      <c r="E61" s="598"/>
+      <c r="F61" s="533"/>
+      <c r="G61" s="533"/>
     </row>
     <row r="62" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A62" s="607"/>
-      <c r="B62" s="607"/>
-      <c r="C62" s="607"/>
-      <c r="D62" s="607"/>
-      <c r="E62" s="608"/>
-      <c r="F62" s="557"/>
-      <c r="G62" s="557"/>
+      <c r="A62" s="538"/>
+      <c r="B62" s="538"/>
+      <c r="C62" s="538"/>
+      <c r="D62" s="538"/>
+      <c r="E62" s="539"/>
+      <c r="F62" s="533"/>
+      <c r="G62" s="533"/>
     </row>
     <row r="63" spans="1:7" ht="15.6" customHeight="1">
       <c r="A63" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B63" s="557"/>
-      <c r="C63" s="557"/>
-      <c r="D63" s="557"/>
-      <c r="E63" s="557"/>
-      <c r="F63" s="557"/>
-      <c r="G63" s="557"/>
+      <c r="B63" s="533"/>
+      <c r="C63" s="533"/>
+      <c r="D63" s="533"/>
+      <c r="E63" s="533"/>
+      <c r="F63" s="533"/>
+      <c r="G63" s="533"/>
     </row>
     <row r="64" spans="1:7" ht="15.6" customHeight="1">
       <c r="A64" s="564"/>
-      <c r="B64" s="578"/>
-      <c r="C64" s="578"/>
-      <c r="D64" s="578"/>
-      <c r="E64" s="578"/>
-      <c r="F64" s="578"/>
-      <c r="G64" s="578"/>
+      <c r="B64" s="537"/>
+      <c r="C64" s="537"/>
+      <c r="D64" s="537"/>
+      <c r="E64" s="537"/>
+      <c r="F64" s="537"/>
+      <c r="G64" s="537"/>
     </row>
     <row r="65" spans="1:9" ht="15.6" customHeight="1"/>
     <row r="66" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A66" s="552" t="s">
+      <c r="A66" s="543" t="s">
         <v>400</v>
       </c>
-      <c r="B66" s="553"/>
-      <c r="C66" s="553"/>
-      <c r="D66" s="553"/>
-      <c r="E66" s="554"/>
-      <c r="F66" s="558" t="s">
+      <c r="B66" s="544"/>
+      <c r="C66" s="544"/>
+      <c r="D66" s="544"/>
+      <c r="E66" s="545"/>
+      <c r="F66" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G66" s="558"/>
+      <c r="G66" s="551"/>
     </row>
     <row r="67" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A67" s="547" t="s">
+      <c r="A67" s="534" t="s">
         <v>401</v>
       </c>
-      <c r="B67" s="548"/>
-      <c r="C67" s="548"/>
-      <c r="D67" s="548"/>
-      <c r="E67" s="549"/>
-      <c r="F67" s="557" t="s">
+      <c r="B67" s="535"/>
+      <c r="C67" s="535"/>
+      <c r="D67" s="535"/>
+      <c r="E67" s="536"/>
+      <c r="F67" s="533" t="s">
         <v>402</v>
       </c>
-      <c r="G67" s="557"/>
+      <c r="G67" s="533"/>
     </row>
     <row r="68" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A68" s="547" t="s">
+      <c r="A68" s="534" t="s">
         <v>403</v>
       </c>
-      <c r="B68" s="548"/>
-      <c r="C68" s="548"/>
-      <c r="D68" s="548"/>
-      <c r="E68" s="549"/>
-      <c r="F68" s="557"/>
-      <c r="G68" s="557"/>
+      <c r="B68" s="535"/>
+      <c r="C68" s="535"/>
+      <c r="D68" s="535"/>
+      <c r="E68" s="536"/>
+      <c r="F68" s="533"/>
+      <c r="G68" s="533"/>
     </row>
     <row r="69" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A69" s="547" t="s">
+      <c r="A69" s="534" t="s">
         <v>404</v>
       </c>
-      <c r="B69" s="548"/>
-      <c r="C69" s="548"/>
-      <c r="D69" s="548"/>
-      <c r="E69" s="549"/>
-      <c r="F69" s="557"/>
-      <c r="G69" s="557"/>
+      <c r="B69" s="535"/>
+      <c r="C69" s="535"/>
+      <c r="D69" s="535"/>
+      <c r="E69" s="536"/>
+      <c r="F69" s="533"/>
+      <c r="G69" s="533"/>
     </row>
     <row r="70" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A70" s="547" t="s">
+      <c r="A70" s="534" t="s">
         <v>964</v>
       </c>
-      <c r="B70" s="548"/>
-      <c r="C70" s="548"/>
-      <c r="D70" s="548"/>
-      <c r="E70" s="549"/>
-      <c r="F70" s="557" t="s">
+      <c r="B70" s="535"/>
+      <c r="C70" s="535"/>
+      <c r="D70" s="535"/>
+      <c r="E70" s="536"/>
+      <c r="F70" s="533" t="s">
         <v>965</v>
       </c>
-      <c r="G70" s="557"/>
+      <c r="G70" s="533"/>
     </row>
     <row r="71" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A71" s="547" t="s">
+      <c r="A71" s="534" t="s">
         <v>405</v>
       </c>
-      <c r="B71" s="548"/>
-      <c r="C71" s="548"/>
-      <c r="D71" s="548"/>
-      <c r="E71" s="549"/>
-      <c r="F71" s="557"/>
-      <c r="G71" s="557"/>
+      <c r="B71" s="535"/>
+      <c r="C71" s="535"/>
+      <c r="D71" s="535"/>
+      <c r="E71" s="536"/>
+      <c r="F71" s="533"/>
+      <c r="G71" s="533"/>
     </row>
     <row r="72" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A72" s="547" t="s">
+      <c r="A72" s="534" t="s">
         <v>406</v>
       </c>
-      <c r="B72" s="555"/>
-      <c r="C72" s="555"/>
-      <c r="D72" s="555"/>
-      <c r="E72" s="556"/>
-      <c r="F72" s="557"/>
-      <c r="G72" s="557"/>
+      <c r="B72" s="541"/>
+      <c r="C72" s="541"/>
+      <c r="D72" s="541"/>
+      <c r="E72" s="542"/>
+      <c r="F72" s="533"/>
+      <c r="G72" s="533"/>
     </row>
     <row r="73" spans="1:9" ht="15.6" customHeight="1">
       <c r="A73" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B73" s="540"/>
-      <c r="C73" s="541"/>
-      <c r="D73" s="541"/>
-      <c r="E73" s="541"/>
-      <c r="F73" s="541"/>
-      <c r="G73" s="542"/>
+      <c r="B73" s="554"/>
+      <c r="C73" s="555"/>
+      <c r="D73" s="555"/>
+      <c r="E73" s="555"/>
+      <c r="F73" s="555"/>
+      <c r="G73" s="556"/>
     </row>
     <row r="74" spans="1:9" ht="15.6" customHeight="1">
       <c r="A74" s="564"/>
-      <c r="B74" s="567"/>
-      <c r="C74" s="568"/>
-      <c r="D74" s="568"/>
-      <c r="E74" s="568"/>
-      <c r="F74" s="568"/>
-      <c r="G74" s="569"/>
+      <c r="B74" s="565"/>
+      <c r="C74" s="566"/>
+      <c r="D74" s="566"/>
+      <c r="E74" s="566"/>
+      <c r="F74" s="566"/>
+      <c r="G74" s="567"/>
     </row>
     <row r="75" spans="1:9" ht="15.6" customHeight="1"/>
     <row r="76" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A76" s="552" t="s">
+      <c r="A76" s="543" t="s">
         <v>407</v>
       </c>
-      <c r="B76" s="553"/>
-      <c r="C76" s="553"/>
-      <c r="D76" s="553"/>
-      <c r="E76" s="554"/>
-      <c r="F76" s="558" t="s">
+      <c r="B76" s="544"/>
+      <c r="C76" s="544"/>
+      <c r="D76" s="544"/>
+      <c r="E76" s="545"/>
+      <c r="F76" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G76" s="558"/>
+      <c r="G76" s="551"/>
       <c r="I76" s="286">
         <f>J142</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A77" s="547" t="str">
+      <c r="A77" s="534" t="str">
         <f>IF(J142=1,"No Shotcrete - Fiberglass Shell","4,000 PSI pneumatically applied shotcrete")</f>
         <v>4,000 PSI pneumatically applied shotcrete</v>
       </c>
-      <c r="B77" s="548"/>
-      <c r="C77" s="548"/>
-      <c r="D77" s="548"/>
-      <c r="E77" s="549"/>
-      <c r="F77" s="557" t="str">
+      <c r="B77" s="535"/>
+      <c r="C77" s="535"/>
+      <c r="D77" s="535"/>
+      <c r="E77" s="536"/>
+      <c r="F77" s="533" t="str">
         <f>IF(I76=1,"","Lifetime structural warranty")</f>
         <v>Lifetime structural warranty</v>
       </c>
-      <c r="G77" s="557"/>
+      <c r="G77" s="533"/>
     </row>
     <row r="78" spans="1:9" ht="47.25" customHeight="1">
-      <c r="A78" s="547"/>
-      <c r="B78" s="548"/>
-      <c r="C78" s="548"/>
-      <c r="D78" s="548"/>
-      <c r="E78" s="549"/>
-      <c r="F78" s="557"/>
-      <c r="G78" s="557"/>
+      <c r="A78" s="534"/>
+      <c r="B78" s="535"/>
+      <c r="C78" s="535"/>
+      <c r="D78" s="535"/>
+      <c r="E78" s="536"/>
+      <c r="F78" s="533"/>
+      <c r="G78" s="533"/>
     </row>
     <row r="79" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A79" s="547" t="str">
+      <c r="A79" s="534" t="str">
         <f>IF(I76=1,"","All shotcrete is measured by a certified weighmaster")</f>
         <v>All shotcrete is measured by a certified weighmaster</v>
       </c>
-      <c r="B79" s="548"/>
-      <c r="C79" s="548"/>
-      <c r="D79" s="548"/>
-      <c r="E79" s="549"/>
-      <c r="F79" s="538"/>
-      <c r="G79" s="539"/>
+      <c r="B79" s="535"/>
+      <c r="C79" s="535"/>
+      <c r="D79" s="535"/>
+      <c r="E79" s="536"/>
+      <c r="F79" s="552"/>
+      <c r="G79" s="553"/>
     </row>
     <row r="80" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A80" s="547" t="str">
+      <c r="A80" s="534" t="str">
         <f>IF(I76=1,"","All nozzlemen are certified for State and Municipal work")</f>
         <v>All nozzlemen are certified for State and Municipal work</v>
       </c>
-      <c r="B80" s="548"/>
-      <c r="C80" s="548"/>
-      <c r="D80" s="548"/>
-      <c r="E80" s="549"/>
-      <c r="F80" s="538"/>
-      <c r="G80" s="539"/>
+      <c r="B80" s="535"/>
+      <c r="C80" s="535"/>
+      <c r="D80" s="535"/>
+      <c r="E80" s="536"/>
+      <c r="F80" s="552"/>
+      <c r="G80" s="553"/>
     </row>
     <row r="81" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A81" s="547" t="str">
+      <c r="A81" s="534" t="str">
         <f>IF(I76=1,"","Lifetime structural warranty")</f>
         <v>Lifetime structural warranty</v>
       </c>
-      <c r="B81" s="548"/>
-      <c r="C81" s="548"/>
-      <c r="D81" s="548"/>
-      <c r="E81" s="549"/>
-      <c r="F81" s="557"/>
-      <c r="G81" s="557"/>
+      <c r="B81" s="535"/>
+      <c r="C81" s="535"/>
+      <c r="D81" s="535"/>
+      <c r="E81" s="536"/>
+      <c r="F81" s="533"/>
+      <c r="G81" s="533"/>
     </row>
     <row r="82" spans="1:9" ht="15.6" customHeight="1">
       <c r="A82" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B82" s="540"/>
-      <c r="C82" s="541"/>
-      <c r="D82" s="541"/>
-      <c r="E82" s="541"/>
-      <c r="F82" s="541"/>
-      <c r="G82" s="542"/>
+      <c r="B82" s="554"/>
+      <c r="C82" s="555"/>
+      <c r="D82" s="555"/>
+      <c r="E82" s="555"/>
+      <c r="F82" s="555"/>
+      <c r="G82" s="556"/>
     </row>
     <row r="83" spans="1:9" ht="15.6" customHeight="1">
       <c r="A83" s="564"/>
-      <c r="B83" s="567"/>
-      <c r="C83" s="568"/>
-      <c r="D83" s="568"/>
-      <c r="E83" s="568"/>
-      <c r="F83" s="568"/>
-      <c r="G83" s="569"/>
+      <c r="B83" s="565"/>
+      <c r="C83" s="566"/>
+      <c r="D83" s="566"/>
+      <c r="E83" s="566"/>
+      <c r="F83" s="566"/>
+      <c r="G83" s="567"/>
     </row>
     <row r="84" spans="1:9" ht="15.6" customHeight="1"/>
     <row r="85" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A85" s="552" t="s">
+      <c r="A85" s="543" t="s">
         <v>408</v>
       </c>
-      <c r="B85" s="553"/>
-      <c r="C85" s="553"/>
-      <c r="D85" s="553"/>
-      <c r="E85" s="554"/>
-      <c r="F85" s="558" t="s">
+      <c r="B85" s="544"/>
+      <c r="C85" s="544"/>
+      <c r="D85" s="544"/>
+      <c r="E85" s="545"/>
+      <c r="F85" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G85" s="558"/>
+      <c r="G85" s="551"/>
       <c r="I85" s="286">
         <f>I76</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="27" customHeight="1">
-      <c r="A86" s="547" t="str">
+      <c r="A86" s="534" t="str">
         <f>IF(I85=1,"Fiberglass Shell - No Tile","All pool &amp; spa waterline tile including - skimmer throat")</f>
         <v>All pool &amp; spa waterline tile including - skimmer throat</v>
       </c>
-      <c r="B86" s="548"/>
-      <c r="C86" s="548"/>
-      <c r="D86" s="548"/>
-      <c r="E86" s="549"/>
-      <c r="F86" s="557" t="str">
+      <c r="B86" s="535"/>
+      <c r="C86" s="535"/>
+      <c r="D86" s="535"/>
+      <c r="E86" s="536"/>
+      <c r="F86" s="533" t="str">
         <f>IF(I85=1,"","Frost-proof tiles in a variety of patterns and colors")</f>
         <v>Frost-proof tiles in a variety of patterns and colors</v>
       </c>
-      <c r="G86" s="557"/>
+      <c r="G86" s="533"/>
     </row>
     <row r="87" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A87" s="547" t="str">
+      <c r="A87" s="534" t="str">
         <f>IF(I85=1,"","Trim tile available on steps and benches")</f>
         <v>Trim tile available on steps and benches</v>
       </c>
-      <c r="B87" s="555"/>
-      <c r="C87" s="555"/>
-      <c r="D87" s="555"/>
-      <c r="E87" s="556"/>
-      <c r="F87" s="557" t="s">
+      <c r="B87" s="541"/>
+      <c r="C87" s="541"/>
+      <c r="D87" s="541"/>
+      <c r="E87" s="542"/>
+      <c r="F87" s="533" t="s">
         <v>966</v>
       </c>
-      <c r="G87" s="557"/>
+      <c r="G87" s="533"/>
     </row>
     <row r="88" spans="1:9" ht="15.6" customHeight="1">
       <c r="A88" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B88" s="540"/>
-      <c r="C88" s="541"/>
-      <c r="D88" s="541"/>
-      <c r="E88" s="541"/>
-      <c r="F88" s="541"/>
-      <c r="G88" s="542"/>
+      <c r="B88" s="554"/>
+      <c r="C88" s="555"/>
+      <c r="D88" s="555"/>
+      <c r="E88" s="555"/>
+      <c r="F88" s="555"/>
+      <c r="G88" s="556"/>
     </row>
     <row r="89" spans="1:9" ht="15.6" customHeight="1">
       <c r="A89" s="564"/>
-      <c r="B89" s="567"/>
-      <c r="C89" s="568"/>
-      <c r="D89" s="568"/>
-      <c r="E89" s="568"/>
-      <c r="F89" s="568"/>
-      <c r="G89" s="569"/>
+      <c r="B89" s="565"/>
+      <c r="C89" s="566"/>
+      <c r="D89" s="566"/>
+      <c r="E89" s="566"/>
+      <c r="F89" s="566"/>
+      <c r="G89" s="567"/>
     </row>
     <row r="90" spans="1:9" ht="15.6" customHeight="1"/>
     <row r="91" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A91" s="552" t="s">
+      <c r="A91" s="543" t="s">
         <v>409</v>
       </c>
-      <c r="B91" s="553"/>
-      <c r="C91" s="553"/>
-      <c r="D91" s="553"/>
-      <c r="E91" s="554"/>
-      <c r="F91" s="558" t="s">
+      <c r="B91" s="544"/>
+      <c r="C91" s="544"/>
+      <c r="D91" s="544"/>
+      <c r="E91" s="545"/>
+      <c r="F91" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G91" s="558"/>
+      <c r="G91" s="551"/>
     </row>
     <row r="92" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A92" s="547"/>
-      <c r="B92" s="548"/>
-      <c r="C92" s="548"/>
-      <c r="D92" s="548"/>
-      <c r="E92" s="549"/>
-      <c r="F92" s="557"/>
-      <c r="G92" s="557"/>
+      <c r="A92" s="534"/>
+      <c r="B92" s="535"/>
+      <c r="C92" s="535"/>
+      <c r="D92" s="535"/>
+      <c r="E92" s="536"/>
+      <c r="F92" s="533"/>
+      <c r="G92" s="533"/>
     </row>
     <row r="93" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A93" s="547"/>
-      <c r="B93" s="555"/>
-      <c r="C93" s="555"/>
-      <c r="D93" s="555"/>
-      <c r="E93" s="556"/>
-      <c r="F93" s="557"/>
-      <c r="G93" s="557"/>
+      <c r="A93" s="534"/>
+      <c r="B93" s="541"/>
+      <c r="C93" s="541"/>
+      <c r="D93" s="541"/>
+      <c r="E93" s="542"/>
+      <c r="F93" s="533"/>
+      <c r="G93" s="533"/>
     </row>
     <row r="94" spans="1:9" ht="15.6" customHeight="1">
       <c r="A94" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B94" s="540"/>
-      <c r="C94" s="541"/>
-      <c r="D94" s="541"/>
-      <c r="E94" s="541"/>
-      <c r="F94" s="541"/>
-      <c r="G94" s="542"/>
+      <c r="B94" s="554"/>
+      <c r="C94" s="555"/>
+      <c r="D94" s="555"/>
+      <c r="E94" s="555"/>
+      <c r="F94" s="555"/>
+      <c r="G94" s="556"/>
     </row>
     <row r="95" spans="1:9" ht="15.6" customHeight="1">
       <c r="A95" s="564"/>
-      <c r="B95" s="567"/>
-      <c r="C95" s="568"/>
-      <c r="D95" s="568"/>
-      <c r="E95" s="568"/>
-      <c r="F95" s="568"/>
-      <c r="G95" s="569"/>
+      <c r="B95" s="565"/>
+      <c r="C95" s="566"/>
+      <c r="D95" s="566"/>
+      <c r="E95" s="566"/>
+      <c r="F95" s="566"/>
+      <c r="G95" s="567"/>
     </row>
     <row r="96" spans="1:9" ht="15.6" customHeight="1"/>
     <row r="97" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A97" s="552" t="s">
+      <c r="A97" s="543" t="s">
         <v>410</v>
       </c>
-      <c r="B97" s="553"/>
-      <c r="C97" s="553"/>
-      <c r="D97" s="553"/>
-      <c r="E97" s="554"/>
-      <c r="F97" s="558" t="s">
+      <c r="B97" s="544"/>
+      <c r="C97" s="544"/>
+      <c r="D97" s="544"/>
+      <c r="E97" s="545"/>
+      <c r="F97" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G97" s="558"/>
+      <c r="G97" s="551"/>
     </row>
     <row r="98" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A98" s="547" t="str">
+      <c r="A98" s="534" t="str">
         <f>'NEW POOL'!A113</f>
         <v>Jandy 2.7HP Variable Pump</v>
       </c>
-      <c r="B98" s="548"/>
-      <c r="C98" s="548"/>
-      <c r="D98" s="548"/>
-      <c r="E98" s="549"/>
-      <c r="F98" s="557" t="s">
+      <c r="B98" s="535"/>
+      <c r="C98" s="535"/>
+      <c r="D98" s="535"/>
+      <c r="E98" s="536"/>
+      <c r="F98" s="533" t="s">
         <v>411</v>
       </c>
-      <c r="G98" s="557"/>
+      <c r="G98" s="533"/>
     </row>
     <row r="99" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A99" s="535" t="str">
+      <c r="A99" s="560" t="str">
         <f>'NEW POOL'!A114</f>
         <v>No Auxiliary Pump</v>
       </c>
-      <c r="B99" s="536"/>
-      <c r="C99" s="536"/>
-      <c r="D99" s="536"/>
-      <c r="E99" s="537"/>
-      <c r="F99" s="557"/>
-      <c r="G99" s="557"/>
+      <c r="B99" s="561"/>
+      <c r="C99" s="561"/>
+      <c r="D99" s="561"/>
+      <c r="E99" s="562"/>
+      <c r="F99" s="533"/>
+      <c r="G99" s="533"/>
     </row>
     <row r="100" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A100" s="547" t="str">
+      <c r="A100" s="534" t="str">
         <f>'NEW POOL'!A117</f>
         <v>460 SQFT Cartridge Filter</v>
       </c>
-      <c r="B100" s="548"/>
-      <c r="C100" s="548"/>
-      <c r="D100" s="548"/>
-      <c r="E100" s="549"/>
-      <c r="F100" s="557"/>
-      <c r="G100" s="557"/>
+      <c r="B100" s="535"/>
+      <c r="C100" s="535"/>
+      <c r="D100" s="535"/>
+      <c r="E100" s="536"/>
+      <c r="F100" s="533"/>
+      <c r="G100" s="533"/>
     </row>
     <row r="101" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A101" s="535" t="str">
+      <c r="A101" s="560" t="str">
         <f>'NEW POOL'!A127</f>
         <v>Salt/mineral System - Fusion Soft</v>
       </c>
-      <c r="B101" s="536"/>
-      <c r="C101" s="536"/>
-      <c r="D101" s="536"/>
-      <c r="E101" s="537"/>
-      <c r="F101" s="538"/>
-      <c r="G101" s="539"/>
+      <c r="B101" s="561"/>
+      <c r="C101" s="561"/>
+      <c r="D101" s="561"/>
+      <c r="E101" s="562"/>
+      <c r="F101" s="552"/>
+      <c r="G101" s="553"/>
     </row>
     <row r="102" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A102" s="535" t="str">
+      <c r="A102" s="560" t="str">
         <f>'NEW POOL'!A128</f>
         <v>No Sanitation</v>
       </c>
-      <c r="B102" s="536"/>
-      <c r="C102" s="536"/>
-      <c r="D102" s="536"/>
-      <c r="E102" s="537"/>
-      <c r="F102" s="538"/>
-      <c r="G102" s="539"/>
+      <c r="B102" s="561"/>
+      <c r="C102" s="561"/>
+      <c r="D102" s="561"/>
+      <c r="E102" s="562"/>
+      <c r="F102" s="552"/>
+      <c r="G102" s="553"/>
     </row>
     <row r="103" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A103" s="535" t="str">
+      <c r="A103" s="560" t="str">
         <f>'NEW POOL'!A129</f>
         <v>No Sanitation</v>
       </c>
-      <c r="B103" s="536"/>
-      <c r="C103" s="536"/>
-      <c r="D103" s="536"/>
-      <c r="E103" s="537"/>
-      <c r="F103" s="557"/>
-      <c r="G103" s="557"/>
+      <c r="B103" s="561"/>
+      <c r="C103" s="561"/>
+      <c r="D103" s="561"/>
+      <c r="E103" s="562"/>
+      <c r="F103" s="533"/>
+      <c r="G103" s="533"/>
     </row>
     <row r="104" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A104" s="547" t="str">
+      <c r="A104" s="534" t="str">
         <f>'NEW POOL'!A121</f>
         <v>Jandy 400K BTU - VersaFlo</v>
       </c>
-      <c r="B104" s="548"/>
-      <c r="C104" s="548"/>
-      <c r="D104" s="548"/>
-      <c r="E104" s="549"/>
-      <c r="F104" s="557"/>
-      <c r="G104" s="557"/>
+      <c r="B104" s="535"/>
+      <c r="C104" s="535"/>
+      <c r="D104" s="535"/>
+      <c r="E104" s="536"/>
+      <c r="F104" s="533"/>
+      <c r="G104" s="533"/>
     </row>
     <row r="105" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A105" s="547" t="str">
+      <c r="A105" s="534" t="str">
         <f>'NEW POOL'!A119</f>
         <v>Polaris Alpha IQ</v>
       </c>
-      <c r="B105" s="548"/>
-      <c r="C105" s="548"/>
-      <c r="D105" s="548"/>
-      <c r="E105" s="549"/>
-      <c r="F105" s="557"/>
-      <c r="G105" s="557"/>
+      <c r="B105" s="535"/>
+      <c r="C105" s="535"/>
+      <c r="D105" s="535"/>
+      <c r="E105" s="536"/>
+      <c r="F105" s="533"/>
+      <c r="G105" s="533"/>
     </row>
     <row r="106" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A106" s="547" t="str">
+      <c r="A106" s="534" t="str">
         <f>'NEW POOL'!A131</f>
         <v>iAqualink Only PS-4 (H.O. To Provide WiFi) Only use with Infinite Light System</v>
       </c>
-      <c r="B106" s="555"/>
-      <c r="C106" s="555"/>
-      <c r="D106" s="555"/>
-      <c r="E106" s="556"/>
-      <c r="F106" s="557"/>
-      <c r="G106" s="557"/>
+      <c r="B106" s="541"/>
+      <c r="C106" s="541"/>
+      <c r="D106" s="541"/>
+      <c r="E106" s="542"/>
+      <c r="F106" s="533"/>
+      <c r="G106" s="533"/>
     </row>
     <row r="107" spans="1:7" ht="36" customHeight="1">
       <c r="A107" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B107" s="540" t="s">
+      <c r="B107" s="554" t="s">
         <v>967</v>
       </c>
-      <c r="C107" s="541"/>
-      <c r="D107" s="541"/>
-      <c r="E107" s="541"/>
-      <c r="F107" s="541"/>
-      <c r="G107" s="542"/>
+      <c r="C107" s="555"/>
+      <c r="D107" s="555"/>
+      <c r="E107" s="555"/>
+      <c r="F107" s="555"/>
+      <c r="G107" s="556"/>
     </row>
     <row r="108" spans="1:7" ht="15.6" customHeight="1">
       <c r="A108" s="564"/>
-      <c r="B108" s="567"/>
-      <c r="C108" s="568"/>
-      <c r="D108" s="568"/>
-      <c r="E108" s="568"/>
-      <c r="F108" s="568"/>
-      <c r="G108" s="569"/>
+      <c r="B108" s="565"/>
+      <c r="C108" s="566"/>
+      <c r="D108" s="566"/>
+      <c r="E108" s="566"/>
+      <c r="F108" s="566"/>
+      <c r="G108" s="567"/>
     </row>
     <row r="109" spans="1:7" ht="15.6" customHeight="1"/>
     <row r="110" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A110" s="552" t="s">
+      <c r="A110" s="543" t="s">
         <v>412</v>
       </c>
-      <c r="B110" s="553"/>
-      <c r="C110" s="553"/>
-      <c r="D110" s="553"/>
-      <c r="E110" s="554"/>
-      <c r="F110" s="558" t="s">
+      <c r="B110" s="544"/>
+      <c r="C110" s="544"/>
+      <c r="D110" s="544"/>
+      <c r="E110" s="545"/>
+      <c r="F110" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G110" s="558"/>
+      <c r="G110" s="551"/>
     </row>
     <row r="111" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A111" s="547" t="s">
+      <c r="A111" s="534" t="s">
         <v>413</v>
       </c>
-      <c r="B111" s="548"/>
-      <c r="C111" s="548"/>
-      <c r="D111" s="548"/>
-      <c r="E111" s="549"/>
-      <c r="F111" s="538"/>
-      <c r="G111" s="539"/>
+      <c r="B111" s="535"/>
+      <c r="C111" s="535"/>
+      <c r="D111" s="535"/>
+      <c r="E111" s="536"/>
+      <c r="F111" s="552"/>
+      <c r="G111" s="553"/>
     </row>
     <row r="112" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A112" s="547" t="s">
+      <c r="A112" s="534" t="s">
         <v>414</v>
       </c>
-      <c r="B112" s="548"/>
-      <c r="C112" s="548"/>
-      <c r="D112" s="548"/>
-      <c r="E112" s="549"/>
-      <c r="F112" s="538"/>
-      <c r="G112" s="539"/>
+      <c r="B112" s="535"/>
+      <c r="C112" s="535"/>
+      <c r="D112" s="535"/>
+      <c r="E112" s="536"/>
+      <c r="F112" s="552"/>
+      <c r="G112" s="553"/>
     </row>
     <row r="113" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A113" s="547"/>
-      <c r="B113" s="548"/>
-      <c r="C113" s="548"/>
-      <c r="D113" s="548"/>
-      <c r="E113" s="549"/>
-      <c r="F113" s="538"/>
-      <c r="G113" s="539"/>
+      <c r="A113" s="534"/>
+      <c r="B113" s="535"/>
+      <c r="C113" s="535"/>
+      <c r="D113" s="535"/>
+      <c r="E113" s="536"/>
+      <c r="F113" s="552"/>
+      <c r="G113" s="553"/>
     </row>
     <row r="114" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A114" s="547" t="str">
+      <c r="A114" s="534" t="str">
         <f>IF(J142=1,"",'NEW POOL'!A175)</f>
         <v>Pebble Sheen  - Level 1</v>
       </c>
-      <c r="B114" s="548"/>
-      <c r="C114" s="548"/>
-      <c r="D114" s="548"/>
-      <c r="E114" s="549"/>
-      <c r="F114" s="538" t="str">
+      <c r="B114" s="535"/>
+      <c r="C114" s="535"/>
+      <c r="D114" s="535"/>
+      <c r="E114" s="536"/>
+      <c r="F114" s="552" t="str">
         <f>IF(A114="","","Combines durablity and functionality")</f>
         <v>Combines durablity and functionality</v>
       </c>
-      <c r="G114" s="539"/>
+      <c r="G114" s="553"/>
     </row>
     <row r="115" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A115" s="547" t="s">
+      <c r="A115" s="534" t="s">
         <v>415</v>
       </c>
-      <c r="B115" s="548"/>
-      <c r="C115" s="548"/>
-      <c r="D115" s="548"/>
-      <c r="E115" s="549"/>
-      <c r="F115" s="538"/>
-      <c r="G115" s="539"/>
+      <c r="B115" s="535"/>
+      <c r="C115" s="535"/>
+      <c r="D115" s="535"/>
+      <c r="E115" s="536"/>
+      <c r="F115" s="552"/>
+      <c r="G115" s="553"/>
     </row>
     <row r="116" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A116" s="547" t="str">
+      <c r="A116" s="534" t="str">
         <f>IF('NEW POOL'!B47=1, "Dirt haul off included", "Dirt to remain at property")</f>
         <v>Dirt haul off included</v>
       </c>
-      <c r="B116" s="548"/>
-      <c r="C116" s="548"/>
-      <c r="D116" s="548"/>
-      <c r="E116" s="549"/>
-      <c r="F116" s="538"/>
-      <c r="G116" s="539"/>
+      <c r="B116" s="535"/>
+      <c r="C116" s="535"/>
+      <c r="D116" s="535"/>
+      <c r="E116" s="536"/>
+      <c r="F116" s="552"/>
+      <c r="G116" s="553"/>
     </row>
     <row r="117" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A117" s="547" t="s">
+      <c r="A117" s="534" t="s">
         <v>1133</v>
       </c>
-      <c r="B117" s="548"/>
-      <c r="C117" s="548"/>
-      <c r="D117" s="548"/>
-      <c r="E117" s="549"/>
-      <c r="F117" s="538" t="s">
+      <c r="B117" s="535"/>
+      <c r="C117" s="535"/>
+      <c r="D117" s="535"/>
+      <c r="E117" s="536"/>
+      <c r="F117" s="552" t="s">
         <v>1134</v>
       </c>
-      <c r="G117" s="539"/>
+      <c r="G117" s="553"/>
     </row>
     <row r="118" spans="1:7" ht="15.6" customHeight="1">
       <c r="A118" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B118" s="540"/>
-      <c r="C118" s="541"/>
-      <c r="D118" s="541"/>
-      <c r="E118" s="541"/>
-      <c r="F118" s="541"/>
-      <c r="G118" s="542"/>
+      <c r="B118" s="554"/>
+      <c r="C118" s="555"/>
+      <c r="D118" s="555"/>
+      <c r="E118" s="555"/>
+      <c r="F118" s="555"/>
+      <c r="G118" s="556"/>
     </row>
     <row r="119" spans="1:7" ht="15.6" customHeight="1">
       <c r="A119" s="564"/>
-      <c r="B119" s="567"/>
-      <c r="C119" s="568"/>
-      <c r="D119" s="568"/>
-      <c r="E119" s="568"/>
-      <c r="F119" s="568"/>
-      <c r="G119" s="569"/>
+      <c r="B119" s="565"/>
+      <c r="C119" s="566"/>
+      <c r="D119" s="566"/>
+      <c r="E119" s="566"/>
+      <c r="F119" s="566"/>
+      <c r="G119" s="567"/>
     </row>
     <row r="120" spans="1:7" ht="15.6" customHeight="1"/>
     <row r="121" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A121" s="552" t="s">
+      <c r="A121" s="543" t="s">
         <v>416</v>
       </c>
-      <c r="B121" s="553"/>
-      <c r="C121" s="553"/>
-      <c r="D121" s="553"/>
-      <c r="E121" s="554"/>
-      <c r="F121" s="558" t="s">
+      <c r="B121" s="544"/>
+      <c r="C121" s="544"/>
+      <c r="D121" s="544"/>
+      <c r="E121" s="545"/>
+      <c r="F121" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G121" s="558"/>
+      <c r="G121" s="551"/>
     </row>
     <row r="122" spans="1:7" ht="24" customHeight="1">
-      <c r="A122" s="547" t="s">
+      <c r="A122" s="534" t="s">
         <v>417</v>
       </c>
-      <c r="B122" s="548"/>
-      <c r="C122" s="548"/>
-      <c r="D122" s="548"/>
-      <c r="E122" s="549"/>
-      <c r="F122" s="557" t="s">
+      <c r="B122" s="535"/>
+      <c r="C122" s="535"/>
+      <c r="D122" s="535"/>
+      <c r="E122" s="536"/>
+      <c r="F122" s="533" t="s">
         <v>418</v>
       </c>
-      <c r="G122" s="557"/>
+      <c r="G122" s="533"/>
     </row>
     <row r="123" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A123" s="547" t="s">
+      <c r="A123" s="534" t="s">
         <v>419</v>
       </c>
-      <c r="B123" s="548"/>
-      <c r="C123" s="548"/>
-      <c r="D123" s="548"/>
-      <c r="E123" s="549"/>
-      <c r="F123" s="557" t="s">
+      <c r="B123" s="535"/>
+      <c r="C123" s="535"/>
+      <c r="D123" s="535"/>
+      <c r="E123" s="536"/>
+      <c r="F123" s="533" t="s">
         <v>420</v>
       </c>
-      <c r="G123" s="557"/>
+      <c r="G123" s="533"/>
     </row>
     <row r="124" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A124" s="547" t="s">
+      <c r="A124" s="534" t="s">
         <v>421</v>
       </c>
-      <c r="B124" s="548"/>
-      <c r="C124" s="548"/>
-      <c r="D124" s="548"/>
-      <c r="E124" s="549"/>
-      <c r="F124" s="557" t="s">
+      <c r="B124" s="535"/>
+      <c r="C124" s="535"/>
+      <c r="D124" s="535"/>
+      <c r="E124" s="536"/>
+      <c r="F124" s="533" t="s">
         <v>422</v>
       </c>
-      <c r="G124" s="557"/>
+      <c r="G124" s="533"/>
     </row>
     <row r="125" spans="1:7" ht="15.6" customHeight="1">
       <c r="A125" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B125" s="550"/>
-      <c r="C125" s="591"/>
-      <c r="D125" s="591"/>
-      <c r="E125" s="591"/>
-      <c r="F125" s="591"/>
-      <c r="G125" s="591"/>
+      <c r="B125" s="584"/>
+      <c r="C125" s="585"/>
+      <c r="D125" s="585"/>
+      <c r="E125" s="585"/>
+      <c r="F125" s="585"/>
+      <c r="G125" s="585"/>
     </row>
     <row r="126" spans="1:7" ht="15.6" customHeight="1">
       <c r="A126" s="564"/>
-      <c r="B126" s="589"/>
-      <c r="C126" s="590"/>
-      <c r="D126" s="590"/>
-      <c r="E126" s="590"/>
-      <c r="F126" s="590"/>
-      <c r="G126" s="590"/>
+      <c r="B126" s="582"/>
+      <c r="C126" s="583"/>
+      <c r="D126" s="583"/>
+      <c r="E126" s="583"/>
+      <c r="F126" s="583"/>
+      <c r="G126" s="583"/>
     </row>
     <row r="127" spans="1:7" ht="15.6" customHeight="1">
       <c r="A127" s="80"/>
-      <c r="B127" s="603">
+      <c r="B127" s="540">
         <v>2025</v>
       </c>
-      <c r="C127" s="603"/>
-      <c r="D127" s="603"/>
-      <c r="E127" s="603"/>
-      <c r="F127" s="604" t="s">
+      <c r="C127" s="540"/>
+      <c r="D127" s="540"/>
+      <c r="E127" s="540"/>
+      <c r="F127" s="546" t="s">
         <v>361</v>
       </c>
-      <c r="G127" s="604"/>
+      <c r="G127" s="546"/>
     </row>
     <row r="128" spans="1:7" ht="15.6" customHeight="1">
       <c r="A128" s="80"/>
-      <c r="B128" s="603"/>
-      <c r="C128" s="603"/>
-      <c r="D128" s="603"/>
-      <c r="E128" s="603"/>
-      <c r="F128" s="586" t="str">
+      <c r="B128" s="540"/>
+      <c r="C128" s="540"/>
+      <c r="D128" s="540"/>
+      <c r="E128" s="540"/>
+      <c r="F128" s="550" t="str">
         <f>F2</f>
         <v>Prepared by:</v>
       </c>
-      <c r="G128" s="586"/>
+      <c r="G128" s="550"/>
     </row>
     <row r="129" spans="1:10" ht="15.6" customHeight="1">
       <c r="A129" s="80"/>
-      <c r="B129" s="603"/>
-      <c r="C129" s="603"/>
-      <c r="D129" s="603"/>
-      <c r="E129" s="603"/>
-      <c r="F129" s="586"/>
-      <c r="G129" s="586"/>
+      <c r="B129" s="540"/>
+      <c r="C129" s="540"/>
+      <c r="D129" s="540"/>
+      <c r="E129" s="540"/>
+      <c r="F129" s="550"/>
+      <c r="G129" s="550"/>
     </row>
     <row r="130" spans="1:10" ht="15.6" customHeight="1">
       <c r="A130" s="80"/>
-      <c r="B130" s="533"/>
-      <c r="C130" s="533"/>
-      <c r="D130" s="533"/>
-      <c r="E130" s="533"/>
-      <c r="F130" s="595" t="str">
+      <c r="B130" s="580"/>
+      <c r="C130" s="580"/>
+      <c r="D130" s="580"/>
+      <c r="E130" s="580"/>
+      <c r="F130" s="547" t="str">
         <f>F4</f>
         <v>John Piotrowski</v>
       </c>
-      <c r="G130" s="595"/>
+      <c r="G130" s="547"/>
     </row>
     <row r="131" spans="1:10" ht="15.6" customHeight="1">
       <c r="A131" s="80"/>
@@ -36971,85 +36971,85 @@
       <c r="C131" s="355"/>
       <c r="D131" s="355"/>
       <c r="E131" s="355"/>
-      <c r="F131" s="595" t="str">
+      <c r="F131" s="547" t="str">
         <f>F5</f>
         <v>980-392-7944</v>
       </c>
-      <c r="G131" s="595"/>
+      <c r="G131" s="547"/>
     </row>
     <row r="132" spans="1:10" ht="15.6" customHeight="1">
       <c r="A132" s="80"/>
-      <c r="B132" s="534" t="s">
+      <c r="B132" s="581" t="s">
         <v>799</v>
       </c>
-      <c r="C132" s="534"/>
-      <c r="D132" s="534"/>
-      <c r="E132" s="534"/>
-      <c r="F132" s="595" t="str">
+      <c r="C132" s="581"/>
+      <c r="D132" s="581"/>
+      <c r="E132" s="581"/>
+      <c r="F132" s="547" t="str">
         <f>F6</f>
         <v>jpiotrowski@ppas.com</v>
       </c>
-      <c r="G132" s="595"/>
+      <c r="G132" s="547"/>
     </row>
     <row r="133" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A133" s="594" t="s">
+      <c r="A133" s="587" t="s">
         <v>423</v>
       </c>
-      <c r="B133" s="594"/>
-      <c r="C133" s="594"/>
-      <c r="D133" s="594"/>
-      <c r="E133" s="594"/>
-      <c r="F133" s="594"/>
-      <c r="G133" s="594"/>
+      <c r="B133" s="587"/>
+      <c r="C133" s="587"/>
+      <c r="D133" s="587"/>
+      <c r="E133" s="587"/>
+      <c r="F133" s="587"/>
+      <c r="G133" s="587"/>
     </row>
     <row r="134" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A134" s="594"/>
-      <c r="B134" s="594"/>
-      <c r="C134" s="594"/>
-      <c r="D134" s="594"/>
-      <c r="E134" s="594"/>
-      <c r="F134" s="594"/>
-      <c r="G134" s="594"/>
+      <c r="A134" s="587"/>
+      <c r="B134" s="587"/>
+      <c r="C134" s="587"/>
+      <c r="D134" s="587"/>
+      <c r="E134" s="587"/>
+      <c r="F134" s="587"/>
+      <c r="G134" s="587"/>
     </row>
     <row r="135" spans="1:10" ht="15.6" customHeight="1">
       <c r="A135" s="70" t="s">
         <v>424</v>
       </c>
-      <c r="B135" s="587" t="s">
+      <c r="B135" s="594" t="s">
         <v>425</v>
       </c>
-      <c r="C135" s="588"/>
+      <c r="C135" s="595"/>
       <c r="D135" s="71" t="s">
         <v>426</v>
       </c>
       <c r="E135" s="87" t="s">
         <v>427</v>
       </c>
-      <c r="F135" s="592" t="s">
+      <c r="F135" s="586" t="s">
         <v>428</v>
       </c>
-      <c r="G135" s="593"/>
+      <c r="G135" s="569"/>
     </row>
     <row r="136" spans="1:10" ht="15.6" customHeight="1">
       <c r="A136" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="B136" s="571">
+      <c r="B136" s="588">
         <v>73542.58</v>
       </c>
-      <c r="C136" s="572"/>
+      <c r="C136" s="589"/>
       <c r="D136" s="100"/>
       <c r="E136" s="90">
         <f>B136+D136</f>
         <v>73542.58</v>
       </c>
-      <c r="F136" s="583"/>
-      <c r="G136" s="584"/>
+      <c r="F136" s="590"/>
+      <c r="G136" s="591"/>
     </row>
     <row r="137" spans="1:10" ht="15.6" customHeight="1">
       <c r="A137" s="72"/>
-      <c r="B137" s="571"/>
-      <c r="C137" s="572"/>
+      <c r="B137" s="588"/>
+      <c r="C137" s="589"/>
       <c r="D137" s="100"/>
       <c r="E137" s="90">
         <f>B137+D137</f>
@@ -37060,65 +37060,65 @@
     </row>
     <row r="138" spans="1:10" ht="15.6" customHeight="1">
       <c r="A138" s="74"/>
-      <c r="B138" s="585"/>
-      <c r="C138" s="585"/>
+      <c r="B138" s="572"/>
+      <c r="C138" s="572"/>
       <c r="D138" s="75"/>
       <c r="E138" s="90">
         <f>B138+D138</f>
         <v>0</v>
       </c>
-      <c r="F138" s="583"/>
-      <c r="G138" s="584"/>
+      <c r="F138" s="590"/>
+      <c r="G138" s="591"/>
     </row>
     <row r="139" spans="1:10" ht="15.6" customHeight="1">
       <c r="A139" s="76"/>
-      <c r="B139" s="582"/>
-      <c r="C139" s="582"/>
+      <c r="B139" s="573"/>
+      <c r="C139" s="573"/>
       <c r="D139" s="77"/>
       <c r="E139" s="91">
         <f>B139+D139</f>
         <v>0</v>
       </c>
-      <c r="F139" s="583"/>
-      <c r="G139" s="584"/>
+      <c r="F139" s="590"/>
+      <c r="G139" s="591"/>
     </row>
     <row r="140" spans="1:10" ht="15.6" customHeight="1">
       <c r="A140" s="76"/>
-      <c r="B140" s="582"/>
-      <c r="C140" s="582"/>
+      <c r="B140" s="573"/>
+      <c r="C140" s="573"/>
       <c r="D140" s="77"/>
       <c r="E140" s="91">
         <f>B140+D140</f>
         <v>0</v>
       </c>
-      <c r="F140" s="583"/>
-      <c r="G140" s="584"/>
+      <c r="F140" s="590"/>
+      <c r="G140" s="591"/>
     </row>
     <row r="141" spans="1:10" ht="15.6" customHeight="1">
       <c r="A141" s="74"/>
-      <c r="B141" s="585"/>
-      <c r="C141" s="585"/>
+      <c r="B141" s="572"/>
+      <c r="C141" s="572"/>
       <c r="D141" s="75"/>
       <c r="E141" s="90" t="str">
         <f t="shared" ref="E141:E147" si="0">IF(B141="","",B141+D141)</f>
         <v/>
       </c>
-      <c r="F141" s="583"/>
-      <c r="G141" s="584"/>
+      <c r="F141" s="590"/>
+      <c r="G141" s="591"/>
     </row>
     <row r="142" spans="1:10" ht="15.6" customHeight="1" thickBot="1">
       <c r="A142" s="76"/>
-      <c r="B142" s="582"/>
-      <c r="C142" s="582"/>
+      <c r="B142" s="573"/>
+      <c r="C142" s="573"/>
       <c r="D142" s="77"/>
       <c r="E142" s="91" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F142" s="596" t="s">
+      <c r="F142" s="592" t="s">
         <v>436</v>
       </c>
-      <c r="G142" s="597"/>
+      <c r="G142" s="593"/>
       <c r="J142" s="348">
         <f>'NEW POOL'!B21+'NEW POOL'!B22+'NEW POOL'!B23</f>
         <v>0</v>
@@ -37129,11 +37129,11 @@
         <f>IF('NEW POOL'!B171&gt;0,'NEW POOL'!A171,"")</f>
         <v/>
       </c>
-      <c r="B143" s="585" t="str">
+      <c r="B143" s="572" t="str">
         <f>IF('NEW POOL'!B171&gt;0,'COST - NEW'!E233,"")</f>
         <v/>
       </c>
-      <c r="C143" s="585"/>
+      <c r="C143" s="572"/>
       <c r="D143" s="75"/>
       <c r="E143" s="90" t="str">
         <f t="shared" si="0"/>
@@ -37153,8 +37153,8 @@
     </row>
     <row r="144" spans="1:10" ht="15.6" customHeight="1">
       <c r="A144" s="76"/>
-      <c r="B144" s="582"/>
-      <c r="C144" s="582"/>
+      <c r="B144" s="573"/>
+      <c r="C144" s="573"/>
       <c r="D144" s="77"/>
       <c r="E144" s="91"/>
       <c r="F144" s="93" t="str">
@@ -37172,8 +37172,8 @@
     </row>
     <row r="145" spans="1:7" ht="15.6" customHeight="1">
       <c r="A145" s="74"/>
-      <c r="B145" s="585"/>
-      <c r="C145" s="585"/>
+      <c r="B145" s="572"/>
+      <c r="C145" s="572"/>
       <c r="D145" s="75"/>
       <c r="E145" s="90" t="str">
         <f t="shared" si="0"/>
@@ -37190,8 +37190,8 @@
     </row>
     <row r="146" spans="1:7" ht="15.6" customHeight="1">
       <c r="A146" s="76"/>
-      <c r="B146" s="582"/>
-      <c r="C146" s="582"/>
+      <c r="B146" s="573"/>
+      <c r="C146" s="573"/>
       <c r="D146" s="77"/>
       <c r="E146" s="91" t="str">
         <f t="shared" si="0"/>
@@ -37208,8 +37208,8 @@
     </row>
     <row r="147" spans="1:7" ht="15.6" customHeight="1">
       <c r="A147" s="74"/>
-      <c r="B147" s="585"/>
-      <c r="C147" s="585"/>
+      <c r="B147" s="572"/>
+      <c r="C147" s="572"/>
       <c r="D147" s="75"/>
       <c r="E147" s="90" t="str">
         <f t="shared" si="0"/>
@@ -37228,11 +37228,11 @@
       <c r="A148" s="86" t="s">
         <v>433</v>
       </c>
-      <c r="B148" s="599">
+      <c r="B148" s="574">
         <f>SUM(B136:C147)</f>
         <v>73542.58</v>
       </c>
-      <c r="C148" s="600"/>
+      <c r="C148" s="575"/>
       <c r="D148" s="89">
         <f>SUM(D136:D147)</f>
         <v>0</v>
@@ -37252,8 +37252,8 @@
     <row r="149" spans="1:7" ht="17.399999999999999">
       <c r="A149" s="73"/>
       <c r="B149" s="73"/>
-      <c r="C149" s="601"/>
-      <c r="D149" s="601"/>
+      <c r="C149" s="576"/>
+      <c r="D149" s="576"/>
       <c r="E149" s="105">
         <f>IF('NEW POOL'!C191-PROPOSAL!E148=0,"",'NEW POOL'!C191-E148)</f>
         <v>79427.42</v>
@@ -37272,29 +37272,29 @@
       <c r="A151" s="81" t="s">
         <v>430</v>
       </c>
-      <c r="B151" s="602" t="s">
+      <c r="B151" s="577" t="s">
         <v>425</v>
       </c>
-      <c r="C151" s="602"/>
+      <c r="C151" s="577"/>
       <c r="D151" s="88" t="s">
         <v>426</v>
       </c>
       <c r="E151" s="85" t="s">
         <v>427</v>
       </c>
-      <c r="F151" s="598" t="s">
+      <c r="F151" s="568" t="s">
         <v>428</v>
       </c>
-      <c r="G151" s="593"/>
+      <c r="G151" s="569"/>
     </row>
     <row r="152" spans="1:7" ht="15.6" customHeight="1">
       <c r="A152" s="102" t="s">
         <v>431</v>
       </c>
-      <c r="B152" s="561">
-        <v>0</v>
-      </c>
-      <c r="C152" s="561"/>
+      <c r="B152" s="578">
+        <v>0</v>
+      </c>
+      <c r="C152" s="578"/>
       <c r="D152" s="103">
         <v>0</v>
       </c>
@@ -37302,17 +37302,17 @@
         <f>B152+D152</f>
         <v>0</v>
       </c>
-      <c r="F152" s="562"/>
-      <c r="G152" s="562"/>
+      <c r="F152" s="570"/>
+      <c r="G152" s="570"/>
     </row>
     <row r="153" spans="1:7" ht="15.6" customHeight="1">
       <c r="A153" s="82" t="s">
         <v>431</v>
       </c>
-      <c r="B153" s="574">
-        <v>0</v>
-      </c>
-      <c r="C153" s="574"/>
+      <c r="B153" s="579">
+        <v>0</v>
+      </c>
+      <c r="C153" s="579"/>
       <c r="D153" s="83">
         <v>0</v>
       </c>
@@ -37320,17 +37320,17 @@
         <f>B153+D153</f>
         <v>0</v>
       </c>
-      <c r="F153" s="575"/>
-      <c r="G153" s="575"/>
+      <c r="F153" s="571"/>
+      <c r="G153" s="571"/>
     </row>
     <row r="154" spans="1:7" ht="15.6" customHeight="1">
       <c r="A154" s="102" t="s">
         <v>431</v>
       </c>
-      <c r="B154" s="561">
-        <v>0</v>
-      </c>
-      <c r="C154" s="561"/>
+      <c r="B154" s="578">
+        <v>0</v>
+      </c>
+      <c r="C154" s="578"/>
       <c r="D154" s="103">
         <v>0</v>
       </c>
@@ -37338,17 +37338,17 @@
         <f>B154+D154</f>
         <v>0</v>
       </c>
-      <c r="F154" s="562"/>
-      <c r="G154" s="562"/>
+      <c r="F154" s="570"/>
+      <c r="G154" s="570"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="82" t="s">
         <v>431</v>
       </c>
-      <c r="B155" s="574">
-        <v>0</v>
-      </c>
-      <c r="C155" s="574"/>
+      <c r="B155" s="579">
+        <v>0</v>
+      </c>
+      <c r="C155" s="579"/>
       <c r="D155" s="83">
         <v>0</v>
       </c>
@@ -37356,17 +37356,17 @@
         <f>B155+D155</f>
         <v>0</v>
       </c>
-      <c r="F155" s="575"/>
-      <c r="G155" s="575"/>
+      <c r="F155" s="571"/>
+      <c r="G155" s="571"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="102" t="s">
         <v>431</v>
       </c>
-      <c r="B156" s="561">
-        <v>0</v>
-      </c>
-      <c r="C156" s="561"/>
+      <c r="B156" s="578">
+        <v>0</v>
+      </c>
+      <c r="C156" s="578"/>
       <c r="D156" s="103">
         <v>0</v>
       </c>
@@ -37374,11 +37374,235 @@
         <f>B156+D156</f>
         <v>0</v>
       </c>
-      <c r="F156" s="562"/>
-      <c r="G156" s="562"/>
+      <c r="F156" s="570"/>
+      <c r="G156" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="248">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="F128:G129"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="A133:G134"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="B127:E129"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F54:G54"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="A54:E54"/>
     <mergeCell ref="A69:E69"/>
@@ -37403,230 +37627,6 @@
     <mergeCell ref="F72:G72"/>
     <mergeCell ref="F58:G58"/>
     <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="B127:E129"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="B125:G125"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="A133:G134"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="F128:G129"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Amount is automatically calculated in this column under this heading" sqref="E135:F135 E151:F151" xr:uid="{1F283287-30C5-44A3-9210-51C267A14160}"/>
@@ -37654,7 +37654,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I353"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
@@ -42526,6 +42526,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A47:D47"/>
     <mergeCell ref="A317:D317"/>
     <mergeCell ref="A332:D332"/>
     <mergeCell ref="A325:D325"/>
@@ -42539,16 +42549,6 @@
     <mergeCell ref="A297:D297"/>
     <mergeCell ref="A231:D231"/>
     <mergeCell ref="A235:C235"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A179:D179"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44545,9 +44545,9 @@
       <c r="A3" s="630" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="607"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
+      <c r="B3" s="538"/>
+      <c r="C3" s="538"/>
+      <c r="D3" s="539"/>
       <c r="F3" s="121"/>
       <c r="G3" s="122"/>
       <c r="H3" s="123" t="s">

--- a/docs/Excel Sheet/Drennen.xlsx
+++ b/docs/Excel Sheet/Drennen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Submerge\docs\Excel Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7387A2E8-2D98-4A7E-8AD5-FB47B0419727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB4B316-4401-4413-98F0-76E363B1B628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-7752" windowWidth="17496" windowHeight="30936" xr2:uid="{6E61877A-0A69-45F3-A9A4-B6B7A521CA23}"/>
+    <workbookView xWindow="30612" yWindow="-7752" windowWidth="17496" windowHeight="30936" firstSheet="1" activeTab="3" xr2:uid="{6E61877A-0A69-45F3-A9A4-B6B7A521CA23}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW POOL" sheetId="6" r:id="rId1"/>
@@ -6089,20 +6089,128 @@
     <xf numFmtId="165" fontId="44" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6110,347 +6218,239 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="3" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="3" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="3" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="3" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="3" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="3" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="3" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="3" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7305,8 +7305,8 @@
   </sheetPr>
   <dimension ref="A1:N191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I185" sqref="I185"/>
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J170" sqref="J170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7320,39 +7320,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24" thickBot="1">
-      <c r="A1" s="504" t="s">
+      <c r="A1" s="522" t="s">
         <v>1136</v>
       </c>
-      <c r="B1" s="505"/>
-      <c r="C1" s="505"/>
-      <c r="D1" s="505"/>
-      <c r="E1" s="505"/>
-      <c r="F1" s="505"/>
-      <c r="G1" s="505"/>
-      <c r="H1" s="506"/>
+      <c r="B1" s="523"/>
+      <c r="C1" s="523"/>
+      <c r="D1" s="523"/>
+      <c r="E1" s="523"/>
+      <c r="F1" s="523"/>
+      <c r="G1" s="523"/>
+      <c r="H1" s="524"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1"/>
     <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="A3" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="511" t="s">
+      <c r="B3" s="503" t="s">
         <v>1143</v>
       </c>
-      <c r="C3" s="512"/>
-      <c r="D3" s="512"/>
-      <c r="E3" s="513"/>
+      <c r="C3" s="504"/>
+      <c r="D3" s="504"/>
+      <c r="E3" s="505"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1">
       <c r="A4" s="165" t="s">
         <v>670</v>
       </c>
-      <c r="B4" s="511" t="s">
+      <c r="B4" s="503" t="s">
         <v>1144</v>
       </c>
-      <c r="C4" s="512"/>
-      <c r="D4" s="512"/>
-      <c r="E4" s="513"/>
+      <c r="C4" s="504"/>
+      <c r="D4" s="504"/>
+      <c r="E4" s="505"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
@@ -7653,12 +7653,12 @@
       <c r="B29" s="174"/>
     </row>
     <row r="30" spans="1:8" ht="18" thickBot="1">
-      <c r="A30" s="497" t="s">
+      <c r="A30" s="490" t="s">
         <v>475</v>
       </c>
-      <c r="B30" s="498"/>
-      <c r="C30" s="498"/>
-      <c r="D30" s="499"/>
+      <c r="B30" s="491"/>
+      <c r="C30" s="491"/>
+      <c r="D30" s="492"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1">
       <c r="B31" s="4" t="s">
@@ -7679,13 +7679,13 @@
       <c r="C32" s="113">
         <v>0</v>
       </c>
-      <c r="D32" s="514" t="s">
+      <c r="D32" s="506" t="s">
         <v>821</v>
       </c>
-      <c r="E32" s="515"/>
-      <c r="F32" s="515"/>
-      <c r="G32" s="515"/>
-      <c r="H32" s="516"/>
+      <c r="E32" s="507"/>
+      <c r="F32" s="507"/>
+      <c r="G32" s="507"/>
+      <c r="H32" s="508"/>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1">
       <c r="A33" s="99" t="s">
@@ -7697,11 +7697,11 @@
       <c r="C33" s="113">
         <v>0</v>
       </c>
-      <c r="D33" s="517"/>
-      <c r="E33" s="518"/>
-      <c r="F33" s="518"/>
-      <c r="G33" s="518"/>
-      <c r="H33" s="519"/>
+      <c r="D33" s="509"/>
+      <c r="E33" s="510"/>
+      <c r="F33" s="510"/>
+      <c r="G33" s="510"/>
+      <c r="H33" s="511"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1">
       <c r="A34" s="99" t="s">
@@ -7713,11 +7713,11 @@
       <c r="C34" s="113">
         <v>0</v>
       </c>
-      <c r="D34" s="517"/>
-      <c r="E34" s="518"/>
-      <c r="F34" s="518"/>
-      <c r="G34" s="518"/>
-      <c r="H34" s="519"/>
+      <c r="D34" s="509"/>
+      <c r="E34" s="510"/>
+      <c r="F34" s="510"/>
+      <c r="G34" s="510"/>
+      <c r="H34" s="511"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1">
       <c r="A35" s="99" t="s">
@@ -7729,11 +7729,11 @@
       <c r="C35" s="113">
         <v>0</v>
       </c>
-      <c r="D35" s="517"/>
-      <c r="E35" s="518"/>
-      <c r="F35" s="518"/>
-      <c r="G35" s="518"/>
-      <c r="H35" s="519"/>
+      <c r="D35" s="509"/>
+      <c r="E35" s="510"/>
+      <c r="F35" s="510"/>
+      <c r="G35" s="510"/>
+      <c r="H35" s="511"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1">
       <c r="A36" s="99" t="s">
@@ -7745,11 +7745,11 @@
       <c r="C36" s="113">
         <v>0</v>
       </c>
-      <c r="D36" s="517"/>
-      <c r="E36" s="518"/>
-      <c r="F36" s="518"/>
-      <c r="G36" s="518"/>
-      <c r="H36" s="519"/>
+      <c r="D36" s="509"/>
+      <c r="E36" s="510"/>
+      <c r="F36" s="510"/>
+      <c r="G36" s="510"/>
+      <c r="H36" s="511"/>
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1">
       <c r="A37" s="170" t="s">
@@ -7761,11 +7761,11 @@
       <c r="C37" s="113">
         <v>0</v>
       </c>
-      <c r="D37" s="520"/>
-      <c r="E37" s="521"/>
-      <c r="F37" s="521"/>
-      <c r="G37" s="521"/>
-      <c r="H37" s="522"/>
+      <c r="D37" s="512"/>
+      <c r="E37" s="513"/>
+      <c r="F37" s="513"/>
+      <c r="G37" s="513"/>
+      <c r="H37" s="514"/>
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1">
       <c r="A38" s="99" t="s">
@@ -7799,14 +7799,14 @@
       <c r="C40" s="113">
         <v>0</v>
       </c>
-      <c r="D40" s="511" t="str">
+      <c r="D40" s="503" t="str">
         <f>D32</f>
         <v>( 1=Tile / 2=Panel Ledge / 3=Stacked Stone)</v>
       </c>
-      <c r="E40" s="512"/>
-      <c r="F40" s="512"/>
-      <c r="G40" s="512"/>
-      <c r="H40" s="513"/>
+      <c r="E40" s="504"/>
+      <c r="F40" s="504"/>
+      <c r="G40" s="504"/>
+      <c r="H40" s="505"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1">
       <c r="A41" s="166" t="s">
@@ -7937,12 +7937,12 @@
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1"/>
     <row r="55" spans="1:4" ht="18" thickBot="1">
-      <c r="A55" s="497" t="s">
+      <c r="A55" s="490" t="s">
         <v>494</v>
       </c>
-      <c r="B55" s="498"/>
-      <c r="C55" s="498"/>
-      <c r="D55" s="499"/>
+      <c r="B55" s="491"/>
+      <c r="C55" s="491"/>
+      <c r="D55" s="492"/>
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1"/>
     <row r="57" spans="1:4" ht="15" thickBot="1">
@@ -8124,12 +8124,12 @@
     </row>
     <row r="74" spans="1:4" ht="15" thickBot="1"/>
     <row r="75" spans="1:4" ht="18" thickBot="1">
-      <c r="A75" s="497" t="s">
+      <c r="A75" s="490" t="s">
         <v>785</v>
       </c>
-      <c r="B75" s="498"/>
-      <c r="C75" s="498"/>
-      <c r="D75" s="499"/>
+      <c r="B75" s="491"/>
+      <c r="C75" s="491"/>
+      <c r="D75" s="492"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A76" s="163"/>
@@ -8295,14 +8295,14 @@
       <c r="C93" t="s">
         <v>592</v>
       </c>
-      <c r="E93" s="523" t="str">
+      <c r="E93" s="493" t="str">
         <f>'TILE COPING'!F32</f>
         <v>Silver, Silver Vogue, River Silver, Bianco Dolomite, Dianna Royal, Skyline, Alaska Silver, Turkish Carrea</v>
       </c>
-      <c r="F93" s="523"/>
-      <c r="G93" s="523"/>
-      <c r="H93" s="523"/>
-      <c r="I93" s="523"/>
+      <c r="F93" s="493"/>
+      <c r="G93" s="493"/>
+      <c r="H93" s="493"/>
+      <c r="I93" s="493"/>
     </row>
     <row r="94" spans="1:10" ht="15.6" customHeight="1" thickBot="1">
       <c r="A94" s="99" t="s">
@@ -8314,15 +8314,15 @@
       <c r="C94" t="s">
         <v>592</v>
       </c>
-      <c r="E94" s="523" t="str">
+      <c r="E94" s="493" t="str">
         <f>'TILE COPING'!F33</f>
         <v>Silver, Silver Vogue, River Silver, Bianco Dolomite, Dianna Royal, Skyline, Alaska Silver, Turkish Carrea</v>
       </c>
-      <c r="F94" s="523"/>
-      <c r="G94" s="523"/>
-      <c r="H94" s="523"/>
-      <c r="I94" s="523"/>
-      <c r="J94" s="523"/>
+      <c r="F94" s="493"/>
+      <c r="G94" s="493"/>
+      <c r="H94" s="493"/>
+      <c r="I94" s="493"/>
+      <c r="J94" s="493"/>
     </row>
     <row r="95" spans="1:10" ht="15" thickBot="1">
       <c r="B95" s="152"/>
@@ -8379,12 +8379,12 @@
       <c r="B101" s="152"/>
     </row>
     <row r="102" spans="1:4" ht="18" thickBot="1">
-      <c r="A102" s="497" t="s">
+      <c r="A102" s="490" t="s">
         <v>841</v>
       </c>
-      <c r="B102" s="498"/>
-      <c r="C102" s="498"/>
-      <c r="D102" s="499"/>
+      <c r="B102" s="491"/>
+      <c r="C102" s="491"/>
+      <c r="D102" s="492"/>
     </row>
     <row r="103" spans="1:4" ht="15" thickBot="1">
       <c r="B103" s="152"/>
@@ -8437,23 +8437,23 @@
       <c r="B108" s="152"/>
     </row>
     <row r="109" spans="1:4" ht="18" thickBot="1">
-      <c r="A109" s="497" t="s">
+      <c r="A109" s="490" t="s">
         <v>686</v>
       </c>
-      <c r="B109" s="498"/>
-      <c r="C109" s="498"/>
-      <c r="D109" s="499"/>
+      <c r="B109" s="491"/>
+      <c r="C109" s="491"/>
+      <c r="D109" s="492"/>
     </row>
     <row r="110" spans="1:4" ht="15" thickBot="1">
       <c r="B110" s="152"/>
     </row>
     <row r="111" spans="1:4" ht="18" thickBot="1">
-      <c r="A111" s="497" t="s">
+      <c r="A111" s="490" t="s">
         <v>689</v>
       </c>
-      <c r="B111" s="498"/>
-      <c r="C111" s="498"/>
-      <c r="D111" s="499"/>
+      <c r="B111" s="491"/>
+      <c r="C111" s="491"/>
+      <c r="D111" s="492"/>
     </row>
     <row r="112" spans="1:4" ht="15" thickBot="1">
       <c r="B112" s="152"/>
@@ -8465,11 +8465,11 @@
       <c r="B113" s="194">
         <v>1</v>
       </c>
-      <c r="C113" s="493">
+      <c r="C113" s="497">
         <f>VLOOKUP(A113,EQUIP!M15:T17,8,FALSE)</f>
         <v>570</v>
       </c>
-      <c r="D113" s="500"/>
+      <c r="D113" s="499"/>
     </row>
     <row r="114" spans="1:11" ht="15" thickBot="1">
       <c r="A114" s="212" t="s">
@@ -8479,11 +8479,11 @@
         <f>IF(C114&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C114" s="493">
+      <c r="C114" s="497">
         <f>VLOOKUP(A114,EQUIP!M14:S19,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D114" s="500"/>
+      <c r="D114" s="499"/>
     </row>
     <row r="115" spans="1:11" ht="15" thickBot="1">
       <c r="A115" s="212" t="s">
@@ -8493,11 +8493,11 @@
         <f>IF(C115&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C115" s="493">
+      <c r="C115" s="497">
         <f>VLOOKUP(A115,EQUIP!M14:S19,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D115" s="500"/>
+      <c r="D115" s="499"/>
     </row>
     <row r="116" spans="1:11" ht="15" thickBot="1">
       <c r="A116" s="117"/>
@@ -8510,11 +8510,11 @@
       <c r="B117" s="194">
         <v>1</v>
       </c>
-      <c r="C117" s="493">
+      <c r="C117" s="497">
         <f>VLOOKUP(A117,EQUIP!M23:O28,3,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="D117" s="500"/>
+      <c r="D117" s="499"/>
     </row>
     <row r="118" spans="1:11" ht="15" thickBot="1">
       <c r="A118" s="117"/>
@@ -8527,11 +8527,11 @@
       <c r="B119" s="194">
         <v>0</v>
       </c>
-      <c r="C119" s="492">
+      <c r="C119" s="516">
         <f>VLOOKUP(A119,EQUIP!M31:S33,7,FALSE)</f>
         <v>2000</v>
       </c>
-      <c r="D119" s="493"/>
+      <c r="D119" s="497"/>
     </row>
     <row r="120" spans="1:11" ht="15" thickBot="1">
       <c r="A120" s="117"/>
@@ -8546,18 +8546,18 @@
       <c r="B121" s="118">
         <v>1</v>
       </c>
-      <c r="C121" s="492">
+      <c r="C121" s="516">
         <f>VLOOKUP(A121,EQUIP!M36:S39,7,FALSE)</f>
         <v>4710</v>
       </c>
-      <c r="D121" s="493"/>
-      <c r="E121" s="526" t="str">
+      <c r="D121" s="497"/>
+      <c r="E121" s="494" t="str">
         <f>IF(A121="Jandy 260K BTU - JXI Heater", "CANNOT BE USED TO HEAT A SPA","")</f>
         <v/>
       </c>
-      <c r="F121" s="527"/>
-      <c r="G121" s="527"/>
-      <c r="H121" s="527"/>
+      <c r="F121" s="495"/>
+      <c r="G121" s="495"/>
+      <c r="H121" s="495"/>
     </row>
     <row r="122" spans="1:11" ht="16.2" thickBot="1">
       <c r="A122" s="432" t="s">
@@ -8566,21 +8566,21 @@
       <c r="B122" s="482">
         <v>0</v>
       </c>
-      <c r="C122" s="528">
+      <c r="C122" s="496">
         <f>B122*EQUIP!S39</f>
         <v>0</v>
       </c>
-      <c r="D122" s="493"/>
-      <c r="E122" s="532" t="str">
+      <c r="D122" s="497"/>
+      <c r="E122" s="502" t="str">
         <f>IF(B14&gt;0,"PROJECT HAS A SPA - SELECT YOUR HEATER","")</f>
         <v>PROJECT HAS A SPA - SELECT YOUR HEATER</v>
       </c>
-      <c r="F122" s="532"/>
-      <c r="G122" s="532"/>
-      <c r="H122" s="532"/>
-      <c r="I122" s="532"/>
-      <c r="J122" s="532"/>
-      <c r="K122" s="532"/>
+      <c r="F122" s="502"/>
+      <c r="G122" s="502"/>
+      <c r="H122" s="502"/>
+      <c r="I122" s="502"/>
+      <c r="J122" s="502"/>
+      <c r="K122" s="502"/>
     </row>
     <row r="123" spans="1:11" ht="16.2" thickBot="1">
       <c r="A123" s="117"/>
@@ -8594,11 +8594,11 @@
       <c r="B124" s="359">
         <v>2</v>
       </c>
-      <c r="C124" s="493" t="str">
+      <c r="C124" s="497" t="str">
         <f>IF(B124=2,"INCLUDED",IF(B124=1,-EQUIP!S121,((B124-2)*EQUIP!S45)))</f>
         <v>INCLUDED</v>
       </c>
-      <c r="D124" s="500"/>
+      <c r="D124" s="499"/>
     </row>
     <row r="125" spans="1:11" ht="16.2" thickBot="1">
       <c r="A125" s="212" t="s">
@@ -8608,21 +8608,21 @@
         <f>EXC!C27</f>
         <v>1</v>
       </c>
-      <c r="C125" s="530">
+      <c r="C125" s="500">
         <f>B125*EQUIP!S43</f>
         <v>755</v>
       </c>
-      <c r="D125" s="531"/>
-      <c r="E125" s="532" t="str">
+      <c r="D125" s="501"/>
+      <c r="E125" s="502" t="str">
         <f>IF(B14&gt;0,"PROJECT HAS A SPA - ADD SPA LIGHT","")</f>
         <v>PROJECT HAS A SPA - ADD SPA LIGHT</v>
       </c>
-      <c r="F125" s="532"/>
-      <c r="G125" s="532"/>
-      <c r="H125" s="532"/>
-      <c r="I125" s="532"/>
-      <c r="J125" s="532"/>
-      <c r="K125" s="532"/>
+      <c r="F125" s="502"/>
+      <c r="G125" s="502"/>
+      <c r="H125" s="502"/>
+      <c r="I125" s="502"/>
+      <c r="J125" s="502"/>
+      <c r="K125" s="502"/>
     </row>
     <row r="126" spans="1:11" ht="15" thickBot="1">
       <c r="B126" s="152"/>
@@ -8635,11 +8635,11 @@
         <f>IF(C127&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C127" s="493">
+      <c r="C127" s="497">
         <f>VLOOKUP(A127,EQUIP!M49:S57,7,FALSE)+(H127*EQUIP!S58)</f>
         <v>980</v>
       </c>
-      <c r="D127" s="500"/>
+      <c r="D127" s="499"/>
       <c r="E127" s="226">
         <f>IF(C127=1280,1,0)</f>
         <v>0</v>
@@ -8665,11 +8665,11 @@
         <f>IF(C128&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C128" s="493">
+      <c r="C128" s="497">
         <f>VLOOKUP(A128,EQUIP!M49:S57,7,FALSE)+(H128*EQUIP!S58)</f>
         <v>0</v>
       </c>
-      <c r="D128" s="500"/>
+      <c r="D128" s="499"/>
       <c r="E128" s="226">
         <f>IF(C128=1280,1,0)</f>
         <v>0</v>
@@ -8695,11 +8695,11 @@
         <f>IF(C129&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C129" s="493">
+      <c r="C129" s="497">
         <f>VLOOKUP(A129,EQUIP!M49:S57,7,FALSE)+(H129*EQUIP!S58)</f>
         <v>0</v>
       </c>
-      <c r="D129" s="500"/>
+      <c r="D129" s="499"/>
       <c r="E129" s="226">
         <f>IF(C129=1280,1,0)</f>
         <v>0</v>
@@ -8730,21 +8730,21 @@
       <c r="B131" s="118">
         <v>1</v>
       </c>
-      <c r="C131" s="494">
+      <c r="C131" s="515">
         <f>VLOOKUP(A131,EQUIP!M63:S72,7,FALSE)</f>
         <v>4033.3333333333335</v>
       </c>
-      <c r="D131" s="493"/>
-      <c r="E131" s="532" t="str">
+      <c r="D131" s="497"/>
+      <c r="E131" s="502" t="str">
         <f>IF(B14&gt;0,"PROJECT HAS A SPA - SELECT AUTOMATION","")</f>
         <v>PROJECT HAS A SPA - SELECT AUTOMATION</v>
       </c>
-      <c r="F131" s="532"/>
-      <c r="G131" s="532"/>
-      <c r="H131" s="532"/>
-      <c r="I131" s="532"/>
-      <c r="J131" s="532"/>
-      <c r="K131" s="532"/>
+      <c r="F131" s="502"/>
+      <c r="G131" s="502"/>
+      <c r="H131" s="502"/>
+      <c r="I131" s="502"/>
+      <c r="J131" s="502"/>
+      <c r="K131" s="502"/>
     </row>
     <row r="132" spans="1:11" ht="15" thickBot="1">
       <c r="B132" s="152"/>
@@ -8757,11 +8757,11 @@
         <f>IF(A133=EQUIP!M105,0,1)</f>
         <v>0</v>
       </c>
-      <c r="C133" s="492">
+      <c r="C133" s="516">
         <f>VLOOKUP(A133,EQUIP!M105:S107,7,FALSE)+(ELEC!E15)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="493"/>
+      <c r="D133" s="497"/>
     </row>
     <row r="134" spans="1:11" ht="15" thickBot="1">
       <c r="A134" s="117" t="s">
@@ -8770,21 +8770,21 @@
       <c r="B134" s="194">
         <v>0</v>
       </c>
-      <c r="C134" s="524" t="s">
+      <c r="C134" s="517" t="s">
         <v>468</v>
       </c>
-      <c r="D134" s="525"/>
+      <c r="D134" s="518"/>
     </row>
     <row r="135" spans="1:11" ht="15" thickBot="1">
       <c r="B135" s="152"/>
     </row>
     <row r="136" spans="1:11" ht="18" thickBot="1">
-      <c r="A136" s="497" t="s">
+      <c r="A136" s="490" t="s">
         <v>703</v>
       </c>
-      <c r="B136" s="498"/>
-      <c r="C136" s="498"/>
-      <c r="D136" s="499"/>
+      <c r="B136" s="491"/>
+      <c r="C136" s="491"/>
+      <c r="D136" s="492"/>
     </row>
     <row r="137" spans="1:11" ht="15" thickBot="1">
       <c r="B137" s="152"/>
@@ -8796,11 +8796,11 @@
       <c r="B138" s="194">
         <v>0</v>
       </c>
-      <c r="C138" s="500">
+      <c r="C138" s="499">
         <f>EQUIP!S128</f>
         <v>0</v>
       </c>
-      <c r="D138" s="500"/>
+      <c r="D138" s="499"/>
     </row>
     <row r="139" spans="1:11" ht="15" thickBot="1">
       <c r="A139" s="217" t="s">
@@ -8809,11 +8809,11 @@
       <c r="B139" s="194">
         <v>0</v>
       </c>
-      <c r="C139" s="500">
+      <c r="C139" s="499">
         <f>EQUIP!S129</f>
         <v>0</v>
       </c>
-      <c r="D139" s="500"/>
+      <c r="D139" s="499"/>
     </row>
     <row r="140" spans="1:11" ht="15" thickBot="1">
       <c r="A140" s="117"/>
@@ -8826,11 +8826,11 @@
       <c r="B141" s="194">
         <v>0</v>
       </c>
-      <c r="C141" s="500">
+      <c r="C141" s="499">
         <f>VLOOKUP(A141,EQUIP!M130:S130,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D141" s="500"/>
+      <c r="D141" s="499"/>
     </row>
     <row r="142" spans="1:11" ht="15" thickBot="1">
       <c r="A142" s="117"/>
@@ -8843,11 +8843,11 @@
       <c r="B143" s="194">
         <v>0</v>
       </c>
-      <c r="C143" s="494">
+      <c r="C143" s="515">
         <f>VLOOKUP(A143,EQUIP!M131:S131,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D143" s="493"/>
+      <c r="D143" s="497"/>
     </row>
     <row r="144" spans="1:11" ht="15" thickBot="1">
       <c r="A144" s="117"/>
@@ -8862,22 +8862,22 @@
       <c r="B145" s="194">
         <v>0</v>
       </c>
-      <c r="C145" s="494">
+      <c r="C145" s="515">
         <f>VLOOKUP(A145,EQUIP!M132:S132,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D145" s="493"/>
+      <c r="D145" s="497"/>
     </row>
     <row r="146" spans="1:5" ht="15" thickBot="1">
       <c r="B146" s="152"/>
     </row>
     <row r="147" spans="1:5" ht="18" thickBot="1">
-      <c r="A147" s="497" t="s">
+      <c r="A147" s="490" t="s">
         <v>713</v>
       </c>
-      <c r="B147" s="498"/>
-      <c r="C147" s="498"/>
-      <c r="D147" s="499"/>
+      <c r="B147" s="491"/>
+      <c r="C147" s="491"/>
+      <c r="D147" s="492"/>
       <c r="E147" s="153" t="s">
         <v>1068</v>
       </c>
@@ -8894,11 +8894,11 @@
         <f>IF(C149&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C149" s="493">
+      <c r="C149" s="497">
         <f>CUSTOM!G3</f>
         <v>1052.2285714285715</v>
       </c>
-      <c r="D149" s="500"/>
+      <c r="D149" s="499"/>
       <c r="E149" t="s">
         <v>783</v>
       </c>
@@ -8915,11 +8915,11 @@
         <f>IF(C151&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C151" s="493">
+      <c r="C151" s="497">
         <f>CUSTOM!G5</f>
         <v>8914.2857142857156</v>
       </c>
-      <c r="D151" s="500"/>
+      <c r="D151" s="499"/>
       <c r="E151" t="s">
         <v>783</v>
       </c>
@@ -8939,11 +8939,11 @@
         <f>IF(C153&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C153" s="493">
+      <c r="C153" s="497">
         <f>CUSTOM!G7</f>
         <v>0</v>
       </c>
-      <c r="D153" s="500"/>
+      <c r="D153" s="499"/>
       <c r="E153" t="s">
         <v>783</v>
       </c>
@@ -8963,11 +8963,11 @@
         <f>IF(C155&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C155" s="493">
+      <c r="C155" s="497">
         <f>CUSTOM!G9</f>
         <v>0</v>
       </c>
-      <c r="D155" s="500"/>
+      <c r="D155" s="499"/>
       <c r="E155" t="s">
         <v>783</v>
       </c>
@@ -8987,11 +8987,11 @@
         <f>IF(C157&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C157" s="493">
+      <c r="C157" s="497">
         <f>CUSTOM!G11</f>
         <v>0</v>
       </c>
-      <c r="D157" s="500"/>
+      <c r="D157" s="499"/>
       <c r="E157" t="s">
         <v>783</v>
       </c>
@@ -9008,11 +9008,11 @@
         <f>IF(C159&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C159" s="493">
+      <c r="C159" s="497">
         <f>CUSTOM!G13</f>
         <v>0</v>
       </c>
-      <c r="D159" s="500"/>
+      <c r="D159" s="499"/>
       <c r="E159" t="s">
         <v>783</v>
       </c>
@@ -9032,11 +9032,11 @@
         <f>IF(C161&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C161" s="493">
+      <c r="C161" s="497">
         <f>CUSTOM!G15</f>
         <v>0</v>
       </c>
-      <c r="D161" s="500"/>
+      <c r="D161" s="499"/>
       <c r="E161" t="s">
         <v>783</v>
       </c>
@@ -9056,11 +9056,11 @@
         <f>IF(C163&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C163" s="493">
+      <c r="C163" s="497">
         <f>CUSTOM!G17</f>
         <v>0</v>
       </c>
-      <c r="D163" s="500"/>
+      <c r="D163" s="499"/>
       <c r="E163" t="s">
         <v>783</v>
       </c>
@@ -9069,12 +9069,12 @@
       <c r="B164" s="152"/>
     </row>
     <row r="165" spans="1:14" ht="18" thickBot="1">
-      <c r="A165" s="497" t="s">
+      <c r="A165" s="490" t="s">
         <v>1070</v>
       </c>
-      <c r="B165" s="498"/>
-      <c r="C165" s="498"/>
-      <c r="D165" s="499"/>
+      <c r="B165" s="491"/>
+      <c r="C165" s="491"/>
+      <c r="D165" s="492"/>
     </row>
     <row r="166" spans="1:14" ht="15" customHeight="1" thickBot="1">
       <c r="A166" s="163"/>
@@ -9097,12 +9097,12 @@
       <c r="B168" s="152"/>
     </row>
     <row r="169" spans="1:14" ht="18" thickBot="1">
-      <c r="A169" s="497" t="s">
+      <c r="A169" s="490" t="s">
         <v>1057</v>
       </c>
-      <c r="B169" s="498"/>
-      <c r="C169" s="498"/>
-      <c r="D169" s="499"/>
+      <c r="B169" s="491"/>
+      <c r="C169" s="491"/>
+      <c r="D169" s="492"/>
     </row>
     <row r="170" spans="1:14" ht="18" thickBot="1">
       <c r="A170" s="163"/>
@@ -9128,12 +9128,12 @@
       <c r="B172" s="152"/>
     </row>
     <row r="173" spans="1:14" ht="18" thickBot="1">
-      <c r="A173" s="497" t="s">
+      <c r="A173" s="490" t="s">
         <v>572</v>
       </c>
-      <c r="B173" s="498"/>
-      <c r="C173" s="498"/>
-      <c r="D173" s="499"/>
+      <c r="B173" s="491"/>
+      <c r="C173" s="491"/>
+      <c r="D173" s="492"/>
     </row>
     <row r="174" spans="1:14" ht="15" thickBot="1"/>
     <row r="175" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
@@ -9143,18 +9143,18 @@
       <c r="B175" s="194">
         <v>1</v>
       </c>
-      <c r="E175" s="529" t="str">
+      <c r="E175" s="498" t="str">
         <f>VLOOKUP(A175,INT!A6:R18,18,FALSE)</f>
         <v>Bordeaux / Desert Gold / French Grey / Irish Mist / White Diamonds / HighTech Caribbean Blue / High Tech Tahoe Blue</v>
       </c>
-      <c r="F175" s="529"/>
-      <c r="G175" s="529"/>
-      <c r="H175" s="529"/>
-      <c r="I175" s="529"/>
-      <c r="J175" s="529"/>
-      <c r="K175" s="529"/>
-      <c r="L175" s="529"/>
-      <c r="M175" s="529"/>
+      <c r="F175" s="498"/>
+      <c r="G175" s="498"/>
+      <c r="H175" s="498"/>
+      <c r="I175" s="498"/>
+      <c r="J175" s="498"/>
+      <c r="K175" s="498"/>
+      <c r="L175" s="498"/>
+      <c r="M175" s="498"/>
       <c r="N175" s="437"/>
     </row>
     <row r="176" spans="1:14" ht="15" thickBot="1">
@@ -9177,23 +9177,23 @@
       <c r="B177" s="427">
         <v>2</v>
       </c>
-      <c r="C177" s="493">
+      <c r="C177" s="497">
         <f>'COST - NEW'!E299</f>
         <v>1155</v>
       </c>
-      <c r="D177" s="500"/>
-      <c r="E177" s="503" t="s">
+      <c r="D177" s="499"/>
+      <c r="E177" s="521" t="s">
         <v>914</v>
       </c>
-      <c r="F177" s="503"/>
-      <c r="G177" s="503"/>
-      <c r="H177" s="503"/>
-      <c r="I177" s="503"/>
-      <c r="J177" s="503"/>
-      <c r="K177" s="503"/>
-      <c r="L177" s="503"/>
-      <c r="M177" s="503"/>
-      <c r="N177" s="503"/>
+      <c r="F177" s="521"/>
+      <c r="G177" s="521"/>
+      <c r="H177" s="521"/>
+      <c r="I177" s="521"/>
+      <c r="J177" s="521"/>
+      <c r="K177" s="521"/>
+      <c r="L177" s="521"/>
+      <c r="M177" s="521"/>
+      <c r="N177" s="521"/>
     </row>
     <row r="178" spans="1:14" ht="15" thickBot="1">
       <c r="B178" s="152"/>
@@ -9241,52 +9241,54 @@
       <c r="N180" s="404"/>
     </row>
     <row r="181" spans="1:14" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A181" s="501" t="s">
+      <c r="A181" s="519" t="s">
         <v>637</v>
       </c>
-      <c r="B181" s="502"/>
-      <c r="C181" s="495">
+      <c r="B181" s="520"/>
+      <c r="C181" s="531">
         <f>CEILING('COST - NEW'!D344/'COST - NEW'!E344,10)+'COST - NEW'!E309</f>
         <v>152970</v>
       </c>
-      <c r="D181" s="496"/>
+      <c r="D181" s="532"/>
       <c r="E181" s="153" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="15" thickBot="1"/>
     <row r="183" spans="1:14" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A183" s="509"/>
-      <c r="B183" s="510"/>
-      <c r="C183" s="490"/>
-      <c r="D183" s="491"/>
+      <c r="A183" s="529"/>
+      <c r="B183" s="530"/>
+      <c r="C183" s="527">
+        <v>-8000</v>
+      </c>
+      <c r="D183" s="528"/>
     </row>
     <row r="184" spans="1:14" ht="15" thickBot="1"/>
     <row r="185" spans="1:14" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A185" s="509"/>
-      <c r="B185" s="510"/>
-      <c r="C185" s="490">
-        <v>0</v>
-      </c>
-      <c r="D185" s="491"/>
+      <c r="A185" s="529"/>
+      <c r="B185" s="530"/>
+      <c r="C185" s="527">
+        <v>0</v>
+      </c>
+      <c r="D185" s="528"/>
     </row>
     <row r="186" spans="1:14" ht="15" thickBot="1"/>
     <row r="187" spans="1:14" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A187" s="509"/>
-      <c r="B187" s="510"/>
-      <c r="C187" s="490">
-        <v>0</v>
-      </c>
-      <c r="D187" s="491"/>
+      <c r="A187" s="529"/>
+      <c r="B187" s="530"/>
+      <c r="C187" s="527">
+        <v>0</v>
+      </c>
+      <c r="D187" s="528"/>
     </row>
     <row r="188" spans="1:14" ht="15" thickBot="1"/>
     <row r="189" spans="1:14" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A189" s="509"/>
-      <c r="B189" s="510"/>
-      <c r="C189" s="490">
-        <v>0</v>
-      </c>
-      <c r="D189" s="491"/>
+      <c r="A189" s="529"/>
+      <c r="B189" s="530"/>
+      <c r="C189" s="527">
+        <v>0</v>
+      </c>
+      <c r="D189" s="528"/>
     </row>
     <row r="190" spans="1:14" ht="15" thickBot="1"/>
     <row r="191" spans="1:14" ht="18.600000000000001" thickBot="1">
@@ -9295,19 +9297,67 @@
       </c>
       <c r="B191" s="349">
         <f>'COST - NEW'!E353*10</f>
-        <v>2.2174222878260448</v>
-      </c>
-      <c r="C191" s="507">
+        <v>1.8343042516986281</v>
+      </c>
+      <c r="C191" s="525">
         <f>SUM(C181:D190)</f>
-        <v>152970</v>
-      </c>
-      <c r="D191" s="508"/>
+        <v>144970</v>
+      </c>
+      <c r="D191" s="526"/>
       <c r="E191" s="153" t="s">
         <v>1069</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:N177"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="D32:H37"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E93:I93"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
     <mergeCell ref="A102:D102"/>
     <mergeCell ref="E94:J94"/>
     <mergeCell ref="E121:H121"/>
@@ -9324,54 +9374,6 @@
     <mergeCell ref="E122:K122"/>
     <mergeCell ref="E125:K125"/>
     <mergeCell ref="E131:K131"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="D32:H37"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="E93:I93"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="E177:N177"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="A173:D173"/>
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
   <conditionalFormatting sqref="B121">
@@ -11380,8 +11382,8 @@
       <c r="J12" s="630" t="s">
         <v>706</v>
       </c>
-      <c r="K12" s="538"/>
-      <c r="L12" s="539"/>
+      <c r="K12" s="607"/>
+      <c r="L12" s="608"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1">
       <c r="A13" s="106"/>
@@ -13620,8 +13622,8 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14756,7 +14758,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="30">
-        <f t="shared" si="12"/>
+        <f>B25*C25</f>
         <v>250</v>
       </c>
     </row>
@@ -14933,19 +14935,19 @@
       <c r="A3" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="511"/>
-      <c r="C3" s="512"/>
-      <c r="D3" s="512"/>
-      <c r="E3" s="513"/>
+      <c r="B3" s="503"/>
+      <c r="C3" s="504"/>
+      <c r="D3" s="504"/>
+      <c r="E3" s="505"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1">
       <c r="A4" s="165" t="s">
         <v>670</v>
       </c>
-      <c r="B4" s="511"/>
-      <c r="C4" s="512"/>
-      <c r="D4" s="512"/>
-      <c r="E4" s="513"/>
+      <c r="B4" s="503"/>
+      <c r="C4" s="504"/>
+      <c r="D4" s="504"/>
+      <c r="E4" s="505"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
@@ -15159,12 +15161,12 @@
       <c r="B21" s="117"/>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="497" t="s">
+      <c r="A22" s="490" t="s">
         <v>991</v>
       </c>
-      <c r="B22" s="498"/>
-      <c r="C22" s="498"/>
-      <c r="D22" s="499"/>
+      <c r="B22" s="491"/>
+      <c r="C22" s="491"/>
+      <c r="D22" s="492"/>
     </row>
     <row r="23" spans="1:5" ht="14.4" customHeight="1" thickBot="1">
       <c r="A23" s="8"/>
@@ -15202,12 +15204,12 @@
       <c r="B27" s="117"/>
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1">
-      <c r="A28" s="497" t="s">
+      <c r="A28" s="490" t="s">
         <v>785</v>
       </c>
-      <c r="B28" s="498"/>
-      <c r="C28" s="498"/>
-      <c r="D28" s="499"/>
+      <c r="B28" s="491"/>
+      <c r="C28" s="491"/>
+      <c r="D28" s="492"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="163"/>
@@ -15416,14 +15418,14 @@
       <c r="C51" t="s">
         <v>592</v>
       </c>
-      <c r="E51" s="523" t="str">
+      <c r="E51" s="493" t="str">
         <f>'TILE COPING'!F32</f>
         <v>Silver, Silver Vogue, River Silver, Bianco Dolomite, Dianna Royal, Skyline, Alaska Silver, Turkish Carrea</v>
       </c>
-      <c r="F51" s="523"/>
-      <c r="G51" s="523"/>
-      <c r="H51" s="523"/>
-      <c r="I51" s="523"/>
+      <c r="F51" s="493"/>
+      <c r="G51" s="493"/>
+      <c r="H51" s="493"/>
+      <c r="I51" s="493"/>
     </row>
     <row r="52" spans="1:11" ht="15.6" customHeight="1" thickBot="1">
       <c r="A52" s="99" t="s">
@@ -15435,16 +15437,16 @@
       <c r="C52" t="s">
         <v>592</v>
       </c>
-      <c r="E52" s="523" t="str">
+      <c r="E52" s="493" t="str">
         <f>'TILE COPING'!F33</f>
         <v>Silver, Silver Vogue, River Silver, Bianco Dolomite, Dianna Royal, Skyline, Alaska Silver, Turkish Carrea</v>
       </c>
-      <c r="F52" s="523"/>
-      <c r="G52" s="523"/>
-      <c r="H52" s="523"/>
-      <c r="I52" s="523"/>
-      <c r="J52" s="523"/>
-      <c r="K52" s="523"/>
+      <c r="F52" s="493"/>
+      <c r="G52" s="493"/>
+      <c r="H52" s="493"/>
+      <c r="I52" s="493"/>
+      <c r="J52" s="493"/>
+      <c r="K52" s="493"/>
     </row>
     <row r="53" spans="1:11" ht="15" thickBot="1">
       <c r="B53" s="152"/>
@@ -15488,12 +15490,12 @@
       <c r="B58" s="152"/>
     </row>
     <row r="59" spans="1:11" ht="18" thickBot="1">
-      <c r="A59" s="497" t="s">
+      <c r="A59" s="490" t="s">
         <v>841</v>
       </c>
-      <c r="B59" s="498"/>
-      <c r="C59" s="498"/>
-      <c r="D59" s="499"/>
+      <c r="B59" s="491"/>
+      <c r="C59" s="491"/>
+      <c r="D59" s="492"/>
     </row>
     <row r="60" spans="1:11" ht="15" thickBot="1">
       <c r="B60" s="152"/>
@@ -15546,23 +15548,23 @@
       <c r="B65" s="152"/>
     </row>
     <row r="66" spans="1:8" ht="18" thickBot="1">
-      <c r="A66" s="497" t="s">
+      <c r="A66" s="490" t="s">
         <v>686</v>
       </c>
-      <c r="B66" s="498"/>
-      <c r="C66" s="498"/>
-      <c r="D66" s="499"/>
+      <c r="B66" s="491"/>
+      <c r="C66" s="491"/>
+      <c r="D66" s="492"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1">
       <c r="B67" s="152"/>
     </row>
     <row r="68" spans="1:8" ht="18" thickBot="1">
-      <c r="A68" s="497" t="s">
+      <c r="A68" s="490" t="s">
         <v>689</v>
       </c>
-      <c r="B68" s="498"/>
-      <c r="C68" s="498"/>
-      <c r="D68" s="499"/>
+      <c r="B68" s="491"/>
+      <c r="C68" s="491"/>
+      <c r="D68" s="492"/>
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1">
       <c r="B69" s="152"/>
@@ -15575,11 +15577,11 @@
         <f>IF(A70="No Auxiliary Pump",0,1)</f>
         <v>0</v>
       </c>
-      <c r="C70" s="493">
+      <c r="C70" s="497">
         <f>(VLOOKUP(A70,EQUIP!$M$14:$S$20,6,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="D70" s="500"/>
+      <c r="D70" s="499"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1">
       <c r="A71" s="212" t="s">
@@ -15589,11 +15591,11 @@
         <f>IF(C71&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C71" s="493">
+      <c r="C71" s="497">
         <f>(VLOOKUP(A71,EQUIP!$M$14:$S$20,6,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="D71" s="500"/>
+      <c r="D71" s="499"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1">
       <c r="A72" s="212" t="s">
@@ -15603,11 +15605,11 @@
         <f>IF(C72&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C72" s="493">
+      <c r="C72" s="497">
         <f>(VLOOKUP(A72,EQUIP!$M$14:$S$20,6,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="D72" s="500"/>
+      <c r="D72" s="499"/>
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1">
       <c r="A73" s="117"/>
@@ -15621,11 +15623,11 @@
         <f>IF(A74="No Filter",0,1)</f>
         <v>0</v>
       </c>
-      <c r="C74" s="493">
+      <c r="C74" s="497">
         <f>(VLOOKUP(A74,EQUIP!M22:S28,6,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="D74" s="500"/>
+      <c r="D74" s="499"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1">
       <c r="A75" s="117"/>
@@ -15639,11 +15641,11 @@
         <f>IF(C76&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C76" s="492">
+      <c r="C76" s="516">
         <f>VLOOKUP(A76,EQUIP!M31:S33,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D76" s="493"/>
+      <c r="D76" s="497"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1">
       <c r="A77" s="117"/>
@@ -15657,18 +15659,18 @@
         <f>IF(A78="No Heater",0,1)</f>
         <v>0</v>
       </c>
-      <c r="C78" s="492">
+      <c r="C78" s="516">
         <f>VLOOKUP(A78,EQUIP!M36:S39,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="493"/>
-      <c r="E78" s="526" t="str">
+      <c r="D78" s="497"/>
+      <c r="E78" s="494" t="str">
         <f>IF(A78="Jandy 260K BTU - JXI Heater", "CANNOT BE USED TO HEAT A SPA","")</f>
         <v/>
       </c>
-      <c r="F78" s="527"/>
-      <c r="G78" s="527"/>
-      <c r="H78" s="527"/>
+      <c r="F78" s="495"/>
+      <c r="G78" s="495"/>
+      <c r="H78" s="495"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1">
       <c r="A79" s="432" t="s">
@@ -15677,11 +15679,11 @@
       <c r="B79" s="194">
         <v>0</v>
       </c>
-      <c r="C79" s="492">
+      <c r="C79" s="516">
         <f>B79*EQUIP!R39</f>
         <v>0</v>
       </c>
-      <c r="D79" s="493"/>
+      <c r="D79" s="497"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1">
       <c r="A80" s="117"/>
@@ -15694,11 +15696,11 @@
       <c r="B81" s="118">
         <v>0</v>
       </c>
-      <c r="C81" s="493" t="e">
+      <c r="C81" s="497" t="e">
         <f>(VLOOKUP(A81,EQUIP!M42:R46,6,FALSE))*B81</f>
         <v>#N/A</v>
       </c>
-      <c r="D81" s="500"/>
+      <c r="D81" s="499"/>
     </row>
     <row r="82" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="B82" s="152"/>
@@ -15711,11 +15713,11 @@
         <f>IF(C83&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C83" s="493">
+      <c r="C83" s="497">
         <f>VLOOKUP(A83,EQUIP!M49:S57,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D83" s="500"/>
+      <c r="D83" s="499"/>
       <c r="E83" s="226">
         <f>IF(C83=1280,1,0)</f>
         <v>0</v>
@@ -15741,11 +15743,11 @@
         <f>IF(C84&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C84" s="493">
+      <c r="C84" s="497">
         <f>VLOOKUP(A84,EQUIP!M49:S57,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D84" s="500"/>
+      <c r="D84" s="499"/>
       <c r="E84" s="226">
         <f>IF(C84=1280,1,0)</f>
         <v>0</v>
@@ -15771,11 +15773,11 @@
         <f>IF(C85&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C85" s="493">
+      <c r="C85" s="497">
         <f>VLOOKUP(A85,EQUIP!M49:S57,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D85" s="500"/>
+      <c r="D85" s="499"/>
       <c r="E85" s="226">
         <f>IF(C85=1280,1,0)</f>
         <v>0</v>
@@ -15807,11 +15809,11 @@
         <f>IF(C87&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C87" s="494">
+      <c r="C87" s="515">
         <f>VLOOKUP(A87,EQUIP!M63:S72,7,FALSE)*1.2</f>
         <v>0</v>
       </c>
-      <c r="D87" s="493"/>
+      <c r="D87" s="497"/>
     </row>
     <row r="88" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="B88" s="152"/>
@@ -15824,11 +15826,11 @@
         <f>IF(A89=EQUIP!M105,0,1)</f>
         <v>0</v>
       </c>
-      <c r="C89" s="492">
+      <c r="C89" s="516">
         <f>VLOOKUP(A89,EQUIP!M105:S107,7,FALSE)+(ELEC!E15)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="493"/>
+      <c r="D89" s="497"/>
     </row>
     <row r="90" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A90" s="117" t="s">
@@ -15837,21 +15839,21 @@
       <c r="B90" s="194">
         <v>0</v>
       </c>
-      <c r="C90" s="524" t="s">
+      <c r="C90" s="517" t="s">
         <v>468</v>
       </c>
-      <c r="D90" s="525"/>
+      <c r="D90" s="518"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1">
       <c r="B91" s="152"/>
     </row>
     <row r="92" spans="1:8" ht="18" thickBot="1">
-      <c r="A92" s="497" t="s">
+      <c r="A92" s="490" t="s">
         <v>713</v>
       </c>
-      <c r="B92" s="498"/>
-      <c r="C92" s="498"/>
-      <c r="D92" s="499"/>
+      <c r="B92" s="491"/>
+      <c r="C92" s="491"/>
+      <c r="D92" s="492"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1">
       <c r="B93" s="152"/>
@@ -15865,11 +15867,11 @@
         <f>IF(C94&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C94" s="493">
+      <c r="C94" s="497">
         <f>CUSTOM!G3</f>
         <v>1052.2285714285715</v>
       </c>
-      <c r="D94" s="500"/>
+      <c r="D94" s="499"/>
       <c r="E94" t="s">
         <v>783</v>
       </c>
@@ -15886,11 +15888,11 @@
         <f>IF(C96&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C96" s="493">
+      <c r="C96" s="497">
         <f>CUSTOM!G5</f>
         <v>8914.2857142857156</v>
       </c>
-      <c r="D96" s="500"/>
+      <c r="D96" s="499"/>
       <c r="E96" t="s">
         <v>783</v>
       </c>
@@ -15910,11 +15912,11 @@
         <f>IF(C98&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C98" s="493">
+      <c r="C98" s="497">
         <f>CUSTOM!G7</f>
         <v>0</v>
       </c>
-      <c r="D98" s="500"/>
+      <c r="D98" s="499"/>
       <c r="E98" t="s">
         <v>783</v>
       </c>
@@ -15934,11 +15936,11 @@
         <f>IF(C100&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C100" s="493">
+      <c r="C100" s="497">
         <f>CUSTOM!G9</f>
         <v>0</v>
       </c>
-      <c r="D100" s="500"/>
+      <c r="D100" s="499"/>
       <c r="E100" t="s">
         <v>783</v>
       </c>
@@ -15958,11 +15960,11 @@
         <f>IF(C102&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C102" s="493">
+      <c r="C102" s="497">
         <f>CUSTOM!G11</f>
         <v>0</v>
       </c>
-      <c r="D102" s="500"/>
+      <c r="D102" s="499"/>
       <c r="E102" t="s">
         <v>783</v>
       </c>
@@ -15979,11 +15981,11 @@
         <f>IF(C104&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C104" s="493">
+      <c r="C104" s="497">
         <f>CUSTOM!G13</f>
         <v>0</v>
       </c>
-      <c r="D104" s="500"/>
+      <c r="D104" s="499"/>
       <c r="E104" t="s">
         <v>783</v>
       </c>
@@ -16003,11 +16005,11 @@
         <f>IF(C106&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C106" s="493">
+      <c r="C106" s="497">
         <f>CUSTOM!G15</f>
         <v>0</v>
       </c>
-      <c r="D106" s="500"/>
+      <c r="D106" s="499"/>
       <c r="E106" t="s">
         <v>783</v>
       </c>
@@ -16027,11 +16029,11 @@
         <f>IF(C108&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C108" s="493">
+      <c r="C108" s="497">
         <f>CUSTOM!G17</f>
         <v>0</v>
       </c>
-      <c r="D108" s="500"/>
+      <c r="D108" s="499"/>
       <c r="E108" t="s">
         <v>783</v>
       </c>
@@ -16040,12 +16042,12 @@
       <c r="B109" s="152"/>
     </row>
     <row r="110" spans="1:5" ht="18" thickBot="1">
-      <c r="A110" s="497" t="s">
+      <c r="A110" s="490" t="s">
         <v>658</v>
       </c>
-      <c r="B110" s="498"/>
-      <c r="C110" s="498"/>
-      <c r="D110" s="499"/>
+      <c r="B110" s="491"/>
+      <c r="C110" s="491"/>
+      <c r="D110" s="492"/>
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" thickBot="1">
       <c r="A111" s="163"/>
@@ -16066,12 +16068,12 @@
     </row>
     <row r="113" spans="1:15" ht="15" thickBot="1"/>
     <row r="114" spans="1:15" ht="18" thickBot="1">
-      <c r="A114" s="497" t="s">
+      <c r="A114" s="490" t="s">
         <v>572</v>
       </c>
-      <c r="B114" s="498"/>
-      <c r="C114" s="498"/>
-      <c r="D114" s="499"/>
+      <c r="B114" s="491"/>
+      <c r="C114" s="491"/>
+      <c r="D114" s="492"/>
     </row>
     <row r="115" spans="1:15" ht="15" thickBot="1"/>
     <row r="116" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -16081,19 +16083,19 @@
       <c r="B116" s="194">
         <v>1</v>
       </c>
-      <c r="E116" s="529" t="str">
+      <c r="E116" s="498" t="str">
         <f>VLOOKUP(A116,INT!A6:R18,18,FALSE)</f>
         <v>Ivory / Blue / French Grey / Super Blue / Mariner Blue / Tropical Blue / Sky Blue</v>
       </c>
-      <c r="F116" s="529"/>
-      <c r="G116" s="529"/>
-      <c r="H116" s="529"/>
-      <c r="I116" s="529"/>
-      <c r="J116" s="529"/>
-      <c r="K116" s="529"/>
-      <c r="L116" s="529"/>
-      <c r="M116" s="529"/>
-      <c r="N116" s="529"/>
+      <c r="F116" s="498"/>
+      <c r="G116" s="498"/>
+      <c r="H116" s="498"/>
+      <c r="I116" s="498"/>
+      <c r="J116" s="498"/>
+      <c r="K116" s="498"/>
+      <c r="L116" s="498"/>
+      <c r="M116" s="498"/>
+      <c r="N116" s="498"/>
       <c r="O116" s="437"/>
     </row>
     <row r="117" spans="1:15" ht="15" thickBot="1">
@@ -16117,24 +16119,24 @@
       <c r="B118" s="427">
         <v>0</v>
       </c>
-      <c r="C118" s="493">
+      <c r="C118" s="497">
         <f>'COST - NEW'!E299</f>
         <v>1155</v>
       </c>
-      <c r="D118" s="500"/>
-      <c r="E118" s="503" t="s">
+      <c r="D118" s="499"/>
+      <c r="E118" s="521" t="s">
         <v>914</v>
       </c>
-      <c r="F118" s="503"/>
-      <c r="G118" s="503"/>
-      <c r="H118" s="503"/>
-      <c r="I118" s="503"/>
-      <c r="J118" s="503"/>
-      <c r="K118" s="503"/>
-      <c r="L118" s="503"/>
-      <c r="M118" s="503"/>
-      <c r="N118" s="503"/>
-      <c r="O118" s="503"/>
+      <c r="F118" s="521"/>
+      <c r="G118" s="521"/>
+      <c r="H118" s="521"/>
+      <c r="I118" s="521"/>
+      <c r="J118" s="521"/>
+      <c r="K118" s="521"/>
+      <c r="L118" s="521"/>
+      <c r="M118" s="521"/>
+      <c r="N118" s="521"/>
+      <c r="O118" s="521"/>
     </row>
     <row r="119" spans="1:15" ht="15" thickBot="1">
       <c r="B119" s="152"/>
@@ -16185,42 +16187,42 @@
       <c r="O121" s="404"/>
     </row>
     <row r="122" spans="1:15" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A122" s="501" t="s">
+      <c r="A122" s="519" t="s">
         <v>637</v>
       </c>
-      <c r="B122" s="502"/>
-      <c r="C122" s="495">
+      <c r="B122" s="520"/>
+      <c r="C122" s="531">
         <f>'COST - REMODEL'!D337</f>
         <v>48111.687484285714</v>
       </c>
-      <c r="D122" s="496"/>
+      <c r="D122" s="532"/>
     </row>
     <row r="123" spans="1:15" ht="15" thickBot="1"/>
     <row r="124" spans="1:15" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A124" s="509"/>
-      <c r="B124" s="510"/>
-      <c r="C124" s="490">
-        <v>0</v>
-      </c>
-      <c r="D124" s="491"/>
+      <c r="A124" s="529"/>
+      <c r="B124" s="530"/>
+      <c r="C124" s="527">
+        <v>0</v>
+      </c>
+      <c r="D124" s="528"/>
     </row>
     <row r="125" spans="1:15" ht="15" thickBot="1"/>
     <row r="126" spans="1:15" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A126" s="509"/>
-      <c r="B126" s="510"/>
-      <c r="C126" s="490">
-        <v>0</v>
-      </c>
-      <c r="D126" s="491"/>
+      <c r="A126" s="529"/>
+      <c r="B126" s="530"/>
+      <c r="C126" s="527">
+        <v>0</v>
+      </c>
+      <c r="D126" s="528"/>
     </row>
     <row r="127" spans="1:15" ht="15" thickBot="1"/>
     <row r="128" spans="1:15" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A128" s="509"/>
-      <c r="B128" s="510"/>
-      <c r="C128" s="490">
-        <v>0</v>
-      </c>
-      <c r="D128" s="491"/>
+      <c r="A128" s="529"/>
+      <c r="B128" s="530"/>
+      <c r="C128" s="527">
+        <v>0</v>
+      </c>
+      <c r="D128" s="528"/>
     </row>
     <row r="129" spans="1:4" ht="15" thickBot="1"/>
     <row r="130" spans="1:4" ht="18.600000000000001" thickBot="1">
@@ -16231,14 +16233,46 @@
         <f>'COST - REMODEL'!E344*10</f>
         <v>2.1750000000000007</v>
       </c>
-      <c r="C130" s="507">
+      <c r="C130" s="525">
         <f>SUM(C122:D129)</f>
         <v>48111.687484285714</v>
       </c>
-      <c r="D130" s="508"/>
+      <c r="D130" s="526"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E52:K52"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E118:O118"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="E116:N116"/>
     <mergeCell ref="C130:D130"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="C84:D84"/>
@@ -16255,38 +16289,6 @@
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E118:O118"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="E116:N116"/>
-    <mergeCell ref="E52:K52"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <conditionalFormatting sqref="B78">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
@@ -21017,15 +21019,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A308:D308"/>
-    <mergeCell ref="A316:D316"/>
-    <mergeCell ref="A323:D323"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A259:D259"/>
-    <mergeCell ref="A268:D268"/>
-    <mergeCell ref="A275:D275"/>
-    <mergeCell ref="A288:D288"/>
-    <mergeCell ref="A294:D294"/>
     <mergeCell ref="A214:D214"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A11:D11"/>
@@ -21039,6 +21032,15 @@
     <mergeCell ref="A154:D154"/>
     <mergeCell ref="A181:D181"/>
     <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A308:D308"/>
+    <mergeCell ref="A316:D316"/>
+    <mergeCell ref="A323:D323"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A259:D259"/>
+    <mergeCell ref="A268:D268"/>
+    <mergeCell ref="A275:D275"/>
+    <mergeCell ref="A288:D288"/>
+    <mergeCell ref="A294:D294"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21898,7 +21900,7 @@
   <dimension ref="A1:W249"/>
   <sheetViews>
     <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25121,7 +25123,7 @@
       </c>
       <c r="Q66" s="221"/>
       <c r="R66" s="44">
-        <f t="shared" ref="R66:R72" si="19">($N$61+N66+O66+P66+Q66)</f>
+        <f>($N$61+N66+O66+P66+Q66)</f>
         <v>3025</v>
       </c>
       <c r="S66" s="202">
@@ -25173,12 +25175,12 @@
         <v>325</v>
       </c>
       <c r="P67" s="221">
-        <f t="shared" ref="P67:P72" si="20">P66</f>
+        <f t="shared" ref="P67:P72" si="19">P66</f>
         <v>0</v>
       </c>
       <c r="Q67" s="221"/>
       <c r="R67" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="R66:R72" si="20">($N$61+N67+O67+P67+Q67)</f>
         <v>3722</v>
       </c>
       <c r="S67" s="202">
@@ -25230,12 +25232,12 @@
         <v>325</v>
       </c>
       <c r="P68" s="221">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q68" s="221"/>
       <c r="R68" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4525</v>
       </c>
       <c r="S68" s="202">
@@ -25330,7 +25332,7 @@
       </c>
       <c r="Q70" s="221"/>
       <c r="R70" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1960</v>
       </c>
       <c r="S70" s="202">
@@ -25380,12 +25382,12 @@
         <v>325</v>
       </c>
       <c r="P71" s="221">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>35</v>
       </c>
       <c r="Q71" s="221"/>
       <c r="R71" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1960</v>
       </c>
       <c r="S71" s="202">
@@ -25433,12 +25435,12 @@
         <v>325</v>
       </c>
       <c r="P72" s="221">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>35</v>
       </c>
       <c r="Q72" s="221"/>
       <c r="R72" s="44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1960</v>
       </c>
       <c r="S72" s="202">
@@ -35522,47 +35524,47 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="80"/>
-      <c r="B1" s="540">
+      <c r="B1" s="603">
         <v>2025</v>
       </c>
-      <c r="C1" s="540"/>
-      <c r="D1" s="540"/>
-      <c r="E1" s="540"/>
-      <c r="F1" s="546" t="s">
+      <c r="C1" s="603"/>
+      <c r="D1" s="603"/>
+      <c r="E1" s="603"/>
+      <c r="F1" s="604" t="s">
         <v>361</v>
       </c>
-      <c r="G1" s="546"/>
+      <c r="G1" s="604"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="80"/>
-      <c r="B2" s="540"/>
-      <c r="C2" s="540"/>
-      <c r="D2" s="540"/>
-      <c r="E2" s="540"/>
-      <c r="F2" s="550" t="s">
+      <c r="B2" s="603"/>
+      <c r="C2" s="603"/>
+      <c r="D2" s="603"/>
+      <c r="E2" s="603"/>
+      <c r="F2" s="586" t="s">
         <v>432</v>
       </c>
-      <c r="G2" s="550"/>
+      <c r="G2" s="586"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="80"/>
-      <c r="B3" s="540"/>
-      <c r="C3" s="540"/>
-      <c r="D3" s="540"/>
-      <c r="E3" s="540"/>
-      <c r="F3" s="550"/>
-      <c r="G3" s="550"/>
+      <c r="B3" s="603"/>
+      <c r="C3" s="603"/>
+      <c r="D3" s="603"/>
+      <c r="E3" s="603"/>
+      <c r="F3" s="586"/>
+      <c r="G3" s="586"/>
     </row>
     <row r="4" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A4" s="80"/>
-      <c r="B4" s="580"/>
-      <c r="C4" s="580"/>
-      <c r="D4" s="580"/>
-      <c r="E4" s="580"/>
-      <c r="F4" s="547" t="s">
+      <c r="B4" s="533"/>
+      <c r="C4" s="533"/>
+      <c r="D4" s="533"/>
+      <c r="E4" s="533"/>
+      <c r="F4" s="595" t="s">
         <v>1100</v>
       </c>
-      <c r="G4" s="547"/>
+      <c r="G4" s="595"/>
     </row>
     <row r="5" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="80"/>
@@ -35570,52 +35572,52 @@
       <c r="C5" s="355"/>
       <c r="D5" s="355"/>
       <c r="E5" s="355"/>
-      <c r="F5" s="547" t="s">
+      <c r="F5" s="595" t="s">
         <v>1101</v>
       </c>
-      <c r="G5" s="547"/>
+      <c r="G5" s="595"/>
     </row>
     <row r="6" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A6" s="80"/>
-      <c r="B6" s="581" t="s">
+      <c r="B6" s="534" t="s">
         <v>799</v>
       </c>
-      <c r="C6" s="581"/>
-      <c r="D6" s="581"/>
-      <c r="E6" s="581"/>
-      <c r="F6" s="548" t="s">
+      <c r="C6" s="534"/>
+      <c r="D6" s="534"/>
+      <c r="E6" s="534"/>
+      <c r="F6" s="609" t="s">
         <v>1102</v>
       </c>
-      <c r="G6" s="549"/>
+      <c r="G6" s="610"/>
     </row>
     <row r="7" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A7" s="609" t="s">
+      <c r="A7" s="559" t="s">
         <v>719</v>
       </c>
-      <c r="B7" s="599" t="str">
+      <c r="B7" s="573" t="str">
         <f>'NEW POOL'!B3</f>
         <v>Ashley Drennen</v>
       </c>
-      <c r="C7" s="599"/>
-      <c r="D7" s="599"/>
-      <c r="E7" s="599"/>
-      <c r="F7" s="605">
+      <c r="C7" s="573"/>
+      <c r="D7" s="573"/>
+      <c r="E7" s="573"/>
+      <c r="F7" s="543">
         <f ca="1">TODAY()</f>
-        <v>45995</v>
-      </c>
-      <c r="G7" s="606"/>
+        <v>46000</v>
+      </c>
+      <c r="G7" s="544"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A8" s="610"/>
-      <c r="B8" s="599" t="str">
+      <c r="A8" s="560"/>
+      <c r="B8" s="573" t="str">
         <f>'NEW POOL'!B4</f>
         <v>Ft mill</v>
       </c>
-      <c r="C8" s="599"/>
-      <c r="D8" s="599"/>
-      <c r="E8" s="599"/>
-      <c r="F8" s="607"/>
-      <c r="G8" s="608"/>
+      <c r="C8" s="573"/>
+      <c r="D8" s="573"/>
+      <c r="E8" s="573"/>
+      <c r="F8" s="545"/>
+      <c r="G8" s="546"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="68"/>
@@ -35641,10 +35643,10 @@
       <c r="E10" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="602" t="s">
+      <c r="F10" s="565" t="s">
         <v>365</v>
       </c>
-      <c r="G10" s="603"/>
+      <c r="G10" s="566"/>
     </row>
     <row r="11" spans="1:7" ht="22.5" customHeight="1">
       <c r="A11" s="246" t="s">
@@ -35666,8 +35668,8 @@
         <f>'NEW POOL'!B10</f>
         <v>6</v>
       </c>
-      <c r="F11" s="533"/>
-      <c r="G11" s="533"/>
+      <c r="F11" s="557"/>
+      <c r="G11" s="557"/>
     </row>
     <row r="12" spans="1:7" ht="22.5" customHeight="1">
       <c r="A12" s="246" t="s">
@@ -35688,50 +35690,50 @@
       <c r="E12" s="173">
         <v>0</v>
       </c>
-      <c r="F12" s="533" t="str">
+      <c r="F12" s="557" t="str">
         <f>IF(C12=0,"No Spa","Split Bench for Customized Therapy")</f>
         <v>Split Bench for Customized Therapy</v>
       </c>
-      <c r="G12" s="533"/>
+      <c r="G12" s="557"/>
     </row>
     <row r="13" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A13" s="554" t="str">
+      <c r="A13" s="540" t="str">
         <f>IF(I43=1,"Shell:","Notes:")</f>
         <v>Notes:</v>
       </c>
-      <c r="B13" s="554" t="str">
+      <c r="B13" s="540" t="str">
         <f>IF('NEW POOL'!A21="Fiberglass - Small","",'NEW POOL'!A21)</f>
         <v/>
       </c>
-      <c r="C13" s="555"/>
-      <c r="D13" s="555"/>
-      <c r="E13" s="555"/>
-      <c r="F13" s="555"/>
-      <c r="G13" s="556"/>
+      <c r="C13" s="541"/>
+      <c r="D13" s="541"/>
+      <c r="E13" s="541"/>
+      <c r="F13" s="541"/>
+      <c r="G13" s="542"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A14" s="584"/>
-      <c r="B14" s="554" t="str">
+      <c r="A14" s="550"/>
+      <c r="B14" s="540" t="str">
         <f>IF('NEW POOL'!A22="Fiberglass - Medium","",'NEW POOL'!A22)</f>
         <v/>
       </c>
-      <c r="C14" s="555"/>
-      <c r="D14" s="555"/>
-      <c r="E14" s="555"/>
-      <c r="F14" s="555"/>
-      <c r="G14" s="556"/>
+      <c r="C14" s="541"/>
+      <c r="D14" s="541"/>
+      <c r="E14" s="541"/>
+      <c r="F14" s="541"/>
+      <c r="G14" s="542"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="557"/>
-      <c r="B15" s="552" t="str">
+      <c r="A15" s="551"/>
+      <c r="B15" s="538" t="str">
         <f>IF('NEW POOL'!A23="Fiberglass - Large","",'NEW POOL'!A23)</f>
         <v/>
       </c>
-      <c r="C15" s="604"/>
-      <c r="D15" s="604"/>
-      <c r="E15" s="604"/>
-      <c r="F15" s="604"/>
-      <c r="G15" s="553"/>
+      <c r="C15" s="570"/>
+      <c r="D15" s="570"/>
+      <c r="E15" s="570"/>
+      <c r="F15" s="570"/>
+      <c r="G15" s="539"/>
     </row>
     <row r="16" spans="1:7" ht="17.399999999999999">
       <c r="A16" s="69"/>
@@ -35742,61 +35744,61 @@
       <c r="F16" s="69"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A17" s="543" t="s">
+      <c r="A17" s="552" t="s">
         <v>367</v>
       </c>
-      <c r="B17" s="544"/>
-      <c r="C17" s="544"/>
-      <c r="D17" s="544"/>
-      <c r="E17" s="545"/>
-      <c r="F17" s="551" t="s">
+      <c r="B17" s="553"/>
+      <c r="C17" s="553"/>
+      <c r="D17" s="553"/>
+      <c r="E17" s="554"/>
+      <c r="F17" s="558" t="s">
         <v>365</v>
       </c>
-      <c r="G17" s="551"/>
+      <c r="G17" s="558"/>
     </row>
     <row r="18" spans="1:7" ht="33" customHeight="1">
-      <c r="A18" s="534" t="s">
+      <c r="A18" s="547" t="s">
         <v>368</v>
       </c>
-      <c r="B18" s="535"/>
-      <c r="C18" s="535"/>
-      <c r="D18" s="535"/>
-      <c r="E18" s="536"/>
-      <c r="F18" s="533"/>
-      <c r="G18" s="533"/>
+      <c r="B18" s="548"/>
+      <c r="C18" s="548"/>
+      <c r="D18" s="548"/>
+      <c r="E18" s="549"/>
+      <c r="F18" s="557"/>
+      <c r="G18" s="557"/>
     </row>
     <row r="19" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A19" s="534" t="s">
+      <c r="A19" s="547" t="s">
         <v>369</v>
       </c>
-      <c r="B19" s="541"/>
-      <c r="C19" s="541"/>
-      <c r="D19" s="541"/>
-      <c r="E19" s="542"/>
-      <c r="F19" s="533" t="s">
+      <c r="B19" s="555"/>
+      <c r="C19" s="555"/>
+      <c r="D19" s="555"/>
+      <c r="E19" s="556"/>
+      <c r="F19" s="557" t="s">
         <v>370</v>
       </c>
-      <c r="G19" s="533"/>
+      <c r="G19" s="557"/>
     </row>
     <row r="20" spans="1:7" ht="15.6" customHeight="1">
       <c r="A20" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B20" s="554"/>
-      <c r="C20" s="555"/>
-      <c r="D20" s="555"/>
-      <c r="E20" s="555"/>
-      <c r="F20" s="555"/>
-      <c r="G20" s="556"/>
+      <c r="B20" s="540"/>
+      <c r="C20" s="541"/>
+      <c r="D20" s="541"/>
+      <c r="E20" s="541"/>
+      <c r="F20" s="541"/>
+      <c r="G20" s="542"/>
     </row>
     <row r="21" spans="1:7" ht="15.6" customHeight="1">
       <c r="A21" s="564"/>
-      <c r="B21" s="565"/>
-      <c r="C21" s="566"/>
-      <c r="D21" s="566"/>
-      <c r="E21" s="566"/>
-      <c r="F21" s="566"/>
-      <c r="G21" s="567"/>
+      <c r="B21" s="567"/>
+      <c r="C21" s="568"/>
+      <c r="D21" s="568"/>
+      <c r="E21" s="568"/>
+      <c r="F21" s="568"/>
+      <c r="G21" s="569"/>
     </row>
     <row r="22" spans="1:7" ht="15.6" customHeight="1">
       <c r="A22" s="68"/>
@@ -35807,140 +35809,140 @@
       <c r="F22" s="68"/>
     </row>
     <row r="23" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A23" s="543" t="s">
+      <c r="A23" s="552" t="s">
         <v>371</v>
       </c>
-      <c r="B23" s="544"/>
-      <c r="C23" s="544"/>
-      <c r="D23" s="544"/>
-      <c r="E23" s="545"/>
-      <c r="F23" s="551" t="s">
+      <c r="B23" s="553"/>
+      <c r="C23" s="553"/>
+      <c r="D23" s="553"/>
+      <c r="E23" s="554"/>
+      <c r="F23" s="558" t="s">
         <v>365</v>
       </c>
-      <c r="G23" s="551"/>
+      <c r="G23" s="558"/>
     </row>
     <row r="24" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A24" s="534" t="s">
+      <c r="A24" s="547" t="s">
         <v>372</v>
       </c>
-      <c r="B24" s="535"/>
-      <c r="C24" s="535"/>
-      <c r="D24" s="535"/>
-      <c r="E24" s="536"/>
-      <c r="F24" s="533" t="s">
+      <c r="B24" s="548"/>
+      <c r="C24" s="548"/>
+      <c r="D24" s="548"/>
+      <c r="E24" s="549"/>
+      <c r="F24" s="557" t="s">
         <v>439</v>
       </c>
-      <c r="G24" s="533"/>
+      <c r="G24" s="557"/>
     </row>
     <row r="25" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A25" s="534" t="s">
+      <c r="A25" s="547" t="s">
         <v>373</v>
       </c>
-      <c r="B25" s="535"/>
-      <c r="C25" s="535"/>
-      <c r="D25" s="535"/>
-      <c r="E25" s="536"/>
-      <c r="F25" s="533" t="s">
+      <c r="B25" s="548"/>
+      <c r="C25" s="548"/>
+      <c r="D25" s="548"/>
+      <c r="E25" s="549"/>
+      <c r="F25" s="557" t="s">
         <v>374</v>
       </c>
-      <c r="G25" s="533"/>
+      <c r="G25" s="557"/>
     </row>
     <row r="26" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A26" s="534" t="s">
+      <c r="A26" s="547" t="s">
         <v>375</v>
       </c>
-      <c r="B26" s="535"/>
-      <c r="C26" s="535"/>
-      <c r="D26" s="535"/>
-      <c r="E26" s="536"/>
-      <c r="F26" s="533"/>
-      <c r="G26" s="533"/>
+      <c r="B26" s="548"/>
+      <c r="C26" s="548"/>
+      <c r="D26" s="548"/>
+      <c r="E26" s="549"/>
+      <c r="F26" s="557"/>
+      <c r="G26" s="557"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A27" s="534" t="s">
+      <c r="A27" s="547" t="s">
         <v>376</v>
       </c>
-      <c r="B27" s="535"/>
-      <c r="C27" s="535"/>
-      <c r="D27" s="535"/>
-      <c r="E27" s="536"/>
-      <c r="F27" s="533"/>
-      <c r="G27" s="533"/>
+      <c r="B27" s="548"/>
+      <c r="C27" s="548"/>
+      <c r="D27" s="548"/>
+      <c r="E27" s="549"/>
+      <c r="F27" s="557"/>
+      <c r="G27" s="557"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A28" s="534" t="s">
+      <c r="A28" s="547" t="s">
         <v>377</v>
       </c>
-      <c r="B28" s="535"/>
-      <c r="C28" s="535"/>
-      <c r="D28" s="535"/>
-      <c r="E28" s="536"/>
-      <c r="F28" s="533"/>
-      <c r="G28" s="533"/>
+      <c r="B28" s="548"/>
+      <c r="C28" s="548"/>
+      <c r="D28" s="548"/>
+      <c r="E28" s="549"/>
+      <c r="F28" s="557"/>
+      <c r="G28" s="557"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A29" s="534" t="s">
+      <c r="A29" s="547" t="s">
         <v>378</v>
       </c>
-      <c r="B29" s="535"/>
-      <c r="C29" s="535"/>
-      <c r="D29" s="535"/>
-      <c r="E29" s="536"/>
-      <c r="F29" s="533"/>
-      <c r="G29" s="533"/>
+      <c r="B29" s="548"/>
+      <c r="C29" s="548"/>
+      <c r="D29" s="548"/>
+      <c r="E29" s="549"/>
+      <c r="F29" s="557"/>
+      <c r="G29" s="557"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A30" s="534" t="s">
+      <c r="A30" s="547" t="s">
         <v>379</v>
       </c>
-      <c r="B30" s="535"/>
-      <c r="C30" s="535"/>
-      <c r="D30" s="535"/>
-      <c r="E30" s="536"/>
-      <c r="F30" s="533"/>
-      <c r="G30" s="533"/>
+      <c r="B30" s="548"/>
+      <c r="C30" s="548"/>
+      <c r="D30" s="548"/>
+      <c r="E30" s="549"/>
+      <c r="F30" s="557"/>
+      <c r="G30" s="557"/>
     </row>
     <row r="31" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A31" s="534" t="s">
+      <c r="A31" s="547" t="s">
         <v>380</v>
       </c>
-      <c r="B31" s="535"/>
-      <c r="C31" s="535"/>
-      <c r="D31" s="535"/>
-      <c r="E31" s="536"/>
-      <c r="F31" s="533"/>
-      <c r="G31" s="533"/>
+      <c r="B31" s="548"/>
+      <c r="C31" s="548"/>
+      <c r="D31" s="548"/>
+      <c r="E31" s="549"/>
+      <c r="F31" s="557"/>
+      <c r="G31" s="557"/>
     </row>
     <row r="32" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A32" s="534" t="s">
+      <c r="A32" s="547" t="s">
         <v>381</v>
       </c>
-      <c r="B32" s="541"/>
-      <c r="C32" s="541"/>
-      <c r="D32" s="541"/>
-      <c r="E32" s="542"/>
-      <c r="F32" s="533"/>
-      <c r="G32" s="533"/>
+      <c r="B32" s="555"/>
+      <c r="C32" s="555"/>
+      <c r="D32" s="555"/>
+      <c r="E32" s="556"/>
+      <c r="F32" s="557"/>
+      <c r="G32" s="557"/>
     </row>
     <row r="33" spans="1:9" ht="15.6" customHeight="1">
       <c r="A33" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B33" s="554"/>
-      <c r="C33" s="555"/>
-      <c r="D33" s="555"/>
-      <c r="E33" s="555"/>
-      <c r="F33" s="555"/>
-      <c r="G33" s="556"/>
+      <c r="B33" s="540"/>
+      <c r="C33" s="541"/>
+      <c r="D33" s="541"/>
+      <c r="E33" s="541"/>
+      <c r="F33" s="541"/>
+      <c r="G33" s="542"/>
     </row>
     <row r="34" spans="1:9" ht="15.6" customHeight="1">
       <c r="A34" s="564"/>
-      <c r="B34" s="565"/>
-      <c r="C34" s="566"/>
-      <c r="D34" s="566"/>
-      <c r="E34" s="566"/>
-      <c r="F34" s="566"/>
-      <c r="G34" s="567"/>
+      <c r="B34" s="567"/>
+      <c r="C34" s="568"/>
+      <c r="D34" s="568"/>
+      <c r="E34" s="568"/>
+      <c r="F34" s="568"/>
+      <c r="G34" s="569"/>
     </row>
     <row r="35" spans="1:9" ht="15.6" customHeight="1">
       <c r="A35" s="68"/>
@@ -35951,1019 +35953,1019 @@
       <c r="F35" s="68"/>
     </row>
     <row r="36" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A36" s="543" t="s">
+      <c r="A36" s="552" t="s">
         <v>382</v>
       </c>
-      <c r="B36" s="544"/>
-      <c r="C36" s="544"/>
-      <c r="D36" s="544"/>
-      <c r="E36" s="545"/>
-      <c r="F36" s="551" t="s">
+      <c r="B36" s="553"/>
+      <c r="C36" s="553"/>
+      <c r="D36" s="553"/>
+      <c r="E36" s="554"/>
+      <c r="F36" s="558" t="s">
         <v>365</v>
       </c>
-      <c r="G36" s="551"/>
+      <c r="G36" s="558"/>
     </row>
     <row r="37" spans="1:9" ht="21" customHeight="1">
-      <c r="A37" s="534" t="s">
+      <c r="A37" s="547" t="s">
         <v>383</v>
       </c>
-      <c r="B37" s="535"/>
-      <c r="C37" s="535"/>
-      <c r="D37" s="535"/>
-      <c r="E37" s="536"/>
-      <c r="F37" s="533" t="s">
+      <c r="B37" s="548"/>
+      <c r="C37" s="548"/>
+      <c r="D37" s="548"/>
+      <c r="E37" s="549"/>
+      <c r="F37" s="557" t="s">
         <v>384</v>
       </c>
-      <c r="G37" s="533"/>
+      <c r="G37" s="557"/>
     </row>
     <row r="38" spans="1:9" ht="21" customHeight="1">
-      <c r="A38" s="534" t="s">
+      <c r="A38" s="547" t="s">
         <v>385</v>
       </c>
-      <c r="B38" s="535"/>
-      <c r="C38" s="535"/>
-      <c r="D38" s="535"/>
-      <c r="E38" s="536"/>
-      <c r="F38" s="533" t="s">
+      <c r="B38" s="548"/>
+      <c r="C38" s="548"/>
+      <c r="D38" s="548"/>
+      <c r="E38" s="549"/>
+      <c r="F38" s="557" t="s">
         <v>386</v>
       </c>
-      <c r="G38" s="533"/>
+      <c r="G38" s="557"/>
     </row>
     <row r="39" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A39" s="534"/>
-      <c r="B39" s="541"/>
-      <c r="C39" s="541"/>
-      <c r="D39" s="541"/>
-      <c r="E39" s="542"/>
-      <c r="F39" s="533"/>
-      <c r="G39" s="533"/>
+      <c r="A39" s="547"/>
+      <c r="B39" s="555"/>
+      <c r="C39" s="555"/>
+      <c r="D39" s="555"/>
+      <c r="E39" s="556"/>
+      <c r="F39" s="557"/>
+      <c r="G39" s="557"/>
     </row>
     <row r="40" spans="1:9" ht="15.6" customHeight="1">
       <c r="A40" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B40" s="533"/>
-      <c r="C40" s="533"/>
-      <c r="D40" s="533"/>
-      <c r="E40" s="533"/>
-      <c r="F40" s="533"/>
-      <c r="G40" s="533"/>
+      <c r="B40" s="557"/>
+      <c r="C40" s="557"/>
+      <c r="D40" s="557"/>
+      <c r="E40" s="557"/>
+      <c r="F40" s="557"/>
+      <c r="G40" s="557"/>
     </row>
     <row r="41" spans="1:9" ht="15.6" customHeight="1">
       <c r="A41" s="564"/>
-      <c r="B41" s="537"/>
-      <c r="C41" s="537"/>
-      <c r="D41" s="537"/>
-      <c r="E41" s="537"/>
-      <c r="F41" s="537"/>
-      <c r="G41" s="537"/>
+      <c r="B41" s="578"/>
+      <c r="C41" s="578"/>
+      <c r="D41" s="578"/>
+      <c r="E41" s="578"/>
+      <c r="F41" s="578"/>
+      <c r="G41" s="578"/>
     </row>
     <row r="42" spans="1:9" ht="15.6" customHeight="1"/>
     <row r="43" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A43" s="543" t="s">
+      <c r="A43" s="552" t="s">
         <v>387</v>
       </c>
-      <c r="B43" s="544"/>
-      <c r="C43" s="544"/>
-      <c r="D43" s="544"/>
-      <c r="E43" s="545"/>
-      <c r="F43" s="600" t="s">
+      <c r="B43" s="553"/>
+      <c r="C43" s="553"/>
+      <c r="D43" s="553"/>
+      <c r="E43" s="554"/>
+      <c r="F43" s="576" t="s">
         <v>365</v>
       </c>
-      <c r="G43" s="601"/>
+      <c r="G43" s="577"/>
       <c r="I43" s="286">
         <f>I76</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="52.5" customHeight="1">
-      <c r="A44" s="534" t="str">
+      <c r="A44" s="547" t="str">
         <f>IF(I43=1,"Fiberglass Shell - No Steel","4 bar bond beam with ½ inch steel; 3/8 inch rebar on 10 inch centers through pool")</f>
         <v>4 bar bond beam with ½ inch steel; 3/8 inch rebar on 10 inch centers through pool</v>
       </c>
-      <c r="B44" s="535"/>
-      <c r="C44" s="535"/>
-      <c r="D44" s="535"/>
-      <c r="E44" s="536"/>
-      <c r="F44" s="552" t="str">
+      <c r="B44" s="548"/>
+      <c r="C44" s="548"/>
+      <c r="D44" s="548"/>
+      <c r="E44" s="549"/>
+      <c r="F44" s="538" t="str">
         <f>IF(I43=1,"","Our bond beam and wall steel schedules are beyond code for protection against expansive soils")</f>
         <v>Our bond beam and wall steel schedules are beyond code for protection against expansive soils</v>
       </c>
-      <c r="G44" s="553"/>
+      <c r="G44" s="539"/>
     </row>
     <row r="45" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A45" s="534" t="str">
+      <c r="A45" s="547" t="str">
         <f>IF(I43=1,"","10 inch on center in transition slope by 20 feet length")</f>
         <v>10 inch on center in transition slope by 20 feet length</v>
       </c>
-      <c r="B45" s="535"/>
-      <c r="C45" s="535"/>
-      <c r="D45" s="535"/>
-      <c r="E45" s="536"/>
-      <c r="F45" s="552" t="str">
+      <c r="B45" s="548"/>
+      <c r="C45" s="548"/>
+      <c r="D45" s="548"/>
+      <c r="E45" s="549"/>
+      <c r="F45" s="538" t="str">
         <f>IF(I43=1,"","Strongest steel schedule in the industry!")</f>
         <v>Strongest steel schedule in the industry!</v>
       </c>
-      <c r="G45" s="553"/>
+      <c r="G45" s="539"/>
     </row>
     <row r="46" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A46" s="534" t="s">
+      <c r="A46" s="547" t="s">
         <v>1099</v>
       </c>
-      <c r="B46" s="535"/>
-      <c r="C46" s="535"/>
-      <c r="D46" s="535"/>
-      <c r="E46" s="536"/>
-      <c r="F46" s="552"/>
-      <c r="G46" s="553"/>
+      <c r="B46" s="548"/>
+      <c r="C46" s="548"/>
+      <c r="D46" s="548"/>
+      <c r="E46" s="549"/>
+      <c r="F46" s="538"/>
+      <c r="G46" s="539"/>
     </row>
     <row r="47" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A47" s="534"/>
-      <c r="B47" s="541"/>
-      <c r="C47" s="541"/>
-      <c r="D47" s="541"/>
-      <c r="E47" s="542"/>
-      <c r="F47" s="552"/>
-      <c r="G47" s="553"/>
+      <c r="A47" s="547"/>
+      <c r="B47" s="555"/>
+      <c r="C47" s="555"/>
+      <c r="D47" s="555"/>
+      <c r="E47" s="556"/>
+      <c r="F47" s="538"/>
+      <c r="G47" s="539"/>
     </row>
     <row r="48" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A48" s="554" t="s">
+      <c r="A48" s="540" t="s">
         <v>366</v>
       </c>
-      <c r="B48" s="554"/>
-      <c r="C48" s="555"/>
-      <c r="D48" s="555"/>
-      <c r="E48" s="555"/>
-      <c r="F48" s="555"/>
-      <c r="G48" s="556"/>
+      <c r="B48" s="540"/>
+      <c r="C48" s="541"/>
+      <c r="D48" s="541"/>
+      <c r="E48" s="541"/>
+      <c r="F48" s="541"/>
+      <c r="G48" s="542"/>
     </row>
     <row r="49" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A49" s="557"/>
-      <c r="B49" s="557"/>
-      <c r="C49" s="558"/>
-      <c r="D49" s="558"/>
-      <c r="E49" s="558"/>
-      <c r="F49" s="558"/>
-      <c r="G49" s="559"/>
+      <c r="A49" s="551"/>
+      <c r="B49" s="551"/>
+      <c r="C49" s="605"/>
+      <c r="D49" s="605"/>
+      <c r="E49" s="605"/>
+      <c r="F49" s="605"/>
+      <c r="G49" s="606"/>
     </row>
     <row r="50" spans="1:7" ht="15.6" customHeight="1"/>
     <row r="51" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A51" s="543" t="s">
+      <c r="A51" s="552" t="s">
         <v>388</v>
       </c>
-      <c r="B51" s="544"/>
-      <c r="C51" s="544"/>
-      <c r="D51" s="544"/>
-      <c r="E51" s="545"/>
-      <c r="F51" s="551" t="s">
+      <c r="B51" s="553"/>
+      <c r="C51" s="553"/>
+      <c r="D51" s="553"/>
+      <c r="E51" s="554"/>
+      <c r="F51" s="558" t="s">
         <v>365</v>
       </c>
-      <c r="G51" s="551"/>
+      <c r="G51" s="558"/>
     </row>
     <row r="52" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A52" s="534" t="s">
+      <c r="A52" s="547" t="s">
         <v>389</v>
       </c>
-      <c r="B52" s="535"/>
-      <c r="C52" s="535"/>
-      <c r="D52" s="535"/>
-      <c r="E52" s="536"/>
-      <c r="F52" s="533" t="s">
+      <c r="B52" s="548"/>
+      <c r="C52" s="548"/>
+      <c r="D52" s="548"/>
+      <c r="E52" s="549"/>
+      <c r="F52" s="557" t="s">
         <v>390</v>
       </c>
-      <c r="G52" s="533"/>
+      <c r="G52" s="557"/>
     </row>
     <row r="53" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A53" s="534" t="s">
+      <c r="A53" s="547" t="s">
         <v>391</v>
       </c>
-      <c r="B53" s="535"/>
-      <c r="C53" s="535"/>
-      <c r="D53" s="535"/>
-      <c r="E53" s="536"/>
-      <c r="F53" s="533" t="s">
+      <c r="B53" s="548"/>
+      <c r="C53" s="548"/>
+      <c r="D53" s="548"/>
+      <c r="E53" s="549"/>
+      <c r="F53" s="557" t="s">
         <v>392</v>
       </c>
-      <c r="G53" s="533"/>
+      <c r="G53" s="557"/>
     </row>
     <row r="54" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A54" s="534" t="s">
+      <c r="A54" s="547" t="s">
         <v>393</v>
       </c>
-      <c r="B54" s="535"/>
-      <c r="C54" s="535"/>
-      <c r="D54" s="535"/>
-      <c r="E54" s="536"/>
-      <c r="F54" s="533" t="s">
+      <c r="B54" s="548"/>
+      <c r="C54" s="548"/>
+      <c r="D54" s="548"/>
+      <c r="E54" s="549"/>
+      <c r="F54" s="557" t="s">
         <v>394</v>
       </c>
-      <c r="G54" s="533"/>
+      <c r="G54" s="557"/>
     </row>
     <row r="55" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A55" s="534" t="s">
+      <c r="A55" s="547" t="s">
         <v>395</v>
       </c>
-      <c r="B55" s="535"/>
-      <c r="C55" s="535"/>
-      <c r="D55" s="535"/>
-      <c r="E55" s="536"/>
-      <c r="F55" s="533"/>
-      <c r="G55" s="533"/>
+      <c r="B55" s="548"/>
+      <c r="C55" s="548"/>
+      <c r="D55" s="548"/>
+      <c r="E55" s="549"/>
+      <c r="F55" s="557"/>
+      <c r="G55" s="557"/>
     </row>
     <row r="56" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A56" s="534" t="s">
+      <c r="A56" s="547" t="s">
         <v>434</v>
       </c>
-      <c r="B56" s="535"/>
-      <c r="C56" s="535"/>
-      <c r="D56" s="535"/>
-      <c r="E56" s="536"/>
-      <c r="F56" s="533"/>
-      <c r="G56" s="533"/>
+      <c r="B56" s="548"/>
+      <c r="C56" s="548"/>
+      <c r="D56" s="548"/>
+      <c r="E56" s="549"/>
+      <c r="F56" s="557"/>
+      <c r="G56" s="557"/>
     </row>
     <row r="57" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A57" s="534" t="s">
+      <c r="A57" s="547" t="s">
         <v>396</v>
       </c>
-      <c r="B57" s="535"/>
-      <c r="C57" s="535"/>
-      <c r="D57" s="535"/>
-      <c r="E57" s="536"/>
-      <c r="F57" s="533"/>
-      <c r="G57" s="533"/>
+      <c r="B57" s="548"/>
+      <c r="C57" s="548"/>
+      <c r="D57" s="548"/>
+      <c r="E57" s="549"/>
+      <c r="F57" s="557"/>
+      <c r="G57" s="557"/>
     </row>
     <row r="58" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A58" s="534" t="s">
+      <c r="A58" s="547" t="s">
         <v>397</v>
       </c>
-      <c r="B58" s="535"/>
-      <c r="C58" s="535"/>
-      <c r="D58" s="535"/>
-      <c r="E58" s="536"/>
-      <c r="F58" s="533"/>
-      <c r="G58" s="533"/>
+      <c r="B58" s="548"/>
+      <c r="C58" s="548"/>
+      <c r="D58" s="548"/>
+      <c r="E58" s="549"/>
+      <c r="F58" s="557"/>
+      <c r="G58" s="557"/>
     </row>
     <row r="59" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A59" s="534"/>
-      <c r="B59" s="535"/>
-      <c r="C59" s="535"/>
-      <c r="D59" s="535"/>
-      <c r="E59" s="536"/>
-      <c r="F59" s="533"/>
-      <c r="G59" s="533"/>
+      <c r="A59" s="547"/>
+      <c r="B59" s="548"/>
+      <c r="C59" s="548"/>
+      <c r="D59" s="548"/>
+      <c r="E59" s="549"/>
+      <c r="F59" s="557"/>
+      <c r="G59" s="557"/>
     </row>
     <row r="60" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A60" s="534" t="s">
+      <c r="A60" s="547" t="s">
         <v>398</v>
       </c>
-      <c r="B60" s="535"/>
-      <c r="C60" s="535"/>
-      <c r="D60" s="535"/>
-      <c r="E60" s="536"/>
-      <c r="F60" s="533"/>
-      <c r="G60" s="533"/>
+      <c r="B60" s="548"/>
+      <c r="C60" s="548"/>
+      <c r="D60" s="548"/>
+      <c r="E60" s="549"/>
+      <c r="F60" s="557"/>
+      <c r="G60" s="557"/>
     </row>
     <row r="61" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A61" s="596" t="s">
+      <c r="A61" s="579" t="s">
         <v>399</v>
       </c>
-      <c r="B61" s="597"/>
-      <c r="C61" s="597"/>
-      <c r="D61" s="597"/>
-      <c r="E61" s="598"/>
-      <c r="F61" s="533"/>
-      <c r="G61" s="533"/>
+      <c r="B61" s="580"/>
+      <c r="C61" s="580"/>
+      <c r="D61" s="580"/>
+      <c r="E61" s="581"/>
+      <c r="F61" s="557"/>
+      <c r="G61" s="557"/>
     </row>
     <row r="62" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A62" s="538"/>
-      <c r="B62" s="538"/>
-      <c r="C62" s="538"/>
-      <c r="D62" s="538"/>
-      <c r="E62" s="539"/>
-      <c r="F62" s="533"/>
-      <c r="G62" s="533"/>
+      <c r="A62" s="607"/>
+      <c r="B62" s="607"/>
+      <c r="C62" s="607"/>
+      <c r="D62" s="607"/>
+      <c r="E62" s="608"/>
+      <c r="F62" s="557"/>
+      <c r="G62" s="557"/>
     </row>
     <row r="63" spans="1:7" ht="15.6" customHeight="1">
       <c r="A63" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B63" s="533"/>
-      <c r="C63" s="533"/>
-      <c r="D63" s="533"/>
-      <c r="E63" s="533"/>
-      <c r="F63" s="533"/>
-      <c r="G63" s="533"/>
+      <c r="B63" s="557"/>
+      <c r="C63" s="557"/>
+      <c r="D63" s="557"/>
+      <c r="E63" s="557"/>
+      <c r="F63" s="557"/>
+      <c r="G63" s="557"/>
     </row>
     <row r="64" spans="1:7" ht="15.6" customHeight="1">
       <c r="A64" s="564"/>
-      <c r="B64" s="537"/>
-      <c r="C64" s="537"/>
-      <c r="D64" s="537"/>
-      <c r="E64" s="537"/>
-      <c r="F64" s="537"/>
-      <c r="G64" s="537"/>
+      <c r="B64" s="578"/>
+      <c r="C64" s="578"/>
+      <c r="D64" s="578"/>
+      <c r="E64" s="578"/>
+      <c r="F64" s="578"/>
+      <c r="G64" s="578"/>
     </row>
     <row r="65" spans="1:9" ht="15.6" customHeight="1"/>
     <row r="66" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A66" s="543" t="s">
+      <c r="A66" s="552" t="s">
         <v>400</v>
       </c>
-      <c r="B66" s="544"/>
-      <c r="C66" s="544"/>
-      <c r="D66" s="544"/>
-      <c r="E66" s="545"/>
-      <c r="F66" s="551" t="s">
+      <c r="B66" s="553"/>
+      <c r="C66" s="553"/>
+      <c r="D66" s="553"/>
+      <c r="E66" s="554"/>
+      <c r="F66" s="558" t="s">
         <v>365</v>
       </c>
-      <c r="G66" s="551"/>
+      <c r="G66" s="558"/>
     </row>
     <row r="67" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A67" s="534" t="s">
+      <c r="A67" s="547" t="s">
         <v>401</v>
       </c>
-      <c r="B67" s="535"/>
-      <c r="C67" s="535"/>
-      <c r="D67" s="535"/>
-      <c r="E67" s="536"/>
-      <c r="F67" s="533" t="s">
+      <c r="B67" s="548"/>
+      <c r="C67" s="548"/>
+      <c r="D67" s="548"/>
+      <c r="E67" s="549"/>
+      <c r="F67" s="557" t="s">
         <v>402</v>
       </c>
-      <c r="G67" s="533"/>
+      <c r="G67" s="557"/>
     </row>
     <row r="68" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A68" s="534" t="s">
+      <c r="A68" s="547" t="s">
         <v>403</v>
       </c>
-      <c r="B68" s="535"/>
-      <c r="C68" s="535"/>
-      <c r="D68" s="535"/>
-      <c r="E68" s="536"/>
-      <c r="F68" s="533"/>
-      <c r="G68" s="533"/>
+      <c r="B68" s="548"/>
+      <c r="C68" s="548"/>
+      <c r="D68" s="548"/>
+      <c r="E68" s="549"/>
+      <c r="F68" s="557"/>
+      <c r="G68" s="557"/>
     </row>
     <row r="69" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A69" s="534" t="s">
+      <c r="A69" s="547" t="s">
         <v>404</v>
       </c>
-      <c r="B69" s="535"/>
-      <c r="C69" s="535"/>
-      <c r="D69" s="535"/>
-      <c r="E69" s="536"/>
-      <c r="F69" s="533"/>
-      <c r="G69" s="533"/>
+      <c r="B69" s="548"/>
+      <c r="C69" s="548"/>
+      <c r="D69" s="548"/>
+      <c r="E69" s="549"/>
+      <c r="F69" s="557"/>
+      <c r="G69" s="557"/>
     </row>
     <row r="70" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A70" s="534" t="s">
+      <c r="A70" s="547" t="s">
         <v>964</v>
       </c>
-      <c r="B70" s="535"/>
-      <c r="C70" s="535"/>
-      <c r="D70" s="535"/>
-      <c r="E70" s="536"/>
-      <c r="F70" s="533" t="s">
+      <c r="B70" s="548"/>
+      <c r="C70" s="548"/>
+      <c r="D70" s="548"/>
+      <c r="E70" s="549"/>
+      <c r="F70" s="557" t="s">
         <v>965</v>
       </c>
-      <c r="G70" s="533"/>
+      <c r="G70" s="557"/>
     </row>
     <row r="71" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A71" s="534" t="s">
+      <c r="A71" s="547" t="s">
         <v>405</v>
       </c>
-      <c r="B71" s="535"/>
-      <c r="C71" s="535"/>
-      <c r="D71" s="535"/>
-      <c r="E71" s="536"/>
-      <c r="F71" s="533"/>
-      <c r="G71" s="533"/>
+      <c r="B71" s="548"/>
+      <c r="C71" s="548"/>
+      <c r="D71" s="548"/>
+      <c r="E71" s="549"/>
+      <c r="F71" s="557"/>
+      <c r="G71" s="557"/>
     </row>
     <row r="72" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A72" s="534" t="s">
+      <c r="A72" s="547" t="s">
         <v>406</v>
       </c>
-      <c r="B72" s="541"/>
-      <c r="C72" s="541"/>
-      <c r="D72" s="541"/>
-      <c r="E72" s="542"/>
-      <c r="F72" s="533"/>
-      <c r="G72" s="533"/>
+      <c r="B72" s="555"/>
+      <c r="C72" s="555"/>
+      <c r="D72" s="555"/>
+      <c r="E72" s="556"/>
+      <c r="F72" s="557"/>
+      <c r="G72" s="557"/>
     </row>
     <row r="73" spans="1:9" ht="15.6" customHeight="1">
       <c r="A73" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B73" s="554"/>
-      <c r="C73" s="555"/>
-      <c r="D73" s="555"/>
-      <c r="E73" s="555"/>
-      <c r="F73" s="555"/>
-      <c r="G73" s="556"/>
+      <c r="B73" s="540"/>
+      <c r="C73" s="541"/>
+      <c r="D73" s="541"/>
+      <c r="E73" s="541"/>
+      <c r="F73" s="541"/>
+      <c r="G73" s="542"/>
     </row>
     <row r="74" spans="1:9" ht="15.6" customHeight="1">
       <c r="A74" s="564"/>
-      <c r="B74" s="565"/>
-      <c r="C74" s="566"/>
-      <c r="D74" s="566"/>
-      <c r="E74" s="566"/>
-      <c r="F74" s="566"/>
-      <c r="G74" s="567"/>
+      <c r="B74" s="567"/>
+      <c r="C74" s="568"/>
+      <c r="D74" s="568"/>
+      <c r="E74" s="568"/>
+      <c r="F74" s="568"/>
+      <c r="G74" s="569"/>
     </row>
     <row r="75" spans="1:9" ht="15.6" customHeight="1"/>
     <row r="76" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A76" s="543" t="s">
+      <c r="A76" s="552" t="s">
         <v>407</v>
       </c>
-      <c r="B76" s="544"/>
-      <c r="C76" s="544"/>
-      <c r="D76" s="544"/>
-      <c r="E76" s="545"/>
-      <c r="F76" s="551" t="s">
+      <c r="B76" s="553"/>
+      <c r="C76" s="553"/>
+      <c r="D76" s="553"/>
+      <c r="E76" s="554"/>
+      <c r="F76" s="558" t="s">
         <v>365</v>
       </c>
-      <c r="G76" s="551"/>
+      <c r="G76" s="558"/>
       <c r="I76" s="286">
         <f>J142</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A77" s="534" t="str">
+      <c r="A77" s="547" t="str">
         <f>IF(J142=1,"No Shotcrete - Fiberglass Shell","4,000 PSI pneumatically applied shotcrete")</f>
         <v>4,000 PSI pneumatically applied shotcrete</v>
       </c>
-      <c r="B77" s="535"/>
-      <c r="C77" s="535"/>
-      <c r="D77" s="535"/>
-      <c r="E77" s="536"/>
-      <c r="F77" s="533" t="str">
+      <c r="B77" s="548"/>
+      <c r="C77" s="548"/>
+      <c r="D77" s="548"/>
+      <c r="E77" s="549"/>
+      <c r="F77" s="557" t="str">
         <f>IF(I76=1,"","Lifetime structural warranty")</f>
         <v>Lifetime structural warranty</v>
       </c>
-      <c r="G77" s="533"/>
+      <c r="G77" s="557"/>
     </row>
     <row r="78" spans="1:9" ht="47.25" customHeight="1">
-      <c r="A78" s="534"/>
-      <c r="B78" s="535"/>
-      <c r="C78" s="535"/>
-      <c r="D78" s="535"/>
-      <c r="E78" s="536"/>
-      <c r="F78" s="533"/>
-      <c r="G78" s="533"/>
+      <c r="A78" s="547"/>
+      <c r="B78" s="548"/>
+      <c r="C78" s="548"/>
+      <c r="D78" s="548"/>
+      <c r="E78" s="549"/>
+      <c r="F78" s="557"/>
+      <c r="G78" s="557"/>
     </row>
     <row r="79" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A79" s="534" t="str">
+      <c r="A79" s="547" t="str">
         <f>IF(I76=1,"","All shotcrete is measured by a certified weighmaster")</f>
         <v>All shotcrete is measured by a certified weighmaster</v>
       </c>
-      <c r="B79" s="535"/>
-      <c r="C79" s="535"/>
-      <c r="D79" s="535"/>
-      <c r="E79" s="536"/>
-      <c r="F79" s="552"/>
-      <c r="G79" s="553"/>
+      <c r="B79" s="548"/>
+      <c r="C79" s="548"/>
+      <c r="D79" s="548"/>
+      <c r="E79" s="549"/>
+      <c r="F79" s="538"/>
+      <c r="G79" s="539"/>
     </row>
     <row r="80" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A80" s="534" t="str">
+      <c r="A80" s="547" t="str">
         <f>IF(I76=1,"","All nozzlemen are certified for State and Municipal work")</f>
         <v>All nozzlemen are certified for State and Municipal work</v>
       </c>
-      <c r="B80" s="535"/>
-      <c r="C80" s="535"/>
-      <c r="D80" s="535"/>
-      <c r="E80" s="536"/>
-      <c r="F80" s="552"/>
-      <c r="G80" s="553"/>
+      <c r="B80" s="548"/>
+      <c r="C80" s="548"/>
+      <c r="D80" s="548"/>
+      <c r="E80" s="549"/>
+      <c r="F80" s="538"/>
+      <c r="G80" s="539"/>
     </row>
     <row r="81" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A81" s="534" t="str">
+      <c r="A81" s="547" t="str">
         <f>IF(I76=1,"","Lifetime structural warranty")</f>
         <v>Lifetime structural warranty</v>
       </c>
-      <c r="B81" s="535"/>
-      <c r="C81" s="535"/>
-      <c r="D81" s="535"/>
-      <c r="E81" s="536"/>
-      <c r="F81" s="533"/>
-      <c r="G81" s="533"/>
+      <c r="B81" s="548"/>
+      <c r="C81" s="548"/>
+      <c r="D81" s="548"/>
+      <c r="E81" s="549"/>
+      <c r="F81" s="557"/>
+      <c r="G81" s="557"/>
     </row>
     <row r="82" spans="1:9" ht="15.6" customHeight="1">
       <c r="A82" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B82" s="554"/>
-      <c r="C82" s="555"/>
-      <c r="D82" s="555"/>
-      <c r="E82" s="555"/>
-      <c r="F82" s="555"/>
-      <c r="G82" s="556"/>
+      <c r="B82" s="540"/>
+      <c r="C82" s="541"/>
+      <c r="D82" s="541"/>
+      <c r="E82" s="541"/>
+      <c r="F82" s="541"/>
+      <c r="G82" s="542"/>
     </row>
     <row r="83" spans="1:9" ht="15.6" customHeight="1">
       <c r="A83" s="564"/>
-      <c r="B83" s="565"/>
-      <c r="C83" s="566"/>
-      <c r="D83" s="566"/>
-      <c r="E83" s="566"/>
-      <c r="F83" s="566"/>
-      <c r="G83" s="567"/>
+      <c r="B83" s="567"/>
+      <c r="C83" s="568"/>
+      <c r="D83" s="568"/>
+      <c r="E83" s="568"/>
+      <c r="F83" s="568"/>
+      <c r="G83" s="569"/>
     </row>
     <row r="84" spans="1:9" ht="15.6" customHeight="1"/>
     <row r="85" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A85" s="543" t="s">
+      <c r="A85" s="552" t="s">
         <v>408</v>
       </c>
-      <c r="B85" s="544"/>
-      <c r="C85" s="544"/>
-      <c r="D85" s="544"/>
-      <c r="E85" s="545"/>
-      <c r="F85" s="551" t="s">
+      <c r="B85" s="553"/>
+      <c r="C85" s="553"/>
+      <c r="D85" s="553"/>
+      <c r="E85" s="554"/>
+      <c r="F85" s="558" t="s">
         <v>365</v>
       </c>
-      <c r="G85" s="551"/>
+      <c r="G85" s="558"/>
       <c r="I85" s="286">
         <f>I76</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="27" customHeight="1">
-      <c r="A86" s="534" t="str">
+      <c r="A86" s="547" t="str">
         <f>IF(I85=1,"Fiberglass Shell - No Tile","All pool &amp; spa waterline tile including - skimmer throat")</f>
         <v>All pool &amp; spa waterline tile including - skimmer throat</v>
       </c>
-      <c r="B86" s="535"/>
-      <c r="C86" s="535"/>
-      <c r="D86" s="535"/>
-      <c r="E86" s="536"/>
-      <c r="F86" s="533" t="str">
+      <c r="B86" s="548"/>
+      <c r="C86" s="548"/>
+      <c r="D86" s="548"/>
+      <c r="E86" s="549"/>
+      <c r="F86" s="557" t="str">
         <f>IF(I85=1,"","Frost-proof tiles in a variety of patterns and colors")</f>
         <v>Frost-proof tiles in a variety of patterns and colors</v>
       </c>
-      <c r="G86" s="533"/>
+      <c r="G86" s="557"/>
     </row>
     <row r="87" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A87" s="534" t="str">
+      <c r="A87" s="547" t="str">
         <f>IF(I85=1,"","Trim tile available on steps and benches")</f>
         <v>Trim tile available on steps and benches</v>
       </c>
-      <c r="B87" s="541"/>
-      <c r="C87" s="541"/>
-      <c r="D87" s="541"/>
-      <c r="E87" s="542"/>
-      <c r="F87" s="533" t="s">
+      <c r="B87" s="555"/>
+      <c r="C87" s="555"/>
+      <c r="D87" s="555"/>
+      <c r="E87" s="556"/>
+      <c r="F87" s="557" t="s">
         <v>966</v>
       </c>
-      <c r="G87" s="533"/>
+      <c r="G87" s="557"/>
     </row>
     <row r="88" spans="1:9" ht="15.6" customHeight="1">
       <c r="A88" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B88" s="554"/>
-      <c r="C88" s="555"/>
-      <c r="D88" s="555"/>
-      <c r="E88" s="555"/>
-      <c r="F88" s="555"/>
-      <c r="G88" s="556"/>
+      <c r="B88" s="540"/>
+      <c r="C88" s="541"/>
+      <c r="D88" s="541"/>
+      <c r="E88" s="541"/>
+      <c r="F88" s="541"/>
+      <c r="G88" s="542"/>
     </row>
     <row r="89" spans="1:9" ht="15.6" customHeight="1">
       <c r="A89" s="564"/>
-      <c r="B89" s="565"/>
-      <c r="C89" s="566"/>
-      <c r="D89" s="566"/>
-      <c r="E89" s="566"/>
-      <c r="F89" s="566"/>
-      <c r="G89" s="567"/>
+      <c r="B89" s="567"/>
+      <c r="C89" s="568"/>
+      <c r="D89" s="568"/>
+      <c r="E89" s="568"/>
+      <c r="F89" s="568"/>
+      <c r="G89" s="569"/>
     </row>
     <row r="90" spans="1:9" ht="15.6" customHeight="1"/>
     <row r="91" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A91" s="543" t="s">
+      <c r="A91" s="552" t="s">
         <v>409</v>
       </c>
-      <c r="B91" s="544"/>
-      <c r="C91" s="544"/>
-      <c r="D91" s="544"/>
-      <c r="E91" s="545"/>
-      <c r="F91" s="551" t="s">
+      <c r="B91" s="553"/>
+      <c r="C91" s="553"/>
+      <c r="D91" s="553"/>
+      <c r="E91" s="554"/>
+      <c r="F91" s="558" t="s">
         <v>365</v>
       </c>
-      <c r="G91" s="551"/>
+      <c r="G91" s="558"/>
     </row>
     <row r="92" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A92" s="534"/>
-      <c r="B92" s="535"/>
-      <c r="C92" s="535"/>
-      <c r="D92" s="535"/>
-      <c r="E92" s="536"/>
-      <c r="F92" s="533"/>
-      <c r="G92" s="533"/>
+      <c r="A92" s="547"/>
+      <c r="B92" s="548"/>
+      <c r="C92" s="548"/>
+      <c r="D92" s="548"/>
+      <c r="E92" s="549"/>
+      <c r="F92" s="557"/>
+      <c r="G92" s="557"/>
     </row>
     <row r="93" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A93" s="534"/>
-      <c r="B93" s="541"/>
-      <c r="C93" s="541"/>
-      <c r="D93" s="541"/>
-      <c r="E93" s="542"/>
-      <c r="F93" s="533"/>
-      <c r="G93" s="533"/>
+      <c r="A93" s="547"/>
+      <c r="B93" s="555"/>
+      <c r="C93" s="555"/>
+      <c r="D93" s="555"/>
+      <c r="E93" s="556"/>
+      <c r="F93" s="557"/>
+      <c r="G93" s="557"/>
     </row>
     <row r="94" spans="1:9" ht="15.6" customHeight="1">
       <c r="A94" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B94" s="554"/>
-      <c r="C94" s="555"/>
-      <c r="D94" s="555"/>
-      <c r="E94" s="555"/>
-      <c r="F94" s="555"/>
-      <c r="G94" s="556"/>
+      <c r="B94" s="540"/>
+      <c r="C94" s="541"/>
+      <c r="D94" s="541"/>
+      <c r="E94" s="541"/>
+      <c r="F94" s="541"/>
+      <c r="G94" s="542"/>
     </row>
     <row r="95" spans="1:9" ht="15.6" customHeight="1">
       <c r="A95" s="564"/>
-      <c r="B95" s="565"/>
-      <c r="C95" s="566"/>
-      <c r="D95" s="566"/>
-      <c r="E95" s="566"/>
-      <c r="F95" s="566"/>
-      <c r="G95" s="567"/>
+      <c r="B95" s="567"/>
+      <c r="C95" s="568"/>
+      <c r="D95" s="568"/>
+      <c r="E95" s="568"/>
+      <c r="F95" s="568"/>
+      <c r="G95" s="569"/>
     </row>
     <row r="96" spans="1:9" ht="15.6" customHeight="1"/>
     <row r="97" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A97" s="543" t="s">
+      <c r="A97" s="552" t="s">
         <v>410</v>
       </c>
-      <c r="B97" s="544"/>
-      <c r="C97" s="544"/>
-      <c r="D97" s="544"/>
-      <c r="E97" s="545"/>
-      <c r="F97" s="551" t="s">
+      <c r="B97" s="553"/>
+      <c r="C97" s="553"/>
+      <c r="D97" s="553"/>
+      <c r="E97" s="554"/>
+      <c r="F97" s="558" t="s">
         <v>365</v>
       </c>
-      <c r="G97" s="551"/>
+      <c r="G97" s="558"/>
     </row>
     <row r="98" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A98" s="534" t="str">
+      <c r="A98" s="547" t="str">
         <f>'NEW POOL'!A113</f>
         <v>Jandy 2.7HP Variable Pump</v>
       </c>
-      <c r="B98" s="535"/>
-      <c r="C98" s="535"/>
-      <c r="D98" s="535"/>
-      <c r="E98" s="536"/>
-      <c r="F98" s="533" t="s">
+      <c r="B98" s="548"/>
+      <c r="C98" s="548"/>
+      <c r="D98" s="548"/>
+      <c r="E98" s="549"/>
+      <c r="F98" s="557" t="s">
         <v>411</v>
       </c>
-      <c r="G98" s="533"/>
+      <c r="G98" s="557"/>
     </row>
     <row r="99" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A99" s="560" t="str">
+      <c r="A99" s="535" t="str">
         <f>'NEW POOL'!A114</f>
         <v>No Auxiliary Pump</v>
       </c>
-      <c r="B99" s="561"/>
-      <c r="C99" s="561"/>
-      <c r="D99" s="561"/>
-      <c r="E99" s="562"/>
-      <c r="F99" s="533"/>
-      <c r="G99" s="533"/>
+      <c r="B99" s="536"/>
+      <c r="C99" s="536"/>
+      <c r="D99" s="536"/>
+      <c r="E99" s="537"/>
+      <c r="F99" s="557"/>
+      <c r="G99" s="557"/>
     </row>
     <row r="100" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A100" s="534" t="str">
+      <c r="A100" s="547" t="str">
         <f>'NEW POOL'!A117</f>
         <v>460 SQFT Cartridge Filter</v>
       </c>
-      <c r="B100" s="535"/>
-      <c r="C100" s="535"/>
-      <c r="D100" s="535"/>
-      <c r="E100" s="536"/>
-      <c r="F100" s="533"/>
-      <c r="G100" s="533"/>
+      <c r="B100" s="548"/>
+      <c r="C100" s="548"/>
+      <c r="D100" s="548"/>
+      <c r="E100" s="549"/>
+      <c r="F100" s="557"/>
+      <c r="G100" s="557"/>
     </row>
     <row r="101" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A101" s="560" t="str">
+      <c r="A101" s="535" t="str">
         <f>'NEW POOL'!A127</f>
         <v>Salt/mineral System - Fusion Soft</v>
       </c>
-      <c r="B101" s="561"/>
-      <c r="C101" s="561"/>
-      <c r="D101" s="561"/>
-      <c r="E101" s="562"/>
-      <c r="F101" s="552"/>
-      <c r="G101" s="553"/>
+      <c r="B101" s="536"/>
+      <c r="C101" s="536"/>
+      <c r="D101" s="536"/>
+      <c r="E101" s="537"/>
+      <c r="F101" s="538"/>
+      <c r="G101" s="539"/>
     </row>
     <row r="102" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A102" s="560" t="str">
+      <c r="A102" s="535" t="str">
         <f>'NEW POOL'!A128</f>
         <v>No Sanitation</v>
       </c>
-      <c r="B102" s="561"/>
-      <c r="C102" s="561"/>
-      <c r="D102" s="561"/>
-      <c r="E102" s="562"/>
-      <c r="F102" s="552"/>
-      <c r="G102" s="553"/>
+      <c r="B102" s="536"/>
+      <c r="C102" s="536"/>
+      <c r="D102" s="536"/>
+      <c r="E102" s="537"/>
+      <c r="F102" s="538"/>
+      <c r="G102" s="539"/>
     </row>
     <row r="103" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A103" s="560" t="str">
+      <c r="A103" s="535" t="str">
         <f>'NEW POOL'!A129</f>
         <v>No Sanitation</v>
       </c>
-      <c r="B103" s="561"/>
-      <c r="C103" s="561"/>
-      <c r="D103" s="561"/>
-      <c r="E103" s="562"/>
-      <c r="F103" s="533"/>
-      <c r="G103" s="533"/>
+      <c r="B103" s="536"/>
+      <c r="C103" s="536"/>
+      <c r="D103" s="536"/>
+      <c r="E103" s="537"/>
+      <c r="F103" s="557"/>
+      <c r="G103" s="557"/>
     </row>
     <row r="104" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A104" s="534" t="str">
+      <c r="A104" s="547" t="str">
         <f>'NEW POOL'!A121</f>
         <v>Jandy 400K BTU - VersaFlo</v>
       </c>
-      <c r="B104" s="535"/>
-      <c r="C104" s="535"/>
-      <c r="D104" s="535"/>
-      <c r="E104" s="536"/>
-      <c r="F104" s="533"/>
-      <c r="G104" s="533"/>
+      <c r="B104" s="548"/>
+      <c r="C104" s="548"/>
+      <c r="D104" s="548"/>
+      <c r="E104" s="549"/>
+      <c r="F104" s="557"/>
+      <c r="G104" s="557"/>
     </row>
     <row r="105" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A105" s="534" t="str">
+      <c r="A105" s="547" t="str">
         <f>'NEW POOL'!A119</f>
         <v>Polaris Alpha IQ</v>
       </c>
-      <c r="B105" s="535"/>
-      <c r="C105" s="535"/>
-      <c r="D105" s="535"/>
-      <c r="E105" s="536"/>
-      <c r="F105" s="533"/>
-      <c r="G105" s="533"/>
+      <c r="B105" s="548"/>
+      <c r="C105" s="548"/>
+      <c r="D105" s="548"/>
+      <c r="E105" s="549"/>
+      <c r="F105" s="557"/>
+      <c r="G105" s="557"/>
     </row>
     <row r="106" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A106" s="534" t="str">
+      <c r="A106" s="547" t="str">
         <f>'NEW POOL'!A131</f>
         <v>iAqualink Only PS-4 (H.O. To Provide WiFi) Only use with Infinite Light System</v>
       </c>
-      <c r="B106" s="541"/>
-      <c r="C106" s="541"/>
-      <c r="D106" s="541"/>
-      <c r="E106" s="542"/>
-      <c r="F106" s="533"/>
-      <c r="G106" s="533"/>
+      <c r="B106" s="555"/>
+      <c r="C106" s="555"/>
+      <c r="D106" s="555"/>
+      <c r="E106" s="556"/>
+      <c r="F106" s="557"/>
+      <c r="G106" s="557"/>
     </row>
     <row r="107" spans="1:7" ht="36" customHeight="1">
       <c r="A107" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B107" s="554" t="s">
+      <c r="B107" s="540" t="s">
         <v>967</v>
       </c>
-      <c r="C107" s="555"/>
-      <c r="D107" s="555"/>
-      <c r="E107" s="555"/>
-      <c r="F107" s="555"/>
-      <c r="G107" s="556"/>
+      <c r="C107" s="541"/>
+      <c r="D107" s="541"/>
+      <c r="E107" s="541"/>
+      <c r="F107" s="541"/>
+      <c r="G107" s="542"/>
     </row>
     <row r="108" spans="1:7" ht="15.6" customHeight="1">
       <c r="A108" s="564"/>
-      <c r="B108" s="565"/>
-      <c r="C108" s="566"/>
-      <c r="D108" s="566"/>
-      <c r="E108" s="566"/>
-      <c r="F108" s="566"/>
-      <c r="G108" s="567"/>
+      <c r="B108" s="567"/>
+      <c r="C108" s="568"/>
+      <c r="D108" s="568"/>
+      <c r="E108" s="568"/>
+      <c r="F108" s="568"/>
+      <c r="G108" s="569"/>
     </row>
     <row r="109" spans="1:7" ht="15.6" customHeight="1"/>
     <row r="110" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A110" s="543" t="s">
+      <c r="A110" s="552" t="s">
         <v>412</v>
       </c>
-      <c r="B110" s="544"/>
-      <c r="C110" s="544"/>
-      <c r="D110" s="544"/>
-      <c r="E110" s="545"/>
-      <c r="F110" s="551" t="s">
+      <c r="B110" s="553"/>
+      <c r="C110" s="553"/>
+      <c r="D110" s="553"/>
+      <c r="E110" s="554"/>
+      <c r="F110" s="558" t="s">
         <v>365</v>
       </c>
-      <c r="G110" s="551"/>
+      <c r="G110" s="558"/>
     </row>
     <row r="111" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A111" s="534" t="s">
+      <c r="A111" s="547" t="s">
         <v>413</v>
       </c>
-      <c r="B111" s="535"/>
-      <c r="C111" s="535"/>
-      <c r="D111" s="535"/>
-      <c r="E111" s="536"/>
-      <c r="F111" s="552"/>
-      <c r="G111" s="553"/>
+      <c r="B111" s="548"/>
+      <c r="C111" s="548"/>
+      <c r="D111" s="548"/>
+      <c r="E111" s="549"/>
+      <c r="F111" s="538"/>
+      <c r="G111" s="539"/>
     </row>
     <row r="112" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A112" s="534" t="s">
+      <c r="A112" s="547" t="s">
         <v>414</v>
       </c>
-      <c r="B112" s="535"/>
-      <c r="C112" s="535"/>
-      <c r="D112" s="535"/>
-      <c r="E112" s="536"/>
-      <c r="F112" s="552"/>
-      <c r="G112" s="553"/>
+      <c r="B112" s="548"/>
+      <c r="C112" s="548"/>
+      <c r="D112" s="548"/>
+      <c r="E112" s="549"/>
+      <c r="F112" s="538"/>
+      <c r="G112" s="539"/>
     </row>
     <row r="113" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A113" s="534"/>
-      <c r="B113" s="535"/>
-      <c r="C113" s="535"/>
-      <c r="D113" s="535"/>
-      <c r="E113" s="536"/>
-      <c r="F113" s="552"/>
-      <c r="G113" s="553"/>
+      <c r="A113" s="547"/>
+      <c r="B113" s="548"/>
+      <c r="C113" s="548"/>
+      <c r="D113" s="548"/>
+      <c r="E113" s="549"/>
+      <c r="F113" s="538"/>
+      <c r="G113" s="539"/>
     </row>
     <row r="114" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A114" s="534" t="str">
+      <c r="A114" s="547" t="str">
         <f>IF(J142=1,"",'NEW POOL'!A175)</f>
         <v>Pebble Sheen  - Level 1</v>
       </c>
-      <c r="B114" s="535"/>
-      <c r="C114" s="535"/>
-      <c r="D114" s="535"/>
-      <c r="E114" s="536"/>
-      <c r="F114" s="552" t="str">
+      <c r="B114" s="548"/>
+      <c r="C114" s="548"/>
+      <c r="D114" s="548"/>
+      <c r="E114" s="549"/>
+      <c r="F114" s="538" t="str">
         <f>IF(A114="","","Combines durablity and functionality")</f>
         <v>Combines durablity and functionality</v>
       </c>
-      <c r="G114" s="553"/>
+      <c r="G114" s="539"/>
     </row>
     <row r="115" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A115" s="534" t="s">
+      <c r="A115" s="547" t="s">
         <v>415</v>
       </c>
-      <c r="B115" s="535"/>
-      <c r="C115" s="535"/>
-      <c r="D115" s="535"/>
-      <c r="E115" s="536"/>
-      <c r="F115" s="552"/>
-      <c r="G115" s="553"/>
+      <c r="B115" s="548"/>
+      <c r="C115" s="548"/>
+      <c r="D115" s="548"/>
+      <c r="E115" s="549"/>
+      <c r="F115" s="538"/>
+      <c r="G115" s="539"/>
     </row>
     <row r="116" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A116" s="534" t="str">
+      <c r="A116" s="547" t="str">
         <f>IF('NEW POOL'!B47=1, "Dirt haul off included", "Dirt to remain at property")</f>
         <v>Dirt haul off included</v>
       </c>
-      <c r="B116" s="535"/>
-      <c r="C116" s="535"/>
-      <c r="D116" s="535"/>
-      <c r="E116" s="536"/>
-      <c r="F116" s="552"/>
-      <c r="G116" s="553"/>
+      <c r="B116" s="548"/>
+      <c r="C116" s="548"/>
+      <c r="D116" s="548"/>
+      <c r="E116" s="549"/>
+      <c r="F116" s="538"/>
+      <c r="G116" s="539"/>
     </row>
     <row r="117" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A117" s="534" t="s">
+      <c r="A117" s="547" t="s">
         <v>1133</v>
       </c>
-      <c r="B117" s="535"/>
-      <c r="C117" s="535"/>
-      <c r="D117" s="535"/>
-      <c r="E117" s="536"/>
-      <c r="F117" s="552" t="s">
+      <c r="B117" s="548"/>
+      <c r="C117" s="548"/>
+      <c r="D117" s="548"/>
+      <c r="E117" s="549"/>
+      <c r="F117" s="538" t="s">
         <v>1134</v>
       </c>
-      <c r="G117" s="553"/>
+      <c r="G117" s="539"/>
     </row>
     <row r="118" spans="1:7" ht="15.6" customHeight="1">
       <c r="A118" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B118" s="554"/>
-      <c r="C118" s="555"/>
-      <c r="D118" s="555"/>
-      <c r="E118" s="555"/>
-      <c r="F118" s="555"/>
-      <c r="G118" s="556"/>
+      <c r="B118" s="540"/>
+      <c r="C118" s="541"/>
+      <c r="D118" s="541"/>
+      <c r="E118" s="541"/>
+      <c r="F118" s="541"/>
+      <c r="G118" s="542"/>
     </row>
     <row r="119" spans="1:7" ht="15.6" customHeight="1">
       <c r="A119" s="564"/>
-      <c r="B119" s="565"/>
-      <c r="C119" s="566"/>
-      <c r="D119" s="566"/>
-      <c r="E119" s="566"/>
-      <c r="F119" s="566"/>
-      <c r="G119" s="567"/>
+      <c r="B119" s="567"/>
+      <c r="C119" s="568"/>
+      <c r="D119" s="568"/>
+      <c r="E119" s="568"/>
+      <c r="F119" s="568"/>
+      <c r="G119" s="569"/>
     </row>
     <row r="120" spans="1:7" ht="15.6" customHeight="1"/>
     <row r="121" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A121" s="543" t="s">
+      <c r="A121" s="552" t="s">
         <v>416</v>
       </c>
-      <c r="B121" s="544"/>
-      <c r="C121" s="544"/>
-      <c r="D121" s="544"/>
-      <c r="E121" s="545"/>
-      <c r="F121" s="551" t="s">
+      <c r="B121" s="553"/>
+      <c r="C121" s="553"/>
+      <c r="D121" s="553"/>
+      <c r="E121" s="554"/>
+      <c r="F121" s="558" t="s">
         <v>365</v>
       </c>
-      <c r="G121" s="551"/>
+      <c r="G121" s="558"/>
     </row>
     <row r="122" spans="1:7" ht="24" customHeight="1">
-      <c r="A122" s="534" t="s">
+      <c r="A122" s="547" t="s">
         <v>417</v>
       </c>
-      <c r="B122" s="535"/>
-      <c r="C122" s="535"/>
-      <c r="D122" s="535"/>
-      <c r="E122" s="536"/>
-      <c r="F122" s="533" t="s">
+      <c r="B122" s="548"/>
+      <c r="C122" s="548"/>
+      <c r="D122" s="548"/>
+      <c r="E122" s="549"/>
+      <c r="F122" s="557" t="s">
         <v>418</v>
       </c>
-      <c r="G122" s="533"/>
+      <c r="G122" s="557"/>
     </row>
     <row r="123" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A123" s="534" t="s">
+      <c r="A123" s="547" t="s">
         <v>419</v>
       </c>
-      <c r="B123" s="535"/>
-      <c r="C123" s="535"/>
-      <c r="D123" s="535"/>
-      <c r="E123" s="536"/>
-      <c r="F123" s="533" t="s">
+      <c r="B123" s="548"/>
+      <c r="C123" s="548"/>
+      <c r="D123" s="548"/>
+      <c r="E123" s="549"/>
+      <c r="F123" s="557" t="s">
         <v>420</v>
       </c>
-      <c r="G123" s="533"/>
+      <c r="G123" s="557"/>
     </row>
     <row r="124" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A124" s="534" t="s">
+      <c r="A124" s="547" t="s">
         <v>421</v>
       </c>
-      <c r="B124" s="535"/>
-      <c r="C124" s="535"/>
-      <c r="D124" s="535"/>
-      <c r="E124" s="536"/>
-      <c r="F124" s="533" t="s">
+      <c r="B124" s="548"/>
+      <c r="C124" s="548"/>
+      <c r="D124" s="548"/>
+      <c r="E124" s="549"/>
+      <c r="F124" s="557" t="s">
         <v>422</v>
       </c>
-      <c r="G124" s="533"/>
+      <c r="G124" s="557"/>
     </row>
     <row r="125" spans="1:7" ht="15.6" customHeight="1">
       <c r="A125" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B125" s="584"/>
-      <c r="C125" s="585"/>
-      <c r="D125" s="585"/>
-      <c r="E125" s="585"/>
-      <c r="F125" s="585"/>
-      <c r="G125" s="585"/>
+      <c r="B125" s="550"/>
+      <c r="C125" s="591"/>
+      <c r="D125" s="591"/>
+      <c r="E125" s="591"/>
+      <c r="F125" s="591"/>
+      <c r="G125" s="591"/>
     </row>
     <row r="126" spans="1:7" ht="15.6" customHeight="1">
       <c r="A126" s="564"/>
-      <c r="B126" s="582"/>
-      <c r="C126" s="583"/>
-      <c r="D126" s="583"/>
-      <c r="E126" s="583"/>
-      <c r="F126" s="583"/>
-      <c r="G126" s="583"/>
+      <c r="B126" s="589"/>
+      <c r="C126" s="590"/>
+      <c r="D126" s="590"/>
+      <c r="E126" s="590"/>
+      <c r="F126" s="590"/>
+      <c r="G126" s="590"/>
     </row>
     <row r="127" spans="1:7" ht="15.6" customHeight="1">
       <c r="A127" s="80"/>
-      <c r="B127" s="540">
+      <c r="B127" s="603">
         <v>2025</v>
       </c>
-      <c r="C127" s="540"/>
-      <c r="D127" s="540"/>
-      <c r="E127" s="540"/>
-      <c r="F127" s="546" t="s">
+      <c r="C127" s="603"/>
+      <c r="D127" s="603"/>
+      <c r="E127" s="603"/>
+      <c r="F127" s="604" t="s">
         <v>361</v>
       </c>
-      <c r="G127" s="546"/>
+      <c r="G127" s="604"/>
     </row>
     <row r="128" spans="1:7" ht="15.6" customHeight="1">
       <c r="A128" s="80"/>
-      <c r="B128" s="540"/>
-      <c r="C128" s="540"/>
-      <c r="D128" s="540"/>
-      <c r="E128" s="540"/>
-      <c r="F128" s="550" t="str">
+      <c r="B128" s="603"/>
+      <c r="C128" s="603"/>
+      <c r="D128" s="603"/>
+      <c r="E128" s="603"/>
+      <c r="F128" s="586" t="str">
         <f>F2</f>
         <v>Prepared by:</v>
       </c>
-      <c r="G128" s="550"/>
+      <c r="G128" s="586"/>
     </row>
     <row r="129" spans="1:10" ht="15.6" customHeight="1">
       <c r="A129" s="80"/>
-      <c r="B129" s="540"/>
-      <c r="C129" s="540"/>
-      <c r="D129" s="540"/>
-      <c r="E129" s="540"/>
-      <c r="F129" s="550"/>
-      <c r="G129" s="550"/>
+      <c r="B129" s="603"/>
+      <c r="C129" s="603"/>
+      <c r="D129" s="603"/>
+      <c r="E129" s="603"/>
+      <c r="F129" s="586"/>
+      <c r="G129" s="586"/>
     </row>
     <row r="130" spans="1:10" ht="15.6" customHeight="1">
       <c r="A130" s="80"/>
-      <c r="B130" s="580"/>
-      <c r="C130" s="580"/>
-      <c r="D130" s="580"/>
-      <c r="E130" s="580"/>
-      <c r="F130" s="547" t="str">
+      <c r="B130" s="533"/>
+      <c r="C130" s="533"/>
+      <c r="D130" s="533"/>
+      <c r="E130" s="533"/>
+      <c r="F130" s="595" t="str">
         <f>F4</f>
         <v>John Piotrowski</v>
       </c>
-      <c r="G130" s="547"/>
+      <c r="G130" s="595"/>
     </row>
     <row r="131" spans="1:10" ht="15.6" customHeight="1">
       <c r="A131" s="80"/>
@@ -36971,85 +36973,85 @@
       <c r="C131" s="355"/>
       <c r="D131" s="355"/>
       <c r="E131" s="355"/>
-      <c r="F131" s="547" t="str">
+      <c r="F131" s="595" t="str">
         <f>F5</f>
         <v>980-392-7944</v>
       </c>
-      <c r="G131" s="547"/>
+      <c r="G131" s="595"/>
     </row>
     <row r="132" spans="1:10" ht="15.6" customHeight="1">
       <c r="A132" s="80"/>
-      <c r="B132" s="581" t="s">
+      <c r="B132" s="534" t="s">
         <v>799</v>
       </c>
-      <c r="C132" s="581"/>
-      <c r="D132" s="581"/>
-      <c r="E132" s="581"/>
-      <c r="F132" s="547" t="str">
+      <c r="C132" s="534"/>
+      <c r="D132" s="534"/>
+      <c r="E132" s="534"/>
+      <c r="F132" s="595" t="str">
         <f>F6</f>
         <v>jpiotrowski@ppas.com</v>
       </c>
-      <c r="G132" s="547"/>
+      <c r="G132" s="595"/>
     </row>
     <row r="133" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A133" s="587" t="s">
+      <c r="A133" s="594" t="s">
         <v>423</v>
       </c>
-      <c r="B133" s="587"/>
-      <c r="C133" s="587"/>
-      <c r="D133" s="587"/>
-      <c r="E133" s="587"/>
-      <c r="F133" s="587"/>
-      <c r="G133" s="587"/>
+      <c r="B133" s="594"/>
+      <c r="C133" s="594"/>
+      <c r="D133" s="594"/>
+      <c r="E133" s="594"/>
+      <c r="F133" s="594"/>
+      <c r="G133" s="594"/>
     </row>
     <row r="134" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A134" s="587"/>
-      <c r="B134" s="587"/>
-      <c r="C134" s="587"/>
-      <c r="D134" s="587"/>
-      <c r="E134" s="587"/>
-      <c r="F134" s="587"/>
-      <c r="G134" s="587"/>
+      <c r="A134" s="594"/>
+      <c r="B134" s="594"/>
+      <c r="C134" s="594"/>
+      <c r="D134" s="594"/>
+      <c r="E134" s="594"/>
+      <c r="F134" s="594"/>
+      <c r="G134" s="594"/>
     </row>
     <row r="135" spans="1:10" ht="15.6" customHeight="1">
       <c r="A135" s="70" t="s">
         <v>424</v>
       </c>
-      <c r="B135" s="594" t="s">
+      <c r="B135" s="587" t="s">
         <v>425</v>
       </c>
-      <c r="C135" s="595"/>
+      <c r="C135" s="588"/>
       <c r="D135" s="71" t="s">
         <v>426</v>
       </c>
       <c r="E135" s="87" t="s">
         <v>427</v>
       </c>
-      <c r="F135" s="586" t="s">
+      <c r="F135" s="592" t="s">
         <v>428</v>
       </c>
-      <c r="G135" s="569"/>
+      <c r="G135" s="593"/>
     </row>
     <row r="136" spans="1:10" ht="15.6" customHeight="1">
       <c r="A136" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="B136" s="588">
+      <c r="B136" s="571">
         <v>73542.58</v>
       </c>
-      <c r="C136" s="589"/>
+      <c r="C136" s="572"/>
       <c r="D136" s="100"/>
       <c r="E136" s="90">
         <f>B136+D136</f>
         <v>73542.58</v>
       </c>
-      <c r="F136" s="590"/>
-      <c r="G136" s="591"/>
+      <c r="F136" s="583"/>
+      <c r="G136" s="584"/>
     </row>
     <row r="137" spans="1:10" ht="15.6" customHeight="1">
       <c r="A137" s="72"/>
-      <c r="B137" s="588"/>
-      <c r="C137" s="589"/>
+      <c r="B137" s="571"/>
+      <c r="C137" s="572"/>
       <c r="D137" s="100"/>
       <c r="E137" s="90">
         <f>B137+D137</f>
@@ -37060,65 +37062,65 @@
     </row>
     <row r="138" spans="1:10" ht="15.6" customHeight="1">
       <c r="A138" s="74"/>
-      <c r="B138" s="572"/>
-      <c r="C138" s="572"/>
+      <c r="B138" s="585"/>
+      <c r="C138" s="585"/>
       <c r="D138" s="75"/>
       <c r="E138" s="90">
         <f>B138+D138</f>
         <v>0</v>
       </c>
-      <c r="F138" s="590"/>
-      <c r="G138" s="591"/>
+      <c r="F138" s="583"/>
+      <c r="G138" s="584"/>
     </row>
     <row r="139" spans="1:10" ht="15.6" customHeight="1">
       <c r="A139" s="76"/>
-      <c r="B139" s="573"/>
-      <c r="C139" s="573"/>
+      <c r="B139" s="582"/>
+      <c r="C139" s="582"/>
       <c r="D139" s="77"/>
       <c r="E139" s="91">
         <f>B139+D139</f>
         <v>0</v>
       </c>
-      <c r="F139" s="590"/>
-      <c r="G139" s="591"/>
+      <c r="F139" s="583"/>
+      <c r="G139" s="584"/>
     </row>
     <row r="140" spans="1:10" ht="15.6" customHeight="1">
       <c r="A140" s="76"/>
-      <c r="B140" s="573"/>
-      <c r="C140" s="573"/>
+      <c r="B140" s="582"/>
+      <c r="C140" s="582"/>
       <c r="D140" s="77"/>
       <c r="E140" s="91">
         <f>B140+D140</f>
         <v>0</v>
       </c>
-      <c r="F140" s="590"/>
-      <c r="G140" s="591"/>
+      <c r="F140" s="583"/>
+      <c r="G140" s="584"/>
     </row>
     <row r="141" spans="1:10" ht="15.6" customHeight="1">
       <c r="A141" s="74"/>
-      <c r="B141" s="572"/>
-      <c r="C141" s="572"/>
+      <c r="B141" s="585"/>
+      <c r="C141" s="585"/>
       <c r="D141" s="75"/>
       <c r="E141" s="90" t="str">
         <f t="shared" ref="E141:E147" si="0">IF(B141="","",B141+D141)</f>
         <v/>
       </c>
-      <c r="F141" s="590"/>
-      <c r="G141" s="591"/>
+      <c r="F141" s="583"/>
+      <c r="G141" s="584"/>
     </row>
     <row r="142" spans="1:10" ht="15.6" customHeight="1" thickBot="1">
       <c r="A142" s="76"/>
-      <c r="B142" s="573"/>
-      <c r="C142" s="573"/>
+      <c r="B142" s="582"/>
+      <c r="C142" s="582"/>
       <c r="D142" s="77"/>
       <c r="E142" s="91" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F142" s="592" t="s">
+      <c r="F142" s="596" t="s">
         <v>436</v>
       </c>
-      <c r="G142" s="593"/>
+      <c r="G142" s="597"/>
       <c r="J142" s="348">
         <f>'NEW POOL'!B21+'NEW POOL'!B22+'NEW POOL'!B23</f>
         <v>0</v>
@@ -37129,11 +37131,11 @@
         <f>IF('NEW POOL'!B171&gt;0,'NEW POOL'!A171,"")</f>
         <v/>
       </c>
-      <c r="B143" s="572" t="str">
+      <c r="B143" s="585" t="str">
         <f>IF('NEW POOL'!B171&gt;0,'COST - NEW'!E233,"")</f>
         <v/>
       </c>
-      <c r="C143" s="572"/>
+      <c r="C143" s="585"/>
       <c r="D143" s="75"/>
       <c r="E143" s="90" t="str">
         <f t="shared" si="0"/>
@@ -37153,8 +37155,8 @@
     </row>
     <row r="144" spans="1:10" ht="15.6" customHeight="1">
       <c r="A144" s="76"/>
-      <c r="B144" s="573"/>
-      <c r="C144" s="573"/>
+      <c r="B144" s="582"/>
+      <c r="C144" s="582"/>
       <c r="D144" s="77"/>
       <c r="E144" s="91"/>
       <c r="F144" s="93" t="str">
@@ -37172,8 +37174,8 @@
     </row>
     <row r="145" spans="1:7" ht="15.6" customHeight="1">
       <c r="A145" s="74"/>
-      <c r="B145" s="572"/>
-      <c r="C145" s="572"/>
+      <c r="B145" s="585"/>
+      <c r="C145" s="585"/>
       <c r="D145" s="75"/>
       <c r="E145" s="90" t="str">
         <f t="shared" si="0"/>
@@ -37190,8 +37192,8 @@
     </row>
     <row r="146" spans="1:7" ht="15.6" customHeight="1">
       <c r="A146" s="76"/>
-      <c r="B146" s="573"/>
-      <c r="C146" s="573"/>
+      <c r="B146" s="582"/>
+      <c r="C146" s="582"/>
       <c r="D146" s="77"/>
       <c r="E146" s="91" t="str">
         <f t="shared" si="0"/>
@@ -37208,8 +37210,8 @@
     </row>
     <row r="147" spans="1:7" ht="15.6" customHeight="1">
       <c r="A147" s="74"/>
-      <c r="B147" s="572"/>
-      <c r="C147" s="572"/>
+      <c r="B147" s="585"/>
+      <c r="C147" s="585"/>
       <c r="D147" s="75"/>
       <c r="E147" s="90" t="str">
         <f t="shared" si="0"/>
@@ -37228,11 +37230,11 @@
       <c r="A148" s="86" t="s">
         <v>433</v>
       </c>
-      <c r="B148" s="574">
+      <c r="B148" s="599">
         <f>SUM(B136:C147)</f>
         <v>73542.58</v>
       </c>
-      <c r="C148" s="575"/>
+      <c r="C148" s="600"/>
       <c r="D148" s="89">
         <f>SUM(D136:D147)</f>
         <v>0</v>
@@ -37252,11 +37254,11 @@
     <row r="149" spans="1:7" ht="17.399999999999999">
       <c r="A149" s="73"/>
       <c r="B149" s="73"/>
-      <c r="C149" s="576"/>
-      <c r="D149" s="576"/>
+      <c r="C149" s="601"/>
+      <c r="D149" s="601"/>
       <c r="E149" s="105">
         <f>IF('NEW POOL'!C191-PROPOSAL!E148=0,"",'NEW POOL'!C191-E148)</f>
-        <v>79427.42</v>
+        <v>71427.42</v>
       </c>
       <c r="F149" s="73"/>
     </row>
@@ -37272,29 +37274,29 @@
       <c r="A151" s="81" t="s">
         <v>430</v>
       </c>
-      <c r="B151" s="577" t="s">
+      <c r="B151" s="602" t="s">
         <v>425</v>
       </c>
-      <c r="C151" s="577"/>
+      <c r="C151" s="602"/>
       <c r="D151" s="88" t="s">
         <v>426</v>
       </c>
       <c r="E151" s="85" t="s">
         <v>427</v>
       </c>
-      <c r="F151" s="568" t="s">
+      <c r="F151" s="598" t="s">
         <v>428</v>
       </c>
-      <c r="G151" s="569"/>
+      <c r="G151" s="593"/>
     </row>
     <row r="152" spans="1:7" ht="15.6" customHeight="1">
       <c r="A152" s="102" t="s">
         <v>431</v>
       </c>
-      <c r="B152" s="578">
-        <v>0</v>
-      </c>
-      <c r="C152" s="578"/>
+      <c r="B152" s="561">
+        <v>0</v>
+      </c>
+      <c r="C152" s="561"/>
       <c r="D152" s="103">
         <v>0</v>
       </c>
@@ -37302,17 +37304,17 @@
         <f>B152+D152</f>
         <v>0</v>
       </c>
-      <c r="F152" s="570"/>
-      <c r="G152" s="570"/>
+      <c r="F152" s="562"/>
+      <c r="G152" s="562"/>
     </row>
     <row r="153" spans="1:7" ht="15.6" customHeight="1">
       <c r="A153" s="82" t="s">
         <v>431</v>
       </c>
-      <c r="B153" s="579">
-        <v>0</v>
-      </c>
-      <c r="C153" s="579"/>
+      <c r="B153" s="574">
+        <v>0</v>
+      </c>
+      <c r="C153" s="574"/>
       <c r="D153" s="83">
         <v>0</v>
       </c>
@@ -37320,17 +37322,17 @@
         <f>B153+D153</f>
         <v>0</v>
       </c>
-      <c r="F153" s="571"/>
-      <c r="G153" s="571"/>
+      <c r="F153" s="575"/>
+      <c r="G153" s="575"/>
     </row>
     <row r="154" spans="1:7" ht="15.6" customHeight="1">
       <c r="A154" s="102" t="s">
         <v>431</v>
       </c>
-      <c r="B154" s="578">
-        <v>0</v>
-      </c>
-      <c r="C154" s="578"/>
+      <c r="B154" s="561">
+        <v>0</v>
+      </c>
+      <c r="C154" s="561"/>
       <c r="D154" s="103">
         <v>0</v>
       </c>
@@ -37338,17 +37340,17 @@
         <f>B154+D154</f>
         <v>0</v>
       </c>
-      <c r="F154" s="570"/>
-      <c r="G154" s="570"/>
+      <c r="F154" s="562"/>
+      <c r="G154" s="562"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="82" t="s">
         <v>431</v>
       </c>
-      <c r="B155" s="579">
-        <v>0</v>
-      </c>
-      <c r="C155" s="579"/>
+      <c r="B155" s="574">
+        <v>0</v>
+      </c>
+      <c r="C155" s="574"/>
       <c r="D155" s="83">
         <v>0</v>
       </c>
@@ -37356,17 +37358,17 @@
         <f>B155+D155</f>
         <v>0</v>
       </c>
-      <c r="F155" s="571"/>
-      <c r="G155" s="571"/>
+      <c r="F155" s="575"/>
+      <c r="G155" s="575"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="102" t="s">
         <v>431</v>
       </c>
-      <c r="B156" s="578">
-        <v>0</v>
-      </c>
-      <c r="C156" s="578"/>
+      <c r="B156" s="561">
+        <v>0</v>
+      </c>
+      <c r="C156" s="561"/>
       <c r="D156" s="103">
         <v>0</v>
       </c>
@@ -37374,11 +37376,235 @@
         <f>B156+D156</f>
         <v>0</v>
       </c>
-      <c r="F156" s="570"/>
-      <c r="G156" s="570"/>
+      <c r="F156" s="562"/>
+      <c r="G156" s="562"/>
     </row>
   </sheetData>
   <mergeCells count="248">
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="B1:E3"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A77:E77"/>
+    <mergeCell ref="A78:E78"/>
+    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="B127:E129"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="A133:G134"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="F128:G129"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="B137:C137"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="A101:E101"/>
@@ -37403,230 +37629,6 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="F128:G129"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="B125:G125"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="A133:G134"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="B127:E129"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="B1:E3"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A77:E77"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A79:E79"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Amount is automatically calculated in this column under this heading" sqref="E135:F135 E151:F151" xr:uid="{1F283287-30C5-44A3-9210-51C267A14160}"/>
@@ -37654,8 +37656,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I353"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A270" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E309" sqref="E309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -42442,7 +42444,7 @@
       </c>
       <c r="D346" s="2">
         <f>'NEW POOL'!C191</f>
-        <v>152970</v>
+        <v>144970</v>
       </c>
       <c r="E346" s="183"/>
       <c r="G346" s="5">
@@ -42477,7 +42479,7 @@
       </c>
       <c r="D349" s="1">
         <f>-D346*E349</f>
-        <v>-4206.6750000000002</v>
+        <v>-3986.6750000000002</v>
       </c>
       <c r="E349" s="179">
         <v>2.75E-2</v>
@@ -42489,7 +42491,7 @@
       </c>
       <c r="D350" s="1">
         <f>-D346*0.029</f>
-        <v>-4436.13</v>
+        <v>-4204.13</v>
       </c>
       <c r="E350" s="4"/>
     </row>
@@ -42499,7 +42501,7 @@
       </c>
       <c r="D351" s="2">
         <f>-D346*E351</f>
-        <v>-4206.6750000000002</v>
+        <v>-3986.6750000000002</v>
       </c>
       <c r="E351" s="180">
         <f>E349</f>
@@ -42517,25 +42519,15 @@
       <c r="C353" s="190"/>
       <c r="D353" s="191">
         <f>SUM(D346:D352)</f>
-        <v>33919.908736875012</v>
+        <v>26591.908736875012</v>
       </c>
       <c r="E353" s="192">
         <f>D353/D346</f>
-        <v>0.22174222878260449</v>
+        <v>0.1834304251698628</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A179:D179"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A47:D47"/>
     <mergeCell ref="A317:D317"/>
     <mergeCell ref="A332:D332"/>
     <mergeCell ref="A325:D325"/>
@@ -42549,6 +42541,16 @@
     <mergeCell ref="A297:D297"/>
     <mergeCell ref="A231:D231"/>
     <mergeCell ref="A235:C235"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A179:D179"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44545,9 +44547,9 @@
       <c r="A3" s="630" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="538"/>
-      <c r="C3" s="538"/>
-      <c r="D3" s="539"/>
+      <c r="B3" s="607"/>
+      <c r="C3" s="607"/>
+      <c r="D3" s="608"/>
       <c r="F3" s="121"/>
       <c r="G3" s="122"/>
       <c r="H3" s="123" t="s">

--- a/docs/Excel Sheet/Drennen.xlsx
+++ b/docs/Excel Sheet/Drennen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Submerge\docs\Excel Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB4B316-4401-4413-98F0-76E363B1B628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF90B66C-91CD-46DF-AB38-162B5671D205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-7752" windowWidth="17496" windowHeight="30936" firstSheet="1" activeTab="3" xr2:uid="{6E61877A-0A69-45F3-A9A4-B6B7A521CA23}"/>
+    <workbookView xWindow="30612" yWindow="-7752" windowWidth="17496" windowHeight="30936" xr2:uid="{6E61877A-0A69-45F3-A9A4-B6B7A521CA23}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW POOL" sheetId="6" r:id="rId1"/>
@@ -6089,6 +6089,27 @@
     <xf numFmtId="165" fontId="44" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6098,9 +6119,84 @@
     <xf numFmtId="0" fontId="46" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6110,15 +6206,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6128,95 +6218,146 @@
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="3" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="3" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="3" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6224,28 +6365,73 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="3" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="3" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6260,197 +6446,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="3" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="3" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="3" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="26" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="3" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="19" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="22" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="3" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7305,8 +7305,8 @@
   </sheetPr>
   <dimension ref="A1:N191"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J170" sqref="J170"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7320,39 +7320,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24" thickBot="1">
-      <c r="A1" s="522" t="s">
+      <c r="A1" s="504" t="s">
         <v>1136</v>
       </c>
-      <c r="B1" s="523"/>
-      <c r="C1" s="523"/>
-      <c r="D1" s="523"/>
-      <c r="E1" s="523"/>
-      <c r="F1" s="523"/>
-      <c r="G1" s="523"/>
-      <c r="H1" s="524"/>
+      <c r="B1" s="505"/>
+      <c r="C1" s="505"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
+      <c r="F1" s="505"/>
+      <c r="G1" s="505"/>
+      <c r="H1" s="506"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1"/>
     <row r="3" spans="1:11" ht="15" thickBot="1">
       <c r="A3" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="503" t="s">
+      <c r="B3" s="511" t="s">
         <v>1143</v>
       </c>
-      <c r="C3" s="504"/>
-      <c r="D3" s="504"/>
-      <c r="E3" s="505"/>
+      <c r="C3" s="512"/>
+      <c r="D3" s="512"/>
+      <c r="E3" s="513"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1">
       <c r="A4" s="165" t="s">
         <v>670</v>
       </c>
-      <c r="B4" s="503" t="s">
+      <c r="B4" s="511" t="s">
         <v>1144</v>
       </c>
-      <c r="C4" s="504"/>
-      <c r="D4" s="504"/>
-      <c r="E4" s="505"/>
+      <c r="C4" s="512"/>
+      <c r="D4" s="512"/>
+      <c r="E4" s="513"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
@@ -7653,12 +7653,12 @@
       <c r="B29" s="174"/>
     </row>
     <row r="30" spans="1:8" ht="18" thickBot="1">
-      <c r="A30" s="490" t="s">
+      <c r="A30" s="497" t="s">
         <v>475</v>
       </c>
-      <c r="B30" s="491"/>
-      <c r="C30" s="491"/>
-      <c r="D30" s="492"/>
+      <c r="B30" s="498"/>
+      <c r="C30" s="498"/>
+      <c r="D30" s="499"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1">
       <c r="B31" s="4" t="s">
@@ -7679,13 +7679,13 @@
       <c r="C32" s="113">
         <v>0</v>
       </c>
-      <c r="D32" s="506" t="s">
+      <c r="D32" s="514" t="s">
         <v>821</v>
       </c>
-      <c r="E32" s="507"/>
-      <c r="F32" s="507"/>
-      <c r="G32" s="507"/>
-      <c r="H32" s="508"/>
+      <c r="E32" s="515"/>
+      <c r="F32" s="515"/>
+      <c r="G32" s="515"/>
+      <c r="H32" s="516"/>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1">
       <c r="A33" s="99" t="s">
@@ -7697,11 +7697,11 @@
       <c r="C33" s="113">
         <v>0</v>
       </c>
-      <c r="D33" s="509"/>
-      <c r="E33" s="510"/>
-      <c r="F33" s="510"/>
-      <c r="G33" s="510"/>
-      <c r="H33" s="511"/>
+      <c r="D33" s="517"/>
+      <c r="E33" s="518"/>
+      <c r="F33" s="518"/>
+      <c r="G33" s="518"/>
+      <c r="H33" s="519"/>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1">
       <c r="A34" s="99" t="s">
@@ -7713,11 +7713,11 @@
       <c r="C34" s="113">
         <v>0</v>
       </c>
-      <c r="D34" s="509"/>
-      <c r="E34" s="510"/>
-      <c r="F34" s="510"/>
-      <c r="G34" s="510"/>
-      <c r="H34" s="511"/>
+      <c r="D34" s="517"/>
+      <c r="E34" s="518"/>
+      <c r="F34" s="518"/>
+      <c r="G34" s="518"/>
+      <c r="H34" s="519"/>
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1">
       <c r="A35" s="99" t="s">
@@ -7729,11 +7729,11 @@
       <c r="C35" s="113">
         <v>0</v>
       </c>
-      <c r="D35" s="509"/>
-      <c r="E35" s="510"/>
-      <c r="F35" s="510"/>
-      <c r="G35" s="510"/>
-      <c r="H35" s="511"/>
+      <c r="D35" s="517"/>
+      <c r="E35" s="518"/>
+      <c r="F35" s="518"/>
+      <c r="G35" s="518"/>
+      <c r="H35" s="519"/>
     </row>
     <row r="36" spans="1:8" ht="15" thickBot="1">
       <c r="A36" s="99" t="s">
@@ -7745,11 +7745,11 @@
       <c r="C36" s="113">
         <v>0</v>
       </c>
-      <c r="D36" s="509"/>
-      <c r="E36" s="510"/>
-      <c r="F36" s="510"/>
-      <c r="G36" s="510"/>
-      <c r="H36" s="511"/>
+      <c r="D36" s="517"/>
+      <c r="E36" s="518"/>
+      <c r="F36" s="518"/>
+      <c r="G36" s="518"/>
+      <c r="H36" s="519"/>
     </row>
     <row r="37" spans="1:8" ht="15" thickBot="1">
       <c r="A37" s="170" t="s">
@@ -7761,11 +7761,11 @@
       <c r="C37" s="113">
         <v>0</v>
       </c>
-      <c r="D37" s="512"/>
-      <c r="E37" s="513"/>
-      <c r="F37" s="513"/>
-      <c r="G37" s="513"/>
-      <c r="H37" s="514"/>
+      <c r="D37" s="520"/>
+      <c r="E37" s="521"/>
+      <c r="F37" s="521"/>
+      <c r="G37" s="521"/>
+      <c r="H37" s="522"/>
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1">
       <c r="A38" s="99" t="s">
@@ -7799,14 +7799,14 @@
       <c r="C40" s="113">
         <v>0</v>
       </c>
-      <c r="D40" s="503" t="str">
+      <c r="D40" s="511" t="str">
         <f>D32</f>
         <v>( 1=Tile / 2=Panel Ledge / 3=Stacked Stone)</v>
       </c>
-      <c r="E40" s="504"/>
-      <c r="F40" s="504"/>
-      <c r="G40" s="504"/>
-      <c r="H40" s="505"/>
+      <c r="E40" s="512"/>
+      <c r="F40" s="512"/>
+      <c r="G40" s="512"/>
+      <c r="H40" s="513"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1">
       <c r="A41" s="166" t="s">
@@ -7937,12 +7937,12 @@
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1"/>
     <row r="55" spans="1:4" ht="18" thickBot="1">
-      <c r="A55" s="490" t="s">
+      <c r="A55" s="497" t="s">
         <v>494</v>
       </c>
-      <c r="B55" s="491"/>
-      <c r="C55" s="491"/>
-      <c r="D55" s="492"/>
+      <c r="B55" s="498"/>
+      <c r="C55" s="498"/>
+      <c r="D55" s="499"/>
     </row>
     <row r="56" spans="1:4" ht="15" thickBot="1"/>
     <row r="57" spans="1:4" ht="15" thickBot="1">
@@ -8124,12 +8124,12 @@
     </row>
     <row r="74" spans="1:4" ht="15" thickBot="1"/>
     <row r="75" spans="1:4" ht="18" thickBot="1">
-      <c r="A75" s="490" t="s">
+      <c r="A75" s="497" t="s">
         <v>785</v>
       </c>
-      <c r="B75" s="491"/>
-      <c r="C75" s="491"/>
-      <c r="D75" s="492"/>
+      <c r="B75" s="498"/>
+      <c r="C75" s="498"/>
+      <c r="D75" s="499"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A76" s="163"/>
@@ -8295,14 +8295,14 @@
       <c r="C93" t="s">
         <v>592</v>
       </c>
-      <c r="E93" s="493" t="str">
+      <c r="E93" s="523" t="str">
         <f>'TILE COPING'!F32</f>
         <v>Silver, Silver Vogue, River Silver, Bianco Dolomite, Dianna Royal, Skyline, Alaska Silver, Turkish Carrea</v>
       </c>
-      <c r="F93" s="493"/>
-      <c r="G93" s="493"/>
-      <c r="H93" s="493"/>
-      <c r="I93" s="493"/>
+      <c r="F93" s="523"/>
+      <c r="G93" s="523"/>
+      <c r="H93" s="523"/>
+      <c r="I93" s="523"/>
     </row>
     <row r="94" spans="1:10" ht="15.6" customHeight="1" thickBot="1">
       <c r="A94" s="99" t="s">
@@ -8314,15 +8314,15 @@
       <c r="C94" t="s">
         <v>592</v>
       </c>
-      <c r="E94" s="493" t="str">
+      <c r="E94" s="523" t="str">
         <f>'TILE COPING'!F33</f>
         <v>Silver, Silver Vogue, River Silver, Bianco Dolomite, Dianna Royal, Skyline, Alaska Silver, Turkish Carrea</v>
       </c>
-      <c r="F94" s="493"/>
-      <c r="G94" s="493"/>
-      <c r="H94" s="493"/>
-      <c r="I94" s="493"/>
-      <c r="J94" s="493"/>
+      <c r="F94" s="523"/>
+      <c r="G94" s="523"/>
+      <c r="H94" s="523"/>
+      <c r="I94" s="523"/>
+      <c r="J94" s="523"/>
     </row>
     <row r="95" spans="1:10" ht="15" thickBot="1">
       <c r="B95" s="152"/>
@@ -8379,12 +8379,12 @@
       <c r="B101" s="152"/>
     </row>
     <row r="102" spans="1:4" ht="18" thickBot="1">
-      <c r="A102" s="490" t="s">
+      <c r="A102" s="497" t="s">
         <v>841</v>
       </c>
-      <c r="B102" s="491"/>
-      <c r="C102" s="491"/>
-      <c r="D102" s="492"/>
+      <c r="B102" s="498"/>
+      <c r="C102" s="498"/>
+      <c r="D102" s="499"/>
     </row>
     <row r="103" spans="1:4" ht="15" thickBot="1">
       <c r="B103" s="152"/>
@@ -8437,23 +8437,23 @@
       <c r="B108" s="152"/>
     </row>
     <row r="109" spans="1:4" ht="18" thickBot="1">
-      <c r="A109" s="490" t="s">
+      <c r="A109" s="497" t="s">
         <v>686</v>
       </c>
-      <c r="B109" s="491"/>
-      <c r="C109" s="491"/>
-      <c r="D109" s="492"/>
+      <c r="B109" s="498"/>
+      <c r="C109" s="498"/>
+      <c r="D109" s="499"/>
     </row>
     <row r="110" spans="1:4" ht="15" thickBot="1">
       <c r="B110" s="152"/>
     </row>
     <row r="111" spans="1:4" ht="18" thickBot="1">
-      <c r="A111" s="490" t="s">
+      <c r="A111" s="497" t="s">
         <v>689</v>
       </c>
-      <c r="B111" s="491"/>
-      <c r="C111" s="491"/>
-      <c r="D111" s="492"/>
+      <c r="B111" s="498"/>
+      <c r="C111" s="498"/>
+      <c r="D111" s="499"/>
     </row>
     <row r="112" spans="1:4" ht="15" thickBot="1">
       <c r="B112" s="152"/>
@@ -8465,11 +8465,11 @@
       <c r="B113" s="194">
         <v>1</v>
       </c>
-      <c r="C113" s="497">
+      <c r="C113" s="493">
         <f>VLOOKUP(A113,EQUIP!M15:T17,8,FALSE)</f>
         <v>570</v>
       </c>
-      <c r="D113" s="499"/>
+      <c r="D113" s="500"/>
     </row>
     <row r="114" spans="1:11" ht="15" thickBot="1">
       <c r="A114" s="212" t="s">
@@ -8479,11 +8479,11 @@
         <f>IF(C114&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C114" s="497">
+      <c r="C114" s="493">
         <f>VLOOKUP(A114,EQUIP!M14:S19,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D114" s="499"/>
+      <c r="D114" s="500"/>
     </row>
     <row r="115" spans="1:11" ht="15" thickBot="1">
       <c r="A115" s="212" t="s">
@@ -8493,11 +8493,11 @@
         <f>IF(C115&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C115" s="497">
+      <c r="C115" s="493">
         <f>VLOOKUP(A115,EQUIP!M14:S19,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D115" s="499"/>
+      <c r="D115" s="500"/>
     </row>
     <row r="116" spans="1:11" ht="15" thickBot="1">
       <c r="A116" s="117"/>
@@ -8510,11 +8510,11 @@
       <c r="B117" s="194">
         <v>1</v>
       </c>
-      <c r="C117" s="497">
+      <c r="C117" s="493">
         <f>VLOOKUP(A117,EQUIP!M23:O28,3,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="D117" s="499"/>
+      <c r="D117" s="500"/>
     </row>
     <row r="118" spans="1:11" ht="15" thickBot="1">
       <c r="A118" s="117"/>
@@ -8527,11 +8527,11 @@
       <c r="B119" s="194">
         <v>0</v>
       </c>
-      <c r="C119" s="516">
+      <c r="C119" s="492">
         <f>VLOOKUP(A119,EQUIP!M31:S33,7,FALSE)</f>
         <v>2000</v>
       </c>
-      <c r="D119" s="497"/>
+      <c r="D119" s="493"/>
     </row>
     <row r="120" spans="1:11" ht="15" thickBot="1">
       <c r="A120" s="117"/>
@@ -8546,18 +8546,18 @@
       <c r="B121" s="118">
         <v>1</v>
       </c>
-      <c r="C121" s="516">
+      <c r="C121" s="492">
         <f>VLOOKUP(A121,EQUIP!M36:S39,7,FALSE)</f>
         <v>4710</v>
       </c>
-      <c r="D121" s="497"/>
-      <c r="E121" s="494" t="str">
+      <c r="D121" s="493"/>
+      <c r="E121" s="526" t="str">
         <f>IF(A121="Jandy 260K BTU - JXI Heater", "CANNOT BE USED TO HEAT A SPA","")</f>
         <v/>
       </c>
-      <c r="F121" s="495"/>
-      <c r="G121" s="495"/>
-      <c r="H121" s="495"/>
+      <c r="F121" s="527"/>
+      <c r="G121" s="527"/>
+      <c r="H121" s="527"/>
     </row>
     <row r="122" spans="1:11" ht="16.2" thickBot="1">
       <c r="A122" s="432" t="s">
@@ -8566,21 +8566,21 @@
       <c r="B122" s="482">
         <v>0</v>
       </c>
-      <c r="C122" s="496">
+      <c r="C122" s="528">
         <f>B122*EQUIP!S39</f>
         <v>0</v>
       </c>
-      <c r="D122" s="497"/>
-      <c r="E122" s="502" t="str">
+      <c r="D122" s="493"/>
+      <c r="E122" s="532" t="str">
         <f>IF(B14&gt;0,"PROJECT HAS A SPA - SELECT YOUR HEATER","")</f>
         <v>PROJECT HAS A SPA - SELECT YOUR HEATER</v>
       </c>
-      <c r="F122" s="502"/>
-      <c r="G122" s="502"/>
-      <c r="H122" s="502"/>
-      <c r="I122" s="502"/>
-      <c r="J122" s="502"/>
-      <c r="K122" s="502"/>
+      <c r="F122" s="532"/>
+      <c r="G122" s="532"/>
+      <c r="H122" s="532"/>
+      <c r="I122" s="532"/>
+      <c r="J122" s="532"/>
+      <c r="K122" s="532"/>
     </row>
     <row r="123" spans="1:11" ht="16.2" thickBot="1">
       <c r="A123" s="117"/>
@@ -8594,11 +8594,11 @@
       <c r="B124" s="359">
         <v>2</v>
       </c>
-      <c r="C124" s="497" t="str">
+      <c r="C124" s="493" t="str">
         <f>IF(B124=2,"INCLUDED",IF(B124=1,-EQUIP!S121,((B124-2)*EQUIP!S45)))</f>
         <v>INCLUDED</v>
       </c>
-      <c r="D124" s="499"/>
+      <c r="D124" s="500"/>
     </row>
     <row r="125" spans="1:11" ht="16.2" thickBot="1">
       <c r="A125" s="212" t="s">
@@ -8608,21 +8608,21 @@
         <f>EXC!C27</f>
         <v>1</v>
       </c>
-      <c r="C125" s="500">
+      <c r="C125" s="530">
         <f>B125*EQUIP!S43</f>
         <v>755</v>
       </c>
-      <c r="D125" s="501"/>
-      <c r="E125" s="502" t="str">
+      <c r="D125" s="531"/>
+      <c r="E125" s="532" t="str">
         <f>IF(B14&gt;0,"PROJECT HAS A SPA - ADD SPA LIGHT","")</f>
         <v>PROJECT HAS A SPA - ADD SPA LIGHT</v>
       </c>
-      <c r="F125" s="502"/>
-      <c r="G125" s="502"/>
-      <c r="H125" s="502"/>
-      <c r="I125" s="502"/>
-      <c r="J125" s="502"/>
-      <c r="K125" s="502"/>
+      <c r="F125" s="532"/>
+      <c r="G125" s="532"/>
+      <c r="H125" s="532"/>
+      <c r="I125" s="532"/>
+      <c r="J125" s="532"/>
+      <c r="K125" s="532"/>
     </row>
     <row r="126" spans="1:11" ht="15" thickBot="1">
       <c r="B126" s="152"/>
@@ -8635,11 +8635,11 @@
         <f>IF(C127&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C127" s="497">
+      <c r="C127" s="493">
         <f>VLOOKUP(A127,EQUIP!M49:S57,7,FALSE)+(H127*EQUIP!S58)</f>
         <v>980</v>
       </c>
-      <c r="D127" s="499"/>
+      <c r="D127" s="500"/>
       <c r="E127" s="226">
         <f>IF(C127=1280,1,0)</f>
         <v>0</v>
@@ -8665,11 +8665,11 @@
         <f>IF(C128&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C128" s="497">
+      <c r="C128" s="493">
         <f>VLOOKUP(A128,EQUIP!M49:S57,7,FALSE)+(H128*EQUIP!S58)</f>
         <v>0</v>
       </c>
-      <c r="D128" s="499"/>
+      <c r="D128" s="500"/>
       <c r="E128" s="226">
         <f>IF(C128=1280,1,0)</f>
         <v>0</v>
@@ -8695,11 +8695,11 @@
         <f>IF(C129&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C129" s="497">
+      <c r="C129" s="493">
         <f>VLOOKUP(A129,EQUIP!M49:S57,7,FALSE)+(H129*EQUIP!S58)</f>
         <v>0</v>
       </c>
-      <c r="D129" s="499"/>
+      <c r="D129" s="500"/>
       <c r="E129" s="226">
         <f>IF(C129=1280,1,0)</f>
         <v>0</v>
@@ -8730,21 +8730,21 @@
       <c r="B131" s="118">
         <v>1</v>
       </c>
-      <c r="C131" s="515">
+      <c r="C131" s="494">
         <f>VLOOKUP(A131,EQUIP!M63:S72,7,FALSE)</f>
         <v>4033.3333333333335</v>
       </c>
-      <c r="D131" s="497"/>
-      <c r="E131" s="502" t="str">
+      <c r="D131" s="493"/>
+      <c r="E131" s="532" t="str">
         <f>IF(B14&gt;0,"PROJECT HAS A SPA - SELECT AUTOMATION","")</f>
         <v>PROJECT HAS A SPA - SELECT AUTOMATION</v>
       </c>
-      <c r="F131" s="502"/>
-      <c r="G131" s="502"/>
-      <c r="H131" s="502"/>
-      <c r="I131" s="502"/>
-      <c r="J131" s="502"/>
-      <c r="K131" s="502"/>
+      <c r="F131" s="532"/>
+      <c r="G131" s="532"/>
+      <c r="H131" s="532"/>
+      <c r="I131" s="532"/>
+      <c r="J131" s="532"/>
+      <c r="K131" s="532"/>
     </row>
     <row r="132" spans="1:11" ht="15" thickBot="1">
       <c r="B132" s="152"/>
@@ -8757,11 +8757,11 @@
         <f>IF(A133=EQUIP!M105,0,1)</f>
         <v>0</v>
       </c>
-      <c r="C133" s="516">
+      <c r="C133" s="492">
         <f>VLOOKUP(A133,EQUIP!M105:S107,7,FALSE)+(ELEC!E15)</f>
         <v>0</v>
       </c>
-      <c r="D133" s="497"/>
+      <c r="D133" s="493"/>
     </row>
     <row r="134" spans="1:11" ht="15" thickBot="1">
       <c r="A134" s="117" t="s">
@@ -8770,21 +8770,21 @@
       <c r="B134" s="194">
         <v>0</v>
       </c>
-      <c r="C134" s="517" t="s">
+      <c r="C134" s="524" t="s">
         <v>468</v>
       </c>
-      <c r="D134" s="518"/>
+      <c r="D134" s="525"/>
     </row>
     <row r="135" spans="1:11" ht="15" thickBot="1">
       <c r="B135" s="152"/>
     </row>
     <row r="136" spans="1:11" ht="18" thickBot="1">
-      <c r="A136" s="490" t="s">
+      <c r="A136" s="497" t="s">
         <v>703</v>
       </c>
-      <c r="B136" s="491"/>
-      <c r="C136" s="491"/>
-      <c r="D136" s="492"/>
+      <c r="B136" s="498"/>
+      <c r="C136" s="498"/>
+      <c r="D136" s="499"/>
     </row>
     <row r="137" spans="1:11" ht="15" thickBot="1">
       <c r="B137" s="152"/>
@@ -8796,11 +8796,11 @@
       <c r="B138" s="194">
         <v>0</v>
       </c>
-      <c r="C138" s="499">
+      <c r="C138" s="500">
         <f>EQUIP!S128</f>
         <v>0</v>
       </c>
-      <c r="D138" s="499"/>
+      <c r="D138" s="500"/>
     </row>
     <row r="139" spans="1:11" ht="15" thickBot="1">
       <c r="A139" s="217" t="s">
@@ -8809,11 +8809,11 @@
       <c r="B139" s="194">
         <v>0</v>
       </c>
-      <c r="C139" s="499">
+      <c r="C139" s="500">
         <f>EQUIP!S129</f>
         <v>0</v>
       </c>
-      <c r="D139" s="499"/>
+      <c r="D139" s="500"/>
     </row>
     <row r="140" spans="1:11" ht="15" thickBot="1">
       <c r="A140" s="117"/>
@@ -8826,11 +8826,11 @@
       <c r="B141" s="194">
         <v>0</v>
       </c>
-      <c r="C141" s="499">
+      <c r="C141" s="500">
         <f>VLOOKUP(A141,EQUIP!M130:S130,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D141" s="499"/>
+      <c r="D141" s="500"/>
     </row>
     <row r="142" spans="1:11" ht="15" thickBot="1">
       <c r="A142" s="117"/>
@@ -8843,11 +8843,11 @@
       <c r="B143" s="194">
         <v>0</v>
       </c>
-      <c r="C143" s="515">
+      <c r="C143" s="494">
         <f>VLOOKUP(A143,EQUIP!M131:S131,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D143" s="497"/>
+      <c r="D143" s="493"/>
     </row>
     <row r="144" spans="1:11" ht="15" thickBot="1">
       <c r="A144" s="117"/>
@@ -8862,22 +8862,22 @@
       <c r="B145" s="194">
         <v>0</v>
       </c>
-      <c r="C145" s="515">
+      <c r="C145" s="494">
         <f>VLOOKUP(A145,EQUIP!M132:S132,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D145" s="497"/>
+      <c r="D145" s="493"/>
     </row>
     <row r="146" spans="1:5" ht="15" thickBot="1">
       <c r="B146" s="152"/>
     </row>
     <row r="147" spans="1:5" ht="18" thickBot="1">
-      <c r="A147" s="490" t="s">
+      <c r="A147" s="497" t="s">
         <v>713</v>
       </c>
-      <c r="B147" s="491"/>
-      <c r="C147" s="491"/>
-      <c r="D147" s="492"/>
+      <c r="B147" s="498"/>
+      <c r="C147" s="498"/>
+      <c r="D147" s="499"/>
       <c r="E147" s="153" t="s">
         <v>1068</v>
       </c>
@@ -8894,11 +8894,11 @@
         <f>IF(C149&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C149" s="497">
+      <c r="C149" s="493">
         <f>CUSTOM!G3</f>
         <v>1052.2285714285715</v>
       </c>
-      <c r="D149" s="499"/>
+      <c r="D149" s="500"/>
       <c r="E149" t="s">
         <v>783</v>
       </c>
@@ -8915,11 +8915,11 @@
         <f>IF(C151&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C151" s="497">
+      <c r="C151" s="493">
         <f>CUSTOM!G5</f>
         <v>8914.2857142857156</v>
       </c>
-      <c r="D151" s="499"/>
+      <c r="D151" s="500"/>
       <c r="E151" t="s">
         <v>783</v>
       </c>
@@ -8939,11 +8939,11 @@
         <f>IF(C153&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C153" s="497">
+      <c r="C153" s="493">
         <f>CUSTOM!G7</f>
         <v>0</v>
       </c>
-      <c r="D153" s="499"/>
+      <c r="D153" s="500"/>
       <c r="E153" t="s">
         <v>783</v>
       </c>
@@ -8963,11 +8963,11 @@
         <f>IF(C155&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C155" s="497">
+      <c r="C155" s="493">
         <f>CUSTOM!G9</f>
         <v>0</v>
       </c>
-      <c r="D155" s="499"/>
+      <c r="D155" s="500"/>
       <c r="E155" t="s">
         <v>783</v>
       </c>
@@ -8987,11 +8987,11 @@
         <f>IF(C157&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C157" s="497">
+      <c r="C157" s="493">
         <f>CUSTOM!G11</f>
         <v>0</v>
       </c>
-      <c r="D157" s="499"/>
+      <c r="D157" s="500"/>
       <c r="E157" t="s">
         <v>783</v>
       </c>
@@ -9008,11 +9008,11 @@
         <f>IF(C159&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C159" s="497">
+      <c r="C159" s="493">
         <f>CUSTOM!G13</f>
         <v>0</v>
       </c>
-      <c r="D159" s="499"/>
+      <c r="D159" s="500"/>
       <c r="E159" t="s">
         <v>783</v>
       </c>
@@ -9032,11 +9032,11 @@
         <f>IF(C161&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C161" s="497">
+      <c r="C161" s="493">
         <f>CUSTOM!G15</f>
         <v>0</v>
       </c>
-      <c r="D161" s="499"/>
+      <c r="D161" s="500"/>
       <c r="E161" t="s">
         <v>783</v>
       </c>
@@ -9056,11 +9056,11 @@
         <f>IF(C163&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C163" s="497">
+      <c r="C163" s="493">
         <f>CUSTOM!G17</f>
         <v>0</v>
       </c>
-      <c r="D163" s="499"/>
+      <c r="D163" s="500"/>
       <c r="E163" t="s">
         <v>783</v>
       </c>
@@ -9069,12 +9069,12 @@
       <c r="B164" s="152"/>
     </row>
     <row r="165" spans="1:14" ht="18" thickBot="1">
-      <c r="A165" s="490" t="s">
+      <c r="A165" s="497" t="s">
         <v>1070</v>
       </c>
-      <c r="B165" s="491"/>
-      <c r="C165" s="491"/>
-      <c r="D165" s="492"/>
+      <c r="B165" s="498"/>
+      <c r="C165" s="498"/>
+      <c r="D165" s="499"/>
     </row>
     <row r="166" spans="1:14" ht="15" customHeight="1" thickBot="1">
       <c r="A166" s="163"/>
@@ -9097,12 +9097,12 @@
       <c r="B168" s="152"/>
     </row>
     <row r="169" spans="1:14" ht="18" thickBot="1">
-      <c r="A169" s="490" t="s">
+      <c r="A169" s="497" t="s">
         <v>1057</v>
       </c>
-      <c r="B169" s="491"/>
-      <c r="C169" s="491"/>
-      <c r="D169" s="492"/>
+      <c r="B169" s="498"/>
+      <c r="C169" s="498"/>
+      <c r="D169" s="499"/>
     </row>
     <row r="170" spans="1:14" ht="18" thickBot="1">
       <c r="A170" s="163"/>
@@ -9128,12 +9128,12 @@
       <c r="B172" s="152"/>
     </row>
     <row r="173" spans="1:14" ht="18" thickBot="1">
-      <c r="A173" s="490" t="s">
+      <c r="A173" s="497" t="s">
         <v>572</v>
       </c>
-      <c r="B173" s="491"/>
-      <c r="C173" s="491"/>
-      <c r="D173" s="492"/>
+      <c r="B173" s="498"/>
+      <c r="C173" s="498"/>
+      <c r="D173" s="499"/>
     </row>
     <row r="174" spans="1:14" ht="15" thickBot="1"/>
     <row r="175" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
@@ -9143,18 +9143,18 @@
       <c r="B175" s="194">
         <v>1</v>
       </c>
-      <c r="E175" s="498" t="str">
+      <c r="E175" s="529" t="str">
         <f>VLOOKUP(A175,INT!A6:R18,18,FALSE)</f>
         <v>Bordeaux / Desert Gold / French Grey / Irish Mist / White Diamonds / HighTech Caribbean Blue / High Tech Tahoe Blue</v>
       </c>
-      <c r="F175" s="498"/>
-      <c r="G175" s="498"/>
-      <c r="H175" s="498"/>
-      <c r="I175" s="498"/>
-      <c r="J175" s="498"/>
-      <c r="K175" s="498"/>
-      <c r="L175" s="498"/>
-      <c r="M175" s="498"/>
+      <c r="F175" s="529"/>
+      <c r="G175" s="529"/>
+      <c r="H175" s="529"/>
+      <c r="I175" s="529"/>
+      <c r="J175" s="529"/>
+      <c r="K175" s="529"/>
+      <c r="L175" s="529"/>
+      <c r="M175" s="529"/>
       <c r="N175" s="437"/>
     </row>
     <row r="176" spans="1:14" ht="15" thickBot="1">
@@ -9177,23 +9177,23 @@
       <c r="B177" s="427">
         <v>2</v>
       </c>
-      <c r="C177" s="497">
+      <c r="C177" s="493">
         <f>'COST - NEW'!E299</f>
         <v>1155</v>
       </c>
-      <c r="D177" s="499"/>
-      <c r="E177" s="521" t="s">
+      <c r="D177" s="500"/>
+      <c r="E177" s="503" t="s">
         <v>914</v>
       </c>
-      <c r="F177" s="521"/>
-      <c r="G177" s="521"/>
-      <c r="H177" s="521"/>
-      <c r="I177" s="521"/>
-      <c r="J177" s="521"/>
-      <c r="K177" s="521"/>
-      <c r="L177" s="521"/>
-      <c r="M177" s="521"/>
-      <c r="N177" s="521"/>
+      <c r="F177" s="503"/>
+      <c r="G177" s="503"/>
+      <c r="H177" s="503"/>
+      <c r="I177" s="503"/>
+      <c r="J177" s="503"/>
+      <c r="K177" s="503"/>
+      <c r="L177" s="503"/>
+      <c r="M177" s="503"/>
+      <c r="N177" s="503"/>
     </row>
     <row r="178" spans="1:14" ht="15" thickBot="1">
       <c r="B178" s="152"/>
@@ -9241,54 +9241,54 @@
       <c r="N180" s="404"/>
     </row>
     <row r="181" spans="1:14" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A181" s="519" t="s">
+      <c r="A181" s="501" t="s">
         <v>637</v>
       </c>
-      <c r="B181" s="520"/>
-      <c r="C181" s="531">
+      <c r="B181" s="502"/>
+      <c r="C181" s="495">
         <f>CEILING('COST - NEW'!D344/'COST - NEW'!E344,10)+'COST - NEW'!E309</f>
         <v>152970</v>
       </c>
-      <c r="D181" s="532"/>
+      <c r="D181" s="496"/>
       <c r="E181" s="153" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="182" spans="1:14" ht="15" thickBot="1"/>
     <row r="183" spans="1:14" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A183" s="529"/>
-      <c r="B183" s="530"/>
-      <c r="C183" s="527">
+      <c r="A183" s="509"/>
+      <c r="B183" s="510"/>
+      <c r="C183" s="490">
         <v>-8000</v>
       </c>
-      <c r="D183" s="528"/>
+      <c r="D183" s="491"/>
     </row>
     <row r="184" spans="1:14" ht="15" thickBot="1"/>
     <row r="185" spans="1:14" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A185" s="529"/>
-      <c r="B185" s="530"/>
-      <c r="C185" s="527">
-        <v>0</v>
-      </c>
-      <c r="D185" s="528"/>
+      <c r="A185" s="509"/>
+      <c r="B185" s="510"/>
+      <c r="C185" s="490">
+        <v>0</v>
+      </c>
+      <c r="D185" s="491"/>
     </row>
     <row r="186" spans="1:14" ht="15" thickBot="1"/>
     <row r="187" spans="1:14" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A187" s="529"/>
-      <c r="B187" s="530"/>
-      <c r="C187" s="527">
-        <v>0</v>
-      </c>
-      <c r="D187" s="528"/>
+      <c r="A187" s="509"/>
+      <c r="B187" s="510"/>
+      <c r="C187" s="490">
+        <v>0</v>
+      </c>
+      <c r="D187" s="491"/>
     </row>
     <row r="188" spans="1:14" ht="15" thickBot="1"/>
     <row r="189" spans="1:14" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A189" s="529"/>
-      <c r="B189" s="530"/>
-      <c r="C189" s="527">
-        <v>0</v>
-      </c>
-      <c r="D189" s="528"/>
+      <c r="A189" s="509"/>
+      <c r="B189" s="510"/>
+      <c r="C189" s="490">
+        <v>0</v>
+      </c>
+      <c r="D189" s="491"/>
     </row>
     <row r="190" spans="1:14" ht="15" thickBot="1"/>
     <row r="191" spans="1:14" ht="18.600000000000001" thickBot="1">
@@ -9299,17 +9299,65 @@
         <f>'COST - NEW'!E353*10</f>
         <v>1.8343042516986281</v>
       </c>
-      <c r="C191" s="525">
+      <c r="C191" s="507">
         <f>SUM(C181:D190)</f>
         <v>144970</v>
       </c>
-      <c r="D191" s="526"/>
+      <c r="D191" s="508"/>
       <c r="E191" s="153" t="s">
         <v>1069</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="E94:J94"/>
+    <mergeCell ref="E121:H121"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="E175:M175"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="E122:K122"/>
+    <mergeCell ref="E125:K125"/>
+    <mergeCell ref="E131:K131"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="D32:H37"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="E93:I93"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:N177"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C191:D191"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C124:D124"/>
     <mergeCell ref="C185:D185"/>
     <mergeCell ref="C121:D121"/>
     <mergeCell ref="C131:D131"/>
@@ -9326,54 +9374,6 @@
     <mergeCell ref="C128:D128"/>
     <mergeCell ref="C129:D129"/>
     <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="E177:N177"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C191:D191"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="D32:H37"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="E93:I93"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="E94:J94"/>
-    <mergeCell ref="E121:H121"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="E175:M175"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="E122:K122"/>
-    <mergeCell ref="E125:K125"/>
-    <mergeCell ref="E131:K131"/>
   </mergeCells>
   <phoneticPr fontId="47" type="noConversion"/>
   <conditionalFormatting sqref="B121">
@@ -9416,7 +9416,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="53" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="54" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="24">
@@ -11382,8 +11382,8 @@
       <c r="J12" s="630" t="s">
         <v>706</v>
       </c>
-      <c r="K12" s="607"/>
-      <c r="L12" s="608"/>
+      <c r="K12" s="538"/>
+      <c r="L12" s="539"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1">
       <c r="A13" s="106"/>
@@ -14665,7 +14665,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="30">
-        <f t="shared" ref="D20:D25" si="12">B20*C20</f>
+        <f t="shared" ref="D20:D24" si="12">B20*C20</f>
         <v>100</v>
       </c>
       <c r="E20" s="21"/>
@@ -14935,19 +14935,19 @@
       <c r="A3" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="503"/>
-      <c r="C3" s="504"/>
-      <c r="D3" s="504"/>
-      <c r="E3" s="505"/>
+      <c r="B3" s="511"/>
+      <c r="C3" s="512"/>
+      <c r="D3" s="512"/>
+      <c r="E3" s="513"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1">
       <c r="A4" s="165" t="s">
         <v>670</v>
       </c>
-      <c r="B4" s="503"/>
-      <c r="C4" s="504"/>
-      <c r="D4" s="504"/>
-      <c r="E4" s="505"/>
+      <c r="B4" s="511"/>
+      <c r="C4" s="512"/>
+      <c r="D4" s="512"/>
+      <c r="E4" s="513"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1">
       <c r="A5" s="8" t="s">
@@ -15161,12 +15161,12 @@
       <c r="B21" s="117"/>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="490" t="s">
+      <c r="A22" s="497" t="s">
         <v>991</v>
       </c>
-      <c r="B22" s="491"/>
-      <c r="C22" s="491"/>
-      <c r="D22" s="492"/>
+      <c r="B22" s="498"/>
+      <c r="C22" s="498"/>
+      <c r="D22" s="499"/>
     </row>
     <row r="23" spans="1:5" ht="14.4" customHeight="1" thickBot="1">
       <c r="A23" s="8"/>
@@ -15204,12 +15204,12 @@
       <c r="B27" s="117"/>
     </row>
     <row r="28" spans="1:5" ht="18" thickBot="1">
-      <c r="A28" s="490" t="s">
+      <c r="A28" s="497" t="s">
         <v>785</v>
       </c>
-      <c r="B28" s="491"/>
-      <c r="C28" s="491"/>
-      <c r="D28" s="492"/>
+      <c r="B28" s="498"/>
+      <c r="C28" s="498"/>
+      <c r="D28" s="499"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" thickBot="1">
       <c r="A29" s="163"/>
@@ -15418,14 +15418,14 @@
       <c r="C51" t="s">
         <v>592</v>
       </c>
-      <c r="E51" s="493" t="str">
+      <c r="E51" s="523" t="str">
         <f>'TILE COPING'!F32</f>
         <v>Silver, Silver Vogue, River Silver, Bianco Dolomite, Dianna Royal, Skyline, Alaska Silver, Turkish Carrea</v>
       </c>
-      <c r="F51" s="493"/>
-      <c r="G51" s="493"/>
-      <c r="H51" s="493"/>
-      <c r="I51" s="493"/>
+      <c r="F51" s="523"/>
+      <c r="G51" s="523"/>
+      <c r="H51" s="523"/>
+      <c r="I51" s="523"/>
     </row>
     <row r="52" spans="1:11" ht="15.6" customHeight="1" thickBot="1">
       <c r="A52" s="99" t="s">
@@ -15437,16 +15437,16 @@
       <c r="C52" t="s">
         <v>592</v>
       </c>
-      <c r="E52" s="493" t="str">
+      <c r="E52" s="523" t="str">
         <f>'TILE COPING'!F33</f>
         <v>Silver, Silver Vogue, River Silver, Bianco Dolomite, Dianna Royal, Skyline, Alaska Silver, Turkish Carrea</v>
       </c>
-      <c r="F52" s="493"/>
-      <c r="G52" s="493"/>
-      <c r="H52" s="493"/>
-      <c r="I52" s="493"/>
-      <c r="J52" s="493"/>
-      <c r="K52" s="493"/>
+      <c r="F52" s="523"/>
+      <c r="G52" s="523"/>
+      <c r="H52" s="523"/>
+      <c r="I52" s="523"/>
+      <c r="J52" s="523"/>
+      <c r="K52" s="523"/>
     </row>
     <row r="53" spans="1:11" ht="15" thickBot="1">
       <c r="B53" s="152"/>
@@ -15490,12 +15490,12 @@
       <c r="B58" s="152"/>
     </row>
     <row r="59" spans="1:11" ht="18" thickBot="1">
-      <c r="A59" s="490" t="s">
+      <c r="A59" s="497" t="s">
         <v>841</v>
       </c>
-      <c r="B59" s="491"/>
-      <c r="C59" s="491"/>
-      <c r="D59" s="492"/>
+      <c r="B59" s="498"/>
+      <c r="C59" s="498"/>
+      <c r="D59" s="499"/>
     </row>
     <row r="60" spans="1:11" ht="15" thickBot="1">
       <c r="B60" s="152"/>
@@ -15548,23 +15548,23 @@
       <c r="B65" s="152"/>
     </row>
     <row r="66" spans="1:8" ht="18" thickBot="1">
-      <c r="A66" s="490" t="s">
+      <c r="A66" s="497" t="s">
         <v>686</v>
       </c>
-      <c r="B66" s="491"/>
-      <c r="C66" s="491"/>
-      <c r="D66" s="492"/>
+      <c r="B66" s="498"/>
+      <c r="C66" s="498"/>
+      <c r="D66" s="499"/>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1">
       <c r="B67" s="152"/>
     </row>
     <row r="68" spans="1:8" ht="18" thickBot="1">
-      <c r="A68" s="490" t="s">
+      <c r="A68" s="497" t="s">
         <v>689</v>
       </c>
-      <c r="B68" s="491"/>
-      <c r="C68" s="491"/>
-      <c r="D68" s="492"/>
+      <c r="B68" s="498"/>
+      <c r="C68" s="498"/>
+      <c r="D68" s="499"/>
     </row>
     <row r="69" spans="1:8" ht="15" thickBot="1">
       <c r="B69" s="152"/>
@@ -15577,11 +15577,11 @@
         <f>IF(A70="No Auxiliary Pump",0,1)</f>
         <v>0</v>
       </c>
-      <c r="C70" s="497">
+      <c r="C70" s="493">
         <f>(VLOOKUP(A70,EQUIP!$M$14:$S$20,6,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="D70" s="499"/>
+      <c r="D70" s="500"/>
     </row>
     <row r="71" spans="1:8" ht="15" thickBot="1">
       <c r="A71" s="212" t="s">
@@ -15591,11 +15591,11 @@
         <f>IF(C71&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C71" s="497">
+      <c r="C71" s="493">
         <f>(VLOOKUP(A71,EQUIP!$M$14:$S$20,6,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="D71" s="499"/>
+      <c r="D71" s="500"/>
     </row>
     <row r="72" spans="1:8" ht="15" thickBot="1">
       <c r="A72" s="212" t="s">
@@ -15605,11 +15605,11 @@
         <f>IF(C72&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C72" s="497">
+      <c r="C72" s="493">
         <f>(VLOOKUP(A72,EQUIP!$M$14:$S$20,6,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="D72" s="499"/>
+      <c r="D72" s="500"/>
     </row>
     <row r="73" spans="1:8" ht="15" thickBot="1">
       <c r="A73" s="117"/>
@@ -15623,11 +15623,11 @@
         <f>IF(A74="No Filter",0,1)</f>
         <v>0</v>
       </c>
-      <c r="C74" s="497">
+      <c r="C74" s="493">
         <f>(VLOOKUP(A74,EQUIP!M22:S28,6,FALSE))</f>
         <v>0</v>
       </c>
-      <c r="D74" s="499"/>
+      <c r="D74" s="500"/>
     </row>
     <row r="75" spans="1:8" ht="15" thickBot="1">
       <c r="A75" s="117"/>
@@ -15641,11 +15641,11 @@
         <f>IF(C76&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C76" s="516">
+      <c r="C76" s="492">
         <f>VLOOKUP(A76,EQUIP!M31:S33,7,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D76" s="497"/>
+      <c r="D76" s="493"/>
     </row>
     <row r="77" spans="1:8" ht="15" thickBot="1">
       <c r="A77" s="117"/>
@@ -15659,18 +15659,18 @@
         <f>IF(A78="No Heater",0,1)</f>
         <v>0</v>
       </c>
-      <c r="C78" s="516">
+      <c r="C78" s="492">
         <f>VLOOKUP(A78,EQUIP!M36:S39,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D78" s="497"/>
-      <c r="E78" s="494" t="str">
+      <c r="D78" s="493"/>
+      <c r="E78" s="526" t="str">
         <f>IF(A78="Jandy 260K BTU - JXI Heater", "CANNOT BE USED TO HEAT A SPA","")</f>
         <v/>
       </c>
-      <c r="F78" s="495"/>
-      <c r="G78" s="495"/>
-      <c r="H78" s="495"/>
+      <c r="F78" s="527"/>
+      <c r="G78" s="527"/>
+      <c r="H78" s="527"/>
     </row>
     <row r="79" spans="1:8" ht="15" thickBot="1">
       <c r="A79" s="432" t="s">
@@ -15679,11 +15679,11 @@
       <c r="B79" s="194">
         <v>0</v>
       </c>
-      <c r="C79" s="516">
+      <c r="C79" s="492">
         <f>B79*EQUIP!R39</f>
         <v>0</v>
       </c>
-      <c r="D79" s="497"/>
+      <c r="D79" s="493"/>
     </row>
     <row r="80" spans="1:8" ht="15" thickBot="1">
       <c r="A80" s="117"/>
@@ -15696,11 +15696,11 @@
       <c r="B81" s="118">
         <v>0</v>
       </c>
-      <c r="C81" s="497" t="e">
+      <c r="C81" s="493" t="e">
         <f>(VLOOKUP(A81,EQUIP!M42:R46,6,FALSE))*B81</f>
         <v>#N/A</v>
       </c>
-      <c r="D81" s="499"/>
+      <c r="D81" s="500"/>
     </row>
     <row r="82" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="B82" s="152"/>
@@ -15713,11 +15713,11 @@
         <f>IF(C83&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C83" s="497">
+      <c r="C83" s="493">
         <f>VLOOKUP(A83,EQUIP!M49:S57,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D83" s="499"/>
+      <c r="D83" s="500"/>
       <c r="E83" s="226">
         <f>IF(C83=1280,1,0)</f>
         <v>0</v>
@@ -15743,11 +15743,11 @@
         <f>IF(C84&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C84" s="497">
+      <c r="C84" s="493">
         <f>VLOOKUP(A84,EQUIP!M49:S57,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D84" s="499"/>
+      <c r="D84" s="500"/>
       <c r="E84" s="226">
         <f>IF(C84=1280,1,0)</f>
         <v>0</v>
@@ -15773,11 +15773,11 @@
         <f>IF(C85&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C85" s="497">
+      <c r="C85" s="493">
         <f>VLOOKUP(A85,EQUIP!M49:S57,6,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D85" s="499"/>
+      <c r="D85" s="500"/>
       <c r="E85" s="226">
         <f>IF(C85=1280,1,0)</f>
         <v>0</v>
@@ -15809,11 +15809,11 @@
         <f>IF(C87&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C87" s="515">
+      <c r="C87" s="494">
         <f>VLOOKUP(A87,EQUIP!M63:S72,7,FALSE)*1.2</f>
         <v>0</v>
       </c>
-      <c r="D87" s="497"/>
+      <c r="D87" s="493"/>
     </row>
     <row r="88" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="B88" s="152"/>
@@ -15826,11 +15826,11 @@
         <f>IF(A89=EQUIP!M105,0,1)</f>
         <v>0</v>
       </c>
-      <c r="C89" s="516">
+      <c r="C89" s="492">
         <f>VLOOKUP(A89,EQUIP!M105:S107,7,FALSE)+(ELEC!E15)</f>
         <v>0</v>
       </c>
-      <c r="D89" s="497"/>
+      <c r="D89" s="493"/>
     </row>
     <row r="90" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A90" s="117" t="s">
@@ -15839,21 +15839,21 @@
       <c r="B90" s="194">
         <v>0</v>
       </c>
-      <c r="C90" s="517" t="s">
+      <c r="C90" s="524" t="s">
         <v>468</v>
       </c>
-      <c r="D90" s="518"/>
+      <c r="D90" s="525"/>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1">
       <c r="B91" s="152"/>
     </row>
     <row r="92" spans="1:8" ht="18" thickBot="1">
-      <c r="A92" s="490" t="s">
+      <c r="A92" s="497" t="s">
         <v>713</v>
       </c>
-      <c r="B92" s="491"/>
-      <c r="C92" s="491"/>
-      <c r="D92" s="492"/>
+      <c r="B92" s="498"/>
+      <c r="C92" s="498"/>
+      <c r="D92" s="499"/>
     </row>
     <row r="93" spans="1:8" ht="15" thickBot="1">
       <c r="B93" s="152"/>
@@ -15867,11 +15867,11 @@
         <f>IF(C94&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C94" s="497">
+      <c r="C94" s="493">
         <f>CUSTOM!G3</f>
         <v>1052.2285714285715</v>
       </c>
-      <c r="D94" s="499"/>
+      <c r="D94" s="500"/>
       <c r="E94" t="s">
         <v>783</v>
       </c>
@@ -15888,11 +15888,11 @@
         <f>IF(C96&gt;0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="C96" s="497">
+      <c r="C96" s="493">
         <f>CUSTOM!G5</f>
         <v>8914.2857142857156</v>
       </c>
-      <c r="D96" s="499"/>
+      <c r="D96" s="500"/>
       <c r="E96" t="s">
         <v>783</v>
       </c>
@@ -15912,11 +15912,11 @@
         <f>IF(C98&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C98" s="497">
+      <c r="C98" s="493">
         <f>CUSTOM!G7</f>
         <v>0</v>
       </c>
-      <c r="D98" s="499"/>
+      <c r="D98" s="500"/>
       <c r="E98" t="s">
         <v>783</v>
       </c>
@@ -15936,11 +15936,11 @@
         <f>IF(C100&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C100" s="497">
+      <c r="C100" s="493">
         <f>CUSTOM!G9</f>
         <v>0</v>
       </c>
-      <c r="D100" s="499"/>
+      <c r="D100" s="500"/>
       <c r="E100" t="s">
         <v>783</v>
       </c>
@@ -15960,11 +15960,11 @@
         <f>IF(C102&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C102" s="497">
+      <c r="C102" s="493">
         <f>CUSTOM!G11</f>
         <v>0</v>
       </c>
-      <c r="D102" s="499"/>
+      <c r="D102" s="500"/>
       <c r="E102" t="s">
         <v>783</v>
       </c>
@@ -15981,11 +15981,11 @@
         <f>IF(C104&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C104" s="497">
+      <c r="C104" s="493">
         <f>CUSTOM!G13</f>
         <v>0</v>
       </c>
-      <c r="D104" s="499"/>
+      <c r="D104" s="500"/>
       <c r="E104" t="s">
         <v>783</v>
       </c>
@@ -16005,11 +16005,11 @@
         <f>IF(C106&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C106" s="497">
+      <c r="C106" s="493">
         <f>CUSTOM!G15</f>
         <v>0</v>
       </c>
-      <c r="D106" s="499"/>
+      <c r="D106" s="500"/>
       <c r="E106" t="s">
         <v>783</v>
       </c>
@@ -16029,11 +16029,11 @@
         <f>IF(C108&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="C108" s="497">
+      <c r="C108" s="493">
         <f>CUSTOM!G17</f>
         <v>0</v>
       </c>
-      <c r="D108" s="499"/>
+      <c r="D108" s="500"/>
       <c r="E108" t="s">
         <v>783</v>
       </c>
@@ -16042,12 +16042,12 @@
       <c r="B109" s="152"/>
     </row>
     <row r="110" spans="1:5" ht="18" thickBot="1">
-      <c r="A110" s="490" t="s">
+      <c r="A110" s="497" t="s">
         <v>658</v>
       </c>
-      <c r="B110" s="491"/>
-      <c r="C110" s="491"/>
-      <c r="D110" s="492"/>
+      <c r="B110" s="498"/>
+      <c r="C110" s="498"/>
+      <c r="D110" s="499"/>
     </row>
     <row r="111" spans="1:5" ht="15" customHeight="1" thickBot="1">
       <c r="A111" s="163"/>
@@ -16068,12 +16068,12 @@
     </row>
     <row r="113" spans="1:15" ht="15" thickBot="1"/>
     <row r="114" spans="1:15" ht="18" thickBot="1">
-      <c r="A114" s="490" t="s">
+      <c r="A114" s="497" t="s">
         <v>572</v>
       </c>
-      <c r="B114" s="491"/>
-      <c r="C114" s="491"/>
-      <c r="D114" s="492"/>
+      <c r="B114" s="498"/>
+      <c r="C114" s="498"/>
+      <c r="D114" s="499"/>
     </row>
     <row r="115" spans="1:15" ht="15" thickBot="1"/>
     <row r="116" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
@@ -16083,19 +16083,19 @@
       <c r="B116" s="194">
         <v>1</v>
       </c>
-      <c r="E116" s="498" t="str">
+      <c r="E116" s="529" t="str">
         <f>VLOOKUP(A116,INT!A6:R18,18,FALSE)</f>
         <v>Ivory / Blue / French Grey / Super Blue / Mariner Blue / Tropical Blue / Sky Blue</v>
       </c>
-      <c r="F116" s="498"/>
-      <c r="G116" s="498"/>
-      <c r="H116" s="498"/>
-      <c r="I116" s="498"/>
-      <c r="J116" s="498"/>
-      <c r="K116" s="498"/>
-      <c r="L116" s="498"/>
-      <c r="M116" s="498"/>
-      <c r="N116" s="498"/>
+      <c r="F116" s="529"/>
+      <c r="G116" s="529"/>
+      <c r="H116" s="529"/>
+      <c r="I116" s="529"/>
+      <c r="J116" s="529"/>
+      <c r="K116" s="529"/>
+      <c r="L116" s="529"/>
+      <c r="M116" s="529"/>
+      <c r="N116" s="529"/>
       <c r="O116" s="437"/>
     </row>
     <row r="117" spans="1:15" ht="15" thickBot="1">
@@ -16119,24 +16119,24 @@
       <c r="B118" s="427">
         <v>0</v>
       </c>
-      <c r="C118" s="497">
+      <c r="C118" s="493">
         <f>'COST - NEW'!E299</f>
         <v>1155</v>
       </c>
-      <c r="D118" s="499"/>
-      <c r="E118" s="521" t="s">
+      <c r="D118" s="500"/>
+      <c r="E118" s="503" t="s">
         <v>914</v>
       </c>
-      <c r="F118" s="521"/>
-      <c r="G118" s="521"/>
-      <c r="H118" s="521"/>
-      <c r="I118" s="521"/>
-      <c r="J118" s="521"/>
-      <c r="K118" s="521"/>
-      <c r="L118" s="521"/>
-      <c r="M118" s="521"/>
-      <c r="N118" s="521"/>
-      <c r="O118" s="521"/>
+      <c r="F118" s="503"/>
+      <c r="G118" s="503"/>
+      <c r="H118" s="503"/>
+      <c r="I118" s="503"/>
+      <c r="J118" s="503"/>
+      <c r="K118" s="503"/>
+      <c r="L118" s="503"/>
+      <c r="M118" s="503"/>
+      <c r="N118" s="503"/>
+      <c r="O118" s="503"/>
     </row>
     <row r="119" spans="1:15" ht="15" thickBot="1">
       <c r="B119" s="152"/>
@@ -16187,42 +16187,42 @@
       <c r="O121" s="404"/>
     </row>
     <row r="122" spans="1:15" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A122" s="519" t="s">
+      <c r="A122" s="501" t="s">
         <v>637</v>
       </c>
-      <c r="B122" s="520"/>
-      <c r="C122" s="531">
+      <c r="B122" s="502"/>
+      <c r="C122" s="495">
         <f>'COST - REMODEL'!D337</f>
         <v>48111.687484285714</v>
       </c>
-      <c r="D122" s="532"/>
+      <c r="D122" s="496"/>
     </row>
     <row r="123" spans="1:15" ht="15" thickBot="1"/>
     <row r="124" spans="1:15" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A124" s="529"/>
-      <c r="B124" s="530"/>
-      <c r="C124" s="527">
-        <v>0</v>
-      </c>
-      <c r="D124" s="528"/>
+      <c r="A124" s="509"/>
+      <c r="B124" s="510"/>
+      <c r="C124" s="490">
+        <v>0</v>
+      </c>
+      <c r="D124" s="491"/>
     </row>
     <row r="125" spans="1:15" ht="15" thickBot="1"/>
     <row r="126" spans="1:15" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A126" s="529"/>
-      <c r="B126" s="530"/>
-      <c r="C126" s="527">
-        <v>0</v>
-      </c>
-      <c r="D126" s="528"/>
+      <c r="A126" s="509"/>
+      <c r="B126" s="510"/>
+      <c r="C126" s="490">
+        <v>0</v>
+      </c>
+      <c r="D126" s="491"/>
     </row>
     <row r="127" spans="1:15" ht="15" thickBot="1"/>
     <row r="128" spans="1:15" ht="18.899999999999999" customHeight="1" thickBot="1">
-      <c r="A128" s="529"/>
-      <c r="B128" s="530"/>
-      <c r="C128" s="527">
-        <v>0</v>
-      </c>
-      <c r="D128" s="528"/>
+      <c r="A128" s="509"/>
+      <c r="B128" s="510"/>
+      <c r="C128" s="490">
+        <v>0</v>
+      </c>
+      <c r="D128" s="491"/>
     </row>
     <row r="129" spans="1:4" ht="15" thickBot="1"/>
     <row r="130" spans="1:4" ht="18.600000000000001" thickBot="1">
@@ -16233,46 +16233,14 @@
         <f>'COST - REMODEL'!E344*10</f>
         <v>2.1750000000000007</v>
       </c>
-      <c r="C130" s="525">
+      <c r="C130" s="507">
         <f>SUM(C122:D129)</f>
         <v>48111.687484285714</v>
       </c>
-      <c r="D130" s="526"/>
+      <c r="D130" s="508"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E52:K52"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:H78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E118:O118"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="E116:N116"/>
     <mergeCell ref="C130:D130"/>
     <mergeCell ref="A92:D92"/>
     <mergeCell ref="C84:D84"/>
@@ -16289,6 +16257,38 @@
     <mergeCell ref="C87:D87"/>
     <mergeCell ref="C89:D89"/>
     <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E118:O118"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="E116:N116"/>
+    <mergeCell ref="E52:K52"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:H78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <conditionalFormatting sqref="B78">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
@@ -21019,6 +21019,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A308:D308"/>
+    <mergeCell ref="A316:D316"/>
+    <mergeCell ref="A323:D323"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A259:D259"/>
+    <mergeCell ref="A268:D268"/>
+    <mergeCell ref="A275:D275"/>
+    <mergeCell ref="A288:D288"/>
+    <mergeCell ref="A294:D294"/>
     <mergeCell ref="A214:D214"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A11:D11"/>
@@ -21032,15 +21041,6 @@
     <mergeCell ref="A154:D154"/>
     <mergeCell ref="A181:D181"/>
     <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A308:D308"/>
-    <mergeCell ref="A316:D316"/>
-    <mergeCell ref="A323:D323"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A259:D259"/>
-    <mergeCell ref="A268:D268"/>
-    <mergeCell ref="A275:D275"/>
-    <mergeCell ref="A288:D288"/>
-    <mergeCell ref="A294:D294"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21890,7 +21890,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="62" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="68" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25180,7 +25180,7 @@
       </c>
       <c r="Q67" s="221"/>
       <c r="R67" s="44">
-        <f t="shared" ref="R66:R72" si="20">($N$61+N67+O67+P67+Q67)</f>
+        <f t="shared" ref="R67:R72" si="20">($N$61+N67+O67+P67+Q67)</f>
         <v>3722</v>
       </c>
       <c r="S67" s="202">
@@ -35524,47 +35524,47 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="80"/>
-      <c r="B1" s="603">
+      <c r="B1" s="540">
         <v>2025</v>
       </c>
-      <c r="C1" s="603"/>
-      <c r="D1" s="603"/>
-      <c r="E1" s="603"/>
-      <c r="F1" s="604" t="s">
+      <c r="C1" s="540"/>
+      <c r="D1" s="540"/>
+      <c r="E1" s="540"/>
+      <c r="F1" s="546" t="s">
         <v>361</v>
       </c>
-      <c r="G1" s="604"/>
+      <c r="G1" s="546"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="80"/>
-      <c r="B2" s="603"/>
-      <c r="C2" s="603"/>
-      <c r="D2" s="603"/>
-      <c r="E2" s="603"/>
-      <c r="F2" s="586" t="s">
+      <c r="B2" s="540"/>
+      <c r="C2" s="540"/>
+      <c r="D2" s="540"/>
+      <c r="E2" s="540"/>
+      <c r="F2" s="550" t="s">
         <v>432</v>
       </c>
-      <c r="G2" s="586"/>
+      <c r="G2" s="550"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="80"/>
-      <c r="B3" s="603"/>
-      <c r="C3" s="603"/>
-      <c r="D3" s="603"/>
-      <c r="E3" s="603"/>
-      <c r="F3" s="586"/>
-      <c r="G3" s="586"/>
+      <c r="B3" s="540"/>
+      <c r="C3" s="540"/>
+      <c r="D3" s="540"/>
+      <c r="E3" s="540"/>
+      <c r="F3" s="550"/>
+      <c r="G3" s="550"/>
     </row>
     <row r="4" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A4" s="80"/>
-      <c r="B4" s="533"/>
-      <c r="C4" s="533"/>
-      <c r="D4" s="533"/>
-      <c r="E4" s="533"/>
-      <c r="F4" s="595" t="s">
+      <c r="B4" s="580"/>
+      <c r="C4" s="580"/>
+      <c r="D4" s="580"/>
+      <c r="E4" s="580"/>
+      <c r="F4" s="547" t="s">
         <v>1100</v>
       </c>
-      <c r="G4" s="595"/>
+      <c r="G4" s="547"/>
     </row>
     <row r="5" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="80"/>
@@ -35572,52 +35572,52 @@
       <c r="C5" s="355"/>
       <c r="D5" s="355"/>
       <c r="E5" s="355"/>
-      <c r="F5" s="595" t="s">
+      <c r="F5" s="547" t="s">
         <v>1101</v>
       </c>
-      <c r="G5" s="595"/>
+      <c r="G5" s="547"/>
     </row>
     <row r="6" spans="1:7" ht="18.600000000000001" customHeight="1">
       <c r="A6" s="80"/>
-      <c r="B6" s="534" t="s">
+      <c r="B6" s="581" t="s">
         <v>799</v>
       </c>
-      <c r="C6" s="534"/>
-      <c r="D6" s="534"/>
-      <c r="E6" s="534"/>
-      <c r="F6" s="609" t="s">
+      <c r="C6" s="581"/>
+      <c r="D6" s="581"/>
+      <c r="E6" s="581"/>
+      <c r="F6" s="548" t="s">
         <v>1102</v>
       </c>
-      <c r="G6" s="610"/>
+      <c r="G6" s="549"/>
     </row>
     <row r="7" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A7" s="559" t="s">
+      <c r="A7" s="609" t="s">
         <v>719</v>
       </c>
-      <c r="B7" s="573" t="str">
+      <c r="B7" s="599" t="str">
         <f>'NEW POOL'!B3</f>
         <v>Ashley Drennen</v>
       </c>
-      <c r="C7" s="573"/>
-      <c r="D7" s="573"/>
-      <c r="E7" s="573"/>
-      <c r="F7" s="543">
+      <c r="C7" s="599"/>
+      <c r="D7" s="599"/>
+      <c r="E7" s="599"/>
+      <c r="F7" s="605">
         <f ca="1">TODAY()</f>
-        <v>46000</v>
-      </c>
-      <c r="G7" s="544"/>
+        <v>46049</v>
+      </c>
+      <c r="G7" s="606"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A8" s="560"/>
-      <c r="B8" s="573" t="str">
+      <c r="A8" s="610"/>
+      <c r="B8" s="599" t="str">
         <f>'NEW POOL'!B4</f>
         <v>Ft mill</v>
       </c>
-      <c r="C8" s="573"/>
-      <c r="D8" s="573"/>
-      <c r="E8" s="573"/>
-      <c r="F8" s="545"/>
-      <c r="G8" s="546"/>
+      <c r="C8" s="599"/>
+      <c r="D8" s="599"/>
+      <c r="E8" s="599"/>
+      <c r="F8" s="607"/>
+      <c r="G8" s="608"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="68"/>
@@ -35643,10 +35643,10 @@
       <c r="E10" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="565" t="s">
+      <c r="F10" s="602" t="s">
         <v>365</v>
       </c>
-      <c r="G10" s="566"/>
+      <c r="G10" s="603"/>
     </row>
     <row r="11" spans="1:7" ht="22.5" customHeight="1">
       <c r="A11" s="246" t="s">
@@ -35668,8 +35668,8 @@
         <f>'NEW POOL'!B10</f>
         <v>6</v>
       </c>
-      <c r="F11" s="557"/>
-      <c r="G11" s="557"/>
+      <c r="F11" s="533"/>
+      <c r="G11" s="533"/>
     </row>
     <row r="12" spans="1:7" ht="22.5" customHeight="1">
       <c r="A12" s="246" t="s">
@@ -35690,50 +35690,50 @@
       <c r="E12" s="173">
         <v>0</v>
       </c>
-      <c r="F12" s="557" t="str">
+      <c r="F12" s="533" t="str">
         <f>IF(C12=0,"No Spa","Split Bench for Customized Therapy")</f>
         <v>Split Bench for Customized Therapy</v>
       </c>
-      <c r="G12" s="557"/>
+      <c r="G12" s="533"/>
     </row>
     <row r="13" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A13" s="540" t="str">
+      <c r="A13" s="554" t="str">
         <f>IF(I43=1,"Shell:","Notes:")</f>
         <v>Notes:</v>
       </c>
-      <c r="B13" s="540" t="str">
+      <c r="B13" s="554" t="str">
         <f>IF('NEW POOL'!A21="Fiberglass - Small","",'NEW POOL'!A21)</f>
         <v/>
       </c>
-      <c r="C13" s="541"/>
-      <c r="D13" s="541"/>
-      <c r="E13" s="541"/>
-      <c r="F13" s="541"/>
-      <c r="G13" s="542"/>
+      <c r="C13" s="555"/>
+      <c r="D13" s="555"/>
+      <c r="E13" s="555"/>
+      <c r="F13" s="555"/>
+      <c r="G13" s="556"/>
     </row>
     <row r="14" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A14" s="550"/>
-      <c r="B14" s="540" t="str">
+      <c r="A14" s="584"/>
+      <c r="B14" s="554" t="str">
         <f>IF('NEW POOL'!A22="Fiberglass - Medium","",'NEW POOL'!A22)</f>
         <v/>
       </c>
-      <c r="C14" s="541"/>
-      <c r="D14" s="541"/>
-      <c r="E14" s="541"/>
-      <c r="F14" s="541"/>
-      <c r="G14" s="542"/>
+      <c r="C14" s="555"/>
+      <c r="D14" s="555"/>
+      <c r="E14" s="555"/>
+      <c r="F14" s="555"/>
+      <c r="G14" s="556"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="551"/>
-      <c r="B15" s="538" t="str">
+      <c r="A15" s="557"/>
+      <c r="B15" s="552" t="str">
         <f>IF('NEW POOL'!A23="Fiberglass - Large","",'NEW POOL'!A23)</f>
         <v/>
       </c>
-      <c r="C15" s="570"/>
-      <c r="D15" s="570"/>
-      <c r="E15" s="570"/>
-      <c r="F15" s="570"/>
-      <c r="G15" s="539"/>
+      <c r="C15" s="604"/>
+      <c r="D15" s="604"/>
+      <c r="E15" s="604"/>
+      <c r="F15" s="604"/>
+      <c r="G15" s="553"/>
     </row>
     <row r="16" spans="1:7" ht="17.399999999999999">
       <c r="A16" s="69"/>
@@ -35744,61 +35744,61 @@
       <c r="F16" s="69"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A17" s="552" t="s">
+      <c r="A17" s="543" t="s">
         <v>367</v>
       </c>
-      <c r="B17" s="553"/>
-      <c r="C17" s="553"/>
-      <c r="D17" s="553"/>
-      <c r="E17" s="554"/>
-      <c r="F17" s="558" t="s">
+      <c r="B17" s="544"/>
+      <c r="C17" s="544"/>
+      <c r="D17" s="544"/>
+      <c r="E17" s="545"/>
+      <c r="F17" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G17" s="558"/>
+      <c r="G17" s="551"/>
     </row>
     <row r="18" spans="1:7" ht="33" customHeight="1">
-      <c r="A18" s="547" t="s">
+      <c r="A18" s="534" t="s">
         <v>368</v>
       </c>
-      <c r="B18" s="548"/>
-      <c r="C18" s="548"/>
-      <c r="D18" s="548"/>
-      <c r="E18" s="549"/>
-      <c r="F18" s="557"/>
-      <c r="G18" s="557"/>
+      <c r="B18" s="535"/>
+      <c r="C18" s="535"/>
+      <c r="D18" s="535"/>
+      <c r="E18" s="536"/>
+      <c r="F18" s="533"/>
+      <c r="G18" s="533"/>
     </row>
     <row r="19" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A19" s="547" t="s">
+      <c r="A19" s="534" t="s">
         <v>369</v>
       </c>
-      <c r="B19" s="555"/>
-      <c r="C19" s="555"/>
-      <c r="D19" s="555"/>
-      <c r="E19" s="556"/>
-      <c r="F19" s="557" t="s">
+      <c r="B19" s="541"/>
+      <c r="C19" s="541"/>
+      <c r="D19" s="541"/>
+      <c r="E19" s="542"/>
+      <c r="F19" s="533" t="s">
         <v>370</v>
       </c>
-      <c r="G19" s="557"/>
+      <c r="G19" s="533"/>
     </row>
     <row r="20" spans="1:7" ht="15.6" customHeight="1">
       <c r="A20" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B20" s="540"/>
-      <c r="C20" s="541"/>
-      <c r="D20" s="541"/>
-      <c r="E20" s="541"/>
-      <c r="F20" s="541"/>
-      <c r="G20" s="542"/>
+      <c r="B20" s="554"/>
+      <c r="C20" s="555"/>
+      <c r="D20" s="555"/>
+      <c r="E20" s="555"/>
+      <c r="F20" s="555"/>
+      <c r="G20" s="556"/>
     </row>
     <row r="21" spans="1:7" ht="15.6" customHeight="1">
       <c r="A21" s="564"/>
-      <c r="B21" s="567"/>
-      <c r="C21" s="568"/>
-      <c r="D21" s="568"/>
-      <c r="E21" s="568"/>
-      <c r="F21" s="568"/>
-      <c r="G21" s="569"/>
+      <c r="B21" s="565"/>
+      <c r="C21" s="566"/>
+      <c r="D21" s="566"/>
+      <c r="E21" s="566"/>
+      <c r="F21" s="566"/>
+      <c r="G21" s="567"/>
     </row>
     <row r="22" spans="1:7" ht="15.6" customHeight="1">
       <c r="A22" s="68"/>
@@ -35809,140 +35809,140 @@
       <c r="F22" s="68"/>
     </row>
     <row r="23" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A23" s="552" t="s">
+      <c r="A23" s="543" t="s">
         <v>371</v>
       </c>
-      <c r="B23" s="553"/>
-      <c r="C23" s="553"/>
-      <c r="D23" s="553"/>
-      <c r="E23" s="554"/>
-      <c r="F23" s="558" t="s">
+      <c r="B23" s="544"/>
+      <c r="C23" s="544"/>
+      <c r="D23" s="544"/>
+      <c r="E23" s="545"/>
+      <c r="F23" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G23" s="558"/>
+      <c r="G23" s="551"/>
     </row>
     <row r="24" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A24" s="547" t="s">
+      <c r="A24" s="534" t="s">
         <v>372</v>
       </c>
-      <c r="B24" s="548"/>
-      <c r="C24" s="548"/>
-      <c r="D24" s="548"/>
-      <c r="E24" s="549"/>
-      <c r="F24" s="557" t="s">
+      <c r="B24" s="535"/>
+      <c r="C24" s="535"/>
+      <c r="D24" s="535"/>
+      <c r="E24" s="536"/>
+      <c r="F24" s="533" t="s">
         <v>439</v>
       </c>
-      <c r="G24" s="557"/>
+      <c r="G24" s="533"/>
     </row>
     <row r="25" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A25" s="547" t="s">
+      <c r="A25" s="534" t="s">
         <v>373</v>
       </c>
-      <c r="B25" s="548"/>
-      <c r="C25" s="548"/>
-      <c r="D25" s="548"/>
-      <c r="E25" s="549"/>
-      <c r="F25" s="557" t="s">
+      <c r="B25" s="535"/>
+      <c r="C25" s="535"/>
+      <c r="D25" s="535"/>
+      <c r="E25" s="536"/>
+      <c r="F25" s="533" t="s">
         <v>374</v>
       </c>
-      <c r="G25" s="557"/>
+      <c r="G25" s="533"/>
     </row>
     <row r="26" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A26" s="547" t="s">
+      <c r="A26" s="534" t="s">
         <v>375</v>
       </c>
-      <c r="B26" s="548"/>
-      <c r="C26" s="548"/>
-      <c r="D26" s="548"/>
-      <c r="E26" s="549"/>
-      <c r="F26" s="557"/>
-      <c r="G26" s="557"/>
+      <c r="B26" s="535"/>
+      <c r="C26" s="535"/>
+      <c r="D26" s="535"/>
+      <c r="E26" s="536"/>
+      <c r="F26" s="533"/>
+      <c r="G26" s="533"/>
     </row>
     <row r="27" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A27" s="547" t="s">
+      <c r="A27" s="534" t="s">
         <v>376</v>
       </c>
-      <c r="B27" s="548"/>
-      <c r="C27" s="548"/>
-      <c r="D27" s="548"/>
-      <c r="E27" s="549"/>
-      <c r="F27" s="557"/>
-      <c r="G27" s="557"/>
+      <c r="B27" s="535"/>
+      <c r="C27" s="535"/>
+      <c r="D27" s="535"/>
+      <c r="E27" s="536"/>
+      <c r="F27" s="533"/>
+      <c r="G27" s="533"/>
     </row>
     <row r="28" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A28" s="547" t="s">
+      <c r="A28" s="534" t="s">
         <v>377</v>
       </c>
-      <c r="B28" s="548"/>
-      <c r="C28" s="548"/>
-      <c r="D28" s="548"/>
-      <c r="E28" s="549"/>
-      <c r="F28" s="557"/>
-      <c r="G28" s="557"/>
+      <c r="B28" s="535"/>
+      <c r="C28" s="535"/>
+      <c r="D28" s="535"/>
+      <c r="E28" s="536"/>
+      <c r="F28" s="533"/>
+      <c r="G28" s="533"/>
     </row>
     <row r="29" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A29" s="547" t="s">
+      <c r="A29" s="534" t="s">
         <v>378</v>
       </c>
-      <c r="B29" s="548"/>
-      <c r="C29" s="548"/>
-      <c r="D29" s="548"/>
-      <c r="E29" s="549"/>
-      <c r="F29" s="557"/>
-      <c r="G29" s="557"/>
+      <c r="B29" s="535"/>
+      <c r="C29" s="535"/>
+      <c r="D29" s="535"/>
+      <c r="E29" s="536"/>
+      <c r="F29" s="533"/>
+      <c r="G29" s="533"/>
     </row>
     <row r="30" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A30" s="547" t="s">
+      <c r="A30" s="534" t="s">
         <v>379</v>
       </c>
-      <c r="B30" s="548"/>
-      <c r="C30" s="548"/>
-      <c r="D30" s="548"/>
-      <c r="E30" s="549"/>
-      <c r="F30" s="557"/>
-      <c r="G30" s="557"/>
+      <c r="B30" s="535"/>
+      <c r="C30" s="535"/>
+      <c r="D30" s="535"/>
+      <c r="E30" s="536"/>
+      <c r="F30" s="533"/>
+      <c r="G30" s="533"/>
     </row>
     <row r="31" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A31" s="547" t="s">
+      <c r="A31" s="534" t="s">
         <v>380</v>
       </c>
-      <c r="B31" s="548"/>
-      <c r="C31" s="548"/>
-      <c r="D31" s="548"/>
-      <c r="E31" s="549"/>
-      <c r="F31" s="557"/>
-      <c r="G31" s="557"/>
+      <c r="B31" s="535"/>
+      <c r="C31" s="535"/>
+      <c r="D31" s="535"/>
+      <c r="E31" s="536"/>
+      <c r="F31" s="533"/>
+      <c r="G31" s="533"/>
     </row>
     <row r="32" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A32" s="547" t="s">
+      <c r="A32" s="534" t="s">
         <v>381</v>
       </c>
-      <c r="B32" s="555"/>
-      <c r="C32" s="555"/>
-      <c r="D32" s="555"/>
-      <c r="E32" s="556"/>
-      <c r="F32" s="557"/>
-      <c r="G32" s="557"/>
+      <c r="B32" s="541"/>
+      <c r="C32" s="541"/>
+      <c r="D32" s="541"/>
+      <c r="E32" s="542"/>
+      <c r="F32" s="533"/>
+      <c r="G32" s="533"/>
     </row>
     <row r="33" spans="1:9" ht="15.6" customHeight="1">
       <c r="A33" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B33" s="540"/>
-      <c r="C33" s="541"/>
-      <c r="D33" s="541"/>
-      <c r="E33" s="541"/>
-      <c r="F33" s="541"/>
-      <c r="G33" s="542"/>
+      <c r="B33" s="554"/>
+      <c r="C33" s="555"/>
+      <c r="D33" s="555"/>
+      <c r="E33" s="555"/>
+      <c r="F33" s="555"/>
+      <c r="G33" s="556"/>
     </row>
     <row r="34" spans="1:9" ht="15.6" customHeight="1">
       <c r="A34" s="564"/>
-      <c r="B34" s="567"/>
-      <c r="C34" s="568"/>
-      <c r="D34" s="568"/>
-      <c r="E34" s="568"/>
-      <c r="F34" s="568"/>
-      <c r="G34" s="569"/>
+      <c r="B34" s="565"/>
+      <c r="C34" s="566"/>
+      <c r="D34" s="566"/>
+      <c r="E34" s="566"/>
+      <c r="F34" s="566"/>
+      <c r="G34" s="567"/>
     </row>
     <row r="35" spans="1:9" ht="15.6" customHeight="1">
       <c r="A35" s="68"/>
@@ -35953,1019 +35953,1019 @@
       <c r="F35" s="68"/>
     </row>
     <row r="36" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A36" s="552" t="s">
+      <c r="A36" s="543" t="s">
         <v>382</v>
       </c>
-      <c r="B36" s="553"/>
-      <c r="C36" s="553"/>
-      <c r="D36" s="553"/>
-      <c r="E36" s="554"/>
-      <c r="F36" s="558" t="s">
+      <c r="B36" s="544"/>
+      <c r="C36" s="544"/>
+      <c r="D36" s="544"/>
+      <c r="E36" s="545"/>
+      <c r="F36" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G36" s="558"/>
+      <c r="G36" s="551"/>
     </row>
     <row r="37" spans="1:9" ht="21" customHeight="1">
-      <c r="A37" s="547" t="s">
+      <c r="A37" s="534" t="s">
         <v>383</v>
       </c>
-      <c r="B37" s="548"/>
-      <c r="C37" s="548"/>
-      <c r="D37" s="548"/>
-      <c r="E37" s="549"/>
-      <c r="F37" s="557" t="s">
+      <c r="B37" s="535"/>
+      <c r="C37" s="535"/>
+      <c r="D37" s="535"/>
+      <c r="E37" s="536"/>
+      <c r="F37" s="533" t="s">
         <v>384</v>
       </c>
-      <c r="G37" s="557"/>
+      <c r="G37" s="533"/>
     </row>
     <row r="38" spans="1:9" ht="21" customHeight="1">
-      <c r="A38" s="547" t="s">
+      <c r="A38" s="534" t="s">
         <v>385</v>
       </c>
-      <c r="B38" s="548"/>
-      <c r="C38" s="548"/>
-      <c r="D38" s="548"/>
-      <c r="E38" s="549"/>
-      <c r="F38" s="557" t="s">
+      <c r="B38" s="535"/>
+      <c r="C38" s="535"/>
+      <c r="D38" s="535"/>
+      <c r="E38" s="536"/>
+      <c r="F38" s="533" t="s">
         <v>386</v>
       </c>
-      <c r="G38" s="557"/>
+      <c r="G38" s="533"/>
     </row>
     <row r="39" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A39" s="547"/>
-      <c r="B39" s="555"/>
-      <c r="C39" s="555"/>
-      <c r="D39" s="555"/>
-      <c r="E39" s="556"/>
-      <c r="F39" s="557"/>
-      <c r="G39" s="557"/>
+      <c r="A39" s="534"/>
+      <c r="B39" s="541"/>
+      <c r="C39" s="541"/>
+      <c r="D39" s="541"/>
+      <c r="E39" s="542"/>
+      <c r="F39" s="533"/>
+      <c r="G39" s="533"/>
     </row>
     <row r="40" spans="1:9" ht="15.6" customHeight="1">
       <c r="A40" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B40" s="557"/>
-      <c r="C40" s="557"/>
-      <c r="D40" s="557"/>
-      <c r="E40" s="557"/>
-      <c r="F40" s="557"/>
-      <c r="G40" s="557"/>
+      <c r="B40" s="533"/>
+      <c r="C40" s="533"/>
+      <c r="D40" s="533"/>
+      <c r="E40" s="533"/>
+      <c r="F40" s="533"/>
+      <c r="G40" s="533"/>
     </row>
     <row r="41" spans="1:9" ht="15.6" customHeight="1">
       <c r="A41" s="564"/>
-      <c r="B41" s="578"/>
-      <c r="C41" s="578"/>
-      <c r="D41" s="578"/>
-      <c r="E41" s="578"/>
-      <c r="F41" s="578"/>
-      <c r="G41" s="578"/>
+      <c r="B41" s="537"/>
+      <c r="C41" s="537"/>
+      <c r="D41" s="537"/>
+      <c r="E41" s="537"/>
+      <c r="F41" s="537"/>
+      <c r="G41" s="537"/>
     </row>
     <row r="42" spans="1:9" ht="15.6" customHeight="1"/>
     <row r="43" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A43" s="552" t="s">
+      <c r="A43" s="543" t="s">
         <v>387</v>
       </c>
-      <c r="B43" s="553"/>
-      <c r="C43" s="553"/>
-      <c r="D43" s="553"/>
-      <c r="E43" s="554"/>
-      <c r="F43" s="576" t="s">
+      <c r="B43" s="544"/>
+      <c r="C43" s="544"/>
+      <c r="D43" s="544"/>
+      <c r="E43" s="545"/>
+      <c r="F43" s="600" t="s">
         <v>365</v>
       </c>
-      <c r="G43" s="577"/>
+      <c r="G43" s="601"/>
       <c r="I43" s="286">
         <f>I76</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="52.5" customHeight="1">
-      <c r="A44" s="547" t="str">
+      <c r="A44" s="534" t="str">
         <f>IF(I43=1,"Fiberglass Shell - No Steel","4 bar bond beam with ½ inch steel; 3/8 inch rebar on 10 inch centers through pool")</f>
         <v>4 bar bond beam with ½ inch steel; 3/8 inch rebar on 10 inch centers through pool</v>
       </c>
-      <c r="B44" s="548"/>
-      <c r="C44" s="548"/>
-      <c r="D44" s="548"/>
-      <c r="E44" s="549"/>
-      <c r="F44" s="538" t="str">
+      <c r="B44" s="535"/>
+      <c r="C44" s="535"/>
+      <c r="D44" s="535"/>
+      <c r="E44" s="536"/>
+      <c r="F44" s="552" t="str">
         <f>IF(I43=1,"","Our bond beam and wall steel schedules are beyond code for protection against expansive soils")</f>
         <v>Our bond beam and wall steel schedules are beyond code for protection against expansive soils</v>
       </c>
-      <c r="G44" s="539"/>
+      <c r="G44" s="553"/>
     </row>
     <row r="45" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A45" s="547" t="str">
+      <c r="A45" s="534" t="str">
         <f>IF(I43=1,"","10 inch on center in transition slope by 20 feet length")</f>
         <v>10 inch on center in transition slope by 20 feet length</v>
       </c>
-      <c r="B45" s="548"/>
-      <c r="C45" s="548"/>
-      <c r="D45" s="548"/>
-      <c r="E45" s="549"/>
-      <c r="F45" s="538" t="str">
+      <c r="B45" s="535"/>
+      <c r="C45" s="535"/>
+      <c r="D45" s="535"/>
+      <c r="E45" s="536"/>
+      <c r="F45" s="552" t="str">
         <f>IF(I43=1,"","Strongest steel schedule in the industry!")</f>
         <v>Strongest steel schedule in the industry!</v>
       </c>
-      <c r="G45" s="539"/>
+      <c r="G45" s="553"/>
     </row>
     <row r="46" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A46" s="547" t="s">
+      <c r="A46" s="534" t="s">
         <v>1099</v>
       </c>
-      <c r="B46" s="548"/>
-      <c r="C46" s="548"/>
-      <c r="D46" s="548"/>
-      <c r="E46" s="549"/>
-      <c r="F46" s="538"/>
-      <c r="G46" s="539"/>
+      <c r="B46" s="535"/>
+      <c r="C46" s="535"/>
+      <c r="D46" s="535"/>
+      <c r="E46" s="536"/>
+      <c r="F46" s="552"/>
+      <c r="G46" s="553"/>
     </row>
     <row r="47" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A47" s="547"/>
-      <c r="B47" s="555"/>
-      <c r="C47" s="555"/>
-      <c r="D47" s="555"/>
-      <c r="E47" s="556"/>
-      <c r="F47" s="538"/>
-      <c r="G47" s="539"/>
+      <c r="A47" s="534"/>
+      <c r="B47" s="541"/>
+      <c r="C47" s="541"/>
+      <c r="D47" s="541"/>
+      <c r="E47" s="542"/>
+      <c r="F47" s="552"/>
+      <c r="G47" s="553"/>
     </row>
     <row r="48" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A48" s="540" t="s">
+      <c r="A48" s="554" t="s">
         <v>366</v>
       </c>
-      <c r="B48" s="540"/>
-      <c r="C48" s="541"/>
-      <c r="D48" s="541"/>
-      <c r="E48" s="541"/>
-      <c r="F48" s="541"/>
-      <c r="G48" s="542"/>
+      <c r="B48" s="554"/>
+      <c r="C48" s="555"/>
+      <c r="D48" s="555"/>
+      <c r="E48" s="555"/>
+      <c r="F48" s="555"/>
+      <c r="G48" s="556"/>
     </row>
     <row r="49" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A49" s="551"/>
-      <c r="B49" s="551"/>
-      <c r="C49" s="605"/>
-      <c r="D49" s="605"/>
-      <c r="E49" s="605"/>
-      <c r="F49" s="605"/>
-      <c r="G49" s="606"/>
+      <c r="A49" s="557"/>
+      <c r="B49" s="557"/>
+      <c r="C49" s="558"/>
+      <c r="D49" s="558"/>
+      <c r="E49" s="558"/>
+      <c r="F49" s="558"/>
+      <c r="G49" s="559"/>
     </row>
     <row r="50" spans="1:7" ht="15.6" customHeight="1"/>
     <row r="51" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A51" s="552" t="s">
+      <c r="A51" s="543" t="s">
         <v>388</v>
       </c>
-      <c r="B51" s="553"/>
-      <c r="C51" s="553"/>
-      <c r="D51" s="553"/>
-      <c r="E51" s="554"/>
-      <c r="F51" s="558" t="s">
+      <c r="B51" s="544"/>
+      <c r="C51" s="544"/>
+      <c r="D51" s="544"/>
+      <c r="E51" s="545"/>
+      <c r="F51" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G51" s="558"/>
+      <c r="G51" s="551"/>
     </row>
     <row r="52" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A52" s="547" t="s">
+      <c r="A52" s="534" t="s">
         <v>389</v>
       </c>
-      <c r="B52" s="548"/>
-      <c r="C52" s="548"/>
-      <c r="D52" s="548"/>
-      <c r="E52" s="549"/>
-      <c r="F52" s="557" t="s">
+      <c r="B52" s="535"/>
+      <c r="C52" s="535"/>
+      <c r="D52" s="535"/>
+      <c r="E52" s="536"/>
+      <c r="F52" s="533" t="s">
         <v>390</v>
       </c>
-      <c r="G52" s="557"/>
+      <c r="G52" s="533"/>
     </row>
     <row r="53" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A53" s="547" t="s">
+      <c r="A53" s="534" t="s">
         <v>391</v>
       </c>
-      <c r="B53" s="548"/>
-      <c r="C53" s="548"/>
-      <c r="D53" s="548"/>
-      <c r="E53" s="549"/>
-      <c r="F53" s="557" t="s">
+      <c r="B53" s="535"/>
+      <c r="C53" s="535"/>
+      <c r="D53" s="535"/>
+      <c r="E53" s="536"/>
+      <c r="F53" s="533" t="s">
         <v>392</v>
       </c>
-      <c r="G53" s="557"/>
+      <c r="G53" s="533"/>
     </row>
     <row r="54" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A54" s="547" t="s">
+      <c r="A54" s="534" t="s">
         <v>393</v>
       </c>
-      <c r="B54" s="548"/>
-      <c r="C54" s="548"/>
-      <c r="D54" s="548"/>
-      <c r="E54" s="549"/>
-      <c r="F54" s="557" t="s">
+      <c r="B54" s="535"/>
+      <c r="C54" s="535"/>
+      <c r="D54" s="535"/>
+      <c r="E54" s="536"/>
+      <c r="F54" s="533" t="s">
         <v>394</v>
       </c>
-      <c r="G54" s="557"/>
+      <c r="G54" s="533"/>
     </row>
     <row r="55" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A55" s="547" t="s">
+      <c r="A55" s="534" t="s">
         <v>395</v>
       </c>
-      <c r="B55" s="548"/>
-      <c r="C55" s="548"/>
-      <c r="D55" s="548"/>
-      <c r="E55" s="549"/>
-      <c r="F55" s="557"/>
-      <c r="G55" s="557"/>
+      <c r="B55" s="535"/>
+      <c r="C55" s="535"/>
+      <c r="D55" s="535"/>
+      <c r="E55" s="536"/>
+      <c r="F55" s="533"/>
+      <c r="G55" s="533"/>
     </row>
     <row r="56" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A56" s="547" t="s">
+      <c r="A56" s="534" t="s">
         <v>434</v>
       </c>
-      <c r="B56" s="548"/>
-      <c r="C56" s="548"/>
-      <c r="D56" s="548"/>
-      <c r="E56" s="549"/>
-      <c r="F56" s="557"/>
-      <c r="G56" s="557"/>
+      <c r="B56" s="535"/>
+      <c r="C56" s="535"/>
+      <c r="D56" s="535"/>
+      <c r="E56" s="536"/>
+      <c r="F56" s="533"/>
+      <c r="G56" s="533"/>
     </row>
     <row r="57" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A57" s="547" t="s">
+      <c r="A57" s="534" t="s">
         <v>396</v>
       </c>
-      <c r="B57" s="548"/>
-      <c r="C57" s="548"/>
-      <c r="D57" s="548"/>
-      <c r="E57" s="549"/>
-      <c r="F57" s="557"/>
-      <c r="G57" s="557"/>
+      <c r="B57" s="535"/>
+      <c r="C57" s="535"/>
+      <c r="D57" s="535"/>
+      <c r="E57" s="536"/>
+      <c r="F57" s="533"/>
+      <c r="G57" s="533"/>
     </row>
     <row r="58" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A58" s="547" t="s">
+      <c r="A58" s="534" t="s">
         <v>397</v>
       </c>
-      <c r="B58" s="548"/>
-      <c r="C58" s="548"/>
-      <c r="D58" s="548"/>
-      <c r="E58" s="549"/>
-      <c r="F58" s="557"/>
-      <c r="G58" s="557"/>
+      <c r="B58" s="535"/>
+      <c r="C58" s="535"/>
+      <c r="D58" s="535"/>
+      <c r="E58" s="536"/>
+      <c r="F58" s="533"/>
+      <c r="G58" s="533"/>
     </row>
     <row r="59" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A59" s="547"/>
-      <c r="B59" s="548"/>
-      <c r="C59" s="548"/>
-      <c r="D59" s="548"/>
-      <c r="E59" s="549"/>
-      <c r="F59" s="557"/>
-      <c r="G59" s="557"/>
+      <c r="A59" s="534"/>
+      <c r="B59" s="535"/>
+      <c r="C59" s="535"/>
+      <c r="D59" s="535"/>
+      <c r="E59" s="536"/>
+      <c r="F59" s="533"/>
+      <c r="G59" s="533"/>
     </row>
     <row r="60" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A60" s="547" t="s">
+      <c r="A60" s="534" t="s">
         <v>398</v>
       </c>
-      <c r="B60" s="548"/>
-      <c r="C60" s="548"/>
-      <c r="D60" s="548"/>
-      <c r="E60" s="549"/>
-      <c r="F60" s="557"/>
-      <c r="G60" s="557"/>
+      <c r="B60" s="535"/>
+      <c r="C60" s="535"/>
+      <c r="D60" s="535"/>
+      <c r="E60" s="536"/>
+      <c r="F60" s="533"/>
+      <c r="G60" s="533"/>
     </row>
     <row r="61" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A61" s="579" t="s">
+      <c r="A61" s="596" t="s">
         <v>399</v>
       </c>
-      <c r="B61" s="580"/>
-      <c r="C61" s="580"/>
-      <c r="D61" s="580"/>
-      <c r="E61" s="581"/>
-      <c r="F61" s="557"/>
-      <c r="G61" s="557"/>
+      <c r="B61" s="597"/>
+      <c r="C61" s="597"/>
+      <c r="D61" s="597"/>
+      <c r="E61" s="598"/>
+      <c r="F61" s="533"/>
+      <c r="G61" s="533"/>
     </row>
     <row r="62" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A62" s="607"/>
-      <c r="B62" s="607"/>
-      <c r="C62" s="607"/>
-      <c r="D62" s="607"/>
-      <c r="E62" s="608"/>
-      <c r="F62" s="557"/>
-      <c r="G62" s="557"/>
+      <c r="A62" s="538"/>
+      <c r="B62" s="538"/>
+      <c r="C62" s="538"/>
+      <c r="D62" s="538"/>
+      <c r="E62" s="539"/>
+      <c r="F62" s="533"/>
+      <c r="G62" s="533"/>
     </row>
     <row r="63" spans="1:7" ht="15.6" customHeight="1">
       <c r="A63" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B63" s="557"/>
-      <c r="C63" s="557"/>
-      <c r="D63" s="557"/>
-      <c r="E63" s="557"/>
-      <c r="F63" s="557"/>
-      <c r="G63" s="557"/>
+      <c r="B63" s="533"/>
+      <c r="C63" s="533"/>
+      <c r="D63" s="533"/>
+      <c r="E63" s="533"/>
+      <c r="F63" s="533"/>
+      <c r="G63" s="533"/>
     </row>
     <row r="64" spans="1:7" ht="15.6" customHeight="1">
       <c r="A64" s="564"/>
-      <c r="B64" s="578"/>
-      <c r="C64" s="578"/>
-      <c r="D64" s="578"/>
-      <c r="E64" s="578"/>
-      <c r="F64" s="578"/>
-      <c r="G64" s="578"/>
+      <c r="B64" s="537"/>
+      <c r="C64" s="537"/>
+      <c r="D64" s="537"/>
+      <c r="E64" s="537"/>
+      <c r="F64" s="537"/>
+      <c r="G64" s="537"/>
     </row>
     <row r="65" spans="1:9" ht="15.6" customHeight="1"/>
     <row r="66" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A66" s="552" t="s">
+      <c r="A66" s="543" t="s">
         <v>400</v>
       </c>
-      <c r="B66" s="553"/>
-      <c r="C66" s="553"/>
-      <c r="D66" s="553"/>
-      <c r="E66" s="554"/>
-      <c r="F66" s="558" t="s">
+      <c r="B66" s="544"/>
+      <c r="C66" s="544"/>
+      <c r="D66" s="544"/>
+      <c r="E66" s="545"/>
+      <c r="F66" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G66" s="558"/>
+      <c r="G66" s="551"/>
     </row>
     <row r="67" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A67" s="547" t="s">
+      <c r="A67" s="534" t="s">
         <v>401</v>
       </c>
-      <c r="B67" s="548"/>
-      <c r="C67" s="548"/>
-      <c r="D67" s="548"/>
-      <c r="E67" s="549"/>
-      <c r="F67" s="557" t="s">
+      <c r="B67" s="535"/>
+      <c r="C67" s="535"/>
+      <c r="D67" s="535"/>
+      <c r="E67" s="536"/>
+      <c r="F67" s="533" t="s">
         <v>402</v>
       </c>
-      <c r="G67" s="557"/>
+      <c r="G67" s="533"/>
     </row>
     <row r="68" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A68" s="547" t="s">
+      <c r="A68" s="534" t="s">
         <v>403</v>
       </c>
-      <c r="B68" s="548"/>
-      <c r="C68" s="548"/>
-      <c r="D68" s="548"/>
-      <c r="E68" s="549"/>
-      <c r="F68" s="557"/>
-      <c r="G68" s="557"/>
+      <c r="B68" s="535"/>
+      <c r="C68" s="535"/>
+      <c r="D68" s="535"/>
+      <c r="E68" s="536"/>
+      <c r="F68" s="533"/>
+      <c r="G68" s="533"/>
     </row>
     <row r="69" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A69" s="547" t="s">
+      <c r="A69" s="534" t="s">
         <v>404</v>
       </c>
-      <c r="B69" s="548"/>
-      <c r="C69" s="548"/>
-      <c r="D69" s="548"/>
-      <c r="E69" s="549"/>
-      <c r="F69" s="557"/>
-      <c r="G69" s="557"/>
+      <c r="B69" s="535"/>
+      <c r="C69" s="535"/>
+      <c r="D69" s="535"/>
+      <c r="E69" s="536"/>
+      <c r="F69" s="533"/>
+      <c r="G69" s="533"/>
     </row>
     <row r="70" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A70" s="547" t="s">
+      <c r="A70" s="534" t="s">
         <v>964</v>
       </c>
-      <c r="B70" s="548"/>
-      <c r="C70" s="548"/>
-      <c r="D70" s="548"/>
-      <c r="E70" s="549"/>
-      <c r="F70" s="557" t="s">
+      <c r="B70" s="535"/>
+      <c r="C70" s="535"/>
+      <c r="D70" s="535"/>
+      <c r="E70" s="536"/>
+      <c r="F70" s="533" t="s">
         <v>965</v>
       </c>
-      <c r="G70" s="557"/>
+      <c r="G70" s="533"/>
     </row>
     <row r="71" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A71" s="547" t="s">
+      <c r="A71" s="534" t="s">
         <v>405</v>
       </c>
-      <c r="B71" s="548"/>
-      <c r="C71" s="548"/>
-      <c r="D71" s="548"/>
-      <c r="E71" s="549"/>
-      <c r="F71" s="557"/>
-      <c r="G71" s="557"/>
+      <c r="B71" s="535"/>
+      <c r="C71" s="535"/>
+      <c r="D71" s="535"/>
+      <c r="E71" s="536"/>
+      <c r="F71" s="533"/>
+      <c r="G71" s="533"/>
     </row>
     <row r="72" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A72" s="547" t="s">
+      <c r="A72" s="534" t="s">
         <v>406</v>
       </c>
-      <c r="B72" s="555"/>
-      <c r="C72" s="555"/>
-      <c r="D72" s="555"/>
-      <c r="E72" s="556"/>
-      <c r="F72" s="557"/>
-      <c r="G72" s="557"/>
+      <c r="B72" s="541"/>
+      <c r="C72" s="541"/>
+      <c r="D72" s="541"/>
+      <c r="E72" s="542"/>
+      <c r="F72" s="533"/>
+      <c r="G72" s="533"/>
     </row>
     <row r="73" spans="1:9" ht="15.6" customHeight="1">
       <c r="A73" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B73" s="540"/>
-      <c r="C73" s="541"/>
-      <c r="D73" s="541"/>
-      <c r="E73" s="541"/>
-      <c r="F73" s="541"/>
-      <c r="G73" s="542"/>
+      <c r="B73" s="554"/>
+      <c r="C73" s="555"/>
+      <c r="D73" s="555"/>
+      <c r="E73" s="555"/>
+      <c r="F73" s="555"/>
+      <c r="G73" s="556"/>
     </row>
     <row r="74" spans="1:9" ht="15.6" customHeight="1">
       <c r="A74" s="564"/>
-      <c r="B74" s="567"/>
-      <c r="C74" s="568"/>
-      <c r="D74" s="568"/>
-      <c r="E74" s="568"/>
-      <c r="F74" s="568"/>
-      <c r="G74" s="569"/>
+      <c r="B74" s="565"/>
+      <c r="C74" s="566"/>
+      <c r="D74" s="566"/>
+      <c r="E74" s="566"/>
+      <c r="F74" s="566"/>
+      <c r="G74" s="567"/>
     </row>
     <row r="75" spans="1:9" ht="15.6" customHeight="1"/>
     <row r="76" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A76" s="552" t="s">
+      <c r="A76" s="543" t="s">
         <v>407</v>
       </c>
-      <c r="B76" s="553"/>
-      <c r="C76" s="553"/>
-      <c r="D76" s="553"/>
-      <c r="E76" s="554"/>
-      <c r="F76" s="558" t="s">
+      <c r="B76" s="544"/>
+      <c r="C76" s="544"/>
+      <c r="D76" s="544"/>
+      <c r="E76" s="545"/>
+      <c r="F76" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G76" s="558"/>
+      <c r="G76" s="551"/>
       <c r="I76" s="286">
         <f>J142</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A77" s="547" t="str">
+      <c r="A77" s="534" t="str">
         <f>IF(J142=1,"No Shotcrete - Fiberglass Shell","4,000 PSI pneumatically applied shotcrete")</f>
         <v>4,000 PSI pneumatically applied shotcrete</v>
       </c>
-      <c r="B77" s="548"/>
-      <c r="C77" s="548"/>
-      <c r="D77" s="548"/>
-      <c r="E77" s="549"/>
-      <c r="F77" s="557" t="str">
+      <c r="B77" s="535"/>
+      <c r="C77" s="535"/>
+      <c r="D77" s="535"/>
+      <c r="E77" s="536"/>
+      <c r="F77" s="533" t="str">
         <f>IF(I76=1,"","Lifetime structural warranty")</f>
         <v>Lifetime structural warranty</v>
       </c>
-      <c r="G77" s="557"/>
+      <c r="G77" s="533"/>
     </row>
     <row r="78" spans="1:9" ht="47.25" customHeight="1">
-      <c r="A78" s="547"/>
-      <c r="B78" s="548"/>
-      <c r="C78" s="548"/>
-      <c r="D78" s="548"/>
-      <c r="E78" s="549"/>
-      <c r="F78" s="557"/>
-      <c r="G78" s="557"/>
+      <c r="A78" s="534"/>
+      <c r="B78" s="535"/>
+      <c r="C78" s="535"/>
+      <c r="D78" s="535"/>
+      <c r="E78" s="536"/>
+      <c r="F78" s="533"/>
+      <c r="G78" s="533"/>
     </row>
     <row r="79" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A79" s="547" t="str">
+      <c r="A79" s="534" t="str">
         <f>IF(I76=1,"","All shotcrete is measured by a certified weighmaster")</f>
         <v>All shotcrete is measured by a certified weighmaster</v>
       </c>
-      <c r="B79" s="548"/>
-      <c r="C79" s="548"/>
-      <c r="D79" s="548"/>
-      <c r="E79" s="549"/>
-      <c r="F79" s="538"/>
-      <c r="G79" s="539"/>
+      <c r="B79" s="535"/>
+      <c r="C79" s="535"/>
+      <c r="D79" s="535"/>
+      <c r="E79" s="536"/>
+      <c r="F79" s="552"/>
+      <c r="G79" s="553"/>
     </row>
     <row r="80" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A80" s="547" t="str">
+      <c r="A80" s="534" t="str">
         <f>IF(I76=1,"","All nozzlemen are certified for State and Municipal work")</f>
         <v>All nozzlemen are certified for State and Municipal work</v>
       </c>
-      <c r="B80" s="548"/>
-      <c r="C80" s="548"/>
-      <c r="D80" s="548"/>
-      <c r="E80" s="549"/>
-      <c r="F80" s="538"/>
-      <c r="G80" s="539"/>
+      <c r="B80" s="535"/>
+      <c r="C80" s="535"/>
+      <c r="D80" s="535"/>
+      <c r="E80" s="536"/>
+      <c r="F80" s="552"/>
+      <c r="G80" s="553"/>
     </row>
     <row r="81" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A81" s="547" t="str">
+      <c r="A81" s="534" t="str">
         <f>IF(I76=1,"","Lifetime structural warranty")</f>
         <v>Lifetime structural warranty</v>
       </c>
-      <c r="B81" s="548"/>
-      <c r="C81" s="548"/>
-      <c r="D81" s="548"/>
-      <c r="E81" s="549"/>
-      <c r="F81" s="557"/>
-      <c r="G81" s="557"/>
+      <c r="B81" s="535"/>
+      <c r="C81" s="535"/>
+      <c r="D81" s="535"/>
+      <c r="E81" s="536"/>
+      <c r="F81" s="533"/>
+      <c r="G81" s="533"/>
     </row>
     <row r="82" spans="1:9" ht="15.6" customHeight="1">
       <c r="A82" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B82" s="540"/>
-      <c r="C82" s="541"/>
-      <c r="D82" s="541"/>
-      <c r="E82" s="541"/>
-      <c r="F82" s="541"/>
-      <c r="G82" s="542"/>
+      <c r="B82" s="554"/>
+      <c r="C82" s="555"/>
+      <c r="D82" s="555"/>
+      <c r="E82" s="555"/>
+      <c r="F82" s="555"/>
+      <c r="G82" s="556"/>
     </row>
     <row r="83" spans="1:9" ht="15.6" customHeight="1">
       <c r="A83" s="564"/>
-      <c r="B83" s="567"/>
-      <c r="C83" s="568"/>
-      <c r="D83" s="568"/>
-      <c r="E83" s="568"/>
-      <c r="F83" s="568"/>
-      <c r="G83" s="569"/>
+      <c r="B83" s="565"/>
+      <c r="C83" s="566"/>
+      <c r="D83" s="566"/>
+      <c r="E83" s="566"/>
+      <c r="F83" s="566"/>
+      <c r="G83" s="567"/>
     </row>
     <row r="84" spans="1:9" ht="15.6" customHeight="1"/>
     <row r="85" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A85" s="552" t="s">
+      <c r="A85" s="543" t="s">
         <v>408</v>
       </c>
-      <c r="B85" s="553"/>
-      <c r="C85" s="553"/>
-      <c r="D85" s="553"/>
-      <c r="E85" s="554"/>
-      <c r="F85" s="558" t="s">
+      <c r="B85" s="544"/>
+      <c r="C85" s="544"/>
+      <c r="D85" s="544"/>
+      <c r="E85" s="545"/>
+      <c r="F85" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G85" s="558"/>
+      <c r="G85" s="551"/>
       <c r="I85" s="286">
         <f>I76</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="27" customHeight="1">
-      <c r="A86" s="547" t="str">
+      <c r="A86" s="534" t="str">
         <f>IF(I85=1,"Fiberglass Shell - No Tile","All pool &amp; spa waterline tile including - skimmer throat")</f>
         <v>All pool &amp; spa waterline tile including - skimmer throat</v>
       </c>
-      <c r="B86" s="548"/>
-      <c r="C86" s="548"/>
-      <c r="D86" s="548"/>
-      <c r="E86" s="549"/>
-      <c r="F86" s="557" t="str">
+      <c r="B86" s="535"/>
+      <c r="C86" s="535"/>
+      <c r="D86" s="535"/>
+      <c r="E86" s="536"/>
+      <c r="F86" s="533" t="str">
         <f>IF(I85=1,"","Frost-proof tiles in a variety of patterns and colors")</f>
         <v>Frost-proof tiles in a variety of patterns and colors</v>
       </c>
-      <c r="G86" s="557"/>
+      <c r="G86" s="533"/>
     </row>
     <row r="87" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A87" s="547" t="str">
+      <c r="A87" s="534" t="str">
         <f>IF(I85=1,"","Trim tile available on steps and benches")</f>
         <v>Trim tile available on steps and benches</v>
       </c>
-      <c r="B87" s="555"/>
-      <c r="C87" s="555"/>
-      <c r="D87" s="555"/>
-      <c r="E87" s="556"/>
-      <c r="F87" s="557" t="s">
+      <c r="B87" s="541"/>
+      <c r="C87" s="541"/>
+      <c r="D87" s="541"/>
+      <c r="E87" s="542"/>
+      <c r="F87" s="533" t="s">
         <v>966</v>
       </c>
-      <c r="G87" s="557"/>
+      <c r="G87" s="533"/>
     </row>
     <row r="88" spans="1:9" ht="15.6" customHeight="1">
       <c r="A88" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B88" s="540"/>
-      <c r="C88" s="541"/>
-      <c r="D88" s="541"/>
-      <c r="E88" s="541"/>
-      <c r="F88" s="541"/>
-      <c r="G88" s="542"/>
+      <c r="B88" s="554"/>
+      <c r="C88" s="555"/>
+      <c r="D88" s="555"/>
+      <c r="E88" s="555"/>
+      <c r="F88" s="555"/>
+      <c r="G88" s="556"/>
     </row>
     <row r="89" spans="1:9" ht="15.6" customHeight="1">
       <c r="A89" s="564"/>
-      <c r="B89" s="567"/>
-      <c r="C89" s="568"/>
-      <c r="D89" s="568"/>
-      <c r="E89" s="568"/>
-      <c r="F89" s="568"/>
-      <c r="G89" s="569"/>
+      <c r="B89" s="565"/>
+      <c r="C89" s="566"/>
+      <c r="D89" s="566"/>
+      <c r="E89" s="566"/>
+      <c r="F89" s="566"/>
+      <c r="G89" s="567"/>
     </row>
     <row r="90" spans="1:9" ht="15.6" customHeight="1"/>
     <row r="91" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A91" s="552" t="s">
+      <c r="A91" s="543" t="s">
         <v>409</v>
       </c>
-      <c r="B91" s="553"/>
-      <c r="C91" s="553"/>
-      <c r="D91" s="553"/>
-      <c r="E91" s="554"/>
-      <c r="F91" s="558" t="s">
+      <c r="B91" s="544"/>
+      <c r="C91" s="544"/>
+      <c r="D91" s="544"/>
+      <c r="E91" s="545"/>
+      <c r="F91" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G91" s="558"/>
+      <c r="G91" s="551"/>
     </row>
     <row r="92" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A92" s="547"/>
-      <c r="B92" s="548"/>
-      <c r="C92" s="548"/>
-      <c r="D92" s="548"/>
-      <c r="E92" s="549"/>
-      <c r="F92" s="557"/>
-      <c r="G92" s="557"/>
+      <c r="A92" s="534"/>
+      <c r="B92" s="535"/>
+      <c r="C92" s="535"/>
+      <c r="D92" s="535"/>
+      <c r="E92" s="536"/>
+      <c r="F92" s="533"/>
+      <c r="G92" s="533"/>
     </row>
     <row r="93" spans="1:9" ht="15.6" customHeight="1">
-      <c r="A93" s="547"/>
-      <c r="B93" s="555"/>
-      <c r="C93" s="555"/>
-      <c r="D93" s="555"/>
-      <c r="E93" s="556"/>
-      <c r="F93" s="557"/>
-      <c r="G93" s="557"/>
+      <c r="A93" s="534"/>
+      <c r="B93" s="541"/>
+      <c r="C93" s="541"/>
+      <c r="D93" s="541"/>
+      <c r="E93" s="542"/>
+      <c r="F93" s="533"/>
+      <c r="G93" s="533"/>
     </row>
     <row r="94" spans="1:9" ht="15.6" customHeight="1">
       <c r="A94" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B94" s="540"/>
-      <c r="C94" s="541"/>
-      <c r="D94" s="541"/>
-      <c r="E94" s="541"/>
-      <c r="F94" s="541"/>
-      <c r="G94" s="542"/>
+      <c r="B94" s="554"/>
+      <c r="C94" s="555"/>
+      <c r="D94" s="555"/>
+      <c r="E94" s="555"/>
+      <c r="F94" s="555"/>
+      <c r="G94" s="556"/>
     </row>
     <row r="95" spans="1:9" ht="15.6" customHeight="1">
       <c r="A95" s="564"/>
-      <c r="B95" s="567"/>
-      <c r="C95" s="568"/>
-      <c r="D95" s="568"/>
-      <c r="E95" s="568"/>
-      <c r="F95" s="568"/>
-      <c r="G95" s="569"/>
+      <c r="B95" s="565"/>
+      <c r="C95" s="566"/>
+      <c r="D95" s="566"/>
+      <c r="E95" s="566"/>
+      <c r="F95" s="566"/>
+      <c r="G95" s="567"/>
     </row>
     <row r="96" spans="1:9" ht="15.6" customHeight="1"/>
     <row r="97" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A97" s="552" t="s">
+      <c r="A97" s="543" t="s">
         <v>410</v>
       </c>
-      <c r="B97" s="553"/>
-      <c r="C97" s="553"/>
-      <c r="D97" s="553"/>
-      <c r="E97" s="554"/>
-      <c r="F97" s="558" t="s">
+      <c r="B97" s="544"/>
+      <c r="C97" s="544"/>
+      <c r="D97" s="544"/>
+      <c r="E97" s="545"/>
+      <c r="F97" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G97" s="558"/>
+      <c r="G97" s="551"/>
     </row>
     <row r="98" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A98" s="547" t="str">
+      <c r="A98" s="534" t="str">
         <f>'NEW POOL'!A113</f>
         <v>Jandy 2.7HP Variable Pump</v>
       </c>
-      <c r="B98" s="548"/>
-      <c r="C98" s="548"/>
-      <c r="D98" s="548"/>
-      <c r="E98" s="549"/>
-      <c r="F98" s="557" t="s">
+      <c r="B98" s="535"/>
+      <c r="C98" s="535"/>
+      <c r="D98" s="535"/>
+      <c r="E98" s="536"/>
+      <c r="F98" s="533" t="s">
         <v>411</v>
       </c>
-      <c r="G98" s="557"/>
+      <c r="G98" s="533"/>
     </row>
     <row r="99" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A99" s="535" t="str">
+      <c r="A99" s="560" t="str">
         <f>'NEW POOL'!A114</f>
         <v>No Auxiliary Pump</v>
       </c>
-      <c r="B99" s="536"/>
-      <c r="C99" s="536"/>
-      <c r="D99" s="536"/>
-      <c r="E99" s="537"/>
-      <c r="F99" s="557"/>
-      <c r="G99" s="557"/>
+      <c r="B99" s="561"/>
+      <c r="C99" s="561"/>
+      <c r="D99" s="561"/>
+      <c r="E99" s="562"/>
+      <c r="F99" s="533"/>
+      <c r="G99" s="533"/>
     </row>
     <row r="100" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A100" s="547" t="str">
+      <c r="A100" s="534" t="str">
         <f>'NEW POOL'!A117</f>
         <v>460 SQFT Cartridge Filter</v>
       </c>
-      <c r="B100" s="548"/>
-      <c r="C100" s="548"/>
-      <c r="D100" s="548"/>
-      <c r="E100" s="549"/>
-      <c r="F100" s="557"/>
-      <c r="G100" s="557"/>
+      <c r="B100" s="535"/>
+      <c r="C100" s="535"/>
+      <c r="D100" s="535"/>
+      <c r="E100" s="536"/>
+      <c r="F100" s="533"/>
+      <c r="G100" s="533"/>
     </row>
     <row r="101" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A101" s="535" t="str">
+      <c r="A101" s="560" t="str">
         <f>'NEW POOL'!A127</f>
         <v>Salt/mineral System - Fusion Soft</v>
       </c>
-      <c r="B101" s="536"/>
-      <c r="C101" s="536"/>
-      <c r="D101" s="536"/>
-      <c r="E101" s="537"/>
-      <c r="F101" s="538"/>
-      <c r="G101" s="539"/>
+      <c r="B101" s="561"/>
+      <c r="C101" s="561"/>
+      <c r="D101" s="561"/>
+      <c r="E101" s="562"/>
+      <c r="F101" s="552"/>
+      <c r="G101" s="553"/>
     </row>
     <row r="102" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A102" s="535" t="str">
+      <c r="A102" s="560" t="str">
         <f>'NEW POOL'!A128</f>
         <v>No Sanitation</v>
       </c>
-      <c r="B102" s="536"/>
-      <c r="C102" s="536"/>
-      <c r="D102" s="536"/>
-      <c r="E102" s="537"/>
-      <c r="F102" s="538"/>
-      <c r="G102" s="539"/>
+      <c r="B102" s="561"/>
+      <c r="C102" s="561"/>
+      <c r="D102" s="561"/>
+      <c r="E102" s="562"/>
+      <c r="F102" s="552"/>
+      <c r="G102" s="553"/>
     </row>
     <row r="103" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A103" s="535" t="str">
+      <c r="A103" s="560" t="str">
         <f>'NEW POOL'!A129</f>
         <v>No Sanitation</v>
       </c>
-      <c r="B103" s="536"/>
-      <c r="C103" s="536"/>
-      <c r="D103" s="536"/>
-      <c r="E103" s="537"/>
-      <c r="F103" s="557"/>
-      <c r="G103" s="557"/>
+      <c r="B103" s="561"/>
+      <c r="C103" s="561"/>
+      <c r="D103" s="561"/>
+      <c r="E103" s="562"/>
+      <c r="F103" s="533"/>
+      <c r="G103" s="533"/>
     </row>
     <row r="104" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A104" s="547" t="str">
+      <c r="A104" s="534" t="str">
         <f>'NEW POOL'!A121</f>
         <v>Jandy 400K BTU - VersaFlo</v>
       </c>
-      <c r="B104" s="548"/>
-      <c r="C104" s="548"/>
-      <c r="D104" s="548"/>
-      <c r="E104" s="549"/>
-      <c r="F104" s="557"/>
-      <c r="G104" s="557"/>
+      <c r="B104" s="535"/>
+      <c r="C104" s="535"/>
+      <c r="D104" s="535"/>
+      <c r="E104" s="536"/>
+      <c r="F104" s="533"/>
+      <c r="G104" s="533"/>
     </row>
     <row r="105" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A105" s="547" t="str">
+      <c r="A105" s="534" t="str">
         <f>'NEW POOL'!A119</f>
         <v>Polaris Alpha IQ</v>
       </c>
-      <c r="B105" s="548"/>
-      <c r="C105" s="548"/>
-      <c r="D105" s="548"/>
-      <c r="E105" s="549"/>
-      <c r="F105" s="557"/>
-      <c r="G105" s="557"/>
+      <c r="B105" s="535"/>
+      <c r="C105" s="535"/>
+      <c r="D105" s="535"/>
+      <c r="E105" s="536"/>
+      <c r="F105" s="533"/>
+      <c r="G105" s="533"/>
     </row>
     <row r="106" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A106" s="547" t="str">
+      <c r="A106" s="534" t="str">
         <f>'NEW POOL'!A131</f>
         <v>iAqualink Only PS-4 (H.O. To Provide WiFi) Only use with Infinite Light System</v>
       </c>
-      <c r="B106" s="555"/>
-      <c r="C106" s="555"/>
-      <c r="D106" s="555"/>
-      <c r="E106" s="556"/>
-      <c r="F106" s="557"/>
-      <c r="G106" s="557"/>
+      <c r="B106" s="541"/>
+      <c r="C106" s="541"/>
+      <c r="D106" s="541"/>
+      <c r="E106" s="542"/>
+      <c r="F106" s="533"/>
+      <c r="G106" s="533"/>
     </row>
     <row r="107" spans="1:7" ht="36" customHeight="1">
       <c r="A107" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B107" s="540" t="s">
+      <c r="B107" s="554" t="s">
         <v>967</v>
       </c>
-      <c r="C107" s="541"/>
-      <c r="D107" s="541"/>
-      <c r="E107" s="541"/>
-      <c r="F107" s="541"/>
-      <c r="G107" s="542"/>
+      <c r="C107" s="555"/>
+      <c r="D107" s="555"/>
+      <c r="E107" s="555"/>
+      <c r="F107" s="555"/>
+      <c r="G107" s="556"/>
     </row>
     <row r="108" spans="1:7" ht="15.6" customHeight="1">
       <c r="A108" s="564"/>
-      <c r="B108" s="567"/>
-      <c r="C108" s="568"/>
-      <c r="D108" s="568"/>
-      <c r="E108" s="568"/>
-      <c r="F108" s="568"/>
-      <c r="G108" s="569"/>
+      <c r="B108" s="565"/>
+      <c r="C108" s="566"/>
+      <c r="D108" s="566"/>
+      <c r="E108" s="566"/>
+      <c r="F108" s="566"/>
+      <c r="G108" s="567"/>
     </row>
     <row r="109" spans="1:7" ht="15.6" customHeight="1"/>
     <row r="110" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A110" s="552" t="s">
+      <c r="A110" s="543" t="s">
         <v>412</v>
       </c>
-      <c r="B110" s="553"/>
-      <c r="C110" s="553"/>
-      <c r="D110" s="553"/>
-      <c r="E110" s="554"/>
-      <c r="F110" s="558" t="s">
+      <c r="B110" s="544"/>
+      <c r="C110" s="544"/>
+      <c r="D110" s="544"/>
+      <c r="E110" s="545"/>
+      <c r="F110" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G110" s="558"/>
+      <c r="G110" s="551"/>
     </row>
     <row r="111" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A111" s="547" t="s">
+      <c r="A111" s="534" t="s">
         <v>413</v>
       </c>
-      <c r="B111" s="548"/>
-      <c r="C111" s="548"/>
-      <c r="D111" s="548"/>
-      <c r="E111" s="549"/>
-      <c r="F111" s="538"/>
-      <c r="G111" s="539"/>
+      <c r="B111" s="535"/>
+      <c r="C111" s="535"/>
+      <c r="D111" s="535"/>
+      <c r="E111" s="536"/>
+      <c r="F111" s="552"/>
+      <c r="G111" s="553"/>
     </row>
     <row r="112" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A112" s="547" t="s">
+      <c r="A112" s="534" t="s">
         <v>414</v>
       </c>
-      <c r="B112" s="548"/>
-      <c r="C112" s="548"/>
-      <c r="D112" s="548"/>
-      <c r="E112" s="549"/>
-      <c r="F112" s="538"/>
-      <c r="G112" s="539"/>
+      <c r="B112" s="535"/>
+      <c r="C112" s="535"/>
+      <c r="D112" s="535"/>
+      <c r="E112" s="536"/>
+      <c r="F112" s="552"/>
+      <c r="G112" s="553"/>
     </row>
     <row r="113" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A113" s="547"/>
-      <c r="B113" s="548"/>
-      <c r="C113" s="548"/>
-      <c r="D113" s="548"/>
-      <c r="E113" s="549"/>
-      <c r="F113" s="538"/>
-      <c r="G113" s="539"/>
+      <c r="A113" s="534"/>
+      <c r="B113" s="535"/>
+      <c r="C113" s="535"/>
+      <c r="D113" s="535"/>
+      <c r="E113" s="536"/>
+      <c r="F113" s="552"/>
+      <c r="G113" s="553"/>
     </row>
     <row r="114" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A114" s="547" t="str">
+      <c r="A114" s="534" t="str">
         <f>IF(J142=1,"",'NEW POOL'!A175)</f>
         <v>Pebble Sheen  - Level 1</v>
       </c>
-      <c r="B114" s="548"/>
-      <c r="C114" s="548"/>
-      <c r="D114" s="548"/>
-      <c r="E114" s="549"/>
-      <c r="F114" s="538" t="str">
+      <c r="B114" s="535"/>
+      <c r="C114" s="535"/>
+      <c r="D114" s="535"/>
+      <c r="E114" s="536"/>
+      <c r="F114" s="552" t="str">
         <f>IF(A114="","","Combines durablity and functionality")</f>
         <v>Combines durablity and functionality</v>
       </c>
-      <c r="G114" s="539"/>
+      <c r="G114" s="553"/>
     </row>
     <row r="115" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A115" s="547" t="s">
+      <c r="A115" s="534" t="s">
         <v>415</v>
       </c>
-      <c r="B115" s="548"/>
-      <c r="C115" s="548"/>
-      <c r="D115" s="548"/>
-      <c r="E115" s="549"/>
-      <c r="F115" s="538"/>
-      <c r="G115" s="539"/>
+      <c r="B115" s="535"/>
+      <c r="C115" s="535"/>
+      <c r="D115" s="535"/>
+      <c r="E115" s="536"/>
+      <c r="F115" s="552"/>
+      <c r="G115" s="553"/>
     </row>
     <row r="116" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A116" s="547" t="str">
+      <c r="A116" s="534" t="str">
         <f>IF('NEW POOL'!B47=1, "Dirt haul off included", "Dirt to remain at property")</f>
         <v>Dirt haul off included</v>
       </c>
-      <c r="B116" s="548"/>
-      <c r="C116" s="548"/>
-      <c r="D116" s="548"/>
-      <c r="E116" s="549"/>
-      <c r="F116" s="538"/>
-      <c r="G116" s="539"/>
+      <c r="B116" s="535"/>
+      <c r="C116" s="535"/>
+      <c r="D116" s="535"/>
+      <c r="E116" s="536"/>
+      <c r="F116" s="552"/>
+      <c r="G116" s="553"/>
     </row>
     <row r="117" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A117" s="547" t="s">
+      <c r="A117" s="534" t="s">
         <v>1133</v>
       </c>
-      <c r="B117" s="548"/>
-      <c r="C117" s="548"/>
-      <c r="D117" s="548"/>
-      <c r="E117" s="549"/>
-      <c r="F117" s="538" t="s">
+      <c r="B117" s="535"/>
+      <c r="C117" s="535"/>
+      <c r="D117" s="535"/>
+      <c r="E117" s="536"/>
+      <c r="F117" s="552" t="s">
         <v>1134</v>
       </c>
-      <c r="G117" s="539"/>
+      <c r="G117" s="553"/>
     </row>
     <row r="118" spans="1:7" ht="15.6" customHeight="1">
       <c r="A118" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B118" s="540"/>
-      <c r="C118" s="541"/>
-      <c r="D118" s="541"/>
-      <c r="E118" s="541"/>
-      <c r="F118" s="541"/>
-      <c r="G118" s="542"/>
+      <c r="B118" s="554"/>
+      <c r="C118" s="555"/>
+      <c r="D118" s="555"/>
+      <c r="E118" s="555"/>
+      <c r="F118" s="555"/>
+      <c r="G118" s="556"/>
     </row>
     <row r="119" spans="1:7" ht="15.6" customHeight="1">
       <c r="A119" s="564"/>
-      <c r="B119" s="567"/>
-      <c r="C119" s="568"/>
-      <c r="D119" s="568"/>
-      <c r="E119" s="568"/>
-      <c r="F119" s="568"/>
-      <c r="G119" s="569"/>
+      <c r="B119" s="565"/>
+      <c r="C119" s="566"/>
+      <c r="D119" s="566"/>
+      <c r="E119" s="566"/>
+      <c r="F119" s="566"/>
+      <c r="G119" s="567"/>
     </row>
     <row r="120" spans="1:7" ht="15.6" customHeight="1"/>
     <row r="121" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A121" s="552" t="s">
+      <c r="A121" s="543" t="s">
         <v>416</v>
       </c>
-      <c r="B121" s="553"/>
-      <c r="C121" s="553"/>
-      <c r="D121" s="553"/>
-      <c r="E121" s="554"/>
-      <c r="F121" s="558" t="s">
+      <c r="B121" s="544"/>
+      <c r="C121" s="544"/>
+      <c r="D121" s="544"/>
+      <c r="E121" s="545"/>
+      <c r="F121" s="551" t="s">
         <v>365</v>
       </c>
-      <c r="G121" s="558"/>
+      <c r="G121" s="551"/>
     </row>
     <row r="122" spans="1:7" ht="24" customHeight="1">
-      <c r="A122" s="547" t="s">
+      <c r="A122" s="534" t="s">
         <v>417</v>
       </c>
-      <c r="B122" s="548"/>
-      <c r="C122" s="548"/>
-      <c r="D122" s="548"/>
-      <c r="E122" s="549"/>
-      <c r="F122" s="557" t="s">
+      <c r="B122" s="535"/>
+      <c r="C122" s="535"/>
+      <c r="D122" s="535"/>
+      <c r="E122" s="536"/>
+      <c r="F122" s="533" t="s">
         <v>418</v>
       </c>
-      <c r="G122" s="557"/>
+      <c r="G122" s="533"/>
     </row>
     <row r="123" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A123" s="547" t="s">
+      <c r="A123" s="534" t="s">
         <v>419</v>
       </c>
-      <c r="B123" s="548"/>
-      <c r="C123" s="548"/>
-      <c r="D123" s="548"/>
-      <c r="E123" s="549"/>
-      <c r="F123" s="557" t="s">
+      <c r="B123" s="535"/>
+      <c r="C123" s="535"/>
+      <c r="D123" s="535"/>
+      <c r="E123" s="536"/>
+      <c r="F123" s="533" t="s">
         <v>420</v>
       </c>
-      <c r="G123" s="557"/>
+      <c r="G123" s="533"/>
     </row>
     <row r="124" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A124" s="547" t="s">
+      <c r="A124" s="534" t="s">
         <v>421</v>
       </c>
-      <c r="B124" s="548"/>
-      <c r="C124" s="548"/>
-      <c r="D124" s="548"/>
-      <c r="E124" s="549"/>
-      <c r="F124" s="557" t="s">
+      <c r="B124" s="535"/>
+      <c r="C124" s="535"/>
+      <c r="D124" s="535"/>
+      <c r="E124" s="536"/>
+      <c r="F124" s="533" t="s">
         <v>422</v>
       </c>
-      <c r="G124" s="557"/>
+      <c r="G124" s="533"/>
     </row>
     <row r="125" spans="1:7" ht="15.6" customHeight="1">
       <c r="A125" s="563" t="s">
         <v>366</v>
       </c>
-      <c r="B125" s="550"/>
-      <c r="C125" s="591"/>
-      <c r="D125" s="591"/>
-      <c r="E125" s="591"/>
-      <c r="F125" s="591"/>
-      <c r="G125" s="591"/>
+      <c r="B125" s="584"/>
+      <c r="C125" s="585"/>
+      <c r="D125" s="585"/>
+      <c r="E125" s="585"/>
+      <c r="F125" s="585"/>
+      <c r="G125" s="585"/>
     </row>
     <row r="126" spans="1:7" ht="15.6" customHeight="1">
       <c r="A126" s="564"/>
-      <c r="B126" s="589"/>
-      <c r="C126" s="590"/>
-      <c r="D126" s="590"/>
-      <c r="E126" s="590"/>
-      <c r="F126" s="590"/>
-      <c r="G126" s="590"/>
+      <c r="B126" s="582"/>
+      <c r="C126" s="583"/>
+      <c r="D126" s="583"/>
+      <c r="E126" s="583"/>
+      <c r="F126" s="583"/>
+      <c r="G126" s="583"/>
     </row>
     <row r="127" spans="1:7" ht="15.6" customHeight="1">
       <c r="A127" s="80"/>
-      <c r="B127" s="603">
+      <c r="B127" s="540">
         <v>2025</v>
       </c>
-      <c r="C127" s="603"/>
-      <c r="D127" s="603"/>
-      <c r="E127" s="603"/>
-      <c r="F127" s="604" t="s">
+      <c r="C127" s="540"/>
+      <c r="D127" s="540"/>
+      <c r="E127" s="540"/>
+      <c r="F127" s="546" t="s">
         <v>361</v>
       </c>
-      <c r="G127" s="604"/>
+      <c r="G127" s="546"/>
     </row>
     <row r="128" spans="1:7" ht="15.6" customHeight="1">
       <c r="A128" s="80"/>
-      <c r="B128" s="603"/>
-      <c r="C128" s="603"/>
-      <c r="D128" s="603"/>
-      <c r="E128" s="603"/>
-      <c r="F128" s="586" t="str">
+      <c r="B128" s="540"/>
+      <c r="C128" s="540"/>
+      <c r="D128" s="540"/>
+      <c r="E128" s="540"/>
+      <c r="F128" s="550" t="str">
         <f>F2</f>
         <v>Prepared by:</v>
       </c>
-      <c r="G128" s="586"/>
+      <c r="G128" s="550"/>
     </row>
     <row r="129" spans="1:10" ht="15.6" customHeight="1">
       <c r="A129" s="80"/>
-      <c r="B129" s="603"/>
-      <c r="C129" s="603"/>
-      <c r="D129" s="603"/>
-      <c r="E129" s="603"/>
-      <c r="F129" s="586"/>
-      <c r="G129" s="586"/>
+      <c r="B129" s="540"/>
+      <c r="C129" s="540"/>
+      <c r="D129" s="540"/>
+      <c r="E129" s="540"/>
+      <c r="F129" s="550"/>
+      <c r="G129" s="550"/>
     </row>
     <row r="130" spans="1:10" ht="15.6" customHeight="1">
       <c r="A130" s="80"/>
-      <c r="B130" s="533"/>
-      <c r="C130" s="533"/>
-      <c r="D130" s="533"/>
-      <c r="E130" s="533"/>
-      <c r="F130" s="595" t="str">
+      <c r="B130" s="580"/>
+      <c r="C130" s="580"/>
+      <c r="D130" s="580"/>
+      <c r="E130" s="580"/>
+      <c r="F130" s="547" t="str">
         <f>F4</f>
         <v>John Piotrowski</v>
       </c>
-      <c r="G130" s="595"/>
+      <c r="G130" s="547"/>
     </row>
     <row r="131" spans="1:10" ht="15.6" customHeight="1">
       <c r="A131" s="80"/>
@@ -36973,85 +36973,85 @@
       <c r="C131" s="355"/>
       <c r="D131" s="355"/>
       <c r="E131" s="355"/>
-      <c r="F131" s="595" t="str">
+      <c r="F131" s="547" t="str">
         <f>F5</f>
         <v>980-392-7944</v>
       </c>
-      <c r="G131" s="595"/>
+      <c r="G131" s="547"/>
     </row>
     <row r="132" spans="1:10" ht="15.6" customHeight="1">
       <c r="A132" s="80"/>
-      <c r="B132" s="534" t="s">
+      <c r="B132" s="581" t="s">
         <v>799</v>
       </c>
-      <c r="C132" s="534"/>
-      <c r="D132" s="534"/>
-      <c r="E132" s="534"/>
-      <c r="F132" s="595" t="str">
+      <c r="C132" s="581"/>
+      <c r="D132" s="581"/>
+      <c r="E132" s="581"/>
+      <c r="F132" s="547" t="str">
         <f>F6</f>
         <v>jpiotrowski@ppas.com</v>
       </c>
-      <c r="G132" s="595"/>
+      <c r="G132" s="547"/>
     </row>
     <row r="133" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A133" s="594" t="s">
+      <c r="A133" s="587" t="s">
         <v>423</v>
       </c>
-      <c r="B133" s="594"/>
-      <c r="C133" s="594"/>
-      <c r="D133" s="594"/>
-      <c r="E133" s="594"/>
-      <c r="F133" s="594"/>
-      <c r="G133" s="594"/>
+      <c r="B133" s="587"/>
+      <c r="C133" s="587"/>
+      <c r="D133" s="587"/>
+      <c r="E133" s="587"/>
+      <c r="F133" s="587"/>
+      <c r="G133" s="587"/>
     </row>
     <row r="134" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A134" s="594"/>
-      <c r="B134" s="594"/>
-      <c r="C134" s="594"/>
-      <c r="D134" s="594"/>
-      <c r="E134" s="594"/>
-      <c r="F134" s="594"/>
-      <c r="G134" s="594"/>
+      <c r="A134" s="587"/>
+      <c r="B134" s="587"/>
+      <c r="C134" s="587"/>
+      <c r="D134" s="587"/>
+      <c r="E134" s="587"/>
+      <c r="F134" s="587"/>
+      <c r="G134" s="587"/>
     </row>
     <row r="135" spans="1:10" ht="15.6" customHeight="1">
       <c r="A135" s="70" t="s">
         <v>424</v>
       </c>
-      <c r="B135" s="587" t="s">
+      <c r="B135" s="594" t="s">
         <v>425</v>
       </c>
-      <c r="C135" s="588"/>
+      <c r="C135" s="595"/>
       <c r="D135" s="71" t="s">
         <v>426</v>
       </c>
       <c r="E135" s="87" t="s">
         <v>427</v>
       </c>
-      <c r="F135" s="592" t="s">
+      <c r="F135" s="586" t="s">
         <v>428</v>
       </c>
-      <c r="G135" s="593"/>
+      <c r="G135" s="569"/>
     </row>
     <row r="136" spans="1:10" ht="15.6" customHeight="1">
       <c r="A136" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="B136" s="571">
+      <c r="B136" s="588">
         <v>73542.58</v>
       </c>
-      <c r="C136" s="572"/>
+      <c r="C136" s="589"/>
       <c r="D136" s="100"/>
       <c r="E136" s="90">
         <f>B136+D136</f>
         <v>73542.58</v>
       </c>
-      <c r="F136" s="583"/>
-      <c r="G136" s="584"/>
+      <c r="F136" s="590"/>
+      <c r="G136" s="591"/>
     </row>
     <row r="137" spans="1:10" ht="15.6" customHeight="1">
       <c r="A137" s="72"/>
-      <c r="B137" s="571"/>
-      <c r="C137" s="572"/>
+      <c r="B137" s="588"/>
+      <c r="C137" s="589"/>
       <c r="D137" s="100"/>
       <c r="E137" s="90">
         <f>B137+D137</f>
@@ -37062,65 +37062,65 @@
     </row>
     <row r="138" spans="1:10" ht="15.6" customHeight="1">
       <c r="A138" s="74"/>
-      <c r="B138" s="585"/>
-      <c r="C138" s="585"/>
+      <c r="B138" s="572"/>
+      <c r="C138" s="572"/>
       <c r="D138" s="75"/>
       <c r="E138" s="90">
         <f>B138+D138</f>
         <v>0</v>
       </c>
-      <c r="F138" s="583"/>
-      <c r="G138" s="584"/>
+      <c r="F138" s="590"/>
+      <c r="G138" s="591"/>
     </row>
     <row r="139" spans="1:10" ht="15.6" customHeight="1">
       <c r="A139" s="76"/>
-      <c r="B139" s="582"/>
-      <c r="C139" s="582"/>
+      <c r="B139" s="573"/>
+      <c r="C139" s="573"/>
       <c r="D139" s="77"/>
       <c r="E139" s="91">
         <f>B139+D139</f>
         <v>0</v>
       </c>
-      <c r="F139" s="583"/>
-      <c r="G139" s="584"/>
+      <c r="F139" s="590"/>
+      <c r="G139" s="591"/>
     </row>
     <row r="140" spans="1:10" ht="15.6" customHeight="1">
       <c r="A140" s="76"/>
-      <c r="B140" s="582"/>
-      <c r="C140" s="582"/>
+      <c r="B140" s="573"/>
+      <c r="C140" s="573"/>
       <c r="D140" s="77"/>
       <c r="E140" s="91">
         <f>B140+D140</f>
         <v>0</v>
       </c>
-      <c r="F140" s="583"/>
-      <c r="G140" s="584"/>
+      <c r="F140" s="590"/>
+      <c r="G140" s="591"/>
     </row>
     <row r="141" spans="1:10" ht="15.6" customHeight="1">
       <c r="A141" s="74"/>
-      <c r="B141" s="585"/>
-      <c r="C141" s="585"/>
+      <c r="B141" s="572"/>
+      <c r="C141" s="572"/>
       <c r="D141" s="75"/>
       <c r="E141" s="90" t="str">
         <f t="shared" ref="E141:E147" si="0">IF(B141="","",B141+D141)</f>
         <v/>
       </c>
-      <c r="F141" s="583"/>
-      <c r="G141" s="584"/>
+      <c r="F141" s="590"/>
+      <c r="G141" s="591"/>
     </row>
     <row r="142" spans="1:10" ht="15.6" customHeight="1" thickBot="1">
       <c r="A142" s="76"/>
-      <c r="B142" s="582"/>
-      <c r="C142" s="582"/>
+      <c r="B142" s="573"/>
+      <c r="C142" s="573"/>
       <c r="D142" s="77"/>
       <c r="E142" s="91" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F142" s="596" t="s">
+      <c r="F142" s="592" t="s">
         <v>436</v>
       </c>
-      <c r="G142" s="597"/>
+      <c r="G142" s="593"/>
       <c r="J142" s="348">
         <f>'NEW POOL'!B21+'NEW POOL'!B22+'NEW POOL'!B23</f>
         <v>0</v>
@@ -37131,11 +37131,11 @@
         <f>IF('NEW POOL'!B171&gt;0,'NEW POOL'!A171,"")</f>
         <v/>
       </c>
-      <c r="B143" s="585" t="str">
+      <c r="B143" s="572" t="str">
         <f>IF('NEW POOL'!B171&gt;0,'COST - NEW'!E233,"")</f>
         <v/>
       </c>
-      <c r="C143" s="585"/>
+      <c r="C143" s="572"/>
       <c r="D143" s="75"/>
       <c r="E143" s="90" t="str">
         <f t="shared" si="0"/>
@@ -37155,8 +37155,8 @@
     </row>
     <row r="144" spans="1:10" ht="15.6" customHeight="1">
       <c r="A144" s="76"/>
-      <c r="B144" s="582"/>
-      <c r="C144" s="582"/>
+      <c r="B144" s="573"/>
+      <c r="C144" s="573"/>
       <c r="D144" s="77"/>
       <c r="E144" s="91"/>
       <c r="F144" s="93" t="str">
@@ -37174,8 +37174,8 @@
     </row>
     <row r="145" spans="1:7" ht="15.6" customHeight="1">
       <c r="A145" s="74"/>
-      <c r="B145" s="585"/>
-      <c r="C145" s="585"/>
+      <c r="B145" s="572"/>
+      <c r="C145" s="572"/>
       <c r="D145" s="75"/>
       <c r="E145" s="90" t="str">
         <f t="shared" si="0"/>
@@ -37192,8 +37192,8 @@
     </row>
     <row r="146" spans="1:7" ht="15.6" customHeight="1">
       <c r="A146" s="76"/>
-      <c r="B146" s="582"/>
-      <c r="C146" s="582"/>
+      <c r="B146" s="573"/>
+      <c r="C146" s="573"/>
       <c r="D146" s="77"/>
       <c r="E146" s="91" t="str">
         <f t="shared" si="0"/>
@@ -37210,8 +37210,8 @@
     </row>
     <row r="147" spans="1:7" ht="15.6" customHeight="1">
       <c r="A147" s="74"/>
-      <c r="B147" s="585"/>
-      <c r="C147" s="585"/>
+      <c r="B147" s="572"/>
+      <c r="C147" s="572"/>
       <c r="D147" s="75"/>
       <c r="E147" s="90" t="str">
         <f t="shared" si="0"/>
@@ -37230,11 +37230,11 @@
       <c r="A148" s="86" t="s">
         <v>433</v>
       </c>
-      <c r="B148" s="599">
+      <c r="B148" s="574">
         <f>SUM(B136:C147)</f>
         <v>73542.58</v>
       </c>
-      <c r="C148" s="600"/>
+      <c r="C148" s="575"/>
       <c r="D148" s="89">
         <f>SUM(D136:D147)</f>
         <v>0</v>
@@ -37254,8 +37254,8 @@
     <row r="149" spans="1:7" ht="17.399999999999999">
       <c r="A149" s="73"/>
       <c r="B149" s="73"/>
-      <c r="C149" s="601"/>
-      <c r="D149" s="601"/>
+      <c r="C149" s="576"/>
+      <c r="D149" s="576"/>
       <c r="E149" s="105">
         <f>IF('NEW POOL'!C191-PROPOSAL!E148=0,"",'NEW POOL'!C191-E148)</f>
         <v>71427.42</v>
@@ -37274,29 +37274,29 @@
       <c r="A151" s="81" t="s">
         <v>430</v>
       </c>
-      <c r="B151" s="602" t="s">
+      <c r="B151" s="577" t="s">
         <v>425</v>
       </c>
-      <c r="C151" s="602"/>
+      <c r="C151" s="577"/>
       <c r="D151" s="88" t="s">
         <v>426</v>
       </c>
       <c r="E151" s="85" t="s">
         <v>427</v>
       </c>
-      <c r="F151" s="598" t="s">
+      <c r="F151" s="568" t="s">
         <v>428</v>
       </c>
-      <c r="G151" s="593"/>
+      <c r="G151" s="569"/>
     </row>
     <row r="152" spans="1:7" ht="15.6" customHeight="1">
       <c r="A152" s="102" t="s">
         <v>431</v>
       </c>
-      <c r="B152" s="561">
-        <v>0</v>
-      </c>
-      <c r="C152" s="561"/>
+      <c r="B152" s="578">
+        <v>0</v>
+      </c>
+      <c r="C152" s="578"/>
       <c r="D152" s="103">
         <v>0</v>
       </c>
@@ -37304,17 +37304,17 @@
         <f>B152+D152</f>
         <v>0</v>
       </c>
-      <c r="F152" s="562"/>
-      <c r="G152" s="562"/>
+      <c r="F152" s="570"/>
+      <c r="G152" s="570"/>
     </row>
     <row r="153" spans="1:7" ht="15.6" customHeight="1">
       <c r="A153" s="82" t="s">
         <v>431</v>
       </c>
-      <c r="B153" s="574">
-        <v>0</v>
-      </c>
-      <c r="C153" s="574"/>
+      <c r="B153" s="579">
+        <v>0</v>
+      </c>
+      <c r="C153" s="579"/>
       <c r="D153" s="83">
         <v>0</v>
       </c>
@@ -37322,17 +37322,17 @@
         <f>B153+D153</f>
         <v>0</v>
       </c>
-      <c r="F153" s="575"/>
-      <c r="G153" s="575"/>
+      <c r="F153" s="571"/>
+      <c r="G153" s="571"/>
     </row>
     <row r="154" spans="1:7" ht="15.6" customHeight="1">
       <c r="A154" s="102" t="s">
         <v>431</v>
       </c>
-      <c r="B154" s="561">
-        <v>0</v>
-      </c>
-      <c r="C154" s="561"/>
+      <c r="B154" s="578">
+        <v>0</v>
+      </c>
+      <c r="C154" s="578"/>
       <c r="D154" s="103">
         <v>0</v>
       </c>
@@ -37340,17 +37340,17 @@
         <f>B154+D154</f>
         <v>0</v>
       </c>
-      <c r="F154" s="562"/>
-      <c r="G154" s="562"/>
+      <c r="F154" s="570"/>
+      <c r="G154" s="570"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="82" t="s">
         <v>431</v>
       </c>
-      <c r="B155" s="574">
-        <v>0</v>
-      </c>
-      <c r="C155" s="574"/>
+      <c r="B155" s="579">
+        <v>0</v>
+      </c>
+      <c r="C155" s="579"/>
       <c r="D155" s="83">
         <v>0</v>
       </c>
@@ -37358,17 +37358,17 @@
         <f>B155+D155</f>
         <v>0</v>
       </c>
-      <c r="F155" s="575"/>
-      <c r="G155" s="575"/>
+      <c r="F155" s="571"/>
+      <c r="G155" s="571"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="102" t="s">
         <v>431</v>
       </c>
-      <c r="B156" s="561">
-        <v>0</v>
-      </c>
-      <c r="C156" s="561"/>
+      <c r="B156" s="578">
+        <v>0</v>
+      </c>
+      <c r="C156" s="578"/>
       <c r="D156" s="103">
         <v>0</v>
       </c>
@@ -37376,11 +37376,235 @@
         <f>B156+D156</f>
         <v>0</v>
       </c>
-      <c r="F156" s="562"/>
-      <c r="G156" s="562"/>
+      <c r="F156" s="570"/>
+      <c r="G156" s="570"/>
     </row>
   </sheetData>
   <mergeCells count="248">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="A80:E80"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="F128:G129"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="A133:G134"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="B127:E129"/>
+    <mergeCell ref="F127:G127"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F54:G54"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="A54:E54"/>
     <mergeCell ref="A69:E69"/>
@@ -37405,230 +37629,6 @@
     <mergeCell ref="F72:G72"/>
     <mergeCell ref="F58:G58"/>
     <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:E98"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="B127:E129"/>
-    <mergeCell ref="F127:G127"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="A122:E122"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="A124:E124"/>
-    <mergeCell ref="A125:A126"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="B125:G125"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="A133:G134"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="F128:G129"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="A80:E80"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Amount is automatically calculated in this column under this heading" sqref="E135:F135 E151:F151" xr:uid="{1F283287-30C5-44A3-9210-51C267A14160}"/>
@@ -37656,7 +37656,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A270" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E309" sqref="E309"/>
     </sheetView>
   </sheetViews>
@@ -42528,6 +42528,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A47:D47"/>
     <mergeCell ref="A317:D317"/>
     <mergeCell ref="A332:D332"/>
     <mergeCell ref="A325:D325"/>
@@ -42541,16 +42551,6 @@
     <mergeCell ref="A297:D297"/>
     <mergeCell ref="A231:D231"/>
     <mergeCell ref="A235:C235"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A179:D179"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44547,9 +44547,9 @@
       <c r="A3" s="630" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="607"/>
-      <c r="C3" s="607"/>
-      <c r="D3" s="608"/>
+      <c r="B3" s="538"/>
+      <c r="C3" s="538"/>
+      <c r="D3" s="539"/>
       <c r="F3" s="121"/>
       <c r="G3" s="122"/>
       <c r="H3" s="123" t="s">
